--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -2180,7 +2180,7 @@
     <t>Follow-up status</t>
   </si>
   <si>
-    <t>Under follow-up: The follow-up process is running. Follow-up completed: The follow-up has been completed. Follow-up canceled: The follow-up process has been canceled, e.g. because the person died or the contact became irrelevant. Lost to follow-up: The follow-up process could not be continued because the person was not available. No follow-up: No contact follow-up is being done.</t>
+    <t>&lt;ul&gt;&lt;li&gt;Under follow-up: The follow-up process is running.&lt;/li&gt;&lt;li&gt;Follow-up completed: The follow-up has been completed.&lt;/li&gt;&lt;li&gt;Follow-up canceled: The follow-up process has been canceled, e.g. because the person died or the contact became irrelevant.&lt;/li&gt;&lt;li&gt;Lost to follow-up: The follow-up process could not be continued, e.g. because the person could not be found.&lt;/li&gt;&lt;li&gt;No follow-up: No contact follow-up is being done.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>EVD, Lassa, Cholera, Monkeypox, Plague, Other</t>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -3383,7 +3383,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.8.0-SNAPSHOT</t>
+    <t>1.9.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="1120">
   <si>
     <t>Field</t>
   </si>
@@ -2696,6 +2696,9 @@
     <t>Histopathology</t>
   </si>
   <si>
+    <t>ISOLATION</t>
+  </si>
+  <si>
     <t>IGM_SERUM_ANTIBODY</t>
   </si>
   <si>
@@ -2714,15 +2717,18 @@
     <t>Microscopy</t>
   </si>
   <si>
+    <t>NEUTRALIZING_ANTIBODIES</t>
+  </si>
+  <si>
+    <t>Neutralizing antibodies</t>
+  </si>
+  <si>
     <t>PCR_RT_PCR</t>
   </si>
   <si>
     <t>PCR / RT-PCR</t>
   </si>
   <si>
-    <t>VIRUS_ISOLATION</t>
-  </si>
-  <si>
     <t>WEST_NILE_FEVER_IGM</t>
   </si>
   <si>
@@ -3383,7 +3389,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.9.0-SNAPSHOT</t>
+    <t>1.10.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -4031,7 +4037,7 @@
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="SampleSampleTestType" displayName="SampleSampleTestType" ref="A48:E65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="SampleSampleTestType" displayName="SampleSampleTestType" ref="A48:E66">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4061,7 +4067,7 @@
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Sample_testSampleTestType" displayName="Sample_testSampleTestType" ref="A14:E31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Sample_testSampleTestType" displayName="Sample_testSampleTestType" ref="A14:E32">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4075,7 +4081,7 @@
 </file>
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Sample_testSampleTestResultType" displayName="Sample_testSampleTestResultType" ref="A33:E37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Sample_testSampleTestResultType" displayName="Sample_testSampleTestResultType" ref="A34:E38">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4355,7 +4361,7 @@
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="User" displayName="User" ref="A1:G14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="User" displayName="User" ref="A1:G15">
   <autoFilter/>
   <tableColumns count="7">
     <tableColumn id="1" name="Field"/>
@@ -5784,7 +5790,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5824,7 +5830,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>843</v>
@@ -5845,13 +5851,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>840</v>
       </c>
       <c r="C3" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -5866,13 +5872,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>17</v>
@@ -5885,16 +5891,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -5946,7 +5952,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>206</v>
@@ -5967,13 +5973,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C9" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>17</v>
@@ -5988,13 +5994,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>17</v>
@@ -6009,13 +6015,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>341</v>
       </c>
       <c r="C11" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>17</v>
@@ -6028,16 +6034,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>341</v>
       </c>
       <c r="C12" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="10" t="s">
@@ -6160,7 +6166,7 @@
         <v>888</v>
       </c>
       <c r="C21" t="s">
-        <v>889</v>
+        <v>332</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -6172,10 +6178,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
+        <v>889</v>
+      </c>
+      <c r="C22" t="s">
         <v>890</v>
-      </c>
-      <c r="C22" t="s">
-        <v>891</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -6187,10 +6193,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
+        <v>891</v>
+      </c>
+      <c r="C23" t="s">
         <v>892</v>
-      </c>
-      <c r="C23" t="s">
-        <v>893</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -6202,10 +6208,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
+        <v>893</v>
+      </c>
+      <c r="C24" t="s">
         <v>894</v>
-      </c>
-      <c r="C24" t="s">
-        <v>895</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -6217,10 +6223,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
+        <v>895</v>
+      </c>
+      <c r="C25" t="s">
         <v>896</v>
-      </c>
-      <c r="C25" t="s">
-        <v>332</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -6307,59 +6313,59 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
+        <v>907</v>
+      </c>
+      <c r="C31" t="s">
+        <v>908</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>135</v>
       </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>91</v>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>917</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>926</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>927</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35"/>
+      <c r="A35" t="s">
+        <v>919</v>
+      </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>928</v>
       </c>
       <c r="C35" t="s">
-        <v>297</v>
+        <v>929</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -6371,10 +6377,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>928</v>
+        <v>295</v>
       </c>
       <c r="C36" t="s">
-        <v>929</v>
+        <v>297</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -6395,6 +6401,21 @@
         <v>17</v>
       </c>
       <c r="E37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38" t="s">
+        <v>932</v>
+      </c>
+      <c r="C38" t="s">
+        <v>933</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6450,13 +6471,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C2" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>17</v>
@@ -6490,13 +6511,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>17</v>
@@ -6509,13 +6530,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C5" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>17</v>
@@ -6528,16 +6549,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C6" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -6549,13 +6570,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C7" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>17</v>
@@ -6568,13 +6589,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>17</v>
@@ -6589,13 +6610,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>17</v>
@@ -6608,13 +6629,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C10" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>17</v>
@@ -6627,13 +6648,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>17</v>
@@ -6646,13 +6667,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>17</v>
@@ -6665,13 +6686,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>17</v>
@@ -6684,13 +6705,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>17</v>
@@ -6703,13 +6724,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>17</v>
@@ -6724,13 +6745,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>17</v>
@@ -6743,7 +6764,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>25</v>
@@ -6762,7 +6783,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -6781,7 +6802,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>25</v>
@@ -6817,13 +6838,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B22" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C22" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -6835,10 +6856,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C23" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -6850,10 +6871,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C24" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -6865,10 +6886,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C25" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -6896,13 +6917,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B28" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C28" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -6914,10 +6935,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C29" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -6929,10 +6950,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C30" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -6944,10 +6965,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C31" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -6959,10 +6980,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C32" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -6974,10 +6995,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C33" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -6989,10 +7010,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C34" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -7004,10 +7025,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C35" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -7019,10 +7040,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C36" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -7034,10 +7055,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C37" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -7049,10 +7070,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C38" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -7064,10 +7085,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C39" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -7079,10 +7100,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C40" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -7094,10 +7115,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C41" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -7109,10 +7130,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C42" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -7124,10 +7145,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C43" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -7139,10 +7160,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C44" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -7157,7 +7178,7 @@
         <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -7169,10 +7190,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C46" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -7184,10 +7205,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C47" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -7199,10 +7220,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C48" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -7230,13 +7251,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B51" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C51" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -7248,10 +7269,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C52" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -7263,10 +7284,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C53" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -7294,13 +7315,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B56" t="s">
         <v>295</v>
       </c>
       <c r="C56" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -7315,7 +7336,7 @@
         <v>298</v>
       </c>
       <c r="C57" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -7327,10 +7348,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C58" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -7342,10 +7363,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C59" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -7408,13 +7429,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C2" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>17</v>
@@ -7429,16 +7450,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C3" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -7450,16 +7471,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -7471,16 +7492,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="12" t="s">
@@ -7532,13 +7553,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>17</v>
@@ -7551,16 +7572,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C9" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="12" t="s">
@@ -7570,16 +7591,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="12" t="s">
@@ -7589,16 +7610,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="12" t="s">
@@ -7608,16 +7629,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="12" t="s">
@@ -7627,16 +7648,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="12" t="s">
@@ -7703,13 +7724,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>17</v>
@@ -7796,13 +7817,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B23" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C23" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -7814,10 +7835,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C24" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -7845,19 +7866,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B27" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C27" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="28">
@@ -7866,7 +7887,7 @@
         <v>289</v>
       </c>
       <c r="C28" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -7878,16 +7899,16 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C29" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="31">
@@ -7909,13 +7930,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B32" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C32" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -7927,10 +7948,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C33" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -7957,10 +7978,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C35" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -7972,10 +7993,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C36" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -8252,13 +8273,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C2" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>17</v>
@@ -8276,10 +8297,10 @@
         <v>198</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C3" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -8294,13 +8315,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>17</v>
@@ -8380,13 +8401,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>17</v>
@@ -8481,7 +8502,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>17</v>
@@ -8500,7 +8521,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>17</v>
@@ -8513,10 +8534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -8532,7 +8553,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>341</v>
@@ -8568,13 +8589,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B13" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C13" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -8586,10 +8607,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C14" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -8601,10 +8622,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C15" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -8616,10 +8637,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C16" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -8679,13 +8700,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>17</v>
@@ -8698,13 +8719,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>17</v>
@@ -8717,13 +8738,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>17</v>
@@ -8736,13 +8757,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>17</v>
@@ -8803,13 +8824,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>17</v>
@@ -8822,13 +8843,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>17</v>
@@ -8841,13 +8862,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>17</v>
@@ -8860,13 +8881,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>17</v>
@@ -8946,13 +8967,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>17</v>
@@ -8992,7 +9013,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9032,13 +9053,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>341</v>
       </c>
       <c r="C2" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>17</v>
@@ -9051,13 +9072,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
@@ -9108,13 +9129,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>17</v>
@@ -9165,11 +9186,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>17</v>
@@ -9220,13 +9241,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>17</v>
@@ -9239,13 +9260,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1113</v>
+        <v>230</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>820</v>
+        <v>231</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>17</v>
@@ -9258,13 +9279,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>1115</v>
+        <v>820</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>17</v>
@@ -9274,6 +9295,25 @@
         <v>11</v>
       </c>
       <c r="G14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9293,12 +9333,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -15807,7 +15847,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16710,7 +16750,7 @@
         <v>888</v>
       </c>
       <c r="C55" t="s">
-        <v>889</v>
+        <v>332</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
@@ -16722,10 +16762,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
+        <v>889</v>
+      </c>
+      <c r="C56" t="s">
         <v>890</v>
-      </c>
-      <c r="C56" t="s">
-        <v>891</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -16737,10 +16777,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
+        <v>891</v>
+      </c>
+      <c r="C57" t="s">
         <v>892</v>
-      </c>
-      <c r="C57" t="s">
-        <v>893</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -16752,10 +16792,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
+        <v>893</v>
+      </c>
+      <c r="C58" t="s">
         <v>894</v>
-      </c>
-      <c r="C58" t="s">
-        <v>895</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -16767,10 +16807,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
+        <v>895</v>
+      </c>
+      <c r="C59" t="s">
         <v>896</v>
-      </c>
-      <c r="C59" t="s">
-        <v>332</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -16857,15 +16897,30 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
+        <v>907</v>
+      </c>
+      <c r="C65" t="s">
+        <v>908</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66" t="s">
         <v>133</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>135</v>
       </c>
-      <c r="D65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
         <v>17</v>
       </c>
     </row>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="1117">
   <si>
     <t>Field</t>
   </si>
@@ -341,7 +341,7 @@
     <t>DEAD</t>
   </si>
   <si>
-    <t xml:space="preserve">Dead </t>
+    <t>Dead</t>
   </si>
   <si>
     <t>BURIED</t>
@@ -491,7 +491,7 @@
     <t>RELIGIOUS_LEADER</t>
   </si>
   <si>
-    <t xml:space="preserve">Religious leader </t>
+    <t>Religious leader</t>
   </si>
   <si>
     <t>HOUSEWIFE</t>
@@ -1007,7 +1007,7 @@
     <t>admittedToHealthFacility</t>
   </si>
   <si>
-    <t>Was patient admitted at the health facility?</t>
+    <t>Was patient admitted at the health facility as an inpatient?</t>
   </si>
   <si>
     <t>admissionDate</t>
@@ -1451,7 +1451,7 @@
     <t>Pain behind eyes/Sensitivity to light</t>
   </si>
   <si>
-    <t>Pain behind eyes or eyes sensitive to light</t>
+    <t>ain behind eyes or eyes sensitive to light</t>
   </si>
   <si>
     <t>EVD, Lassa, New flu, CSM, Measles, Dengue, Monkeypox, Other</t>
@@ -1736,9 +1736,6 @@
     <t>patientIllLocation</t>
   </si>
   <si>
-    <t>Name of the village (and country) where the patient got ill</t>
-  </si>
-  <si>
     <t>AXILLARY</t>
   </si>
   <si>
@@ -1757,9 +1754,6 @@
     <t>rectal</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes </t>
-  </si>
-  <si>
     <t>burialAttended</t>
   </si>
   <si>
@@ -2102,9 +2096,6 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Dead</t>
-  </si>
-  <si>
     <t>PROCESSED</t>
   </si>
   <si>
@@ -3389,7 +3380,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.10.0-SNAPSHOT</t>
+    <t>1.11.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -5830,10 +5821,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -5851,13 +5842,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C3" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -5872,13 +5863,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>17</v>
@@ -5891,16 +5882,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -5912,13 +5903,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>17</v>
@@ -5933,13 +5924,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>17</v>
@@ -5952,7 +5943,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>206</v>
@@ -5973,13 +5964,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C9" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>17</v>
@@ -5994,13 +5985,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>17</v>
@@ -6015,13 +6006,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>341</v>
       </c>
       <c r="C11" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>17</v>
@@ -6034,16 +6025,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>341</v>
       </c>
       <c r="C12" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="10" t="s">
@@ -6070,13 +6061,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B15" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C15" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -6088,10 +6079,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C16" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -6103,10 +6094,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C17" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -6118,10 +6109,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C18" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -6133,10 +6124,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C19" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -6148,10 +6139,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C20" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -6163,7 +6154,7 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C21" t="s">
         <v>332</v>
@@ -6178,10 +6169,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C22" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -6193,10 +6184,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C23" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -6208,10 +6199,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C24" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -6223,10 +6214,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C25" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -6238,10 +6229,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C26" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -6253,10 +6244,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C27" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -6268,10 +6259,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C28" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -6283,10 +6274,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C29" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -6298,10 +6289,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C30" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -6313,10 +6304,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C31" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -6359,13 +6350,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B35" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C35" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -6392,10 +6383,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C37" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -6407,10 +6398,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C38" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -6471,13 +6462,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C2" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>17</v>
@@ -6492,13 +6483,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>17</v>
@@ -6511,13 +6502,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C4" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>17</v>
@@ -6530,13 +6521,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>17</v>
@@ -6549,16 +6540,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>940</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="C6" t="s">
+        <v>942</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>943</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>944</v>
-      </c>
-      <c r="C6" t="s">
-        <v>945</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>946</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -6570,13 +6561,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C7" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>17</v>
@@ -6589,13 +6580,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>17</v>
@@ -6610,13 +6601,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>17</v>
@@ -6629,13 +6620,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C10" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>17</v>
@@ -6648,13 +6639,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>17</v>
@@ -6667,13 +6658,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>17</v>
@@ -6686,13 +6677,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>17</v>
@@ -6705,13 +6696,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>17</v>
@@ -6724,13 +6715,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>17</v>
@@ -6745,13 +6736,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>17</v>
@@ -6764,7 +6755,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>25</v>
@@ -6783,7 +6774,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -6802,7 +6793,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>25</v>
@@ -6838,13 +6829,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B22" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C22" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -6856,10 +6847,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C23" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -6871,10 +6862,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C24" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -6886,10 +6877,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C25" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -6917,13 +6908,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B28" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C28" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -6935,10 +6926,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C29" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -6950,10 +6941,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C30" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -6965,10 +6956,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C31" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -6980,10 +6971,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C32" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -6995,10 +6986,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C33" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -7010,10 +7001,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C34" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -7025,10 +7016,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C35" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -7040,10 +7031,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C36" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -7055,10 +7046,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C37" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -7070,10 +7061,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C38" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -7085,10 +7076,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C39" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -7100,10 +7091,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C40" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -7115,10 +7106,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C41" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -7130,10 +7121,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C42" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -7145,10 +7136,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C43" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -7160,10 +7151,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C44" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -7178,7 +7169,7 @@
         <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -7190,10 +7181,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C46" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -7205,10 +7196,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C47" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -7220,10 +7211,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C48" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -7251,13 +7242,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B51" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C51" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -7269,10 +7260,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C52" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -7284,10 +7275,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C53" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -7315,13 +7306,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B56" t="s">
         <v>295</v>
       </c>
       <c r="C56" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -7336,7 +7327,7 @@
         <v>298</v>
       </c>
       <c r="C57" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -7348,10 +7339,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C58" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -7363,10 +7354,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C59" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -7429,13 +7420,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>17</v>
@@ -7450,16 +7441,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>1036</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>1039</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -7471,16 +7462,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -7492,16 +7483,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="12" t="s">
@@ -7511,7 +7502,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>39</v>
@@ -7553,13 +7544,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>17</v>
@@ -7572,16 +7563,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>1048</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>1051</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="12" t="s">
@@ -7591,16 +7582,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="12" t="s">
@@ -7610,16 +7601,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="12" t="s">
@@ -7629,16 +7620,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="12" t="s">
@@ -7648,16 +7639,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="12" t="s">
@@ -7724,13 +7715,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>17</v>
@@ -7817,13 +7808,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B23" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C23" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -7835,10 +7826,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C24" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -7866,19 +7857,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B27" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C27" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="28">
@@ -7887,7 +7878,7 @@
         <v>289</v>
       </c>
       <c r="C28" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -7899,16 +7890,16 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C29" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="31">
@@ -7930,13 +7921,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B32" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C32" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -7948,10 +7939,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C33" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -7978,10 +7969,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C35" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -7993,10 +7984,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C36" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -8273,13 +8264,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>17</v>
@@ -8297,10 +8288,10 @@
         <v>198</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C3" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -8315,13 +8306,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>17</v>
@@ -8334,10 +8325,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -8401,13 +8392,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>17</v>
@@ -8502,7 +8493,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>17</v>
@@ -8521,7 +8512,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>17</v>
@@ -8534,10 +8525,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -8553,7 +8544,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>341</v>
@@ -8589,13 +8580,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C13" t="s">
         <v>1093</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1096</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -8607,10 +8598,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C14" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -8622,10 +8613,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C15" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -8637,10 +8628,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C16" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -8700,13 +8691,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>17</v>
@@ -8719,13 +8710,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>17</v>
@@ -8738,13 +8729,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>17</v>
@@ -8757,13 +8748,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>17</v>
@@ -8824,13 +8815,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>17</v>
@@ -8843,13 +8834,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>17</v>
@@ -8862,13 +8853,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>17</v>
@@ -8881,13 +8872,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>17</v>
@@ -8967,13 +8958,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>17</v>
@@ -9053,13 +9044,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>341</v>
       </c>
       <c r="C2" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>17</v>
@@ -9072,13 +9063,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
@@ -9129,13 +9120,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>17</v>
@@ -9186,11 +9177,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>17</v>
@@ -9279,13 +9270,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>17</v>
@@ -9298,13 +9289,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>17</v>
@@ -9333,12 +9324,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
@@ -13141,7 +13132,7 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>568</v>
+        <v>17</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>17</v>
@@ -13174,10 +13165,10 @@
         <v>355</v>
       </c>
       <c r="B93" t="s">
+        <v>568</v>
+      </c>
+      <c r="C93" t="s">
         <v>569</v>
-      </c>
-      <c r="C93" t="s">
-        <v>570</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
@@ -13189,10 +13180,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
+        <v>570</v>
+      </c>
+      <c r="C94" t="s">
         <v>571</v>
-      </c>
-      <c r="C94" t="s">
-        <v>572</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
@@ -13204,10 +13195,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
+        <v>572</v>
+      </c>
+      <c r="C95" t="s">
         <v>573</v>
-      </c>
-      <c r="C95" t="s">
-        <v>574</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
@@ -13241,7 +13232,7 @@
         <v>312</v>
       </c>
       <c r="C98" t="s">
-        <v>575</v>
+        <v>313</v>
       </c>
       <c r="D98" t="s">
         <v>17</v>
@@ -13332,16 +13323,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="6" t="s">
@@ -13351,35 +13342,35 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E3"/>
       <c r="F3" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E4"/>
       <c r="F4" s="6" t="s">
@@ -13389,11 +13380,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -13406,11 +13397,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -13423,11 +13414,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -13440,89 +13431,89 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -13535,13 +13526,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C13" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -13554,13 +13545,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -13573,206 +13564,206 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C15" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C17" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E18"/>
       <c r="F18" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C21" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E21"/>
       <c r="F21" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C24" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E24"/>
       <c r="F24" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E25"/>
       <c r="F25" s="6" t="s">
@@ -13782,35 +13773,35 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C26" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E26"/>
       <c r="F26" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C27" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E27"/>
       <c r="F27" s="6" t="s">
@@ -13820,35 +13811,35 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C28" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E28"/>
       <c r="F28" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C29" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E29"/>
       <c r="F29" s="6" t="s">
@@ -13858,130 +13849,130 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C30" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E30"/>
       <c r="F30" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E31"/>
       <c r="F31" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>653</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C32" t="s">
         <v>655</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="C32" t="s">
-        <v>657</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>658</v>
       </c>
       <c r="E32"/>
       <c r="F32" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E33"/>
       <c r="F33" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C34" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E34"/>
       <c r="F34" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E35"/>
       <c r="F35" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C36" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E36"/>
       <c r="F36" s="6" t="s">
@@ -13991,16 +13982,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C37" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E37"/>
       <c r="F37" s="6" t="s">
@@ -14010,13 +14001,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>17</v>
@@ -14029,13 +14020,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>17</v>
@@ -14048,13 +14039,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>677</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C40" t="s">
         <v>679</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="C40" t="s">
-        <v>681</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>17</v>
@@ -14148,13 +14139,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B48" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C48" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -14166,10 +14157,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C49" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -14181,10 +14172,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C50" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -14196,10 +14187,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C51" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -14242,7 +14233,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B55" t="s">
         <v>100</v>
@@ -14263,7 +14254,7 @@
         <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>690</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -14275,10 +14266,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C57" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -14355,13 +14346,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -14460,7 +14451,7 @@
         <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>17</v>
@@ -14475,13 +14466,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C8" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>17</v>
@@ -14496,13 +14487,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>17</v>
@@ -14515,13 +14506,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>17</v>
@@ -14534,16 +14525,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>700</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="C11" t="s">
+        <v>702</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="C11" t="s">
-        <v>705</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>706</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="7" t="s">
@@ -14553,13 +14544,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C12" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>17</v>
@@ -14572,13 +14563,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C13" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>17</v>
@@ -14591,89 +14582,89 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>710</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="C14" t="s">
+        <v>712</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="C14" t="s">
-        <v>715</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="E14"/>
       <c r="F14" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>17</v>
@@ -14686,16 +14677,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C19" t="s">
+        <v>725</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="C19" t="s">
-        <v>728</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>729</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="7" t="s">
@@ -14705,13 +14696,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C20" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
@@ -14724,13 +14715,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>17</v>
@@ -14944,13 +14935,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B37" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C37" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -14962,10 +14953,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C38" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -14977,10 +14968,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C39" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -14992,10 +14983,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C40" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -15007,10 +14998,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C41" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -15038,19 +15029,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B44" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C44" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="45">
@@ -15059,7 +15050,7 @@
         <v>289</v>
       </c>
       <c r="C45" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -15071,16 +15062,16 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C46" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="48">
@@ -15102,13 +15093,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B49" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C49" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -15120,10 +15111,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C50" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -15135,10 +15126,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C51" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -15166,76 +15157,76 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B54" t="s">
+        <v>754</v>
+      </c>
+      <c r="C54" t="s">
+        <v>755</v>
+      </c>
+      <c r="D54" t="s">
+        <v>756</v>
+      </c>
+      <c r="E54" t="s">
         <v>757</v>
-      </c>
-      <c r="C54" t="s">
-        <v>758</v>
-      </c>
-      <c r="D54" t="s">
-        <v>759</v>
-      </c>
-      <c r="E54" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
+        <v>758</v>
+      </c>
+      <c r="C55" t="s">
+        <v>759</v>
+      </c>
+      <c r="D55" t="s">
+        <v>760</v>
+      </c>
+      <c r="E55" t="s">
         <v>761</v>
-      </c>
-      <c r="C55" t="s">
-        <v>762</v>
-      </c>
-      <c r="D55" t="s">
-        <v>763</v>
-      </c>
-      <c r="E55" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
+        <v>762</v>
+      </c>
+      <c r="C56" t="s">
+        <v>763</v>
+      </c>
+      <c r="D56" t="s">
+        <v>764</v>
+      </c>
+      <c r="E56" t="s">
         <v>765</v>
-      </c>
-      <c r="C56" t="s">
-        <v>766</v>
-      </c>
-      <c r="D56" t="s">
-        <v>767</v>
-      </c>
-      <c r="E56" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
+        <v>766</v>
+      </c>
+      <c r="C57" t="s">
+        <v>767</v>
+      </c>
+      <c r="D57" t="s">
+        <v>768</v>
+      </c>
+      <c r="E57" t="s">
         <v>769</v>
-      </c>
-      <c r="C57" t="s">
-        <v>770</v>
-      </c>
-      <c r="D57" t="s">
-        <v>771</v>
-      </c>
-      <c r="E57" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C58" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D58" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E58" t="s">
         <v>17</v>
@@ -15260,13 +15251,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B61" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C61" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -15278,10 +15269,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C62" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -15293,10 +15284,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C63" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -15308,10 +15299,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C64" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -15397,7 +15388,7 @@
         <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>17</v>
@@ -15431,16 +15422,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -15452,13 +15443,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>17</v>
@@ -15473,16 +15464,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="C6" t="s">
+        <v>789</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>790</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="C6" t="s">
-        <v>792</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>793</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -15494,16 +15485,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="8" t="s">
@@ -15790,13 +15781,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B27" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C27" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -15808,31 +15799,31 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C28" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C29" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -15887,13 +15878,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>17</v>
@@ -15908,13 +15899,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>17</v>
@@ -15927,13 +15918,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>17</v>
@@ -15946,16 +15937,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -15967,7 +15958,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>39</v>
@@ -16066,13 +16057,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C11" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>17</v>
@@ -16087,13 +16078,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
@@ -16106,13 +16097,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>17</v>
@@ -16127,13 +16118,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>17</v>
@@ -16146,13 +16137,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>17</v>
@@ -16165,13 +16156,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>17</v>
@@ -16184,13 +16175,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>17</v>
@@ -16203,13 +16194,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C18" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>17</v>
@@ -16222,13 +16213,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>17</v>
@@ -16241,13 +16232,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>17</v>
@@ -16260,13 +16251,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C21" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>17</v>
@@ -16279,13 +16270,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C22" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>17</v>
@@ -16298,10 +16289,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -16317,13 +16308,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>341</v>
       </c>
       <c r="C24" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>17</v>
@@ -16336,13 +16327,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>341</v>
       </c>
       <c r="C25" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>17</v>
@@ -16372,13 +16363,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B28" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C28" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -16390,10 +16381,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C29" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -16405,10 +16396,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -16420,10 +16411,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C31" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -16435,10 +16426,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C32" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -16450,10 +16441,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C33" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -16465,10 +16456,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C34" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -16480,10 +16471,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C35" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -16495,10 +16486,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C36" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -16541,13 +16532,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B40" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C40" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -16559,10 +16550,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C41" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -16590,13 +16581,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B44" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C44" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -16608,10 +16599,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C45" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -16623,10 +16614,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C46" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -16654,13 +16645,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B49" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C49" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -16672,10 +16663,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C50" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -16687,10 +16678,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C51" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -16702,10 +16693,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C52" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -16717,10 +16708,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C53" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -16732,10 +16723,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C54" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -16747,7 +16738,7 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C55" t="s">
         <v>332</v>
@@ -16762,10 +16753,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C56" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -16777,10 +16768,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C57" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -16792,10 +16783,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C58" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -16807,10 +16798,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C59" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -16822,10 +16813,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C60" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
@@ -16837,10 +16828,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C61" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -16852,10 +16843,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C62" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -16867,10 +16858,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C63" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -16882,10 +16873,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C64" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -16897,10 +16888,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C65" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -2915,7 +2915,7 @@
     <t>creatorComment</t>
   </si>
   <si>
-    <t>Supervisor comment</t>
+    <t>Comments on task</t>
   </si>
   <si>
     <t>assigneeUser</t>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="1119">
   <si>
     <t>Field</t>
   </si>
@@ -839,6 +839,12 @@
     <t>Epidemiological data</t>
   </si>
   <si>
+    <t>therapy</t>
+  </si>
+  <si>
+    <t>Therapy</t>
+  </si>
+  <si>
     <t>BUBONIC</t>
   </si>
   <si>
@@ -3380,7 +3386,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.11.0-SNAPSHOT</t>
+    <t>1.12.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -3510,7 +3516,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Case" displayName="Case" ref="A1:G38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Case" displayName="Case" ref="A1:G39">
   <autoFilter/>
   <tableColumns count="7">
     <tableColumn id="1" name="Field"/>
@@ -3526,7 +3532,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="CaseDisease" displayName="CaseDisease" ref="A40:E51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="CaseDisease" displayName="CaseDisease" ref="A41:E52">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -3540,7 +3546,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="CasePlagueType" displayName="CasePlagueType" ref="A53:E56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="CasePlagueType" displayName="CasePlagueType" ref="A54:E57">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -3554,7 +3560,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="CaseDengueFeverType" displayName="CaseDengueFeverType" ref="A58:E61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="CaseDengueFeverType" displayName="CaseDengueFeverType" ref="A59:E62">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -3568,7 +3574,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="CaseCaseClassification" displayName="CaseCaseClassification" ref="A63:E68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="CaseCaseClassification" displayName="CaseCaseClassification" ref="A64:E69">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -3582,7 +3588,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="CaseInvestigationStatus" displayName="CaseInvestigationStatus" ref="A70:E73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="CaseInvestigationStatus" displayName="CaseInvestigationStatus" ref="A71:E74">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -3596,7 +3602,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="CaseCaseOutcome" displayName="CaseCaseOutcome" ref="A75:E79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="CaseCaseOutcome" displayName="CaseCaseOutcome" ref="A76:E80">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -3610,7 +3616,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="CaseYesNoUnknown" displayName="CaseYesNoUnknown" ref="A81:E84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="CaseYesNoUnknown" displayName="CaseYesNoUnknown" ref="A82:E85">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -3624,7 +3630,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="CaseVaccination" displayName="CaseVaccination" ref="A86:E89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="CaseVaccination" displayName="CaseVaccination" ref="A87:E90">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -3652,7 +3658,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="CaseVaccinationInfoSource" displayName="CaseVaccinationInfoSource" ref="A91:E93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="CaseVaccinationInfoSource" displayName="CaseVaccinationInfoSource" ref="A92:E94">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -5821,10 +5827,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -5842,13 +5848,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C3" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -5863,13 +5869,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>17</v>
@@ -5882,16 +5888,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -5903,13 +5909,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>17</v>
@@ -5924,13 +5930,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>17</v>
@@ -5943,7 +5949,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>206</v>
@@ -5964,13 +5970,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C9" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>17</v>
@@ -5985,13 +5991,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>17</v>
@@ -6006,13 +6012,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C11" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>17</v>
@@ -6025,16 +6031,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="10" t="s">
@@ -6061,13 +6067,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B15" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C15" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -6079,10 +6085,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C16" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -6094,10 +6100,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C17" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -6109,10 +6115,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C18" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -6124,10 +6130,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C19" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -6139,10 +6145,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C20" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -6154,10 +6160,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -6169,10 +6175,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C22" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -6184,10 +6190,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C23" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -6199,10 +6205,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C24" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -6214,10 +6220,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C25" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -6229,10 +6235,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C26" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -6244,10 +6250,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C27" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -6259,10 +6265,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C28" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -6274,10 +6280,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C29" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -6289,10 +6295,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C30" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -6304,10 +6310,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C31" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -6350,13 +6356,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B35" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C35" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -6368,10 +6374,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C36" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -6383,10 +6389,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C37" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -6398,10 +6404,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C38" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -6462,13 +6468,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>17</v>
@@ -6483,13 +6489,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>17</v>
@@ -6502,13 +6508,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C4" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>17</v>
@@ -6521,13 +6527,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C5" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>17</v>
@@ -6540,16 +6546,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C6" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -6561,13 +6567,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C7" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>17</v>
@@ -6580,13 +6586,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>17</v>
@@ -6601,13 +6607,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>17</v>
@@ -6620,13 +6626,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C10" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>17</v>
@@ -6639,13 +6645,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>17</v>
@@ -6658,13 +6664,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>17</v>
@@ -6677,13 +6683,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>17</v>
@@ -6696,13 +6702,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>17</v>
@@ -6715,13 +6721,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>17</v>
@@ -6736,13 +6742,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>17</v>
@@ -6755,7 +6761,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>25</v>
@@ -6774,7 +6780,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -6793,7 +6799,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>25</v>
@@ -6829,13 +6835,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B22" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C22" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -6847,10 +6853,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C23" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -6862,10 +6868,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C24" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -6877,10 +6883,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C25" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -6908,13 +6914,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B28" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C28" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -6926,10 +6932,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C29" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -6941,10 +6947,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C30" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -6956,10 +6962,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C31" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -6971,10 +6977,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C32" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -6986,10 +6992,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C33" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -7001,10 +7007,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C34" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -7016,10 +7022,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C35" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -7031,10 +7037,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C36" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -7046,10 +7052,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C37" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -7061,10 +7067,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C38" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -7076,10 +7082,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C39" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -7091,10 +7097,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C40" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -7106,10 +7112,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C41" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -7121,10 +7127,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C42" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -7136,10 +7142,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C43" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -7151,10 +7157,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C44" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -7169,7 +7175,7 @@
         <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -7181,10 +7187,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C46" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -7196,10 +7202,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C47" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -7211,10 +7217,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C48" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -7242,13 +7248,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B51" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C51" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -7260,10 +7266,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C52" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -7275,10 +7281,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C53" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -7306,13 +7312,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B56" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C56" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -7324,10 +7330,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C57" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -7339,10 +7345,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C58" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -7354,10 +7360,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C59" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -7420,13 +7426,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C2" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>17</v>
@@ -7441,16 +7447,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C3" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -7462,16 +7468,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -7483,16 +7489,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="12" t="s">
@@ -7502,7 +7508,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>39</v>
@@ -7544,13 +7550,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>17</v>
@@ -7563,16 +7569,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C9" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="12" t="s">
@@ -7582,16 +7588,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="12" t="s">
@@ -7601,16 +7607,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="12" t="s">
@@ -7620,16 +7626,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="12" t="s">
@@ -7639,16 +7645,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="12" t="s">
@@ -7715,13 +7721,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>17</v>
@@ -7808,13 +7814,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B23" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C23" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -7826,10 +7832,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C24" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -7857,49 +7863,49 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B27" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C27" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C28" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C29" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="31">
@@ -7921,13 +7927,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B32" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C32" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -7939,10 +7945,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C33" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -7969,10 +7975,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C35" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -7984,10 +7990,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C36" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -7999,10 +8005,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C37" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -8264,13 +8270,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>17</v>
@@ -8288,10 +8294,10 @@
         <v>198</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C3" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -8306,13 +8312,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>17</v>
@@ -8325,10 +8331,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -8392,13 +8398,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>17</v>
@@ -8493,7 +8499,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>17</v>
@@ -8512,7 +8518,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>17</v>
@@ -8525,10 +8531,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -8544,10 +8550,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -8580,13 +8586,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B13" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C13" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -8598,10 +8604,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C14" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -8613,10 +8619,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C15" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -8628,10 +8634,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C16" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -8691,13 +8697,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>17</v>
@@ -8710,13 +8716,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>17</v>
@@ -8729,13 +8735,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>17</v>
@@ -8748,13 +8754,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>17</v>
@@ -8815,13 +8821,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>17</v>
@@ -8834,13 +8840,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>17</v>
@@ -8853,13 +8859,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>17</v>
@@ -8872,13 +8878,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>17</v>
@@ -8958,13 +8964,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>17</v>
@@ -9044,13 +9050,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>17</v>
@@ -9063,13 +9069,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
@@ -9120,13 +9126,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>17</v>
@@ -9177,11 +9183,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>17</v>
@@ -9270,13 +9276,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>17</v>
@@ -9289,13 +9295,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>17</v>
@@ -9324,12 +9330,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -9558,7 +9564,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10367,107 +10373,111 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>91</v>
-      </c>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>110</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>111</v>
       </c>
-      <c r="D41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>113</v>
-      </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -10479,10 +10489,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -10494,99 +10504,99 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52"/>
+      <c r="B52" t="s">
         <v>133</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>134</v>
       </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
         <v>193</v>
       </c>
-      <c r="B54" t="s">
-        <v>269</v>
-      </c>
-      <c r="C54" t="s">
-        <v>270</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55"/>
       <c r="B55" t="s">
         <v>271</v>
       </c>
@@ -10615,47 +10625,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
-        <v>91</v>
+    <row r="57">
+      <c r="A57"/>
+      <c r="B57" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
         <v>196</v>
       </c>
-      <c r="B59" t="s">
-        <v>275</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" t="s">
         <v>115</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60"/>
-      <c r="B60" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" t="s">
-        <v>277</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
@@ -10679,200 +10689,200 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" t="s">
-        <v>91</v>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62" t="s">
+        <v>280</v>
+      </c>
+      <c r="C62" t="s">
+        <v>281</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
         <v>212</v>
       </c>
-      <c r="B64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C64" t="s">
-        <v>281</v>
-      </c>
-      <c r="D64" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="B65" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65"/>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>283</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
         <v>284</v>
-      </c>
-      <c r="D65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" t="s">
         <v>286</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
         <v>287</v>
-      </c>
-      <c r="D66" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" t="s">
         <v>289</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
         <v>290</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
+        <v>291</v>
+      </c>
+      <c r="C68" t="s">
         <v>292</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
         <v>293</v>
       </c>
-      <c r="D68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" t="s">
+    </row>
+    <row r="69">
+      <c r="A69"/>
+      <c r="B69" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" t="s">
-        <v>91</v>
+      <c r="C69" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
         <v>221</v>
       </c>
-      <c r="B71" t="s">
-        <v>295</v>
-      </c>
-      <c r="C71" t="s">
-        <v>296</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="B72" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72"/>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>298</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
         <v>299</v>
-      </c>
-      <c r="D72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" t="s">
         <v>301</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
         <v>302</v>
       </c>
-      <c r="D73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" t="s">
+    </row>
+    <row r="74">
+      <c r="A74"/>
+      <c r="B74" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" t="s">
-        <v>91</v>
+      <c r="C74" t="s">
+        <v>304</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
         <v>226</v>
       </c>
-      <c r="B76" t="s">
-        <v>304</v>
-      </c>
-      <c r="C76" t="s">
-        <v>305</v>
-      </c>
-      <c r="D76" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77"/>
       <c r="B77" t="s">
         <v>306</v>
       </c>
@@ -10916,42 +10926,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" t="s">
-        <v>91</v>
+    <row r="80">
+      <c r="A80"/>
+      <c r="B80" t="s">
+        <v>312</v>
+      </c>
+      <c r="C80" t="s">
+        <v>313</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
         <v>235</v>
       </c>
-      <c r="B82" t="s">
-        <v>312</v>
-      </c>
-      <c r="C82" t="s">
-        <v>313</v>
-      </c>
-      <c r="D82" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83"/>
       <c r="B83" t="s">
         <v>314</v>
       </c>
@@ -10968,10 +10978,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C84" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
@@ -10980,42 +10990,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" t="s">
-        <v>91</v>
+    <row r="85">
+      <c r="A85"/>
+      <c r="B85" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" t="s">
+        <v>313</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
         <v>239</v>
       </c>
-      <c r="B87" t="s">
-        <v>316</v>
-      </c>
-      <c r="C87" t="s">
-        <v>317</v>
-      </c>
-      <c r="D87" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88"/>
       <c r="B88" t="s">
         <v>318</v>
       </c>
@@ -11032,10 +11042,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C89" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D89" t="s">
         <v>17</v>
@@ -11044,42 +11054,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" t="s">
-        <v>91</v>
+    <row r="90">
+      <c r="A90"/>
+      <c r="B90" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" t="s">
+        <v>313</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
         <v>249</v>
       </c>
-      <c r="B92" t="s">
-        <v>320</v>
-      </c>
-      <c r="C92" t="s">
-        <v>321</v>
-      </c>
-      <c r="D92" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93"/>
       <c r="B93" t="s">
         <v>322</v>
       </c>
@@ -11090,6 +11100,21 @@
         <v>17</v>
       </c>
       <c r="E93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94"/>
+      <c r="B94" t="s">
+        <v>324</v>
+      </c>
+      <c r="C94" t="s">
+        <v>325</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11152,13 +11177,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>17</v>
@@ -11173,16 +11198,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E3"/>
       <c r="F3" s="4" t="s">
@@ -11192,13 +11217,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -11211,16 +11236,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="4" t="s">
@@ -11230,13 +11255,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>17</v>
@@ -11249,13 +11274,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
@@ -11268,11 +11293,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>17</v>
@@ -11305,10 +11330,10 @@
         <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -11320,10 +11345,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -11335,10 +11360,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -11398,16 +11423,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="5" t="s">
@@ -11417,16 +11442,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E3"/>
       <c r="F3" s="5" t="s">
@@ -11438,16 +11463,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E4"/>
       <c r="F4" s="5" t="s">
@@ -11457,20 +11482,20 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -11478,20 +11503,20 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E6"/>
       <c r="F6" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -11499,20 +11524,20 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -11520,20 +11545,20 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -11541,20 +11566,20 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -11562,77 +11587,77 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -11640,20 +11665,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E14"/>
       <c r="F14" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -11661,39 +11686,39 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -11701,20 +11726,20 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -11722,20 +11747,20 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E18"/>
       <c r="F18" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -11743,191 +11768,191 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C20" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E21"/>
       <c r="F21" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C22" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C23" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C24" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E24"/>
       <c r="F24" s="5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C25" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E25"/>
       <c r="F25" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C26" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E26"/>
       <c r="F26" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C27" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E27"/>
       <c r="F27" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C28" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E28"/>
       <c r="F28" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -11935,115 +11960,115 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E29"/>
       <c r="F29" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C30" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E30"/>
       <c r="F30" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C31" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E31"/>
       <c r="F31" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C32" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E32"/>
       <c r="F32" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E33"/>
       <c r="F33" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C34" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E34"/>
       <c r="F34" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -12051,20 +12076,20 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C35" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E35"/>
       <c r="F35" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -12072,20 +12097,20 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C36" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E36"/>
       <c r="F36" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -12093,39 +12118,39 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C37" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E37"/>
       <c r="F37" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C38" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E38"/>
       <c r="F38" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -12133,58 +12158,58 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C39" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E39"/>
       <c r="F39" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C40" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E40"/>
       <c r="F40" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E41"/>
       <c r="F41" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -12192,20 +12217,20 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C42" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E42"/>
       <c r="F42" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -12213,20 +12238,20 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C43" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E43"/>
       <c r="F43" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -12234,20 +12259,20 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C44" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E44"/>
       <c r="F44" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -12255,39 +12280,39 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E45"/>
       <c r="F45" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C46" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E46"/>
       <c r="F46" s="5" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -12295,115 +12320,115 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C47" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E47"/>
       <c r="F47" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C48" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E48"/>
       <c r="F48" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C49" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E49"/>
       <c r="F49" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C50" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E50"/>
       <c r="F50" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C51" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E51"/>
       <c r="F51" s="5" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C52" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E52"/>
       <c r="F52" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -12411,39 +12436,39 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C53" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E53"/>
       <c r="F53" s="5" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C54" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E54"/>
       <c r="F54" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -12451,20 +12476,20 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C55" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E55"/>
       <c r="F55" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -12472,16 +12497,16 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C56" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E56"/>
       <c r="F56" s="5" t="s">
@@ -12491,336 +12516,336 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C57" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C58" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C59" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C60" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E60"/>
       <c r="F60" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C61" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C62" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C63" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E63"/>
       <c r="F63" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C64" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C65" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C66" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C67" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C68" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C69" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E69"/>
       <c r="F69" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C70" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E70"/>
       <c r="F70" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C71" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E71"/>
       <c r="F71" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C72" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C73" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E73"/>
       <c r="F73" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C74" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>17</v>
@@ -12833,13 +12858,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C75" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>17</v>
@@ -12852,13 +12877,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>542</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C76" t="s">
         <v>540</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C76" t="s">
-        <v>538</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>17</v>
@@ -12871,13 +12896,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C77" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>17</v>
@@ -12890,13 +12915,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C78" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>17</v>
@@ -12909,77 +12934,77 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C79" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E79"/>
       <c r="F79" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C80" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E80"/>
       <c r="F80" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C81" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E81"/>
       <c r="F81" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C82" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E82"/>
       <c r="F82" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -12987,20 +13012,20 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C83" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E83"/>
       <c r="F83" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -13008,77 +13033,77 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C84" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E84"/>
       <c r="F84" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C85" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E85"/>
       <c r="F85" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C86" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E86"/>
       <c r="F86" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C87" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E87"/>
       <c r="F87" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -13086,20 +13111,20 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E88"/>
       <c r="F88" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -13107,26 +13132,26 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E89"/>
       <c r="F89" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>8</v>
@@ -13139,7 +13164,7 @@
       </c>
       <c r="E90"/>
       <c r="F90" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G90"/>
     </row>
@@ -13162,13 +13187,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B93" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C93" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
@@ -13180,10 +13205,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C94" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
@@ -13195,10 +13220,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C95" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
@@ -13226,13 +13251,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C98" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D98" t="s">
         <v>17</v>
@@ -13244,10 +13269,10 @@
     <row r="99">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C99" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
@@ -13259,10 +13284,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C100" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D100" t="s">
         <v>17</v>
@@ -13323,68 +13348,68 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E3"/>
       <c r="F3" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E4"/>
       <c r="F4" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -13397,11 +13422,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -13414,11 +13439,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -13431,89 +13456,89 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C8" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="6" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C11" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="6" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -13526,13 +13551,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C13" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -13545,13 +13570,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C14" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -13564,495 +13589,495 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C15" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C16" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C17" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E18"/>
       <c r="F18" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C21" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E21"/>
       <c r="F21" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C22" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C24" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E24"/>
       <c r="F24" s="6" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C25" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E25"/>
       <c r="F25" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C26" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E26"/>
       <c r="F26" s="6" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C27" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E27"/>
       <c r="F27" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C28" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E28"/>
       <c r="F28" s="6" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E29"/>
       <c r="F29" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C30" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E30"/>
       <c r="F30" s="6" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E31"/>
       <c r="F31" s="6" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C32" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E32"/>
       <c r="F32" s="6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E33"/>
       <c r="F33" s="6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C34" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E34"/>
       <c r="F34" s="6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E35"/>
       <c r="F35" s="6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C36" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E36"/>
       <c r="F36" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C37" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E37"/>
       <c r="F37" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E38"/>
       <c r="F38" s="6" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E39"/>
       <c r="F39" s="6" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C40" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E40"/>
       <c r="F40" s="6" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G40"/>
     </row>
@@ -14078,10 +14103,10 @@
         <v>235</v>
       </c>
       <c r="B43" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C43" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -14093,10 +14118,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C44" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -14108,10 +14133,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C45" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -14139,13 +14164,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B48" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C48" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -14157,10 +14182,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C49" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -14172,10 +14197,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C50" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -14187,10 +14212,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C51" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -14233,7 +14258,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B55" t="s">
         <v>100</v>
@@ -14266,10 +14291,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C57" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -14281,10 +14306,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C58" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -14346,13 +14371,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -14451,7 +14476,7 @@
         <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>17</v>
@@ -14466,13 +14491,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>17</v>
@@ -14487,13 +14512,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>17</v>
@@ -14506,13 +14531,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>17</v>
@@ -14525,16 +14550,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="7" t="s">
@@ -14544,13 +14569,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C12" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>17</v>
@@ -14563,13 +14588,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C13" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>17</v>
@@ -14582,89 +14607,89 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C14" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E14"/>
       <c r="F14" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>17</v>
@@ -14677,16 +14702,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C19" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="7" t="s">
@@ -14696,13 +14721,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C20" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
@@ -14715,13 +14740,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>17</v>
@@ -14935,13 +14960,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B37" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C37" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -14953,10 +14978,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C38" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -14968,10 +14993,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C39" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -14983,10 +15008,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C40" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -14998,10 +15023,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C41" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -15029,49 +15054,49 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B44" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C44" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C45" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C46" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="48">
@@ -15093,13 +15118,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B49" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C49" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -15111,10 +15136,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C50" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -15126,10 +15151,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C51" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -15157,76 +15182,76 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B54" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C54" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D54" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E54" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C55" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D55" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E55" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C56" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D56" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E56" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C57" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D57" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E57" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C58" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D58" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E58" t="s">
         <v>17</v>
@@ -15251,13 +15276,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B61" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C61" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -15269,10 +15294,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C62" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -15284,10 +15309,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C63" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -15299,10 +15324,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C64" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -15388,7 +15413,7 @@
         <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>17</v>
@@ -15422,16 +15447,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -15443,13 +15468,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>17</v>
@@ -15464,16 +15489,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C6" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -15485,16 +15510,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="8" t="s">
@@ -15781,13 +15806,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B27" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C27" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -15799,31 +15824,31 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C28" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C29" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -15878,13 +15903,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>17</v>
@@ -15899,13 +15924,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>17</v>
@@ -15918,13 +15943,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>17</v>
@@ -15937,16 +15962,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -15958,7 +15983,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>39</v>
@@ -16057,13 +16082,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C11" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>17</v>
@@ -16078,13 +16103,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
@@ -16097,13 +16122,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>17</v>
@@ -16118,13 +16143,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>17</v>
@@ -16137,13 +16162,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>17</v>
@@ -16156,13 +16181,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>17</v>
@@ -16175,13 +16200,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>17</v>
@@ -16194,13 +16219,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C18" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>17</v>
@@ -16213,13 +16238,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>17</v>
@@ -16232,13 +16257,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>17</v>
@@ -16251,13 +16276,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C21" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>17</v>
@@ -16270,13 +16295,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C22" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>17</v>
@@ -16289,10 +16314,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -16308,13 +16333,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C24" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>17</v>
@@ -16327,13 +16352,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C25" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>17</v>
@@ -16363,13 +16388,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B28" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C28" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -16381,10 +16406,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C29" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -16396,10 +16421,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C30" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -16411,10 +16436,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C31" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -16426,10 +16451,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C32" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -16441,10 +16466,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C33" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -16456,10 +16481,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C34" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -16471,10 +16496,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C35" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -16486,10 +16511,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C36" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -16532,13 +16557,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B40" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C40" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -16550,10 +16575,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C41" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -16581,13 +16606,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B44" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C44" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -16599,10 +16624,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C45" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -16614,10 +16639,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C46" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -16645,13 +16670,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B49" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C49" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -16663,10 +16688,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C50" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -16678,10 +16703,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C51" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -16693,10 +16718,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C52" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -16708,10 +16733,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C53" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -16723,10 +16748,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C54" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -16738,10 +16763,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C55" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
@@ -16753,10 +16778,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C56" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -16768,10 +16793,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C57" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -16783,10 +16808,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C58" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -16798,10 +16823,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C59" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -16813,10 +16838,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C60" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
@@ -16828,10 +16853,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C61" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -16843,10 +16868,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C62" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -16858,10 +16883,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C63" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -16873,10 +16898,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C64" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -16888,10 +16913,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C65" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1208">
   <si>
     <t>Field</t>
   </si>
@@ -1232,7 +1232,7 @@
     <t>midUpperArmCircumference</t>
   </si>
   <si>
-    <t>Mid-upper arm circumference (cm)</t>
+    <t>Mid-upper arm circumf. (cm)</t>
   </si>
   <si>
     <t>respiratoryRate</t>
@@ -2009,6 +2009,12 @@
     <t>rectal</t>
   </si>
   <si>
+    <t>NON_CONTACT</t>
+  </si>
+  <si>
+    <t>Non-contact (infrared)</t>
+  </si>
+  <si>
     <t>burialAttended</t>
   </si>
   <si>
@@ -2711,7 +2717,7 @@
     <t>sampleDateTime</t>
   </si>
   <si>
-    <t>Date of sampling</t>
+    <t>Date sample was collected</t>
   </si>
   <si>
     <t>When the sample was taken (enter a date)?</t>
@@ -2810,6 +2816,15 @@
     <t>Received</t>
   </si>
   <si>
+    <t>pathogenTestResult</t>
+  </si>
+  <si>
+    <t>PathogenTestResultType</t>
+  </si>
+  <si>
+    <t>Pathogen test result</t>
+  </si>
+  <si>
     <t>pathogenTestingRequested</t>
   </si>
   <si>
@@ -2831,6 +2846,18 @@
     <t>requestedAdditionalTests</t>
   </si>
   <si>
+    <t>requestedOtherPathogenTests</t>
+  </si>
+  <si>
+    <t>Other requested pathogen tests</t>
+  </si>
+  <si>
+    <t>requestedOtherAdditionalTests</t>
+  </si>
+  <si>
+    <t>Other requested additional tests</t>
+  </si>
+  <si>
     <t>BLOOD</t>
   </si>
   <si>
@@ -2921,6 +2948,24 @@
     <t>Environment</t>
   </si>
   <si>
+    <t>INDETERMINATE</t>
+  </si>
+  <si>
+    <t>Indeterminate</t>
+  </si>
+  <si>
+    <t>NEGATIVE</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>POSITIVE</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
     <t>sample</t>
   </si>
   <si>
@@ -2951,9 +2996,6 @@
     <t>testResult</t>
   </si>
   <si>
-    <t>PathogenTestResultType</t>
-  </si>
-  <si>
     <t>Test result</t>
   </si>
   <si>
@@ -2966,7 +3008,7 @@
     <t>testResultVerified</t>
   </si>
   <si>
-    <t>Result verified by supervisor</t>
+    <t>Result verified by lab supervisor</t>
   </si>
   <si>
     <t>fourFoldIncreaseAntibodyTiter</t>
@@ -3074,24 +3116,6 @@
     <t>Yersinia pestis antigen test</t>
   </si>
   <si>
-    <t>INDETERMINATE</t>
-  </si>
-  <si>
-    <t>Indeterminate</t>
-  </si>
-  <si>
-    <t>NEGATIVE</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>POSITIVE</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
     <t>taskContext</t>
   </si>
   <si>
@@ -3629,7 +3653,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.14.0-SNAPSHOT</t>
+    <t>1.15.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -3989,7 +4013,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="SymptomsTemperatureSource" displayName="SymptomsTemperatureSource" ref="A116:E119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="SymptomsTemperatureSource" displayName="SymptomsTemperatureSource" ref="A116:E120">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4003,7 +4027,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="SymptomsSymptomState" displayName="SymptomsSymptomState" ref="A121:E124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="SymptomsSymptomState" displayName="SymptomsSymptomState" ref="A122:E125">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4247,7 +4271,7 @@
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Sample" displayName="Sample" ref="A1:G28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Sample" displayName="Sample" ref="A1:G31">
   <autoFilter/>
   <tableColumns count="7">
     <tableColumn id="1" name="Field"/>
@@ -4263,7 +4287,7 @@
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="SampleSampleMaterial" displayName="SampleSampleMaterial" ref="A30:E41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="SampleSampleMaterial" displayName="SampleSampleMaterial" ref="A33:E44">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4277,7 +4301,7 @@
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="SampleSpecimenCondition" displayName="SampleSpecimenCondition" ref="A43:E45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="SampleSpecimenCondition" displayName="SampleSpecimenCondition" ref="A46:E48">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4291,7 +4315,7 @@
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="SampleSampleSource" displayName="SampleSampleSource" ref="A47:E50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="SampleSampleSource" displayName="SampleSampleSource" ref="A50:E53">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4305,7 +4329,21 @@
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Pathogen_test" displayName="Pathogen_test" ref="A1:G12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="SamplePathogenTestResultType" displayName="SamplePathogenTestResultType" ref="A55:E59">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Pathogen_test" displayName="Pathogen_test" ref="A1:G12">
   <autoFilter/>
   <tableColumns count="7">
     <tableColumn id="1" name="Field"/>
@@ -4320,22 +4358,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Pathogen_testPathogenTestType" displayName="Pathogen_testPathogenTestType" ref="A14:E32">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Pathogen_testPathogenTestResultType" displayName="Pathogen_testPathogenTestResultType" ref="A34:E38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Pathogen_testPathogenTestType" displayName="Pathogen_testPathogenTestType" ref="A14:E32">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4349,18 +4373,16 @@
 </file>
 
 <file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Task" displayName="Task" ref="A1:G19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Pathogen_testPathogenTestResultType" displayName="Pathogen_testPathogenTestResultType" ref="A34:E38">
   <autoFilter/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Field"/>
-    <tableColumn id="2" name="Type"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
     <tableColumn id="3" name="Caption"/>
     <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Required"/>
-    <tableColumn id="6" name="Diseases"/>
-    <tableColumn id="7" name="Outbreaks"/>
+    <tableColumn id="5" name="Short"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
@@ -4379,63 +4401,7 @@
 </file>
 
 <file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="TaskTaskContext" displayName="TaskTaskContext" ref="A21:E25">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
-<file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="TaskTaskType" displayName="TaskTaskType" ref="A27:E48">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
-<file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="TaskTaskPriority" displayName="TaskTaskPriority" ref="A50:E53">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
-<file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="TaskTaskStatus" displayName="TaskTaskStatus" ref="A55:E59">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
-<file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="Event" displayName="Event" ref="A1:G20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Task" displayName="Task" ref="A1:G19">
   <autoFilter/>
   <tableColumns count="7">
     <tableColumn id="1" name="Field"/>
@@ -4450,8 +4416,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="EventEventType" displayName="EventEventType" ref="A22:E24">
+<file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="TaskTaskContext" displayName="TaskTaskContext" ref="A21:E25">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4464,8 +4430,66 @@
 </table>
 </file>
 
+<file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="TaskTaskType" displayName="TaskTaskType" ref="A27:E48">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="TaskTaskPriority" displayName="TaskTaskPriority" ref="A50:E53">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="TaskTaskStatus" displayName="TaskTaskStatus" ref="A55:E59">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="Event" displayName="Event" ref="A1:G20">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="EventEventStatus" displayName="EventEventStatus" ref="A26:E29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="EventEventType" displayName="EventEventType" ref="A22:E24">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4479,7 +4503,7 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="EventTypeOfPlace" displayName="EventTypeOfPlace" ref="A31:E38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="EventEventStatus" displayName="EventEventStatus" ref="A26:E29">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4493,7 +4517,7 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="EventDisease" displayName="EventDisease" ref="A40:E51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="EventTypeOfPlace" displayName="EventTypeOfPlace" ref="A31:E38">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4507,18 +4531,16 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="Person_involved" displayName="Person_involved" ref="A1:G5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="EventDisease" displayName="EventDisease" ref="A40:E51">
   <autoFilter/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Field"/>
-    <tableColumn id="2" name="Type"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
     <tableColumn id="3" name="Caption"/>
     <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Required"/>
-    <tableColumn id="6" name="Diseases"/>
-    <tableColumn id="7" name="Outbreaks"/>
+    <tableColumn id="5" name="Short"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
@@ -4537,7 +4559,7 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="Facility" displayName="Facility" ref="A1:G10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="Person_involved" displayName="Person_involved" ref="A1:G5">
   <autoFilter/>
   <tableColumns count="7">
     <tableColumn id="1" name="Field"/>
@@ -4553,21 +4575,7 @@
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="FacilityFacilityType" displayName="FacilityFacilityType" ref="A12:E16">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
-<file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="Region" displayName="Region" ref="A1:G5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="Facility" displayName="Facility" ref="A1:G10">
   <autoFilter/>
   <tableColumns count="7">
     <tableColumn id="1" name="Field"/>
@@ -4582,8 +4590,22 @@
 </table>
 </file>
 
+<file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="FacilityFacilityType" displayName="FacilityFacilityType" ref="A12:E16">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="District" displayName="District" ref="A1:G6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="Region" displayName="Region" ref="A1:G5">
   <autoFilter/>
   <tableColumns count="7">
     <tableColumn id="1" name="Field"/>
@@ -4599,7 +4621,7 @@
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="Community" displayName="Community" ref="A1:G4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="District" displayName="District" ref="A1:G6">
   <autoFilter/>
   <tableColumns count="7">
     <tableColumn id="1" name="Field"/>
@@ -4615,7 +4637,23 @@
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="User" displayName="User" ref="A1:G15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="Community" displayName="Community" ref="A1:G4">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table66.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="66" name="User" displayName="User" ref="A1:G15">
   <autoFilter/>
   <tableColumns count="7">
     <tableColumn id="1" name="Field"/>
@@ -6253,10 +6291,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>963</v>
+        <v>978</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -6274,13 +6312,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="C3" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -6295,13 +6333,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>967</v>
+        <v>982</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>968</v>
+        <v>983</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>17</v>
@@ -6314,13 +6352,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>970</v>
+        <v>985</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>17</v>
@@ -6335,13 +6373,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>17</v>
@@ -6356,13 +6394,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>17</v>
@@ -6375,7 +6413,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>971</v>
+        <v>986</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>222</v>
@@ -6396,13 +6434,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>972</v>
+        <v>987</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>973</v>
+        <v>929</v>
       </c>
       <c r="C9" t="s">
-        <v>974</v>
+        <v>988</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>17</v>
@@ -6417,13 +6455,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>975</v>
+        <v>989</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>976</v>
+        <v>990</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>17</v>
@@ -6438,13 +6476,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>977</v>
+        <v>991</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>978</v>
+        <v>992</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>17</v>
@@ -6457,13 +6495,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>376</v>
       </c>
       <c r="C12" t="s">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>17</v>
@@ -6493,13 +6531,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="B15" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="C15" t="s">
-        <v>982</v>
+        <v>996</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -6511,10 +6549,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="C16" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -6526,10 +6564,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="C17" t="s">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -6541,10 +6579,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>987</v>
+        <v>1001</v>
       </c>
       <c r="C18" t="s">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -6556,10 +6594,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="C19" t="s">
-        <v>990</v>
+        <v>1004</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -6571,10 +6609,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>991</v>
+        <v>1005</v>
       </c>
       <c r="C20" t="s">
-        <v>992</v>
+        <v>1006</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -6586,7 +6624,7 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>993</v>
+        <v>1007</v>
       </c>
       <c r="C21" t="s">
         <v>361</v>
@@ -6601,10 +6639,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="C22" t="s">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -6616,10 +6654,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="C23" t="s">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -6631,10 +6669,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>998</v>
+        <v>1012</v>
       </c>
       <c r="C24" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -6646,10 +6684,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="C25" t="s">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -6661,10 +6699,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="C26" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -6676,10 +6714,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="C27" t="s">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -6691,10 +6729,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="C28" t="s">
-        <v>1007</v>
+        <v>1021</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -6706,10 +6744,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="C29" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -6721,10 +6759,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="C30" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -6736,10 +6774,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1012</v>
+        <v>1026</v>
       </c>
       <c r="C31" t="s">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -6782,13 +6820,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>929</v>
+      </c>
+      <c r="B35" t="s">
+        <v>972</v>
+      </c>
+      <c r="C35" t="s">
         <v>973</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1015</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -6815,10 +6853,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>1016</v>
+        <v>974</v>
       </c>
       <c r="C37" t="s">
-        <v>1017</v>
+        <v>975</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -6830,10 +6868,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1018</v>
+        <v>976</v>
       </c>
       <c r="C38" t="s">
-        <v>1019</v>
+        <v>977</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -6894,13 +6932,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="C2" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>17</v>
@@ -6915,13 +6953,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C3" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>17</v>
@@ -6934,13 +6972,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="C4" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>17</v>
@@ -6953,13 +6991,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="C5" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>17</v>
@@ -6972,16 +7010,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="C6" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -6993,13 +7031,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="C7" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>17</v>
@@ -7012,13 +7050,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>17</v>
@@ -7033,13 +7071,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>17</v>
@@ -7052,13 +7090,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="C10" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>17</v>
@@ -7071,13 +7109,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>17</v>
@@ -7090,13 +7128,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>17</v>
@@ -7109,13 +7147,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>17</v>
@@ -7128,13 +7166,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>17</v>
@@ -7147,13 +7185,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>17</v>
@@ -7168,13 +7206,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>17</v>
@@ -7187,7 +7225,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>25</v>
@@ -7206,7 +7244,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -7225,7 +7263,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>25</v>
@@ -7261,13 +7299,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="B22" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="C22" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -7279,10 +7317,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="C23" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -7294,10 +7332,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="C24" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -7309,10 +7347,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="C25" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -7340,13 +7378,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="B28" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="C28" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -7358,10 +7396,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="C29" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -7373,10 +7411,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="C30" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -7388,10 +7426,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="C31" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -7403,10 +7441,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="C32" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -7418,10 +7456,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="C33" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -7433,10 +7471,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="C34" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -7448,10 +7486,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="C35" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -7463,10 +7501,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="C36" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -7478,10 +7516,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="C37" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -7493,10 +7531,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="C38" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -7508,10 +7546,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="C39" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -7523,10 +7561,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="C40" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -7538,10 +7576,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="C41" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -7553,10 +7591,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="C42" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -7568,10 +7606,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="C43" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -7583,10 +7621,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="C44" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -7601,7 +7639,7 @@
         <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -7613,10 +7651,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="C46" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -7628,10 +7666,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="C47" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -7643,10 +7681,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="C48" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -7674,13 +7712,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="B51" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="C51" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -7692,10 +7730,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="C52" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -7707,10 +7745,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="C53" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -7738,13 +7776,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="B56" t="s">
         <v>321</v>
       </c>
       <c r="C56" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -7759,7 +7797,7 @@
         <v>324</v>
       </c>
       <c r="C57" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -7771,10 +7809,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="C58" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -7786,10 +7824,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="C59" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -7852,13 +7890,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="C2" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>17</v>
@@ -7873,16 +7911,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="C3" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -7894,16 +7932,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -7915,16 +7953,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="12" t="s">
@@ -7934,7 +7972,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>35</v>
@@ -7976,13 +8014,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>17</v>
@@ -7995,16 +8033,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="C9" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="12" t="s">
@@ -8014,16 +8052,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1140</v>
+        <v>1148</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="12" t="s">
@@ -8033,16 +8071,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1143</v>
+        <v>1151</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="12" t="s">
@@ -8052,16 +8090,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>1146</v>
+        <v>1154</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="12" t="s">
@@ -8071,16 +8109,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>1149</v>
+        <v>1157</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="12" t="s">
@@ -8147,13 +8185,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>1151</v>
+        <v>1159</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>17</v>
@@ -8240,13 +8278,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="B23" t="s">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="C23" t="s">
-        <v>1153</v>
+        <v>1161</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -8258,10 +8296,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="C24" t="s">
-        <v>1155</v>
+        <v>1163</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -8289,19 +8327,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="B27" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="C27" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>1158</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="28">
@@ -8310,7 +8348,7 @@
         <v>315</v>
       </c>
       <c r="C28" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -8322,16 +8360,16 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1160</v>
+        <v>1168</v>
       </c>
       <c r="C29" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>1162</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="31">
@@ -8353,13 +8391,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="B32" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="C32" t="s">
-        <v>1164</v>
+        <v>1172</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -8371,10 +8409,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="C33" t="s">
-        <v>1166</v>
+        <v>1174</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -8401,10 +8439,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1167</v>
+        <v>1175</v>
       </c>
       <c r="C35" t="s">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -8416,10 +8454,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="C36" t="s">
-        <v>1170</v>
+        <v>1178</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -8696,13 +8734,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="C2" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>17</v>
@@ -8720,10 +8758,10 @@
         <v>214</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="C3" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -8738,13 +8776,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1172</v>
+        <v>1180</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>17</v>
@@ -8757,10 +8795,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -8824,13 +8862,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>17</v>
@@ -8925,7 +8963,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>1176</v>
+        <v>1184</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>17</v>
@@ -8944,7 +8982,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>17</v>
@@ -8957,10 +8995,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -8976,7 +9014,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1180</v>
+        <v>1188</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>376</v>
@@ -9012,7 +9050,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="B13" t="s">
         <v>155</v>
@@ -9060,10 +9098,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="C16" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -9123,13 +9161,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>17</v>
@@ -9142,13 +9180,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>17</v>
@@ -9161,13 +9199,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1184</v>
+        <v>1192</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>1185</v>
+        <v>1193</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>17</v>
@@ -9180,13 +9218,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>17</v>
@@ -9247,13 +9285,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>17</v>
@@ -9266,13 +9304,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>17</v>
@@ -9285,13 +9323,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1184</v>
+        <v>1192</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>1185</v>
+        <v>1193</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>17</v>
@@ -9304,13 +9342,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>17</v>
@@ -9390,13 +9428,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>17</v>
@@ -9495,13 +9533,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1188</v>
+        <v>1196</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>17</v>
@@ -9514,13 +9552,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1190</v>
+        <v>1198</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1191</v>
+        <v>1199</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
@@ -9571,13 +9609,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1192</v>
+        <v>1200</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>17</v>
@@ -9628,11 +9666,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1193</v>
+        <v>1201</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" t="s">
-        <v>1194</v>
+        <v>1202</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>17</v>
@@ -9721,13 +9759,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>17</v>
@@ -9740,13 +9778,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1196</v>
+        <v>1204</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>17</v>
@@ -9775,12 +9813,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1198</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1199</v>
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -11973,7 +12011,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14286,47 +14324,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" t="s">
-        <v>97</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" t="s">
-        <v>98</v>
+    <row r="120">
+      <c r="A120"/>
+      <c r="B120" t="s">
+        <v>659</v>
+      </c>
+      <c r="C120" t="s">
+        <v>660</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
         <v>410</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>338</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>339</v>
-      </c>
-      <c r="D122" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123"/>
-      <c r="B123" t="s">
-        <v>340</v>
-      </c>
-      <c r="C123" t="s">
-        <v>341</v>
       </c>
       <c r="D123" t="s">
         <v>17</v>
@@ -14338,15 +14376,30 @@
     <row r="124">
       <c r="A124"/>
       <c r="B124" t="s">
+        <v>340</v>
+      </c>
+      <c r="C124" t="s">
+        <v>341</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125"/>
+      <c r="B125" t="s">
         <v>336</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>337</v>
       </c>
-      <c r="D124" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14402,16 +14455,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="6" t="s">
@@ -14421,35 +14474,35 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E3"/>
       <c r="F3" s="6" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E4"/>
       <c r="F4" s="6" t="s">
@@ -14459,11 +14512,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -14476,11 +14529,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -14493,11 +14546,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -14510,32 +14563,32 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C8" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -14548,51 +14601,51 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="6" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -14605,13 +14658,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -14624,13 +14677,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C14" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -14643,206 +14696,206 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C15" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E18"/>
       <c r="F18" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C21" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E21"/>
       <c r="F21" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C22" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C24" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E24"/>
       <c r="F24" s="6" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C25" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E25"/>
       <c r="F25" s="6" t="s">
@@ -14852,35 +14905,35 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C26" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E26"/>
       <c r="F26" s="6" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C27" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E27"/>
       <c r="F27" s="6" t="s">
@@ -14890,35 +14943,35 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C28" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E28"/>
       <c r="F28" s="6" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C29" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E29"/>
       <c r="F29" s="6" t="s">
@@ -14928,130 +14981,130 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C30" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E30"/>
       <c r="F30" s="6" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E31"/>
       <c r="F31" s="6" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C32" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E32"/>
       <c r="F32" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E33"/>
       <c r="F33" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C34" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E34"/>
       <c r="F34" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E35"/>
       <c r="F35" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C36" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E36"/>
       <c r="F36" s="6" t="s">
@@ -15061,16 +15114,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C37" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E37"/>
       <c r="F37" s="6" t="s">
@@ -15080,13 +15133,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>17</v>
@@ -15099,13 +15152,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>17</v>
@@ -15118,13 +15171,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C40" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>17</v>
@@ -15218,13 +15271,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B48" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C48" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -15236,10 +15289,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C49" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -15251,10 +15304,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C50" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -15266,10 +15319,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C51" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -15312,7 +15365,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
@@ -15345,10 +15398,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C57" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -15425,13 +15478,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -15530,7 +15583,7 @@
         <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>17</v>
@@ -15545,13 +15598,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C8" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>17</v>
@@ -15566,13 +15619,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>17</v>
@@ -15585,13 +15638,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>17</v>
@@ -15604,16 +15657,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C11" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="7" t="s">
@@ -15623,13 +15676,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C12" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>17</v>
@@ -15642,13 +15695,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C13" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>17</v>
@@ -15661,89 +15714,89 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C14" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E14"/>
       <c r="F14" s="7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" s="7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" s="7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>17</v>
@@ -15756,16 +15809,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C19" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="7" t="s">
@@ -15775,13 +15828,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C20" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
@@ -15794,13 +15847,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>17</v>
@@ -16014,13 +16067,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B37" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C37" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -16032,10 +16085,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C38" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -16047,10 +16100,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C39" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -16062,10 +16115,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C40" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -16077,10 +16130,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C41" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -16108,19 +16161,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B44" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C44" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="45">
@@ -16129,7 +16182,7 @@
         <v>315</v>
       </c>
       <c r="C45" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -16141,16 +16194,16 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C46" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="48">
@@ -16172,13 +16225,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B49" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C49" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -16190,10 +16243,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C50" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -16205,10 +16258,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C51" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -16236,76 +16289,76 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B54" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C54" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D54" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E54" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C55" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D55" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E55" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C56" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D56" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E56" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C57" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D57" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E57" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C58" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D58" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E58" t="s">
         <v>17</v>
@@ -16330,13 +16383,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B61" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C61" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -16348,10 +16401,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C62" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -16363,10 +16416,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C63" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -16378,10 +16431,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C64" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -16467,7 +16520,7 @@
         <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>17</v>
@@ -16501,16 +16554,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -16522,13 +16575,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>17</v>
@@ -16543,16 +16596,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C6" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -16564,16 +16617,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="8" t="s">
@@ -16860,13 +16913,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B27" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C27" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -16878,31 +16931,31 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C28" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C29" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -16917,7 +16970,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16957,13 +17010,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>17</v>
@@ -16978,13 +17031,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>17</v>
@@ -16997,13 +17050,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>17</v>
@@ -17016,16 +17069,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -17037,7 +17090,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>35</v>
@@ -17136,13 +17189,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C11" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>17</v>
@@ -17157,13 +17210,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
@@ -17176,13 +17229,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>17</v>
@@ -17197,13 +17250,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>17</v>
@@ -17216,13 +17269,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>17</v>
@@ -17235,13 +17288,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>17</v>
@@ -17254,13 +17307,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>17</v>
@@ -17273,13 +17326,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C18" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>17</v>
@@ -17292,13 +17345,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>17</v>
@@ -17311,13 +17364,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>17</v>
@@ -17330,13 +17383,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C21" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>17</v>
@@ -17349,10 +17402,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -17368,13 +17421,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>376</v>
       </c>
       <c r="C23" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>17</v>
@@ -17387,13 +17440,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>376</v>
       </c>
       <c r="C24" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>17</v>
@@ -17406,13 +17459,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>376</v>
+        <v>929</v>
       </c>
       <c r="C25" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>17</v>
@@ -17425,13 +17478,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>376</v>
       </c>
       <c r="C26" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>17</v>
@@ -17444,11 +17497,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>930</v>
-      </c>
-      <c r="B27" s="9"/>
+        <v>933</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>376</v>
+      </c>
       <c r="C27" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>17</v>
@@ -17461,11 +17516,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>936</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>17</v>
@@ -17476,77 +17531,87 @@
       </c>
       <c r="G28"/>
     </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>937</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29"/>
+    </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>97</v>
+        <v>938</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>98</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>896</v>
-      </c>
-      <c r="B31" t="s">
-        <v>933</v>
+        <v>940</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>934</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s">
-        <v>935</v>
-      </c>
-      <c r="C32" t="s">
-        <v>936</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
+        <v>941</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31"/>
     </row>
     <row r="33">
-      <c r="A33"/>
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
       <c r="B33" t="s">
-        <v>937</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>938</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34"/>
+      <c r="A34" t="s">
+        <v>898</v>
+      </c>
       <c r="B34" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C34" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -17558,10 +17623,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C35" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -17573,10 +17638,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C36" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -17588,10 +17653,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C37" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -17603,10 +17668,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C38" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -17618,10 +17683,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C39" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -17633,10 +17698,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C40" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -17648,128 +17713,252 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
+        <v>956</v>
+      </c>
+      <c r="C41" t="s">
+        <v>957</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42"/>
+      <c r="B42" t="s">
+        <v>958</v>
+      </c>
+      <c r="C42" t="s">
+        <v>959</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43" t="s">
+        <v>960</v>
+      </c>
+      <c r="C43" t="s">
+        <v>961</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s">
         <v>142</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C44" t="s">
         <v>144</v>
       </c>
-      <c r="D41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
         <v>1</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>97</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C46" t="s">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D46" t="s">
         <v>3</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E46" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>911</v>
-      </c>
-      <c r="B44" t="s">
-        <v>953</v>
-      </c>
-      <c r="C44" t="s">
-        <v>954</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45"/>
-      <c r="B45" t="s">
-        <v>955</v>
-      </c>
-      <c r="C45" t="s">
-        <v>956</v>
-      </c>
-      <c r="D45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>913</v>
+      </c>
+      <c r="B47" t="s">
+        <v>962</v>
+      </c>
+      <c r="C47" t="s">
+        <v>963</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48"/>
+      <c r="B48" t="s">
+        <v>964</v>
+      </c>
+      <c r="C48" t="s">
+        <v>965</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
         <v>1</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
         <v>97</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
         <v>2</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D50" t="s">
         <v>3</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>918</v>
-      </c>
-      <c r="B48" t="s">
-        <v>957</v>
-      </c>
-      <c r="C48" t="s">
-        <v>958</v>
-      </c>
-      <c r="D48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49"/>
-      <c r="B49" t="s">
-        <v>959</v>
-      </c>
-      <c r="C49" t="s">
-        <v>960</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50"/>
-      <c r="B50" t="s">
-        <v>961</v>
-      </c>
-      <c r="C50" t="s">
-        <v>962</v>
-      </c>
-      <c r="D50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" t="s">
+    <row r="51">
+      <c r="A51" t="s">
+        <v>920</v>
+      </c>
+      <c r="B51" t="s">
+        <v>966</v>
+      </c>
+      <c r="C51" t="s">
+        <v>967</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52"/>
+      <c r="B52" t="s">
+        <v>968</v>
+      </c>
+      <c r="C52" t="s">
+        <v>969</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53"/>
+      <c r="B53" t="s">
+        <v>970</v>
+      </c>
+      <c r="C53" t="s">
+        <v>971</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>929</v>
+      </c>
+      <c r="B56" t="s">
+        <v>972</v>
+      </c>
+      <c r="C56" t="s">
+        <v>973</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57"/>
+      <c r="B57" t="s">
+        <v>321</v>
+      </c>
+      <c r="C57" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58" t="s">
+        <v>974</v>
+      </c>
+      <c r="C58" t="s">
+        <v>975</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59" t="s">
+        <v>976</v>
+      </c>
+      <c r="C59" t="s">
+        <v>977</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17780,6 +17969,7 @@
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -3653,7 +3653,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.15.0-SNAPSHOT</t>
+    <t>1.16.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1209">
   <si>
     <t>Field</t>
   </si>
@@ -2846,6 +2846,9 @@
     <t>requestedAdditionalTests</t>
   </si>
   <si>
+    <t>Please tick every type of additional test you would like to be performed on this sample</t>
+  </si>
+  <si>
     <t>requestedOtherPathogenTests</t>
   </si>
   <si>
@@ -3653,7 +3656,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.16.0-SNAPSHOT</t>
+    <t>1.17.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -6291,7 +6294,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>923</v>
@@ -6312,13 +6315,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -6333,13 +6336,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>17</v>
@@ -6352,13 +6355,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>17</v>
@@ -6413,7 +6416,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>222</v>
@@ -6434,13 +6437,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>929</v>
       </c>
       <c r="C9" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>17</v>
@@ -6455,13 +6458,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>17</v>
@@ -6476,13 +6479,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>17</v>
@@ -6495,13 +6498,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>376</v>
       </c>
       <c r="C12" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>17</v>
@@ -6531,13 +6534,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B15" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C15" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -6549,10 +6552,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C16" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -6564,10 +6567,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C17" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -6579,10 +6582,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C18" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -6594,10 +6597,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C19" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -6609,10 +6612,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C20" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -6624,7 +6627,7 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C21" t="s">
         <v>361</v>
@@ -6639,10 +6642,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C22" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -6654,10 +6657,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C23" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -6669,10 +6672,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C24" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -6684,10 +6687,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C25" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -6699,10 +6702,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C26" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -6714,10 +6717,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C27" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -6729,10 +6732,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C28" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -6744,10 +6747,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C29" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -6759,10 +6762,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C30" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -6774,10 +6777,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C31" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -6823,10 +6826,10 @@
         <v>929</v>
       </c>
       <c r="B35" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C35" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -6853,10 +6856,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C37" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -6868,10 +6871,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C38" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -6932,13 +6935,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>17</v>
@@ -6972,13 +6975,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>17</v>
@@ -6991,13 +6994,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C5" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>17</v>
@@ -7010,16 +7013,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C6" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -7031,13 +7034,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C7" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>17</v>
@@ -7050,13 +7053,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>17</v>
@@ -7071,13 +7074,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>17</v>
@@ -7090,13 +7093,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C10" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>17</v>
@@ -7109,13 +7112,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>17</v>
@@ -7128,13 +7131,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>17</v>
@@ -7147,13 +7150,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>17</v>
@@ -7166,13 +7169,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>17</v>
@@ -7185,13 +7188,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>17</v>
@@ -7206,13 +7209,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>17</v>
@@ -7225,7 +7228,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>25</v>
@@ -7244,7 +7247,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -7263,7 +7266,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>25</v>
@@ -7299,13 +7302,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B22" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C22" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -7317,10 +7320,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C23" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -7332,10 +7335,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C24" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -7347,10 +7350,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C25" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -7378,13 +7381,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B28" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C28" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -7396,10 +7399,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C29" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -7411,10 +7414,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C30" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -7426,10 +7429,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C31" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -7441,10 +7444,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C32" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -7456,10 +7459,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C33" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -7471,10 +7474,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C34" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -7486,10 +7489,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C35" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -7501,10 +7504,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C36" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -7516,10 +7519,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C37" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -7531,10 +7534,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C38" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -7546,10 +7549,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C39" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -7561,10 +7564,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C40" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -7576,10 +7579,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C41" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -7591,10 +7594,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C42" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -7606,10 +7609,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C43" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -7621,10 +7624,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C44" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -7639,7 +7642,7 @@
         <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -7651,10 +7654,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C46" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -7666,10 +7669,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C47" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -7681,10 +7684,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C48" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -7712,13 +7715,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B51" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C51" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -7730,10 +7733,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C52" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -7745,10 +7748,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C53" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -7776,13 +7779,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B56" t="s">
         <v>321</v>
       </c>
       <c r="C56" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -7797,7 +7800,7 @@
         <v>324</v>
       </c>
       <c r="C57" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -7809,10 +7812,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C58" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -7824,10 +7827,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C59" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -7890,13 +7893,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>17</v>
@@ -7911,16 +7914,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -7932,16 +7935,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -7953,16 +7956,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="12" t="s">
@@ -8014,13 +8017,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>17</v>
@@ -8033,16 +8036,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C9" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="12" t="s">
@@ -8052,16 +8055,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="12" t="s">
@@ -8071,16 +8074,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="12" t="s">
@@ -8090,16 +8093,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="12" t="s">
@@ -8109,16 +8112,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="12" t="s">
@@ -8185,13 +8188,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>17</v>
@@ -8278,13 +8281,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B23" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C23" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -8296,10 +8299,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C24" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -8327,19 +8330,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B27" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C27" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="28">
@@ -8348,7 +8351,7 @@
         <v>315</v>
       </c>
       <c r="C28" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -8360,16 +8363,16 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C29" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="31">
@@ -8391,13 +8394,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B32" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C32" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -8409,10 +8412,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C33" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -8439,10 +8442,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C35" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -8454,10 +8457,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C36" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -8734,13 +8737,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>17</v>
@@ -8758,10 +8761,10 @@
         <v>214</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C3" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -8776,13 +8779,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>17</v>
@@ -8862,13 +8865,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>17</v>
@@ -8963,7 +8966,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>17</v>
@@ -8982,7 +8985,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>17</v>
@@ -8995,10 +8998,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -9014,7 +9017,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>376</v>
@@ -9050,7 +9053,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B13" t="s">
         <v>155</v>
@@ -9098,10 +9101,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C16" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -9161,13 +9164,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>17</v>
@@ -9180,13 +9183,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>17</v>
@@ -9199,13 +9202,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>17</v>
@@ -9218,13 +9221,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>17</v>
@@ -9285,13 +9288,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>17</v>
@@ -9304,13 +9307,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>17</v>
@@ -9323,13 +9326,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>17</v>
@@ -9342,13 +9345,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>17</v>
@@ -9428,13 +9431,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>17</v>
@@ -9533,13 +9536,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>17</v>
@@ -9552,13 +9555,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
@@ -9609,13 +9612,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>17</v>
@@ -9666,11 +9669,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>17</v>
@@ -9759,7 +9762,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>93</v>
@@ -9778,13 +9781,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>17</v>
@@ -9813,12 +9816,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
   </sheetData>
@@ -17537,7 +17540,7 @@
       </c>
       <c r="B29" s="9"/>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>938</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>17</v>
@@ -17550,13 +17553,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>17</v>
@@ -17569,13 +17572,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>17</v>
@@ -17608,10 +17611,10 @@
         <v>898</v>
       </c>
       <c r="B34" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C34" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -17623,10 +17626,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C35" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -17638,10 +17641,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C36" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -17653,10 +17656,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C37" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -17668,10 +17671,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C38" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -17683,10 +17686,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C39" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -17698,10 +17701,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C40" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -17713,10 +17716,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C41" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -17728,10 +17731,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C42" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -17743,10 +17746,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C43" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -17792,10 +17795,10 @@
         <v>913</v>
       </c>
       <c r="B47" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C47" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -17807,10 +17810,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C48" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -17841,10 +17844,10 @@
         <v>920</v>
       </c>
       <c r="B51" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C51" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -17856,10 +17859,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C52" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -17871,10 +17874,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C53" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -17905,10 +17908,10 @@
         <v>929</v>
       </c>
       <c r="B56" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C56" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -17935,10 +17938,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C58" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -17950,10 +17953,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C59" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -1157,48 +1157,792 @@
     <t>Intensive Care Unit</t>
   </si>
   <si>
+    <t>abdominalPain</t>
+  </si>
+  <si>
+    <t>SymptomState</t>
+  </si>
+  <si>
+    <t>Abdominal pain</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, Cholera, Yellow fever, Dengue, Plague, Other</t>
+  </si>
+  <si>
+    <t>alteredConsciousness</t>
+  </si>
+  <si>
+    <t>Altered level of consciousness</t>
+  </si>
+  <si>
+    <t>Altered level of consciousness, e.g. lethargy, stuporous, coma</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, CSM, Cholera, Measles, Other</t>
+  </si>
+  <si>
+    <t>anorexiaAppetiteLoss</t>
+  </si>
+  <si>
+    <t>Anorexia/loss of appetite</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, CSM, Cholera, Yellow fever, Other</t>
+  </si>
+  <si>
+    <t>backache</t>
+  </si>
+  <si>
+    <t>Backache</t>
+  </si>
+  <si>
+    <t>Yellow fever, Other</t>
+  </si>
+  <si>
+    <t>bedridden</t>
+  </si>
+  <si>
+    <t>Is the patient bedridden?</t>
+  </si>
+  <si>
+    <t>Monkeypox, Other</t>
+  </si>
+  <si>
+    <t>blackeningDeathOfTissue</t>
+  </si>
+  <si>
+    <t>Blackening and death of tissue in extremities</t>
+  </si>
+  <si>
+    <t>Plague, Other</t>
+  </si>
+  <si>
+    <t>bleedingVagina</t>
+  </si>
+  <si>
+    <t>Bleeding from vagina, other than menstruation</t>
+  </si>
+  <si>
+    <t>bloodInStool</t>
+  </si>
+  <si>
+    <t>Blood in stool</t>
+  </si>
+  <si>
+    <t>Visible blood in stool</t>
+  </si>
+  <si>
+    <t>Cholera, Yellow fever, Other</t>
+  </si>
+  <si>
+    <t>bloodPressureDiastolic</t>
+  </si>
+  <si>
+    <t>Blood pressure (diastolic)</t>
+  </si>
+  <si>
+    <t>bloodPressureSystolic</t>
+  </si>
+  <si>
+    <t>Blood pressure (systolic)</t>
+  </si>
+  <si>
+    <t>bloodUrine</t>
+  </si>
+  <si>
+    <t>Blood in urine (hematuria)</t>
+  </si>
+  <si>
+    <t>bloodyBlackStool</t>
+  </si>
+  <si>
+    <t>Bloody or black stools (melena)</t>
+  </si>
+  <si>
+    <t>buboesGroinArmpitNeck</t>
+  </si>
+  <si>
+    <t>Buboes in the groin, armpit or neck</t>
+  </si>
+  <si>
+    <t>bulgingFontanelle</t>
+  </si>
+  <si>
+    <t>Bulging fontanelle</t>
+  </si>
+  <si>
+    <t>CSM, Other</t>
+  </si>
+  <si>
+    <t>chestPain</t>
+  </si>
+  <si>
+    <t>Chest pain</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, Plague, Other</t>
+  </si>
+  <si>
+    <t>chillsSweats</t>
+  </si>
+  <si>
+    <t>Chills or sweats</t>
+  </si>
+  <si>
+    <t>Monkeypox, Plague, Other</t>
+  </si>
+  <si>
+    <t>confusedDisoriented</t>
+  </si>
+  <si>
+    <t>Confused or disoriented</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, CSM, Cholera, Measles, Plague, Other</t>
+  </si>
+  <si>
+    <t>conjunctivitis</t>
+  </si>
+  <si>
+    <t>Conjunctivitis (red eyes)</t>
+  </si>
+  <si>
+    <t>Conjunctivitis, redness of the eyes</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, Measles, Monkeypox, Other</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>Cough</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, Measles, Monkeypox, Plague, Other</t>
+  </si>
+  <si>
+    <t>coughingBlood</t>
+  </si>
+  <si>
+    <t>Coughing up blood (haemoptysis)</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, Plague, Other</t>
+  </si>
+  <si>
+    <t>darkUrine</t>
+  </si>
+  <si>
+    <t>Dark Urine</t>
+  </si>
+  <si>
+    <t>dehydration</t>
+  </si>
+  <si>
+    <t>Dehydration</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, Cholera, Other</t>
+  </si>
+  <si>
+    <t>diarrhea</t>
+  </si>
+  <si>
+    <t>Diarrhea</t>
+  </si>
+  <si>
+    <t>&gt;= 3 loose stools within 24h</t>
+  </si>
+  <si>
+    <t>difficultyBreathing</t>
+  </si>
+  <si>
+    <t>Difficulty breathing</t>
+  </si>
+  <si>
+    <t>Difficulty breathing or shortness of breath</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, Measles, Plague, Other</t>
+  </si>
+  <si>
+    <t>digestedBloodVomit</t>
+  </si>
+  <si>
+    <t>Digested blood/"coffee grounds" in vomit</t>
+  </si>
+  <si>
+    <t>eyePainLightSensitive</t>
+  </si>
+  <si>
+    <t>Pain behind eyes/Sensitivity to light</t>
+  </si>
+  <si>
+    <t>ain behind eyes or eyes sensitive to light</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, CSM, Measles, Dengue, Monkeypox, Other</t>
+  </si>
+  <si>
+    <t>eyesBleeding</t>
+  </si>
+  <si>
+    <t>Bleeding from the eyes</t>
+  </si>
+  <si>
+    <t>fatigueWeakness</t>
+  </si>
+  <si>
+    <t>Fatigue/general weakness</t>
+  </si>
+  <si>
+    <t>Fatigue or general weakness</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, CSM, Cholera, Measles, Yellow fever, Dengue, Monkeypox, Plague, Other</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>&gt;= 38°C</t>
+  </si>
+  <si>
+    <t>fluidInLungCavity</t>
+  </si>
+  <si>
+    <t>Fluid in the lung cavity</t>
+  </si>
+  <si>
+    <t>Lassa, Other</t>
+  </si>
+  <si>
+    <t>glasgowComaScale</t>
+  </si>
+  <si>
+    <t>Glasgow coma scale</t>
+  </si>
+  <si>
+    <t>gumsBleeding</t>
+  </si>
+  <si>
+    <t>Bleeding of the gums</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, Yellow fever, Dengue, Other</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>Headache</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, CSM, Yellow fever, Dengue, Monkeypox, Plague, Other</t>
+  </si>
+  <si>
+    <t>hearingloss</t>
+  </si>
+  <si>
+    <t>Acute hearing loss</t>
+  </si>
+  <si>
+    <t>Acute hearing loss not related to an injury</t>
+  </si>
+  <si>
+    <t>heartRate</t>
+  </si>
+  <si>
+    <t>Heart rate (bpm)</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Height (cm)</t>
+  </si>
+  <si>
+    <t>hemorrhagicSyndrome</t>
+  </si>
+  <si>
+    <t>Hemorrhagic syndrome</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, Yellow fever, Dengue, Plague, Other</t>
+  </si>
+  <si>
+    <t>hiccups</t>
+  </si>
+  <si>
+    <t>Hiccups</t>
+  </si>
+  <si>
+    <t>hyperglycemia</t>
+  </si>
+  <si>
+    <t>Hyperglycemia</t>
+  </si>
+  <si>
+    <t>CSM, Lassa, Other</t>
+  </si>
+  <si>
+    <t>hypoglycemia</t>
+  </si>
+  <si>
+    <t>Hypoglycemia</t>
+  </si>
+  <si>
+    <t>injectionSiteBleeding</t>
+  </si>
+  <si>
+    <t>Bleeding from injection site</t>
+  </si>
+  <si>
+    <t>jaundice</t>
+  </si>
+  <si>
+    <t>Jaundice</t>
+  </si>
+  <si>
+    <t>Yellow fever, Lassa, Other</t>
+  </si>
+  <si>
+    <t>jointPain</t>
+  </si>
+  <si>
+    <t>Joint pain or arthritis</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, CSM, Measles, Dengue, Other</t>
+  </si>
+  <si>
+    <t>kopliksSpots</t>
+  </si>
+  <si>
+    <t>Koplik's Spots</t>
+  </si>
+  <si>
+    <t>Measles, Other</t>
+  </si>
+  <si>
+    <t>lesions</t>
+  </si>
+  <si>
+    <t>Vesiculopustular rash</t>
+  </si>
+  <si>
+    <t>lesionsAllOverBody</t>
+  </si>
+  <si>
+    <t>true, false</t>
+  </si>
+  <si>
+    <t>All over the body</t>
+  </si>
+  <si>
+    <t>lesionsArms</t>
+  </si>
+  <si>
+    <t>Arms</t>
+  </si>
+  <si>
+    <t>lesionsDeepProfound</t>
+  </si>
+  <si>
+    <t>Rash lesions deep and profound?</t>
+  </si>
+  <si>
+    <t>lesionsFace</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>lesionsGenitals</t>
+  </si>
+  <si>
+    <t>Genitals</t>
+  </si>
+  <si>
+    <t>lesionsLegs</t>
+  </si>
+  <si>
+    <t>Legs</t>
+  </si>
+  <si>
+    <t>lesionsOnsetDate</t>
+  </si>
+  <si>
+    <t>Date of rash onset</t>
+  </si>
+  <si>
+    <t>lesionsPalmsHands</t>
+  </si>
+  <si>
+    <t>Palms of the hands</t>
+  </si>
+  <si>
+    <t>lesionsResembleImg1</t>
+  </si>
+  <si>
+    <t>Does the rash resemble the photo below?</t>
+  </si>
+  <si>
+    <t>lesionsResembleImg2</t>
+  </si>
+  <si>
+    <t>lesionsResembleImg3</t>
+  </si>
+  <si>
+    <t>lesionsResembleImg4</t>
+  </si>
+  <si>
+    <t>lesionsSameSize</t>
+  </si>
+  <si>
+    <t>All rash lesions the same size?</t>
+  </si>
+  <si>
+    <t>lesionsSameState</t>
+  </si>
+  <si>
+    <t>All rash lesions in same state of development?</t>
+  </si>
+  <si>
+    <t>lesionsSolesFeet</t>
+  </si>
+  <si>
+    <t>Soles of the feet</t>
+  </si>
+  <si>
+    <t>lesionsThatItch</t>
+  </si>
+  <si>
+    <t>Rash that itches</t>
+  </si>
+  <si>
+    <t>lesionsThorax</t>
+  </si>
+  <si>
+    <t>Thorax</t>
+  </si>
+  <si>
+    <t>lossSkinTurgor</t>
+  </si>
+  <si>
+    <t>Loss of skin turgor</t>
+  </si>
+  <si>
+    <t>lymphadenopathyAxillary</t>
+  </si>
+  <si>
+    <t>Enlarged lymph nodes, axillary</t>
+  </si>
+  <si>
+    <t>lymphadenopathyCervical</t>
+  </si>
+  <si>
+    <t>Enlarged lymph nodes, cervical</t>
+  </si>
+  <si>
+    <t>lymphadenopathyInguinal</t>
+  </si>
+  <si>
+    <t>Enlarged lymph nodes, inguinal</t>
+  </si>
+  <si>
+    <t>malaise</t>
+  </si>
+  <si>
+    <t>Malaise</t>
+  </si>
+  <si>
+    <t>meningealSigns</t>
+  </si>
+  <si>
+    <t>Meningeal signs</t>
+  </si>
+  <si>
+    <t>midUpperArmCircumference</t>
+  </si>
+  <si>
+    <t>Mid-upper arm circumf. (cm)</t>
+  </si>
+  <si>
+    <t>musclePain</t>
+  </si>
+  <si>
+    <t>Muscle pain</t>
+  </si>
+  <si>
+    <t>Muscle pain (myalgia)</t>
+  </si>
+  <si>
+    <t>nausea</t>
+  </si>
+  <si>
+    <t>Nausea</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, CSM, Cholera, Yellow fever, Dengue, Monkeypox, Plague, Other</t>
+  </si>
+  <si>
+    <t>neckStiffness</t>
+  </si>
+  <si>
+    <t>Stiff neck</t>
+  </si>
+  <si>
+    <t>Neck feels stiff</t>
+  </si>
+  <si>
+    <t>noseBleeding</t>
+  </si>
+  <si>
+    <t>Nose bleed (epistaxis)</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, Yellow fever, Other</t>
+  </si>
+  <si>
+    <t>oedemaFaceNeck</t>
+  </si>
+  <si>
+    <t>Oedema of face/neck</t>
+  </si>
+  <si>
+    <t>oedemaLowerExtremity</t>
+  </si>
+  <si>
+    <t>Oedema of lower extremities</t>
+  </si>
+  <si>
+    <t>onsetDate</t>
+  </si>
+  <si>
+    <t>Date of symptom onset</t>
+  </si>
+  <si>
+    <t>Enter the date of onset of the person's first symptom (dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>onsetSymptom</t>
+  </si>
+  <si>
+    <t>First symptom</t>
+  </si>
+  <si>
+    <t>What was the first symptom?</t>
+  </si>
+  <si>
+    <t>oralUlcers</t>
+  </si>
+  <si>
+    <t>Oral ulcers</t>
+  </si>
+  <si>
+    <t>otherHemorrhagicSymptoms</t>
+  </si>
+  <si>
+    <t>Other hemorrhagic symptoms</t>
+  </si>
+  <si>
+    <t>otherHemorrhagicSymptomsText</t>
+  </si>
+  <si>
+    <t>Specify other symptoms</t>
+  </si>
+  <si>
+    <t>Specify other hemorrhagic symptoms</t>
+  </si>
+  <si>
+    <t>otherNonHemorrhagicSymptoms</t>
+  </si>
+  <si>
+    <t>Other clinical symptoms</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, New flu, CSM, Cholera, Measles, Dengue, Monkeypox, Plague, Other</t>
+  </si>
+  <si>
+    <t>otherNonHemorrhagicSymptomsText</t>
+  </si>
+  <si>
+    <t>otitisMedia</t>
+  </si>
+  <si>
+    <t>Middle ear inflammation (otitis media)</t>
+  </si>
+  <si>
+    <t>New flu, Measles, Other</t>
+  </si>
+  <si>
+    <t>painfulLymphadenitis</t>
+  </si>
+  <si>
+    <t>Painful lymphadenitis</t>
+  </si>
+  <si>
+    <t>palpableLiver</t>
+  </si>
+  <si>
+    <t>Palpable liver</t>
+  </si>
+  <si>
+    <t>palpableSpleen</t>
+  </si>
+  <si>
+    <t>Palpable spleen</t>
+  </si>
+  <si>
+    <t>patientIllLocation</t>
+  </si>
+  <si>
+    <t>pharyngealErythema</t>
+  </si>
+  <si>
+    <t>Pharyngeal erythema</t>
+  </si>
+  <si>
+    <t>pharyngealExudate</t>
+  </si>
+  <si>
+    <t>Pharyngeal exudate</t>
+  </si>
+  <si>
+    <t>rapidBreathing</t>
+  </si>
+  <si>
+    <t>Rapid breathing</t>
+  </si>
+  <si>
+    <t>Dengue, Other</t>
+  </si>
+  <si>
+    <t>redBloodVomit</t>
+  </si>
+  <si>
+    <t>Fresh/red blood in vomit (hematemesis)</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, Dengue, Other</t>
+  </si>
+  <si>
+    <t>refusalFeedorDrink</t>
+  </si>
+  <si>
+    <t>Refusal to feed or drink</t>
+  </si>
+  <si>
+    <t>EVD, Lassa, CSM, Cholera, Other</t>
+  </si>
+  <si>
+    <t>respiratoryRate</t>
+  </si>
+  <si>
+    <t>Respiratory rate (bpm)</t>
+  </si>
+  <si>
+    <t>runnyNose</t>
+  </si>
+  <si>
+    <t>Runny nose</t>
+  </si>
+  <si>
+    <t>Runny nose (rhinitis or coryza)</t>
+  </si>
+  <si>
+    <t>seizures</t>
+  </si>
+  <si>
+    <t>Convulsions or Seizures</t>
+  </si>
+  <si>
+    <t>sepsis</t>
+  </si>
+  <si>
+    <t>Sepsis</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>Shock (Systolic bp &lt;90)</t>
+  </si>
+  <si>
+    <t>sidePain</t>
+  </si>
+  <si>
+    <t>Side pain</t>
+  </si>
+  <si>
+    <t>skinBruising</t>
+  </si>
+  <si>
+    <t>Bruising of the skin (petechiae/ecchymosis)</t>
+  </si>
+  <si>
+    <t>skinRash</t>
+  </si>
+  <si>
+    <t>Maculopapular rash</t>
+  </si>
+  <si>
+    <t>Sudden onset of skin rash</t>
+  </si>
+  <si>
+    <t>soreThroat</t>
+  </si>
+  <si>
+    <t>Sore throat/pharyngitis</t>
+  </si>
+  <si>
+    <t>stomachBleeding</t>
+  </si>
+  <si>
+    <t>Bleeding from the stomach</t>
+  </si>
+  <si>
+    <t>sunkenEyesFontanelle</t>
+  </si>
+  <si>
+    <t>Sunken eyes or fontanelle</t>
+  </si>
+  <si>
+    <t>swollenGlands</t>
+  </si>
+  <si>
+    <t>Swollen glands</t>
+  </si>
+  <si>
     <t>symptomatic</t>
   </si>
   <si>
-    <t>true, false</t>
-  </si>
-  <si>
     <t>Symptomatic</t>
   </si>
   <si>
     <t>Did the person have any symptoms or signs of illness?</t>
   </si>
   <si>
-    <t>onsetDate</t>
-  </si>
-  <si>
-    <t>Date of symptom onset</t>
-  </si>
-  <si>
-    <t>Enter the date of onset of the person's first symptom (dd/mm/yyyy)</t>
-  </si>
-  <si>
-    <t>onsetSymptom</t>
-  </si>
-  <si>
-    <t>First symptom</t>
-  </si>
-  <si>
-    <t>What was the first symptom?</t>
+    <t>symptomsComments</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
   <si>
     <t>temperature</t>
   </si>
   <si>
-    <t>Current body temperature in °C</t>
+    <t>Current body temperature in ° C</t>
   </si>
   <si>
     <t>Enter the measured body temperature</t>
   </si>
   <si>
-    <t>EVD, Lassa, New flu, CSM, Cholera, Measles, Yellow fever, Dengue, Monkeypox, Plague, Other</t>
-  </si>
-  <si>
     <t>temperatureSource</t>
   </si>
   <si>
@@ -1211,34 +1955,34 @@
     <t>Select the source of body temperature</t>
   </si>
   <si>
-    <t>bloodPressureSystolic</t>
-  </si>
-  <si>
-    <t>Blood pressure (systolic)</t>
-  </si>
-  <si>
-    <t>bloodPressureDiastolic</t>
-  </si>
-  <si>
-    <t>Blood pressure (diastolic)</t>
-  </si>
-  <si>
-    <t>heartRate</t>
-  </si>
-  <si>
-    <t>Heart rate (bpm)</t>
-  </si>
-  <si>
-    <t>midUpperArmCircumference</t>
-  </si>
-  <si>
-    <t>Mid-upper arm circumf. (cm)</t>
-  </si>
-  <si>
-    <t>respiratoryRate</t>
-  </si>
-  <si>
-    <t>Respiratory rate (bpm)</t>
+    <t>throbocytopenia</t>
+  </si>
+  <si>
+    <t>Thrombocytopenia</t>
+  </si>
+  <si>
+    <t>Decreased level of thrombocytes in the blood</t>
+  </si>
+  <si>
+    <t>tremor</t>
+  </si>
+  <si>
+    <t>Tremor</t>
+  </si>
+  <si>
+    <t>unexplainedBleeding</t>
+  </si>
+  <si>
+    <t>Bleeding or bruising</t>
+  </si>
+  <si>
+    <t>Unexplained bleeding or bruising from any site not related to an injury</t>
+  </si>
+  <si>
+    <t>vomiting</t>
+  </si>
+  <si>
+    <t>Vomiting</t>
   </si>
   <si>
     <t>weight</t>
@@ -1247,750 +1991,6 @@
     <t>Weight (kg)</t>
   </si>
   <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>Height (cm)</t>
-  </si>
-  <si>
-    <t>glasgowComaScale</t>
-  </si>
-  <si>
-    <t>Glasgow coma scale</t>
-  </si>
-  <si>
-    <t>fever</t>
-  </si>
-  <si>
-    <t>SymptomState</t>
-  </si>
-  <si>
-    <t>Fever</t>
-  </si>
-  <si>
-    <t>&gt;= 38°C</t>
-  </si>
-  <si>
-    <t>vomiting</t>
-  </si>
-  <si>
-    <t>Vomiting</t>
-  </si>
-  <si>
-    <t>diarrhea</t>
-  </si>
-  <si>
-    <t>Diarrhea</t>
-  </si>
-  <si>
-    <t>&gt;= 3 loose stools within 24h</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, New flu, CSM, Cholera, Measles, Plague, Other</t>
-  </si>
-  <si>
-    <t>blackeningDeathOfTissue</t>
-  </si>
-  <si>
-    <t>Blackening and death of tissue in extremities</t>
-  </si>
-  <si>
-    <t>Plague, Other</t>
-  </si>
-  <si>
-    <t>bloodInStool</t>
-  </si>
-  <si>
-    <t>Blood in stool</t>
-  </si>
-  <si>
-    <t>Visible blood in stool</t>
-  </si>
-  <si>
-    <t>Cholera, Yellow fever, Other</t>
-  </si>
-  <si>
-    <t>buboesGroinArmpitNeck</t>
-  </si>
-  <si>
-    <t>Buboes in the groin, armpit or neck</t>
-  </si>
-  <si>
-    <t>bulgingFontanelle</t>
-  </si>
-  <si>
-    <t>Bulging fontanelle</t>
-  </si>
-  <si>
-    <t>CSM, Other</t>
-  </si>
-  <si>
-    <t>nausea</t>
-  </si>
-  <si>
-    <t>Nausea</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, New flu, CSM, Cholera, Yellow fever, Dengue, Monkeypox, Plague, Other</t>
-  </si>
-  <si>
-    <t>abdominalPain</t>
-  </si>
-  <si>
-    <t>Abdominal pain</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, New flu, Cholera, Yellow fever, Dengue, Plague, Other</t>
-  </si>
-  <si>
-    <t>headache</t>
-  </si>
-  <si>
-    <t>Headache</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, New flu, CSM, Yellow fever, Dengue, Monkeypox, Plague, Other</t>
-  </si>
-  <si>
-    <t>musclePain</t>
-  </si>
-  <si>
-    <t>Muscle pain</t>
-  </si>
-  <si>
-    <t>Muscle pain (myalgia)</t>
-  </si>
-  <si>
-    <t>fatigueWeakness</t>
-  </si>
-  <si>
-    <t>Fatigue/general weakness</t>
-  </si>
-  <si>
-    <t>Fatigue or general weakness</t>
-  </si>
-  <si>
-    <t>unexplainedBleeding</t>
-  </si>
-  <si>
-    <t>Bleeding or bruising</t>
-  </si>
-  <si>
-    <t>Unexplained bleeding or bruising from any site not related to an injury</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, Yellow fever, Dengue, Plague, Other</t>
-  </si>
-  <si>
-    <t>eyesBleeding</t>
-  </si>
-  <si>
-    <t>Bleeding from the eyes</t>
-  </si>
-  <si>
-    <t>Yellow fever, Other</t>
-  </si>
-  <si>
-    <t>gumsBleeding</t>
-  </si>
-  <si>
-    <t>Bleeding of the gums</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, Yellow fever, Dengue, Other</t>
-  </si>
-  <si>
-    <t>stomachBleeding</t>
-  </si>
-  <si>
-    <t>Bleeding from the stomach</t>
-  </si>
-  <si>
-    <t>injectionSiteBleeding</t>
-  </si>
-  <si>
-    <t>Bleeding from injection site</t>
-  </si>
-  <si>
-    <t>noseBleeding</t>
-  </si>
-  <si>
-    <t>Nose bleed (epistaxis)</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, Yellow fever, Other</t>
-  </si>
-  <si>
-    <t>bloodyBlackStool</t>
-  </si>
-  <si>
-    <t>Bloody or black stools (melena)</t>
-  </si>
-  <si>
-    <t>redBloodVomit</t>
-  </si>
-  <si>
-    <t>Fresh/red blood in vomit (hematemesis)</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, Dengue, Other</t>
-  </si>
-  <si>
-    <t>digestedBloodVomit</t>
-  </si>
-  <si>
-    <t>Digested blood/"coffee grounds" in vomit</t>
-  </si>
-  <si>
-    <t>coughingBlood</t>
-  </si>
-  <si>
-    <t>Coughing up blood (haemoptysis)</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, Plague, Other</t>
-  </si>
-  <si>
-    <t>bleedingVagina</t>
-  </si>
-  <si>
-    <t>Bleeding from vagina, other than menstruation</t>
-  </si>
-  <si>
-    <t>skinBruising</t>
-  </si>
-  <si>
-    <t>Bruising of the skin (petechiae/ecchymosis)</t>
-  </si>
-  <si>
-    <t>bloodUrine</t>
-  </si>
-  <si>
-    <t>Blood in urine (hematuria)</t>
-  </si>
-  <si>
-    <t>otherHemorrhagicSymptoms</t>
-  </si>
-  <si>
-    <t>Other hemorrhagic symptoms</t>
-  </si>
-  <si>
-    <t>otherHemorrhagicSymptomsText</t>
-  </si>
-  <si>
-    <t>Specify other symptoms</t>
-  </si>
-  <si>
-    <t>Specify other hemorrhagic symptoms</t>
-  </si>
-  <si>
-    <t>skinRash</t>
-  </si>
-  <si>
-    <t>Maculopapular rash</t>
-  </si>
-  <si>
-    <t>Sudden onset of skin rash</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, New flu, CSM, Measles, Dengue, Other</t>
-  </si>
-  <si>
-    <t>neckStiffness</t>
-  </si>
-  <si>
-    <t>Stiff neck</t>
-  </si>
-  <si>
-    <t>Neck feels stiff</t>
-  </si>
-  <si>
-    <t>soreThroat</t>
-  </si>
-  <si>
-    <t>Sore throat/pharyngitis</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, New flu, Measles, Monkeypox, Other</t>
-  </si>
-  <si>
-    <t>cough</t>
-  </si>
-  <si>
-    <t>Cough</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, New flu, Measles, Monkeypox, Plague, Other</t>
-  </si>
-  <si>
-    <t>runnyNose</t>
-  </si>
-  <si>
-    <t>Runny nose</t>
-  </si>
-  <si>
-    <t>Runny nose (rhinitis or coryza)</t>
-  </si>
-  <si>
-    <t>New flu, Measles, Other</t>
-  </si>
-  <si>
-    <t>difficultyBreathing</t>
-  </si>
-  <si>
-    <t>Difficulty breathing</t>
-  </si>
-  <si>
-    <t>Difficulty breathing or shortness of breath</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, New flu, Measles, Plague, Other</t>
-  </si>
-  <si>
-    <t>chestPain</t>
-  </si>
-  <si>
-    <t>Chest pain</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, New flu, Plague, Other</t>
-  </si>
-  <si>
-    <t>conjunctivitis</t>
-  </si>
-  <si>
-    <t>Conjunctivitis (red eyes)</t>
-  </si>
-  <si>
-    <t>Conjunctivitis, redness of the eyes</t>
-  </si>
-  <si>
-    <t>eyePainLightSensitive</t>
-  </si>
-  <si>
-    <t>Pain behind eyes/Sensitivity to light</t>
-  </si>
-  <si>
-    <t>ain behind eyes or eyes sensitive to light</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, New flu, CSM, Measles, Dengue, Monkeypox, Other</t>
-  </si>
-  <si>
-    <t>kopliksSpots</t>
-  </si>
-  <si>
-    <t>Koplik's Spots</t>
-  </si>
-  <si>
-    <t>Measles, Other</t>
-  </si>
-  <si>
-    <t>throbocytopenia</t>
-  </si>
-  <si>
-    <t>Thrombocytopenia</t>
-  </si>
-  <si>
-    <t>Decreased level of thrombocytes in the blood</t>
-  </si>
-  <si>
-    <t>otitisMedia</t>
-  </si>
-  <si>
-    <t>Middle ear inflammation (otitis media)</t>
-  </si>
-  <si>
-    <t>hearingloss</t>
-  </si>
-  <si>
-    <t>Acute hearing loss</t>
-  </si>
-  <si>
-    <t>Acute hearing loss not related to an injury</t>
-  </si>
-  <si>
-    <t>dehydration</t>
-  </si>
-  <si>
-    <t>Dehydration</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, Cholera, Other</t>
-  </si>
-  <si>
-    <t>anorexiaAppetiteLoss</t>
-  </si>
-  <si>
-    <t>Anorexia/loss of appetite</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, CSM, Cholera, Yellow fever, Other</t>
-  </si>
-  <si>
-    <t>refusalFeedorDrink</t>
-  </si>
-  <si>
-    <t>Refusal to feed or drink</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, CSM, Cholera, Other</t>
-  </si>
-  <si>
-    <t>jointPain</t>
-  </si>
-  <si>
-    <t>Joint pain or arthritis</t>
-  </si>
-  <si>
-    <t>hiccups</t>
-  </si>
-  <si>
-    <t>Hiccups</t>
-  </si>
-  <si>
-    <t>backache</t>
-  </si>
-  <si>
-    <t>Backache</t>
-  </si>
-  <si>
-    <t>jaundice</t>
-  </si>
-  <si>
-    <t>Jaundice</t>
-  </si>
-  <si>
-    <t>Yellow fever, Lassa, Other</t>
-  </si>
-  <si>
-    <t>darkUrine</t>
-  </si>
-  <si>
-    <t>Dark Urine</t>
-  </si>
-  <si>
-    <t>rapidBreathing</t>
-  </si>
-  <si>
-    <t>Rapid breathing</t>
-  </si>
-  <si>
-    <t>Dengue, Other</t>
-  </si>
-  <si>
-    <t>swollenGlands</t>
-  </si>
-  <si>
-    <t>Swollen glands</t>
-  </si>
-  <si>
-    <t>lesions</t>
-  </si>
-  <si>
-    <t>Vesiculopustular rash</t>
-  </si>
-  <si>
-    <t>Monkeypox, Other</t>
-  </si>
-  <si>
-    <t>lesionsSameState</t>
-  </si>
-  <si>
-    <t>All rash lesions in same state of development?</t>
-  </si>
-  <si>
-    <t>lesionsSameSize</t>
-  </si>
-  <si>
-    <t>All rash lesions the same size?</t>
-  </si>
-  <si>
-    <t>lesionsDeepProfound</t>
-  </si>
-  <si>
-    <t>Rash lesions deep and profound?</t>
-  </si>
-  <si>
-    <t>lesionsFace</t>
-  </si>
-  <si>
-    <t>Face</t>
-  </si>
-  <si>
-    <t>lesionsLegs</t>
-  </si>
-  <si>
-    <t>Legs</t>
-  </si>
-  <si>
-    <t>lesionsSolesFeet</t>
-  </si>
-  <si>
-    <t>Soles of the feet</t>
-  </si>
-  <si>
-    <t>lesionsPalmsHands</t>
-  </si>
-  <si>
-    <t>Palms of the hands</t>
-  </si>
-  <si>
-    <t>lesionsThorax</t>
-  </si>
-  <si>
-    <t>Thorax</t>
-  </si>
-  <si>
-    <t>lesionsArms</t>
-  </si>
-  <si>
-    <t>Arms</t>
-  </si>
-  <si>
-    <t>lesionsGenitals</t>
-  </si>
-  <si>
-    <t>Genitals</t>
-  </si>
-  <si>
-    <t>lesionsAllOverBody</t>
-  </si>
-  <si>
-    <t>All over the body</t>
-  </si>
-  <si>
-    <t>lesionsResembleImg1</t>
-  </si>
-  <si>
-    <t>Does the rash resemble the photo below?</t>
-  </si>
-  <si>
-    <t>lesionsResembleImg2</t>
-  </si>
-  <si>
-    <t>lesionsResembleImg3</t>
-  </si>
-  <si>
-    <t>lesionsResembleImg4</t>
-  </si>
-  <si>
-    <t>lesionsOnsetDate</t>
-  </si>
-  <si>
-    <t>Date of rash onset</t>
-  </si>
-  <si>
-    <t>lymphadenopathyInguinal</t>
-  </si>
-  <si>
-    <t>Enlarged lymph nodes, inguinal</t>
-  </si>
-  <si>
-    <t>lymphadenopathyAxillary</t>
-  </si>
-  <si>
-    <t>Enlarged lymph nodes, axillary</t>
-  </si>
-  <si>
-    <t>lymphadenopathyCervical</t>
-  </si>
-  <si>
-    <t>Enlarged lymph nodes, cervical</t>
-  </si>
-  <si>
-    <t>painfulLymphadenitis</t>
-  </si>
-  <si>
-    <t>Painful lymphadenitis</t>
-  </si>
-  <si>
-    <t>chillsSweats</t>
-  </si>
-  <si>
-    <t>Chills or sweats</t>
-  </si>
-  <si>
-    <t>Monkeypox, Plague, Other</t>
-  </si>
-  <si>
-    <t>lesionsThatItch</t>
-  </si>
-  <si>
-    <t>Rash that itches</t>
-  </si>
-  <si>
-    <t>bedridden</t>
-  </si>
-  <si>
-    <t>Is the patient bedridden?</t>
-  </si>
-  <si>
-    <t>oralUlcers</t>
-  </si>
-  <si>
-    <t>Oral ulcers</t>
-  </si>
-  <si>
-    <t>pharyngealErythema</t>
-  </si>
-  <si>
-    <t>Pharyngeal erythema</t>
-  </si>
-  <si>
-    <t>Lassa, Other</t>
-  </si>
-  <si>
-    <t>pharyngealExudate</t>
-  </si>
-  <si>
-    <t>Pharyngeal exudate</t>
-  </si>
-  <si>
-    <t>oedemaFaceNeck</t>
-  </si>
-  <si>
-    <t>Oedema of face/neck</t>
-  </si>
-  <si>
-    <t>oedemaLowerExtremity</t>
-  </si>
-  <si>
-    <t>Oedema of lower extremities</t>
-  </si>
-  <si>
-    <t>lossSkinTurgor</t>
-  </si>
-  <si>
-    <t>Loss of skin turgor</t>
-  </si>
-  <si>
-    <t>palpableLiver</t>
-  </si>
-  <si>
-    <t>Palpable liver</t>
-  </si>
-  <si>
-    <t>palpableSpleen</t>
-  </si>
-  <si>
-    <t>Palpable spleen</t>
-  </si>
-  <si>
-    <t>malaise</t>
-  </si>
-  <si>
-    <t>Malaise</t>
-  </si>
-  <si>
-    <t>sunkenEyesFontanelle</t>
-  </si>
-  <si>
-    <t>Sunken eyes or fontanelle</t>
-  </si>
-  <si>
-    <t>sidePain</t>
-  </si>
-  <si>
-    <t>Side pain</t>
-  </si>
-  <si>
-    <t>fluidInLungCavity</t>
-  </si>
-  <si>
-    <t>Fluid in the lung cavity</t>
-  </si>
-  <si>
-    <t>tremor</t>
-  </si>
-  <si>
-    <t>Tremor</t>
-  </si>
-  <si>
-    <t>otherNonHemorrhagicSymptoms</t>
-  </si>
-  <si>
-    <t>Other clinical symptoms</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, New flu, CSM, Cholera, Measles, Dengue, Monkeypox, Plague, Other</t>
-  </si>
-  <si>
-    <t>otherNonHemorrhagicSymptomsText</t>
-  </si>
-  <si>
-    <t>symptomsComments</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>patientIllLocation</t>
-  </si>
-  <si>
-    <t>alteredConsciousness</t>
-  </si>
-  <si>
-    <t>Altered level of consciousness</t>
-  </si>
-  <si>
-    <t>Altered level of consciousness, e.g. lethargy, stuporous, coma</t>
-  </si>
-  <si>
-    <t>EVD, Lassa, New flu, CSM, Cholera, Measles, Other</t>
-  </si>
-  <si>
-    <t>confusedDisoriented</t>
-  </si>
-  <si>
-    <t>Confused or disoriented</t>
-  </si>
-  <si>
-    <t>hemorrhagicSyndrome</t>
-  </si>
-  <si>
-    <t>Hemorrhagic syndrome</t>
-  </si>
-  <si>
-    <t>hyperglycemia</t>
-  </si>
-  <si>
-    <t>Hyperglycemia</t>
-  </si>
-  <si>
-    <t>CSM, Lassa, Other</t>
-  </si>
-  <si>
-    <t>hypoglycemia</t>
-  </si>
-  <si>
-    <t>Hypoglycemia</t>
-  </si>
-  <si>
-    <t>meningealSigns</t>
-  </si>
-  <si>
-    <t>Meningeal signs</t>
-  </si>
-  <si>
-    <t>seizures</t>
-  </si>
-  <si>
-    <t>Convulsions or Seizures</t>
-  </si>
-  <si>
-    <t>sepsis</t>
-  </si>
-  <si>
-    <t>Sepsis</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>Shock (Systolic bp &lt;90)</t>
-  </si>
-  <si>
     <t>AXILLARY</t>
   </si>
   <si>
@@ -3656,7 +3656,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.17.0-SNAPSHOT</t>
+    <t>1.18.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -4016,7 +4016,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="SymptomsTemperatureSource" displayName="SymptomsTemperatureSource" ref="A116:E120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="SymptomsSymptomState" displayName="SymptomsSymptomState" ref="A116:E119">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -4030,7 +4030,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="SymptomsSymptomState" displayName="SymptomsSymptomState" ref="A122:E125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="SymptomsTemperatureSource" displayName="SymptomsTemperatureSource" ref="A121:E125">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6482,7 +6482,7 @@
         <v>992</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="C11" t="s">
         <v>993</v>
@@ -6501,7 +6501,7 @@
         <v>994</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="C12" t="s">
         <v>995</v>
@@ -9020,7 +9020,7 @@
         <v>1189</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -9539,7 +9539,7 @@
         <v>1197</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="C2" t="s">
         <v>1198</v>
@@ -12063,11 +12063,11 @@
         <v>377</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>378</v>
+        <v>17</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="G2"/>
     </row>
@@ -12076,7 +12076,7 @@
         <v>379</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
         <v>380</v>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="E3"/>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>382</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -12094,81 +12094,79 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>376</v>
       </c>
       <c r="C4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>384</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4"/>
+        <v>385</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>387</v>
+        <v>17</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
+      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>389</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" t="s">
         <v>390</v>
       </c>
-      <c r="C6" t="s">
-        <v>391</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>392</v>
+        <v>17</v>
       </c>
       <c r="E6"/>
       <c r="F6" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" t="s">
         <v>393</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>394</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="5" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
       <c r="G7"/>
     </row>
@@ -12177,7 +12175,7 @@
         <v>395</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
         <v>396</v>
@@ -12187,7 +12185,7 @@
       </c>
       <c r="E8"/>
       <c r="F8" s="5" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G8"/>
     </row>
@@ -12196,29 +12194,29 @@
         <v>397</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
         <v>398</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>399</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="5" t="s">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>17</v>
@@ -12231,13 +12229,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>17</v>
@@ -12250,77 +12248,77 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="C12" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="5" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="C13" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="5" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="C14" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E14"/>
       <c r="F14" s="5" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
       <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" s="5" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -12328,20 +12326,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" s="5" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -12349,20 +12347,20 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>417</v>
+        <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -12370,77 +12368,81 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>17</v>
+        <v>421</v>
       </c>
       <c r="E18"/>
       <c r="F18" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="G18"/>
+        <v>422</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="G20"/>
+        <v>429</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C21" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E21"/>
       <c r="F21" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -12448,60 +12450,58 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C22" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>17</v>
+        <v>440</v>
       </c>
       <c r="E24"/>
       <c r="F24" s="5" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -12509,81 +12509,79 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E25"/>
       <c r="F25" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>445</v>
+        <v>17</v>
       </c>
       <c r="E26"/>
       <c r="F26" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C27" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E27"/>
       <c r="F27" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G27"/>
+        <v>450</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E28"/>
       <c r="F28" s="5" t="s">
-        <v>452</v>
+        <v>388</v>
       </c>
       <c r="G28"/>
     </row>
@@ -12592,127 +12590,133 @@
         <v>453</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C29" t="s">
         <v>454</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>17</v>
+        <v>455</v>
       </c>
       <c r="E29"/>
       <c r="F29" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="G29"/>
+        <v>456</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C30" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>17</v>
+        <v>459</v>
       </c>
       <c r="E30"/>
       <c r="F30" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="G30"/>
+        <v>456</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C31" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E31"/>
       <c r="F31" s="5" t="s">
-        <v>60</v>
+        <v>462</v>
       </c>
       <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E32"/>
       <c r="F32" s="5" t="s">
-        <v>462</v>
+        <v>11</v>
       </c>
       <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C33" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E33"/>
       <c r="F33" s="5" t="s">
-        <v>60</v>
+        <v>467</v>
       </c>
       <c r="G33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C34" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E34"/>
       <c r="F34" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="G34"/>
+        <v>470</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C35" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>17</v>
+        <v>473</v>
       </c>
       <c r="E35"/>
       <c r="F35" s="5" t="s">
@@ -12722,218 +12726,218 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E36"/>
       <c r="F36" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E37"/>
       <c r="F37" s="5" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C38" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E38"/>
       <c r="F38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38"/>
+        <v>480</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C39" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="E39"/>
       <c r="F39" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C40" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E40"/>
       <c r="F40" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G40"/>
+        <v>485</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>8</v>
+        <v>376</v>
       </c>
       <c r="C41" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>483</v>
+        <v>17</v>
       </c>
       <c r="E41"/>
       <c r="F41" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G41"/>
+        <v>485</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C42" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="E42"/>
       <c r="F42" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C43" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>490</v>
+        <v>17</v>
       </c>
       <c r="E43"/>
       <c r="F43" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="G43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C44" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E44"/>
       <c r="F44" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="G44"/>
+        <v>495</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C45" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>17</v>
+        <v>497</v>
       </c>
       <c r="E45"/>
       <c r="F45" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="G45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C46" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>499</v>
+        <v>17</v>
       </c>
       <c r="E46"/>
       <c r="F46" s="5" t="s">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="G46"/>
     </row>
@@ -12942,747 +12946,753 @@
         <v>501</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="C47" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>503</v>
+        <v>17</v>
       </c>
       <c r="E47"/>
       <c r="F47" s="5" t="s">
-        <v>504</v>
+        <v>391</v>
       </c>
       <c r="G47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>504</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C48" t="s">
         <v>505</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C48" t="s">
-        <v>506</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E48"/>
       <c r="F48" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="G48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C49" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>510</v>
+        <v>17</v>
       </c>
       <c r="E49"/>
       <c r="F49" s="5" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="G49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="C50" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>513</v>
+        <v>17</v>
       </c>
       <c r="E50"/>
       <c r="F50" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="G50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="C51" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>516</v>
+        <v>17</v>
       </c>
       <c r="E51"/>
       <c r="F51" s="5" t="s">
-        <v>517</v>
+        <v>391</v>
       </c>
       <c r="G51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="C52" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>520</v>
+        <v>17</v>
       </c>
       <c r="E52"/>
       <c r="F52" s="5" t="s">
-        <v>60</v>
+        <v>391</v>
       </c>
       <c r="G52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>410</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E53"/>
       <c r="F53" s="5" t="s">
-        <v>500</v>
+        <v>133</v>
       </c>
       <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="C54" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="E54"/>
       <c r="F54" s="5" t="s">
-        <v>60</v>
+        <v>391</v>
       </c>
       <c r="G54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C55" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E55"/>
       <c r="F55" s="5" t="s">
-        <v>528</v>
+        <v>133</v>
       </c>
       <c r="G55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C56" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E56"/>
       <c r="F56" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C57" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>533</v>
+        <v>17</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="5" t="s">
-        <v>534</v>
+        <v>133</v>
       </c>
       <c r="G57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C58" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C59" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="5" t="s">
-        <v>55</v>
+        <v>391</v>
       </c>
       <c r="G59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C60" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E60"/>
       <c r="F60" s="5" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="G60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="C61" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="5" t="s">
-        <v>543</v>
+        <v>391</v>
       </c>
       <c r="G61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C62" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="5" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="G62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="C63" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E63"/>
       <c r="F63" s="5" t="s">
-        <v>548</v>
+        <v>391</v>
       </c>
       <c r="G63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C64" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="5" t="s">
-        <v>548</v>
+        <v>462</v>
       </c>
       <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C65" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="5" t="s">
-        <v>553</v>
+        <v>391</v>
       </c>
       <c r="G65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C66" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="5" t="s">
-        <v>553</v>
+        <v>391</v>
       </c>
       <c r="G66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C67" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="5" t="s">
-        <v>553</v>
+        <v>391</v>
       </c>
       <c r="G67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C68" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="5" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="G68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>376</v>
       </c>
       <c r="C69" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E69"/>
       <c r="F69" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="G69"/>
+        <v>485</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>376</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E70"/>
       <c r="F70" s="5" t="s">
-        <v>553</v>
+        <v>11</v>
       </c>
       <c r="G70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>376</v>
       </c>
       <c r="C71" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>17</v>
+        <v>549</v>
       </c>
       <c r="E71"/>
       <c r="F71" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="G71"/>
+        <v>456</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>376</v>
       </c>
       <c r="C72" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="G72"/>
+        <v>552</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>376</v>
       </c>
       <c r="C73" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>17</v>
+        <v>555</v>
       </c>
       <c r="E73"/>
       <c r="F73" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="G73"/>
+        <v>413</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>376</v>
       </c>
       <c r="C74" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E74"/>
       <c r="F74" s="5" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="G74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>376</v>
       </c>
       <c r="C75" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E75"/>
       <c r="F75" s="5" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="G75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>376</v>
       </c>
       <c r="C76" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E76"/>
       <c r="F76" s="5" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="G76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>410</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>17</v>
+        <v>565</v>
       </c>
       <c r="E77"/>
       <c r="F77" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G77"/>
+        <v>11</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>410</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>17</v>
+        <v>568</v>
       </c>
       <c r="E78"/>
       <c r="F78" s="5" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="G78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C79" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E79"/>
       <c r="F79" s="5" t="s">
-        <v>133</v>
+        <v>391</v>
       </c>
       <c r="G79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C80" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E80"/>
       <c r="F80" s="5" t="s">
-        <v>133</v>
+        <v>432</v>
       </c>
       <c r="G80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E81"/>
       <c r="F81" s="5" t="s">
-        <v>133</v>
+        <v>432</v>
       </c>
       <c r="G81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C82" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E82"/>
       <c r="F82" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="G82"/>
+        <v>578</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>410</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E83"/>
       <c r="F83" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="G83"/>
+        <v>578</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C84" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E84"/>
       <c r="F84" s="5" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="G84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C85" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E85"/>
       <c r="F85" s="5" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -13690,151 +13700,149 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C86" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E86"/>
       <c r="F86" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C87" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E87"/>
       <c r="F87" s="5" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="G87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>410</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>597</v>
+        <v>17</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E88"/>
       <c r="F88" s="5" t="s">
-        <v>553</v>
+        <v>391</v>
       </c>
       <c r="G88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C89" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E89"/>
       <c r="F89" s="5" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="G89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C90" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E90"/>
       <c r="F90" s="5" t="s">
-        <v>602</v>
+        <v>462</v>
       </c>
       <c r="G90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C91" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E91"/>
       <c r="F91" s="5" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C92" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E92"/>
       <c r="F92" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C93" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>17</v>
+        <v>601</v>
       </c>
       <c r="E93"/>
       <c r="F93" s="5" t="s">
@@ -13844,294 +13852,294 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E94"/>
       <c r="F94" s="5" t="s">
-        <v>602</v>
+        <v>11</v>
       </c>
       <c r="G94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C95" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>17</v>
+        <v>607</v>
       </c>
       <c r="E95"/>
       <c r="F95" s="5" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="G95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C96" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E96"/>
       <c r="F96" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="G96"/>
+        <v>382</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C97" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E97"/>
       <c r="F97" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="G97"/>
+        <v>382</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C98" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E98"/>
       <c r="F98" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="G98"/>
+        <v>422</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C99" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E99"/>
       <c r="F99" s="5" t="s">
-        <v>602</v>
+        <v>462</v>
       </c>
       <c r="G99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C100" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E100"/>
       <c r="F100" s="5" t="s">
-        <v>602</v>
+        <v>60</v>
       </c>
       <c r="G100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C101" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>17</v>
+        <v>620</v>
       </c>
       <c r="E101"/>
       <c r="F101" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="G101"/>
+        <v>495</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C102" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E102"/>
       <c r="F102" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="G102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>8</v>
+        <v>376</v>
       </c>
       <c r="C103" t="s">
-        <v>482</v>
+        <v>624</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E103"/>
       <c r="F103" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>8</v>
+        <v>376</v>
       </c>
       <c r="C104" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E104"/>
       <c r="F104" s="5" t="s">
-        <v>627</v>
+        <v>462</v>
       </c>
       <c r="G104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>8</v>
+        <v>376</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>628</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E105"/>
       <c r="F105" s="5" t="s">
-        <v>553</v>
+        <v>596</v>
       </c>
       <c r="G105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="C106" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E106"/>
       <c r="F106" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>410</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>637</v>
+        <v>17</v>
       </c>
       <c r="E107"/>
       <c r="F107" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="G107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>17</v>
+        <v>636</v>
       </c>
       <c r="E108"/>
       <c r="F108" s="5" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
@@ -14139,20 +14147,20 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>637</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C109" t="s">
+        <v>639</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C109" t="s">
-        <v>641</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E109"/>
       <c r="F109" s="5" t="s">
-        <v>642</v>
+        <v>456</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
@@ -14160,73 +14168,67 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>641</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C110" t="s">
+        <v>642</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>643</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C110" t="s">
-        <v>644</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E110"/>
       <c r="F110" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>644</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C111" t="s">
         <v>645</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C111" t="s">
-        <v>646</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E111"/>
       <c r="F111" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>646</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C112" t="s">
         <v>647</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D112" s="5" t="s">
         <v>648</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E112"/>
       <c r="F112" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="G112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>649</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C113" t="s">
         <v>650</v>
@@ -14236,7 +14238,7 @@
       </c>
       <c r="E113"/>
       <c r="F113" s="5" t="s">
-        <v>635</v>
+        <v>456</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -14247,7 +14249,7 @@
         <v>651</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="C114" t="s">
         <v>652</v>
@@ -14257,11 +14259,9 @@
       </c>
       <c r="E114"/>
       <c r="F114" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G114"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -14282,13 +14282,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B117" t="s">
-        <v>653</v>
+        <v>338</v>
       </c>
       <c r="C117" t="s">
-        <v>654</v>
+        <v>339</v>
       </c>
       <c r="D117" t="s">
         <v>17</v>
@@ -14300,10 +14300,10 @@
     <row r="118">
       <c r="A118"/>
       <c r="B118" t="s">
-        <v>655</v>
+        <v>340</v>
       </c>
       <c r="C118" t="s">
-        <v>656</v>
+        <v>341</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
@@ -14315,10 +14315,10 @@
     <row r="119">
       <c r="A119"/>
       <c r="B119" t="s">
-        <v>657</v>
+        <v>336</v>
       </c>
       <c r="C119" t="s">
-        <v>658</v>
+        <v>337</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
@@ -14327,47 +14327,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120"/>
-      <c r="B120" t="s">
-        <v>659</v>
-      </c>
-      <c r="C120" t="s">
-        <v>660</v>
-      </c>
-      <c r="D120" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120" t="s">
-        <v>17</v>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>97</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>1</v>
+        <v>638</v>
       </c>
       <c r="B122" t="s">
-        <v>97</v>
+        <v>653</v>
       </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>654</v>
       </c>
       <c r="D122" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s">
-        <v>410</v>
-      </c>
+      <c r="A123"/>
       <c r="B123" t="s">
-        <v>338</v>
+        <v>655</v>
       </c>
       <c r="C123" t="s">
-        <v>339</v>
+        <v>656</v>
       </c>
       <c r="D123" t="s">
         <v>17</v>
@@ -14379,10 +14379,10 @@
     <row r="124">
       <c r="A124"/>
       <c r="B124" t="s">
-        <v>340</v>
+        <v>657</v>
       </c>
       <c r="C124" t="s">
-        <v>341</v>
+        <v>658</v>
       </c>
       <c r="D124" t="s">
         <v>17</v>
@@ -14394,10 +14394,10 @@
     <row r="125">
       <c r="A125"/>
       <c r="B125" t="s">
-        <v>336</v>
+        <v>659</v>
       </c>
       <c r="C125" t="s">
-        <v>337</v>
+        <v>660</v>
       </c>
       <c r="D125" t="s">
         <v>17</v>
@@ -14509,7 +14509,7 @@
       </c>
       <c r="E4"/>
       <c r="F4" s="6" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="G4"/>
     </row>
@@ -14598,7 +14598,7 @@
       </c>
       <c r="E9"/>
       <c r="F9" s="6" t="s">
-        <v>602</v>
+        <v>462</v>
       </c>
       <c r="G9"/>
     </row>
@@ -15130,7 +15130,7 @@
       </c>
       <c r="E37"/>
       <c r="F37" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="G37"/>
     </row>
@@ -15149,7 +15149,7 @@
       </c>
       <c r="E38"/>
       <c r="F38" s="6" t="s">
-        <v>553</v>
+        <v>391</v>
       </c>
       <c r="G38"/>
     </row>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="E39"/>
       <c r="F39" s="6" t="s">
-        <v>553</v>
+        <v>391</v>
       </c>
       <c r="G39"/>
     </row>
@@ -15187,7 +15187,7 @@
       </c>
       <c r="E40"/>
       <c r="F40" s="6" t="s">
-        <v>553</v>
+        <v>391</v>
       </c>
       <c r="G40"/>
     </row>
@@ -17427,7 +17427,7 @@
         <v>924</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="C23" t="s">
         <v>925</v>
@@ -17446,7 +17446,7 @@
         <v>926</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="C24" t="s">
         <v>927</v>
@@ -17484,7 +17484,7 @@
         <v>931</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="C26" t="s">
         <v>932</v>
@@ -17503,7 +17503,7 @@
         <v>933</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="C27" t="s">
         <v>934</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -4420,7 +4420,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.23.0-SNAPSHOT</t>
+    <t>1.24.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -4420,7 +4420,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.24.0-SNAPSHOT</t>
+    <t>1.25.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -4420,7 +4420,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.25.0-SNAPSHOT</t>
+    <t>1.26.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -4420,7 +4420,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.26.0-SNAPSHOT</t>
+    <t>1.27.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -4420,7 +4420,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.27.0-SNAPSHOT</t>
+    <t>1.28.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4504" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4494" uniqueCount="1460">
   <si>
     <t>Field</t>
   </si>
@@ -4363,12 +4363,6 @@
     <t>Epid code</t>
   </si>
   <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
     <t>growthRate</t>
   </si>
   <si>
@@ -4420,7 +4414,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.28.0-SNAPSHOT</t>
+    <t>1.29.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -5691,7 +5685,7 @@
 </file>
 
 <file path=xl/tables/table82.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="82" name="Region" displayName="Region" ref="A1:G5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="82" name="Region" displayName="Region" ref="A1:G4">
   <autoFilter/>
   <tableColumns count="7">
     <tableColumn id="1" name="Field"/>
@@ -5707,7 +5701,7 @@
 </file>
 
 <file path=xl/tables/table83.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="83" name="District" displayName="District" ref="A1:G6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="83" name="District" displayName="District" ref="A1:G5">
   <autoFilter/>
   <tableColumns count="7">
     <tableColumn id="1" name="Field"/>
@@ -14507,6 +14501,111 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.0" customWidth="true"/>
+    <col min="2" max="2" width="30.0" customWidth="true"/>
+    <col min="3" max="3" width="30.0" customWidth="true"/>
+    <col min="4" max="4" width="60.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="45.0" customWidth="true"/>
+    <col min="7" max="7" width="10.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14549,17 +14648,17 @@
       <c r="A2" t="s">
         <v>1432</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>1433</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E2"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -14568,17 +14667,17 @@
       <c r="A3" t="s">
         <v>1440</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>1441</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -14587,154 +14686,30 @@
       <c r="A4" t="s">
         <v>1442</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>1443</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>29</v>
+        <v>214</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.0" customWidth="true"/>
-    <col min="2" max="2" width="30.0" customWidth="true"/>
-    <col min="3" max="3" width="30.0" customWidth="true"/>
-    <col min="4" max="4" width="60.0" customWidth="true"/>
-    <col min="5" max="5" width="10.0" customWidth="true"/>
-    <col min="6" max="6" width="45.0" customWidth="true"/>
-    <col min="7" max="7" width="10.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1445</v>
+        <v>215</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>17</v>
@@ -14744,25 +14719,6 @@
         <v>11</v>
       </c>
       <c r="G5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -14919,13 +14875,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>584</v>
       </c>
       <c r="C2" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>17</v>
@@ -14938,13 +14894,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>17</v>
@@ -14995,7 +14951,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>8</v>
@@ -15052,11 +15008,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>17</v>
@@ -15145,7 +15101,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>52</v>
@@ -15170,7 +15126,7 @@
         <v>356</v>
       </c>
       <c r="C15" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>17</v>
@@ -15183,13 +15139,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C16" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>17</v>
@@ -15202,16 +15158,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="23" t="s">
@@ -15482,12 +15438,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -2821,7 +2821,7 @@
     <t>abnormalLungXrayFindings</t>
   </si>
   <si>
-    <t>Anormal lung X-Ray findings</t>
+    <t>Abnormal lung X-Ray findings</t>
   </si>
   <si>
     <t>conjunctivalInjection</t>
@@ -5218,7 +5218,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.32.0-SNAPSHOT</t>
+    <t>1.33.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -5218,7 +5218,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.33.0-SNAPSHOT</t>
+    <t>1.34.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6407" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6412" uniqueCount="1784">
   <si>
     <t>Field</t>
   </si>
@@ -3763,12 +3763,6 @@
     <t>Source case</t>
   </si>
   <si>
-    <t>caseDisease</t>
-  </si>
-  <si>
-    <t>Disease of source case</t>
-  </si>
-  <si>
     <t>lastContactDate</t>
   </si>
   <si>
@@ -5392,7 +5386,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.36.0-SNAPSHOT</t>
+    <t>1.37.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -6179,7 +6173,7 @@
 </file>
 
 <file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Contact" displayName="Contact" ref="A1:H32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Contact" displayName="Contact" ref="A1:H33">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6196,7 +6190,7 @@
 </file>
 
 <file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="ContactDisease" displayName="ContactDisease" ref="A34:E90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="ContactDisease" displayName="ContactDisease" ref="A35:E91">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6210,7 +6204,7 @@
 </file>
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="ContactContactProximity" displayName="ContactContactProximity" ref="A92:E102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="ContactContactProximity" displayName="ContactContactProximity" ref="A93:E103">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6224,7 +6218,7 @@
 </file>
 
 <file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="ContactContactClassification" displayName="ContactContactClassification" ref="A104:E107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="ContactContactClassification" displayName="ContactContactClassification" ref="A105:E108">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6238,7 +6232,7 @@
 </file>
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ContactContactStatus" displayName="ContactContactStatus" ref="A109:E112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ContactContactStatus" displayName="ContactContactStatus" ref="A110:E113">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6252,7 +6246,7 @@
 </file>
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ContactFollowUpStatus" displayName="ContactFollowUpStatus" ref="A114:E119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ContactFollowUpStatus" displayName="ContactFollowUpStatus" ref="A115:E120">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6266,7 +6260,7 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ContactContactRelation" displayName="ContactContactRelation" ref="A121:E126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ContactContactRelation" displayName="ContactContactRelation" ref="A122:E127">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6280,7 +6274,7 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ContactYesNoUnknown" displayName="ContactYesNoUnknown" ref="A128:E131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ContactYesNoUnknown" displayName="ContactYesNoUnknown" ref="A129:E132">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6294,7 +6288,7 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="ContactQuarantineType" displayName="ContactQuarantineType" ref="A133:E137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="ContactQuarantineType" displayName="ContactQuarantineType" ref="A134:E138">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -10342,7 +10336,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10565,13 +10559,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1242</v>
+        <v>338</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>1243</v>
+        <v>71</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>18</v>
@@ -10584,13 +10578,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1244</v>
+        <v>340</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1245</v>
+        <v>18</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>18</v>
@@ -10603,16 +10597,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1247</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1249</v>
+        <v>18</v>
       </c>
       <c r="E13"/>
       <c r="G13" s="11" t="s">
@@ -10622,16 +10616,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="C14" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>18</v>
+        <v>1247</v>
       </c>
       <c r="E14"/>
       <c r="G14" s="11" t="s">
@@ -10641,13 +10635,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="C15" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>18</v>
@@ -10660,16 +10654,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C16" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>1259</v>
+        <v>18</v>
       </c>
       <c r="E16"/>
       <c r="G16" s="11" t="s">
@@ -10679,16 +10673,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>9</v>
+        <v>1255</v>
       </c>
       <c r="C17" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>18</v>
+        <v>1257</v>
       </c>
       <c r="E17"/>
       <c r="G17" s="11" t="s">
@@ -10698,13 +10692,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>18</v>
@@ -10717,13 +10711,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>359</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>18</v>
@@ -10736,13 +10730,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>9</v>
+        <v>359</v>
       </c>
       <c r="C20" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>18</v>
@@ -10755,16 +10749,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1269</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1271</v>
+        <v>18</v>
       </c>
       <c r="E21"/>
       <c r="G21" s="11" t="s">
@@ -10774,16 +10768,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>9</v>
+        <v>1267</v>
       </c>
       <c r="C22" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>18</v>
+        <v>1269</v>
       </c>
       <c r="E22"/>
       <c r="G22" s="11" t="s">
@@ -10793,13 +10787,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>472</v>
+        <v>1270</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>473</v>
+        <v>1271</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>18</v>
@@ -10812,13 +10806,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1274</v>
+        <v>472</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1240</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>1275</v>
+        <v>473</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>18</v>
@@ -10831,13 +10825,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>359</v>
+        <v>1240</v>
       </c>
       <c r="C25" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>18</v>
@@ -10850,13 +10844,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>475</v>
+        <v>359</v>
       </c>
       <c r="C26" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>18</v>
@@ -10869,13 +10863,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>388</v>
+        <v>475</v>
       </c>
       <c r="C27" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>18</v>
@@ -10888,13 +10882,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>9</v>
+        <v>388</v>
       </c>
       <c r="C28" t="s">
-        <v>1061</v>
+        <v>1279</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>18</v>
@@ -10907,13 +10901,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>388</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>1284</v>
+        <v>1061</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>18</v>
@@ -10926,13 +10920,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>1286</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>18</v>
@@ -10945,13 +10939,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>39</v>
+        <v>1284</v>
       </c>
       <c r="C31" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>18</v>
@@ -10964,13 +10958,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>18</v>
@@ -10981,137 +10975,141 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>118</v>
-      </c>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33"/>
+      <c r="G33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>139</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>140</v>
       </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36"/>
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -11123,10 +11121,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -11138,10 +11136,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -11153,85 +11151,85 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -11243,70 +11241,70 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -11318,10 +11316,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -11333,10 +11331,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -11348,10 +11346,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -11363,10 +11361,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -11378,10 +11376,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -11393,10 +11391,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -11408,10 +11406,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -11423,10 +11421,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -11438,10 +11436,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -11453,10 +11451,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -11468,10 +11466,10 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -11483,10 +11481,10 @@
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -11498,10 +11496,10 @@
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C68" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -11513,10 +11511,10 @@
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -11528,10 +11526,10 @@
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -11543,10 +11541,10 @@
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -11558,10 +11556,10 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -11573,10 +11571,10 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -11588,10 +11586,10 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -11603,10 +11601,10 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -11618,10 +11616,10 @@
     <row r="76">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -11633,10 +11631,10 @@
     <row r="77">
       <c r="A77"/>
       <c r="B77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -11648,10 +11646,10 @@
     <row r="78">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -11663,10 +11661,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -11678,10 +11676,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -11693,10 +11691,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -11708,55 +11706,55 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C82" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>241</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C83" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C84" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C85" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -11768,10 +11766,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C86" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -11783,10 +11781,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -11798,10 +11796,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C88" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -11813,74 +11811,74 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C89" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
       </c>
       <c r="E89" t="s">
-        <v>257</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" t="s">
+        <v>256</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91"/>
+      <c r="B91" t="s">
         <v>258</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>259</v>
       </c>
-      <c r="D90" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1247</v>
+        <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>1292</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>1293</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94"/>
+      <c r="A94" t="s">
+        <v>1245</v>
+      </c>
       <c r="B94" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C94" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -11892,10 +11890,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C95" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -11907,10 +11905,10 @@
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C96" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -11922,10 +11920,10 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C97" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -11937,10 +11935,10 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C98" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -11952,10 +11950,10 @@
     <row r="99">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C99" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -11967,10 +11965,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="C100" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -11982,10 +11980,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C101" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -11997,10 +11995,10 @@
     <row r="102">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C102" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -12009,111 +12007,111 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" t="s">
-        <v>118</v>
+    <row r="103">
+      <c r="A103"/>
+      <c r="B103" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>1251</v>
+        <v>1</v>
       </c>
       <c r="B105" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" t="s">
         <v>1312</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D105" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106"/>
-      <c r="B106" t="s">
-        <v>501</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D106" t="s">
-        <v>18</v>
-      </c>
-      <c r="E106" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="107">
       <c r="A107"/>
       <c r="B107" t="s">
+        <v>501</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108"/>
+      <c r="B108" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" t="s">
         <v>1316</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D107" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" t="s">
-        <v>2</v>
-      </c>
-      <c r="D109" t="s">
-        <v>3</v>
-      </c>
-      <c r="E109" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>1254</v>
+        <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>1319</v>
+        <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>1320</v>
+        <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111"/>
+      <c r="A111" t="s">
+        <v>1252</v>
+      </c>
       <c r="B111" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C111" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
@@ -12125,10 +12123,10 @@
     <row r="112">
       <c r="A112"/>
       <c r="B112" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C112" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
@@ -12137,141 +12135,141 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>1</v>
-      </c>
-      <c r="B114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" t="s">
-        <v>3</v>
-      </c>
-      <c r="E114" t="s">
-        <v>118</v>
+    <row r="113">
+      <c r="A113"/>
+      <c r="B113" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>1257</v>
+        <v>1</v>
       </c>
       <c r="B115" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D116" t="s">
         <v>1325</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E116" t="s">
         <v>1326</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116"/>
-      <c r="B116" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="117">
       <c r="A117"/>
       <c r="B117" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="C117" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="D117" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="E117" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="118">
       <c r="A118"/>
       <c r="B118" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C118" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="D118" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="E118" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="119">
       <c r="A119"/>
       <c r="B119" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120"/>
+      <c r="B120" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D120" t="s">
         <v>1341</v>
       </c>
-      <c r="C119" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E119" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" t="s">
-        <v>117</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" t="s">
-        <v>118</v>
+      <c r="E120" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>1269</v>
+        <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>1344</v>
+        <v>117</v>
       </c>
       <c r="C122" t="s">
-        <v>1345</v>
+        <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123"/>
+      <c r="A123" t="s">
+        <v>1267</v>
+      </c>
       <c r="B123" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C123" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="D123" t="s">
         <v>18</v>
@@ -12283,10 +12281,10 @@
     <row r="124">
       <c r="A124"/>
       <c r="B124" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C124" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
@@ -12298,10 +12296,10 @@
     <row r="125">
       <c r="A125"/>
       <c r="B125" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C125" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="D125" t="s">
         <v>18</v>
@@ -12313,59 +12311,59 @@
     <row r="126">
       <c r="A126"/>
       <c r="B126" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127"/>
+      <c r="B127" t="s">
         <v>255</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>257</v>
       </c>
-      <c r="D126" t="s">
-        <v>18</v>
-      </c>
-      <c r="E126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" t="s">
-        <v>117</v>
-      </c>
-      <c r="C128" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" t="s">
-        <v>118</v>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>117</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
         <v>388</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>522</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>523</v>
-      </c>
-      <c r="D129" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130"/>
-      <c r="B130" t="s">
-        <v>524</v>
-      </c>
-      <c r="C130" t="s">
-        <v>525</v>
       </c>
       <c r="D130" t="s">
         <v>18</v>
@@ -12377,59 +12375,59 @@
     <row r="131">
       <c r="A131"/>
       <c r="B131" t="s">
+        <v>524</v>
+      </c>
+      <c r="C131" t="s">
+        <v>525</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132"/>
+      <c r="B132" t="s">
         <v>336</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>337</v>
       </c>
-      <c r="D131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" t="s">
-        <v>117</v>
-      </c>
-      <c r="C133" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" t="s">
-        <v>3</v>
-      </c>
-      <c r="E133" t="s">
-        <v>118</v>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>1286</v>
+        <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>1352</v>
+        <v>117</v>
       </c>
       <c r="C134" t="s">
-        <v>1353</v>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135"/>
+      <c r="A135" t="s">
+        <v>1284</v>
+      </c>
       <c r="B135" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C135" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="D135" t="s">
         <v>18</v>
@@ -12441,10 +12439,10 @@
     <row r="136">
       <c r="A136"/>
       <c r="B136" t="s">
-        <v>269</v>
+        <v>1352</v>
       </c>
       <c r="C136" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
@@ -12456,15 +12454,30 @@
     <row r="137">
       <c r="A137"/>
       <c r="B137" t="s">
+        <v>269</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138"/>
+      <c r="B138" t="s">
         <v>336</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>337</v>
       </c>
-      <c r="D137" t="s">
-        <v>18</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12536,7 +12549,7 @@
         <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>18</v>
@@ -12579,7 +12592,7 @@
         <v>1228</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -12591,13 +12604,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>359</v>
       </c>
       <c r="C5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>18</v>
@@ -12612,16 +12625,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C6" t="s">
         <v>1361</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>1362</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>1364</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -12639,10 +12652,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E7"/>
       <c r="G7" s="12" t="s">
@@ -13604,13 +13617,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B72" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C72" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -13622,31 +13635,31 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
         <v>1369</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
         <v>1372</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1374</v>
       </c>
     </row>
   </sheetData>
@@ -13705,13 +13718,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>1240</v>
       </c>
       <c r="C2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>18</v>
@@ -13726,13 +13739,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -13745,16 +13758,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -13865,13 +13878,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C10" t="s">
         <v>1382</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1384</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>18</v>
@@ -13886,13 +13899,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>18</v>
@@ -13905,13 +13918,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C12" t="s">
         <v>1387</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1389</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>18</v>
@@ -13926,13 +13939,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>18</v>
@@ -13947,13 +13960,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>18</v>
@@ -13966,13 +13979,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>18</v>
@@ -13985,13 +13998,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>18</v>
@@ -14004,13 +14017,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>18</v>
@@ -14023,13 +14036,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C18" t="s">
         <v>1400</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1402</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>18</v>
@@ -14042,13 +14055,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>18</v>
@@ -14061,13 +14074,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>18</v>
@@ -14080,13 +14093,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C21" t="s">
         <v>1407</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1409</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>18</v>
@@ -14099,10 +14112,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -14118,13 +14131,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>475</v>
       </c>
       <c r="C23" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>18</v>
@@ -14137,13 +14150,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>475</v>
       </c>
       <c r="C24" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>18</v>
@@ -14156,13 +14169,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C25" t="s">
         <v>1416</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1418</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>18</v>
@@ -14175,13 +14188,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>475</v>
       </c>
       <c r="C26" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>18</v>
@@ -14194,13 +14207,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>475</v>
       </c>
       <c r="C27" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>18</v>
@@ -14213,11 +14226,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>18</v>
@@ -14230,11 +14243,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>18</v>
@@ -14247,13 +14260,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>18</v>
@@ -14266,13 +14279,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>18</v>
@@ -14302,13 +14315,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B34" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C34" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -14320,10 +14333,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C35" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -14335,10 +14348,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C36" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -14350,10 +14363,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C37" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -14365,10 +14378,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C38" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -14380,10 +14393,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C39" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -14395,10 +14408,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C40" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -14410,10 +14423,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C41" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -14425,10 +14438,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C42" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -14440,10 +14453,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="C43" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -14455,10 +14468,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="C44" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -14470,10 +14483,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="C45" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -14485,10 +14498,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C46" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -14500,10 +14513,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="C47" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -14515,10 +14528,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="C48" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -14530,10 +14543,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C49" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -14545,10 +14558,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C50" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -14560,10 +14573,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C51" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -14575,10 +14588,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="C52" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -14621,13 +14634,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B56" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C56" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -14639,10 +14652,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="C57" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -14670,13 +14683,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B60" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="C60" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -14688,10 +14701,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="C61" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -14719,13 +14732,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B64" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C64" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -14737,10 +14750,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C65" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -14752,10 +14765,10 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C66" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -14783,13 +14796,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B69" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C69" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -14816,10 +14829,10 @@
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C71" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -14831,10 +14844,10 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C72" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -14902,10 +14915,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -14923,16 +14936,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -14944,16 +14957,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E4"/>
       <c r="G4" s="14" t="s">
@@ -14963,16 +14976,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C5" t="s">
         <v>1496</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>1497</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>1499</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -14984,16 +14997,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="E6"/>
       <c r="G6" s="14" t="s">
@@ -15003,16 +15016,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -15024,16 +15037,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -15045,16 +15058,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E9"/>
       <c r="G9" s="14" t="s">
@@ -15064,7 +15077,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>359</v>
@@ -15085,16 +15098,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>1509</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>1511</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -15106,16 +15119,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -15127,16 +15140,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>475</v>
       </c>
       <c r="C13" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E13"/>
       <c r="G13" s="14" t="s">
@@ -15146,16 +15159,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>475</v>
       </c>
       <c r="C14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E14"/>
       <c r="G14" s="14" t="s">
@@ -15165,16 +15178,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E15"/>
       <c r="G15" s="14" t="s">
@@ -15184,13 +15197,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>18</v>
@@ -16079,13 +16092,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B77" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="C77" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -16097,10 +16110,10 @@
     <row r="78">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="C78" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -16112,10 +16125,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="C79" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -16127,10 +16140,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C80" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -16142,10 +16155,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="C81" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -16157,7 +16170,7 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C82" t="s">
         <v>559</v>
@@ -16172,10 +16185,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C83" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -16187,10 +16200,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C84" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -16202,10 +16215,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C85" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -16217,10 +16230,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C86" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -16232,10 +16245,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="C87" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -16247,10 +16260,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C88" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -16262,10 +16275,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C89" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -16277,10 +16290,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C90" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -16292,10 +16305,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="C91" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -16307,10 +16320,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C92" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -16322,10 +16335,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C93" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -16337,10 +16350,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C94" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -16383,13 +16396,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B98" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C98" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -16416,10 +16429,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C100" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -16431,10 +16444,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C101" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -16500,10 +16513,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -16519,13 +16532,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>18</v>
@@ -16538,13 +16551,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C4" t="s">
         <v>1561</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1563</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>18</v>
@@ -16557,13 +16570,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C5" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>18</v>
@@ -16576,13 +16589,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C6" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>18</v>
@@ -16595,13 +16608,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>18</v>
@@ -16614,13 +16627,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>18</v>
@@ -16633,13 +16646,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>18</v>
@@ -16652,13 +16665,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>18</v>
@@ -16671,13 +16684,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>18</v>
@@ -16690,13 +16703,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>18</v>
@@ -16709,13 +16722,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>18</v>
@@ -16728,13 +16741,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>18</v>
@@ -16747,13 +16760,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>18</v>
@@ -16766,13 +16779,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>18</v>
@@ -16785,13 +16798,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>18</v>
@@ -16804,13 +16817,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>18</v>
@@ -16823,13 +16836,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>18</v>
@@ -16842,13 +16855,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>18</v>
@@ -16861,13 +16874,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>18</v>
@@ -16880,13 +16893,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>18</v>
@@ -16899,13 +16912,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>18</v>
@@ -16935,13 +16948,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B26" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C26" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -16953,10 +16966,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C27" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -16968,10 +16981,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C28" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -17035,13 +17048,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C2" t="s">
         <v>1602</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1604</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>18</v>
@@ -17062,7 +17075,7 @@
         <v>1240</v>
       </c>
       <c r="C3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>18</v>
@@ -17075,13 +17088,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C4" t="s">
         <v>1605</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1607</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>18</v>
@@ -17094,13 +17107,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C5" t="s">
         <v>1608</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1610</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>18</v>
@@ -17113,16 +17126,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C6" t="s">
         <v>1611</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>1612</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>1614</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -17134,13 +17147,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C7" t="s">
         <v>1615</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1617</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>18</v>
@@ -17153,13 +17166,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>18</v>
@@ -17174,13 +17187,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>18</v>
@@ -17193,13 +17206,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C10" t="s">
         <v>1622</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1624</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>18</v>
@@ -17212,13 +17225,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>18</v>
@@ -17231,13 +17244,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>18</v>
@@ -17250,13 +17263,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>359</v>
       </c>
       <c r="C13" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>18</v>
@@ -17269,13 +17282,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>18</v>
@@ -17288,13 +17301,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>359</v>
       </c>
       <c r="C15" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>18</v>
@@ -17309,13 +17322,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>18</v>
@@ -17328,7 +17341,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
@@ -17347,7 +17360,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>29</v>
@@ -17366,7 +17379,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>29</v>
@@ -17402,13 +17415,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B22" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="C22" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -17420,10 +17433,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="C23" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -17435,10 +17448,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="C24" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -17450,10 +17463,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C25" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -17481,13 +17494,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B28" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C28" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -17499,10 +17512,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C29" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -17514,10 +17527,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C30" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -17529,10 +17542,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="C31" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -17544,10 +17557,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="C32" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -17559,10 +17572,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="C33" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -17574,10 +17587,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="C34" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -17589,10 +17602,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C35" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -17604,10 +17617,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C36" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -17619,10 +17632,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C37" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -17634,10 +17647,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C38" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -17649,10 +17662,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="C39" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -17664,10 +17677,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="C40" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -17679,10 +17692,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C41" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -17694,10 +17707,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C42" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -17709,10 +17722,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="C43" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -17724,10 +17737,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C44" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -17742,7 +17755,7 @@
         <v>255</v>
       </c>
       <c r="C45" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -17754,10 +17767,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="C46" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -17769,10 +17782,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C47" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -17784,10 +17797,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C48" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -17815,13 +17828,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B51" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C51" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -17833,10 +17846,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C52" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -17848,10 +17861,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="C53" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -17879,13 +17892,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B56" t="s">
         <v>507</v>
       </c>
       <c r="C56" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -17900,7 +17913,7 @@
         <v>510</v>
       </c>
       <c r="C57" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -17912,10 +17925,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="C58" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -17927,10 +17940,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="C59" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -17997,16 +18010,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C2" t="s">
         <v>1701</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>1702</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>1704</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -18018,16 +18031,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -18039,16 +18052,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="E4"/>
       <c r="G4" s="17" t="s">
@@ -18100,13 +18113,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>18</v>
@@ -18119,16 +18132,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C8" t="s">
         <v>1713</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>1714</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>1716</v>
       </c>
       <c r="E8"/>
       <c r="G8" s="17" t="s">
@@ -18138,16 +18151,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="E9"/>
       <c r="G9" s="17" t="s">
@@ -18157,16 +18170,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="E10"/>
       <c r="G10" s="17" t="s">
@@ -18176,16 +18189,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="E11"/>
       <c r="G11" s="17" t="s">
@@ -18195,16 +18208,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="E12"/>
       <c r="G12" s="17" t="s">
@@ -18271,13 +18284,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>18</v>
@@ -18364,13 +18377,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B22" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="C22" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -18385,7 +18398,7 @@
         <v>501</v>
       </c>
       <c r="C23" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -18397,16 +18410,16 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
         <v>1733</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="26">
@@ -18428,13 +18441,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B27" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C27" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -18446,10 +18459,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C28" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -18476,10 +18489,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C30" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -18491,10 +18504,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C31" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -19449,13 +19462,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C2" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>18</v>
@@ -19473,10 +19486,10 @@
         <v>351</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C3" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>18</v>
@@ -19491,13 +19504,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>18</v>
@@ -19510,7 +19523,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>1240</v>
@@ -19581,13 +19594,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>18</v>
@@ -19682,7 +19695,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>18</v>
@@ -19701,7 +19714,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>18</v>
@@ -19714,10 +19727,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -19733,7 +19746,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>475</v>
@@ -19752,7 +19765,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>475</v>
@@ -19807,7 +19820,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B15" t="s">
         <v>273</v>
@@ -19855,10 +19868,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C18" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -20248,13 +20261,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>18</v>
@@ -20267,13 +20280,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>18</v>
@@ -20286,13 +20299,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>18</v>
@@ -20305,7 +20318,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>475</v>
@@ -20395,13 +20408,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>18</v>
@@ -20414,13 +20427,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>18</v>
@@ -20433,13 +20446,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>18</v>
@@ -20471,7 +20484,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>475</v>
@@ -20561,13 +20574,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>18</v>
@@ -20618,7 +20631,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>475</v>
@@ -20708,13 +20721,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>475</v>
       </c>
       <c r="C2" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>18</v>
@@ -20727,13 +20740,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>18</v>
@@ -20784,13 +20797,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>18</v>
@@ -20841,11 +20854,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>18</v>
@@ -20934,13 +20947,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>18</v>
@@ -20959,7 +20972,7 @@
         <v>466</v>
       </c>
       <c r="C15" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>18</v>
@@ -20972,13 +20985,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>359</v>
       </c>
       <c r="C16" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>18</v>
@@ -20991,16 +21004,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="E17"/>
       <c r="G17" s="23" t="s">
@@ -21010,10 +21023,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -21905,13 +21918,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C79" t="s">
         <v>1773</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1775</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -21923,10 +21936,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="C80" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -21938,10 +21951,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="C81" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -21953,10 +21966,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="C82" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -21968,10 +21981,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="C83" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -22000,12 +22013,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -3787,6 +3787,30 @@
     <t>Attending clinician</t>
   </si>
   <si>
+    <t>caze</t>
+  </si>
+  <si>
+    <t>CaseReference</t>
+  </si>
+  <si>
+    <t>Source case</t>
+  </si>
+  <si>
+    <t>caseIdExternalSystem</t>
+  </si>
+  <si>
+    <t>Case ID in external system</t>
+  </si>
+  <si>
+    <t>caseOrEventInformation</t>
+  </si>
+  <si>
+    <t>Case or event information</t>
+  </si>
+  <si>
+    <t>Disease of source case</t>
+  </si>
+  <si>
     <t>reportDateTime</t>
   </si>
   <si>
@@ -3802,117 +3826,141 @@
     <t>Responsible district</t>
   </si>
   <si>
+    <t>lastContactDate</t>
+  </si>
+  <si>
+    <t>Date of last contact</t>
+  </si>
+  <si>
+    <t>contactProximity</t>
+  </si>
+  <si>
+    <t>ContactProximity</t>
+  </si>
+  <si>
+    <t>Type of contact - if multiple pick the closest contact proximity</t>
+  </si>
+  <si>
+    <t>Select the type of contact with the case</t>
+  </si>
+  <si>
+    <t>contactProximityDetails</t>
+  </si>
+  <si>
+    <t>Additional information on the type of contact</t>
+  </si>
+  <si>
+    <t>contactCategory</t>
+  </si>
+  <si>
+    <t>ContactCategory</t>
+  </si>
+  <si>
+    <t>Contact Category</t>
+  </si>
+  <si>
+    <t>contactClassification</t>
+  </si>
+  <si>
+    <t>ContactClassification</t>
+  </si>
+  <si>
+    <t>Contact classification</t>
+  </si>
+  <si>
+    <t>contactStatus</t>
+  </si>
+  <si>
+    <t>ContactStatus</t>
+  </si>
+  <si>
+    <t>Contact status</t>
+  </si>
+  <si>
+    <t>followUpStatus</t>
+  </si>
+  <si>
+    <t>FollowUpStatus</t>
+  </si>
+  <si>
+    <t>Follow-up status</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Under follow-up: The follow-up process is running.&lt;/li&gt;&lt;li&gt;Follow-up completed: The follow-up has been completed.&lt;/li&gt;&lt;li&gt;Follow-up canceled: The follow-up process has been canceled, e.g. because the person died or the contact became irrelevant.&lt;/li&gt;&lt;li&gt;Lost to follow-up: The follow-up process could not be continued, e.g. because the person could not be found.&lt;/li&gt;&lt;li&gt;No follow-up: No contact follow-up is being done.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>followUpComment</t>
+  </si>
+  <si>
+    <t>Follow-up status comment</t>
+  </si>
+  <si>
+    <t>followUpUntil</t>
+  </si>
+  <si>
+    <t>Follow-up until</t>
+  </si>
+  <si>
+    <t>overwriteFollowUpUntil</t>
+  </si>
+  <si>
+    <t>Overwrite follow-up until date</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Description of how contact took place</t>
+  </si>
+  <si>
+    <t>relationToCase</t>
+  </si>
+  <si>
+    <t>ContactRelation</t>
+  </si>
+  <si>
+    <t>Relationship with case</t>
+  </si>
+  <si>
+    <t>Select the person's relation to the case</t>
+  </si>
+  <si>
+    <t>relationDescription</t>
+  </si>
+  <si>
+    <t>Relationship description</t>
+  </si>
+  <si>
+    <t>highPriority</t>
+  </si>
+  <si>
+    <t>High priority contact</t>
+  </si>
+  <si>
+    <t>immunosuppressiveTherapyBasicDisease</t>
+  </si>
+  <si>
+    <t>Immunosuppressive therapy or basic disease is present</t>
+  </si>
+  <si>
+    <t>immunosuppressiveTherapyBasicDiseaseDetails</t>
+  </si>
+  <si>
+    <t>careForPeopleOver60</t>
+  </si>
+  <si>
+    <t>Is the person medically/nursingly active in the care of patients or people over 60 years of age?</t>
+  </si>
+  <si>
     <t>Contact person</t>
   </si>
   <si>
-    <t>caze</t>
-  </si>
-  <si>
-    <t>CaseReference</t>
-  </si>
-  <si>
-    <t>Source case</t>
-  </si>
-  <si>
-    <t>Disease of source case</t>
-  </si>
-  <si>
-    <t>lastContactDate</t>
-  </si>
-  <si>
-    <t>Date of last contact</t>
-  </si>
-  <si>
-    <t>contactProximity</t>
-  </si>
-  <si>
-    <t>ContactProximity</t>
-  </si>
-  <si>
-    <t>Type of contact - if multiple pick the closest contact proximity</t>
-  </si>
-  <si>
-    <t>Select the type of contact with the case</t>
-  </si>
-  <si>
-    <t>contactClassification</t>
-  </si>
-  <si>
-    <t>ContactClassification</t>
-  </si>
-  <si>
-    <t>Contact classification</t>
-  </si>
-  <si>
-    <t>contactStatus</t>
-  </si>
-  <si>
-    <t>ContactStatus</t>
-  </si>
-  <si>
-    <t>Contact status</t>
-  </si>
-  <si>
-    <t>followUpStatus</t>
-  </si>
-  <si>
-    <t>FollowUpStatus</t>
-  </si>
-  <si>
-    <t>Follow-up status</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Under follow-up: The follow-up process is running.&lt;/li&gt;&lt;li&gt;Follow-up completed: The follow-up has been completed.&lt;/li&gt;&lt;li&gt;Follow-up canceled: The follow-up process has been canceled, e.g. because the person died or the contact became irrelevant.&lt;/li&gt;&lt;li&gt;Lost to follow-up: The follow-up process could not be continued, e.g. because the person could not be found.&lt;/li&gt;&lt;li&gt;No follow-up: No contact follow-up is being done.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>followUpComment</t>
-  </si>
-  <si>
-    <t>Follow-up status comment</t>
-  </si>
-  <si>
-    <t>followUpUntil</t>
-  </si>
-  <si>
-    <t>Follow-up until</t>
-  </si>
-  <si>
-    <t>overwriteFollowUpUntil</t>
-  </si>
-  <si>
-    <t>Overwrite follow-up until date</t>
-  </si>
-  <si>
     <t>contactOfficer</t>
   </si>
   <si>
     <t>Responsible contact officer</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Description of how contact took place</t>
-  </si>
-  <si>
-    <t>relationToCase</t>
-  </si>
-  <si>
-    <t>ContactRelation</t>
-  </si>
-  <si>
-    <t>Relationship with case</t>
-  </si>
-  <si>
-    <t>Select the person's relation to the case</t>
-  </si>
-  <si>
-    <t>relationDescription</t>
-  </si>
-  <si>
-    <t>Relationship description</t>
-  </si>
-  <si>
     <t>resultingCase</t>
   </si>
   <si>
@@ -3925,54 +3973,6 @@
     <t>Resulting case assigned by</t>
   </si>
   <si>
-    <t>highPriority</t>
-  </si>
-  <si>
-    <t>High priority contact</t>
-  </si>
-  <si>
-    <t>immunosuppressiveTherapyBasicDisease</t>
-  </si>
-  <si>
-    <t>Immunosuppressive therapy or basic disease is present</t>
-  </si>
-  <si>
-    <t>immunosuppressiveTherapyBasicDiseaseDetails</t>
-  </si>
-  <si>
-    <t>careForPeopleOver60</t>
-  </si>
-  <si>
-    <t>Is the person medically/nursingly active in the care of patients or people over 60 years of age?</t>
-  </si>
-  <si>
-    <t>caseIdExternalSystem</t>
-  </si>
-  <si>
-    <t>Case ID in external system</t>
-  </si>
-  <si>
-    <t>caseOrEventInformation</t>
-  </si>
-  <si>
-    <t>Case or event information</t>
-  </si>
-  <si>
-    <t>contactProximityDetails</t>
-  </si>
-  <si>
-    <t>Additional information on the type of contact</t>
-  </si>
-  <si>
-    <t>contactCategory</t>
-  </si>
-  <si>
-    <t>ContactCategory</t>
-  </si>
-  <si>
-    <t>Contact Category</t>
-  </si>
-  <si>
     <t>TOUCHED_FLUID</t>
   </si>
   <si>
@@ -4051,6 +4051,24 @@
     <t>Medical personnel at save proximity (&gt; 2 meter), without direct contact with secretions or excretions of the patient and without aerosol exposure</t>
   </si>
   <si>
+    <t>HIGH_RISK</t>
+  </si>
+  <si>
+    <t>High risk contact</t>
+  </si>
+  <si>
+    <t>LOW_RISK</t>
+  </si>
+  <si>
+    <t>Low risk contact</t>
+  </si>
+  <si>
+    <t>NO_RISK</t>
+  </si>
+  <si>
+    <t>No risk contact</t>
+  </si>
+  <si>
     <t>UNCONFIRMED</t>
   </si>
   <si>
@@ -4171,24 +4189,6 @@
     <t>Provided medical care for the case</t>
   </si>
   <si>
-    <t>HIGH_RISK</t>
-  </si>
-  <si>
-    <t>High risk contact</t>
-  </si>
-  <si>
-    <t>LOW_RISK</t>
-  </si>
-  <si>
-    <t>Low risk contact</t>
-  </si>
-  <si>
-    <t>NO_RISK</t>
-  </si>
-  <si>
-    <t>No risk contact</t>
-  </si>
-  <si>
     <t>Visited person</t>
   </si>
   <si>
@@ -5473,7 +5473,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.37.0-SNAPSHOT</t>
+    <t>1.38.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -6319,7 +6319,7 @@
 </file>
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ContactContactClassification" displayName="ContactContactClassification" ref="A113:E116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ContactContactCategory" displayName="ContactContactCategory" ref="A113:E116">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6333,7 +6333,7 @@
 </file>
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ContactContactStatus" displayName="ContactContactStatus" ref="A118:E121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ContactContactClassification" displayName="ContactContactClassification" ref="A118:E121">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6347,7 +6347,7 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ContactFollowUpStatus" displayName="ContactFollowUpStatus" ref="A123:E128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ContactContactStatus" displayName="ContactContactStatus" ref="A123:E126">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6361,7 +6361,7 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ContactContactRelation" displayName="ContactContactRelation" ref="A130:E135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ContactFollowUpStatus" displayName="ContactFollowUpStatus" ref="A128:E133">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6375,7 +6375,7 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="ContactYesNoUnknown" displayName="ContactYesNoUnknown" ref="A137:E140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="ContactContactRelation" displayName="ContactContactRelation" ref="A135:E140">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6403,7 +6403,7 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="ContactQuarantineType" displayName="ContactQuarantineType" ref="A142:E146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="ContactYesNoUnknown" displayName="ContactYesNoUnknown" ref="A142:E145">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6417,7 +6417,7 @@
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="ContactContactCategory" displayName="ContactContactCategory" ref="A148:E151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="ContactQuarantineType" displayName="ContactQuarantineType" ref="A147:E151">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -10555,17 +10555,15 @@
         <v>1250</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>39</v>
+        <v>1251</v>
       </c>
       <c r="C2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
+      <c r="E2"/>
       <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
@@ -10573,20 +10571,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>1253</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>364</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>1254</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
+      <c r="E3"/>
       <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
@@ -10594,13 +10590,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>1255</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>1256</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>18</v>
@@ -10613,13 +10609,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>1257</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>18</v>
@@ -10632,13 +10628,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>346</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>18</v>
@@ -10651,18 +10647,20 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>1258</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E7"/>
+        <v>18</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>12</v>
       </c>
@@ -10670,18 +10668,20 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>46</v>
+        <v>364</v>
       </c>
       <c r="C8" t="s">
-        <v>1254</v>
+        <v>365</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E8"/>
+        <v>18</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>12</v>
       </c>
@@ -10689,20 +10689,18 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>439</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>357</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>1255</v>
+        <v>18</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
+      <c r="E9"/>
       <c r="G9" s="11" t="s">
         <v>12</v>
       </c>
@@ -10710,20 +10708,18 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1256</v>
+        <v>442</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1257</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>1258</v>
+        <v>18</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
+      <c r="E10"/>
       <c r="G10" s="11" t="s">
         <v>12</v>
       </c>
@@ -10731,13 +10727,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>445</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>1259</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>18</v>
@@ -10750,16 +10746,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>346</v>
+        <v>1260</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>18</v>
+        <v>1261</v>
       </c>
       <c r="E12"/>
       <c r="G12" s="11" t="s">
@@ -10769,16 +10765,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1260</v>
+        <v>314</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>1261</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="E13"/>
       <c r="G13" s="11" t="s">
@@ -10788,18 +10784,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1263</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>1264</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E14"/>
+        <v>18</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
       <c r="G14" s="11" t="s">
         <v>12</v>
       </c>
@@ -10807,16 +10805,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>1266</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" t="s">
         <v>1267</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="11" t="s">
         <v>1268</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="E15"/>
       <c r="G15" s="11" t="s">
@@ -10829,10 +10827,10 @@
         <v>1269</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>1270</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1271</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>18</v>
@@ -10845,16 +10843,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>1272</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" t="s">
         <v>1273</v>
       </c>
-      <c r="C17" t="s">
-        <v>1274</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>1275</v>
+        <v>18</v>
       </c>
       <c r="E17"/>
       <c r="G17" s="11" t="s">
@@ -10864,13 +10862,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C18" t="s">
         <v>1276</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1277</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>18</v>
@@ -10883,10 +10881,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>1278</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>1279</v>
@@ -10905,13 +10903,13 @@
         <v>1280</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>480</v>
+        <v>1281</v>
       </c>
       <c r="C20" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>18</v>
+        <v>1283</v>
       </c>
       <c r="E20"/>
       <c r="G20" s="11" t="s">
@@ -10921,13 +10919,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>364</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>18</v>
@@ -10940,13 +10938,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>18</v>
@@ -10959,16 +10957,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1287</v>
+        <v>480</v>
       </c>
       <c r="C23" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1289</v>
+        <v>18</v>
       </c>
       <c r="E23"/>
       <c r="G23" s="11" t="s">
@@ -10997,16 +10995,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>477</v>
+        <v>1292</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>9</v>
+        <v>1293</v>
       </c>
       <c r="C25" t="s">
-        <v>478</v>
+        <v>1294</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>18</v>
+        <v>1295</v>
       </c>
       <c r="E25"/>
       <c r="G25" s="11" t="s">
@@ -11016,13 +11014,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1257</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>18</v>
@@ -11035,13 +11033,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1294</v>
+        <v>477</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>364</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>1295</v>
+        <v>478</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>18</v>
@@ -11054,13 +11052,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>480</v>
       </c>
       <c r="C28" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>18</v>
@@ -11073,13 +11071,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>393</v>
       </c>
       <c r="C29" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>18</v>
@@ -11092,7 +11090,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>9</v>
@@ -11111,13 +11109,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>393</v>
       </c>
       <c r="C31" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>18</v>
@@ -11187,18 +11185,20 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1303</v>
+        <v>356</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="C35" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
       <c r="G35" s="11" t="s">
         <v>12</v>
       </c>
@@ -11206,13 +11206,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>9</v>
+        <v>364</v>
       </c>
       <c r="C36" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>18</v>
@@ -11225,13 +11225,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>9</v>
+        <v>1251</v>
       </c>
       <c r="C37" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>18</v>
@@ -11244,10 +11244,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>1310</v>
+        <v>364</v>
       </c>
       <c r="C38" t="s">
         <v>1311</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="B99" t="s">
         <v>1312</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="B114" t="s">
         <v>1338</v>
@@ -12365,13 +12365,13 @@
         <v>18</v>
       </c>
       <c r="E114" t="s">
-        <v>1340</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115"/>
       <c r="B115" t="s">
-        <v>513</v>
+        <v>1340</v>
       </c>
       <c r="C115" t="s">
         <v>1341</v>
@@ -12380,7 +12380,7 @@
         <v>18</v>
       </c>
       <c r="E115" t="s">
-        <v>515</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -12395,7 +12395,7 @@
         <v>18</v>
       </c>
       <c r="E116" t="s">
-        <v>1344</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -12417,49 +12417,49 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="B119" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C119" t="s">
         <v>1345</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" t="s">
         <v>1346</v>
-      </c>
-      <c r="D119" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="120">
       <c r="A120"/>
       <c r="B120" t="s">
+        <v>513</v>
+      </c>
+      <c r="C120" t="s">
         <v>1347</v>
       </c>
-      <c r="C120" t="s">
-        <v>1348</v>
-      </c>
       <c r="D120" t="s">
         <v>18</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>515</v>
       </c>
     </row>
     <row r="121">
       <c r="A121"/>
       <c r="B121" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C121" t="s">
         <v>1349</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" t="s">
         <v>1350</v>
-      </c>
-      <c r="D121" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="123">
@@ -12481,7 +12481,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>1273</v>
+        <v>1278</v>
       </c>
       <c r="B124" t="s">
         <v>1351</v>
@@ -12490,192 +12490,192 @@
         <v>1352</v>
       </c>
       <c r="D124" t="s">
-        <v>1353</v>
+        <v>18</v>
       </c>
       <c r="E124" t="s">
-        <v>1354</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125"/>
       <c r="B125" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C125" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="D125" t="s">
-        <v>1357</v>
+        <v>18</v>
       </c>
       <c r="E125" t="s">
-        <v>1358</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
       <c r="A126"/>
       <c r="B126" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D129" t="s">
         <v>1359</v>
       </c>
-      <c r="C126" t="s">
+      <c r="E129" t="s">
         <v>1360</v>
       </c>
-      <c r="D126" t="s">
+    </row>
+    <row r="130">
+      <c r="A130"/>
+      <c r="B130" t="s">
         <v>1361</v>
       </c>
-      <c r="E126" t="s">
+      <c r="C130" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127"/>
-      <c r="B127" t="s">
+      <c r="D130" t="s">
         <v>1363</v>
       </c>
-      <c r="C127" t="s">
+      <c r="E130" t="s">
         <v>1364</v>
       </c>
-      <c r="D127" t="s">
+    </row>
+    <row r="131">
+      <c r="A131"/>
+      <c r="B131" t="s">
         <v>1365</v>
       </c>
-      <c r="E127" t="s">
+      <c r="C131" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128"/>
-      <c r="B128" t="s">
+      <c r="D131" t="s">
         <v>1367</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E131" t="s">
         <v>1368</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E128" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>1</v>
-      </c>
-      <c r="B130" t="s">
-        <v>123</v>
-      </c>
-      <c r="C130" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="132">
       <c r="A132"/>
       <c r="B132" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E132" t="s">
         <v>1372</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D132" t="s">
-        <v>18</v>
-      </c>
-      <c r="E132" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="133">
       <c r="A133"/>
       <c r="B133" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C133" t="s">
         <v>1374</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>1375</v>
       </c>
-      <c r="D133" t="s">
-        <v>18</v>
-      </c>
       <c r="E133" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134"/>
-      <c r="B134" t="s">
+    <row r="135">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>123</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B136" t="s">
         <v>1376</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C136" t="s">
         <v>1377</v>
       </c>
-      <c r="D134" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135"/>
-      <c r="B135" t="s">
-        <v>260</v>
-      </c>
-      <c r="C135" t="s">
-        <v>262</v>
-      </c>
-      <c r="D135" t="s">
-        <v>18</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s">
-        <v>1</v>
-      </c>
+      <c r="A137"/>
       <c r="B137" t="s">
-        <v>123</v>
+        <v>1378</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>1379</v>
       </c>
       <c r="D137" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E137" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s">
-        <v>393</v>
-      </c>
+      <c r="A138"/>
       <c r="B138" t="s">
-        <v>534</v>
+        <v>1380</v>
       </c>
       <c r="C138" t="s">
-        <v>535</v>
+        <v>1381</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
@@ -12687,10 +12687,10 @@
     <row r="139">
       <c r="A139"/>
       <c r="B139" t="s">
-        <v>536</v>
+        <v>1382</v>
       </c>
       <c r="C139" t="s">
-        <v>537</v>
+        <v>1383</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
@@ -12702,10 +12702,10 @@
     <row r="140">
       <c r="A140"/>
       <c r="B140" t="s">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="C140" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="D140" t="s">
         <v>18</v>
@@ -12733,13 +12733,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>483</v>
+        <v>393</v>
       </c>
       <c r="B143" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="C143" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="D143" t="s">
         <v>18</v>
@@ -12751,10 +12751,10 @@
     <row r="144">
       <c r="A144"/>
       <c r="B144" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="C144" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="D144" t="s">
         <v>18</v>
@@ -12766,10 +12766,10 @@
     <row r="145">
       <c r="A145"/>
       <c r="B145" t="s">
-        <v>274</v>
+        <v>341</v>
       </c>
       <c r="C145" t="s">
-        <v>564</v>
+        <v>342</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
@@ -12778,47 +12778,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146"/>
-      <c r="B146" t="s">
-        <v>341</v>
-      </c>
-      <c r="C146" t="s">
-        <v>342</v>
-      </c>
-      <c r="D146" t="s">
-        <v>18</v>
-      </c>
-      <c r="E146" t="s">
-        <v>18</v>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>123</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>1</v>
+        <v>483</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>560</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>561</v>
       </c>
       <c r="D148" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E148" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s">
-        <v>1310</v>
-      </c>
+      <c r="A149"/>
       <c r="B149" t="s">
-        <v>1378</v>
+        <v>562</v>
       </c>
       <c r="C149" t="s">
-        <v>1379</v>
+        <v>563</v>
       </c>
       <c r="D149" t="s">
         <v>18</v>
@@ -12830,10 +12830,10 @@
     <row r="150">
       <c r="A150"/>
       <c r="B150" t="s">
-        <v>1380</v>
+        <v>274</v>
       </c>
       <c r="C150" t="s">
-        <v>1381</v>
+        <v>564</v>
       </c>
       <c r="D150" t="s">
         <v>18</v>
@@ -12845,10 +12845,10 @@
     <row r="151">
       <c r="A151"/>
       <c r="B151" t="s">
-        <v>1382</v>
+        <v>341</v>
       </c>
       <c r="C151" t="s">
-        <v>1383</v>
+        <v>342</v>
       </c>
       <c r="D151" t="s">
         <v>18</v>
@@ -14098,7 +14098,7 @@
         <v>1402</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="C2" t="s">
         <v>1403</v>
@@ -14156,7 +14156,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>39</v>
@@ -17446,10 +17446,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="C3" t="s">
         <v>1403</v>
@@ -18448,7 +18448,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>39</v>
@@ -19900,10 +19900,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6519" uniqueCount="1813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6542" uniqueCount="1824">
   <si>
     <t>Field</t>
   </si>
@@ -1021,7 +1021,7 @@
     <t>GPS latitude</t>
   </si>
   <si>
-    <t>GPS latitude is the the north/south angular location in degrees</t>
+    <t>GPS latitude is the north/south angular location in degrees</t>
   </si>
   <si>
     <t>longitude</t>
@@ -3973,6 +3973,21 @@
     <t>Resulting case assigned by</t>
   </si>
   <si>
+    <t>quarantineOrderMeans</t>
+  </si>
+  <si>
+    <t>OrderMeans</t>
+  </si>
+  <si>
+    <t>Means of quarantine order</t>
+  </si>
+  <si>
+    <t>quarantineHelpNeeded</t>
+  </si>
+  <si>
+    <t>Help needed in quarantine?</t>
+  </si>
+  <si>
     <t>TOUCHED_FLUID</t>
   </si>
   <si>
@@ -4189,6 +4204,18 @@
     <t>Provided medical care for the case</t>
   </si>
   <si>
+    <t>VERBALLY</t>
+  </si>
+  <si>
+    <t>Verbally</t>
+  </si>
+  <si>
+    <t>OFFICIAL_DOCUMENT</t>
+  </si>
+  <si>
+    <t>Official document</t>
+  </si>
+  <si>
     <t>Visited person</t>
   </si>
   <si>
@@ -5468,6 +5495,12 @@
   </si>
   <si>
     <t>Deutsch</t>
+  </si>
+  <si>
+    <t>ES_EC</t>
+  </si>
+  <si>
+    <t>Español (Ecuador)</t>
   </si>
   <si>
     <t>SORMAS Version</t>
@@ -6274,7 +6307,7 @@
 </file>
 
 <file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Contact" displayName="Contact" ref="A1:H38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Contact" displayName="Contact" ref="A1:H39">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6291,7 +6324,7 @@
 </file>
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="ContactDisease" displayName="ContactDisease" ref="A40:E96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="ContactDisease" displayName="ContactDisease" ref="A41:E97">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6305,7 +6338,7 @@
 </file>
 
 <file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="ContactContactProximity" displayName="ContactContactProximity" ref="A98:E111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="ContactContactProximity" displayName="ContactContactProximity" ref="A99:E112">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6319,7 +6352,7 @@
 </file>
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ContactContactCategory" displayName="ContactContactCategory" ref="A113:E116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ContactContactCategory" displayName="ContactContactCategory" ref="A114:E117">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6333,7 +6366,7 @@
 </file>
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ContactContactClassification" displayName="ContactContactClassification" ref="A118:E121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ContactContactClassification" displayName="ContactContactClassification" ref="A119:E122">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6347,7 +6380,7 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ContactContactStatus" displayName="ContactContactStatus" ref="A123:E126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ContactContactStatus" displayName="ContactContactStatus" ref="A124:E127">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6361,7 +6394,7 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ContactFollowUpStatus" displayName="ContactFollowUpStatus" ref="A128:E133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ContactFollowUpStatus" displayName="ContactFollowUpStatus" ref="A129:E134">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6375,7 +6408,7 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="ContactContactRelation" displayName="ContactContactRelation" ref="A135:E140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="ContactContactRelation" displayName="ContactContactRelation" ref="A136:E141">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6403,7 +6436,7 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="ContactYesNoUnknown" displayName="ContactYesNoUnknown" ref="A142:E145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="ContactYesNoUnknown" displayName="ContactYesNoUnknown" ref="A143:E146">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6417,7 +6450,7 @@
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="ContactQuarantineType" displayName="ContactQuarantineType" ref="A147:E151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="ContactQuarantineType" displayName="ContactQuarantineType" ref="A148:E152">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6431,7 +6464,21 @@
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="Visit" displayName="Visit" ref="A1:H11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ContactOrderMeans" displayName="ContactOrderMeans" ref="A154:E156">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="Visit" displayName="Visit" ref="A1:H11">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6447,22 +6494,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="VisitDisease" displayName="VisitDisease" ref="A13:E69">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="VisitVisitStatus" displayName="VisitVisitStatus" ref="A71:E74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="VisitDisease" displayName="VisitDisease" ref="A13:E69">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6476,7 +6509,21 @@
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="Sample" displayName="Sample" ref="A1:H31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="VisitVisitStatus" displayName="VisitVisitStatus" ref="A71:E74">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table66.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="66" name="Sample" displayName="Sample" ref="A1:H31">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6492,22 +6539,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table66.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="66" name="SampleSampleMaterial" displayName="SampleSampleMaterial" ref="A33:E53">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
 <file path=xl/tables/table67.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="67" name="SampleSamplePurpose" displayName="SampleSamplePurpose" ref="A55:E57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="67" name="SampleSampleMaterial" displayName="SampleSampleMaterial" ref="A33:E53">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6521,7 +6554,7 @@
 </file>
 
 <file path=xl/tables/table68.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="68" name="SampleSpecimenCondition" displayName="SampleSpecimenCondition" ref="A59:E61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="68" name="SampleSamplePurpose" displayName="SampleSamplePurpose" ref="A55:E57">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6535,7 +6568,7 @@
 </file>
 
 <file path=xl/tables/table69.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="69" name="SampleSampleSource" displayName="SampleSampleSource" ref="A63:E66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="69" name="SampleSpecimenCondition" displayName="SampleSpecimenCondition" ref="A59:E61">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6563,7 +6596,7 @@
 </file>
 
 <file path=xl/tables/table70.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="70" name="SamplePathogenTestResultType" displayName="SamplePathogenTestResultType" ref="A68:E72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="70" name="SampleSampleSource" displayName="SampleSampleSource" ref="A63:E66">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6577,7 +6610,21 @@
 </file>
 
 <file path=xl/tables/table71.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="71" name="Pathogen_test" displayName="Pathogen_test" ref="A1:H16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="71" name="SamplePathogenTestResultType" displayName="SamplePathogenTestResultType" ref="A68:E72">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table72.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="72" name="Pathogen_test" displayName="Pathogen_test" ref="A1:H16">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6593,22 +6640,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table72.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="72" name="Pathogen_testDisease" displayName="Pathogen_testDisease" ref="A18:E74">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
 <file path=xl/tables/table73.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="73" name="Pathogen_testPathogenTestType" displayName="Pathogen_testPathogenTestType" ref="A76:E95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="73" name="Pathogen_testDisease" displayName="Pathogen_testDisease" ref="A18:E74">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6622,7 +6655,7 @@
 </file>
 
 <file path=xl/tables/table74.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="74" name="Pathogen_testPathogenTestResultType" displayName="Pathogen_testPathogenTestResultType" ref="A97:E101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="74" name="Pathogen_testPathogenTestType" displayName="Pathogen_testPathogenTestType" ref="A76:E95">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6636,7 +6669,21 @@
 </file>
 
 <file path=xl/tables/table75.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="75" name="Additional_test" displayName="Additional_test" ref="A1:H23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="75" name="Pathogen_testPathogenTestResultType" displayName="Pathogen_testPathogenTestResultType" ref="A97:E101">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table76.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="76" name="Additional_test" displayName="Additional_test" ref="A1:H23">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6652,8 +6699,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table76.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="76" name="Additional_testSimpleTestResultType" displayName="Additional_testSimpleTestResultType" ref="A25:E28">
+<file path=xl/tables/table77.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="77" name="Additional_testSimpleTestResultType" displayName="Additional_testSimpleTestResultType" ref="A25:E28">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6666,8 +6713,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table77.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="77" name="Task" displayName="Task" ref="A1:H19">
+<file path=xl/tables/table78.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="78" name="Task" displayName="Task" ref="A1:H19">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6683,22 +6730,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table78.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="78" name="TaskTaskContext" displayName="TaskTaskContext" ref="A21:E25">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
 <file path=xl/tables/table79.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="79" name="TaskTaskType" displayName="TaskTaskType" ref="A27:E48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="79" name="TaskTaskContext" displayName="TaskTaskContext" ref="A21:E25">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6726,7 +6759,7 @@
 </file>
 
 <file path=xl/tables/table80.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="80" name="TaskTaskPriority" displayName="TaskTaskPriority" ref="A50:E53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="80" name="TaskTaskType" displayName="TaskTaskType" ref="A27:E48">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6740,7 +6773,7 @@
 </file>
 
 <file path=xl/tables/table81.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="81" name="TaskTaskStatus" displayName="TaskTaskStatus" ref="A55:E59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="81" name="TaskTaskPriority" displayName="TaskTaskPriority" ref="A50:E53">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6754,7 +6787,21 @@
 </file>
 
 <file path=xl/tables/table82.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="82" name="Event" displayName="Event" ref="A1:H19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="82" name="TaskTaskStatus" displayName="TaskTaskStatus" ref="A55:E59">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table83.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="83" name="Event" displayName="Event" ref="A1:H19">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6770,22 +6817,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table83.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="83" name="EventEventStatus" displayName="EventEventStatus" ref="A21:E24">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
 <file path=xl/tables/table84.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="84" name="EventTypeOfPlace" displayName="EventTypeOfPlace" ref="A26:E33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="84" name="EventEventStatus" displayName="EventEventStatus" ref="A21:E24">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6799,7 +6832,7 @@
 </file>
 
 <file path=xl/tables/table85.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="85" name="EventDisease" displayName="EventDisease" ref="A35:E91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="85" name="EventTypeOfPlace" displayName="EventTypeOfPlace" ref="A26:E33">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6813,24 +6846,21 @@
 </file>
 
 <file path=xl/tables/table86.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="86" name="Person_involved" displayName="Person_involved" ref="A1:H5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="86" name="EventDisease" displayName="EventDisease" ref="A35:E91">
   <autoFilter/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Field"/>
-    <tableColumn id="2" name="Type"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
     <tableColumn id="3" name="Caption"/>
     <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Required"/>
-    <tableColumn id="6" name="New disease"/>
-    <tableColumn id="7" name="Diseases"/>
-    <tableColumn id="8" name="Outbreaks"/>
+    <tableColumn id="5" name="Short"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
 <file path=xl/tables/table87.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="87" name="Facility" displayName="Facility" ref="A1:H12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="87" name="Person_involved" displayName="Person_involved" ref="A1:H5">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6847,21 +6877,7 @@
 </file>
 
 <file path=xl/tables/table88.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="88" name="FacilityFacilityType" displayName="FacilityFacilityType" ref="A14:E18">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
-<file path=xl/tables/table89.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="89" name="Region" displayName="Region" ref="A1:H6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="88" name="Facility" displayName="Facility" ref="A1:H12">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6874,6 +6890,20 @@
     <tableColumn id="8" name="Outbreaks"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table89.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="89" name="FacilityFacilityType" displayName="FacilityFacilityType" ref="A14:E18">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
@@ -6892,7 +6922,7 @@
 </file>
 
 <file path=xl/tables/table90.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="90" name="District" displayName="District" ref="A1:H7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="90" name="Region" displayName="Region" ref="A1:H6">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6909,7 +6939,7 @@
 </file>
 
 <file path=xl/tables/table91.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="91" name="Community" displayName="Community" ref="A1:H6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="91" name="District" displayName="District" ref="A1:H7">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6926,7 +6956,7 @@
 </file>
 
 <file path=xl/tables/table92.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="92" name="User" displayName="User" ref="A1:H18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="92" name="Community" displayName="Community" ref="A1:H6">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -6943,7 +6973,24 @@
 </file>
 
 <file path=xl/tables/table93.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="93" name="UserDisease" displayName="UserDisease" ref="A20:E76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="93" name="User" displayName="User" ref="A1:H18">
+  <autoFilter/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="New disease"/>
+    <tableColumn id="7" name="Diseases"/>
+    <tableColumn id="8" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table94.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="94" name="UserDisease" displayName="UserDisease" ref="A20:E76">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6956,8 +7003,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table94.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="94" name="UserLanguage" displayName="UserLanguage" ref="A78:E83">
+<file path=xl/tables/table95.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="95" name="UserLanguage" displayName="UserLanguage" ref="A78:E84">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -10508,7 +10555,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11166,18 +11213,20 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>487</v>
+        <v>356</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
       <c r="C34" t="s">
-        <v>488</v>
+        <v>1305</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
       <c r="G34" s="11" t="s">
         <v>12</v>
       </c>
@@ -11185,20 +11234,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>356</v>
+        <v>1306</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C35" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
+      <c r="E35"/>
       <c r="G35" s="11" t="s">
         <v>12</v>
       </c>
@@ -11206,13 +11253,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>364</v>
+        <v>1251</v>
       </c>
       <c r="C36" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>18</v>
@@ -11225,13 +11272,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>1251</v>
+        <v>364</v>
       </c>
       <c r="C37" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>18</v>
@@ -11244,13 +11291,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>364</v>
+        <v>1313</v>
       </c>
       <c r="C38" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>18</v>
@@ -11261,137 +11308,141 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>124</v>
-      </c>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39"/>
+      <c r="G39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>145</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>146</v>
       </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -11403,10 +11454,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -11418,10 +11469,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -11433,85 +11484,85 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -11523,40 +11574,40 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -11568,10 +11619,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -11583,10 +11634,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -11598,10 +11649,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -11613,10 +11664,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -11628,10 +11679,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -11643,10 +11694,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -11658,10 +11709,10 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -11673,10 +11724,10 @@
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -11688,10 +11739,10 @@
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -11703,10 +11754,10 @@
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -11718,10 +11769,10 @@
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -11733,10 +11784,10 @@
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -11748,10 +11799,10 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -11763,10 +11814,10 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -11778,10 +11829,10 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -11793,10 +11844,10 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -11808,10 +11859,10 @@
     <row r="76">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -11823,10 +11874,10 @@
     <row r="77">
       <c r="A77"/>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C77" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -11838,10 +11889,10 @@
     <row r="78">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -11853,10 +11904,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -11868,10 +11919,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -11883,10 +11934,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -11898,10 +11949,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C82" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -11913,10 +11964,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C83" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -11928,10 +11979,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -11943,10 +11994,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C85" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -11958,10 +12009,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -11973,10 +12024,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -11988,55 +12039,55 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C88" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C89" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
       </c>
       <c r="E89" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C90" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -12048,10 +12099,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C92" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -12063,10 +12114,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C93" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -12078,10 +12129,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C94" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -12093,74 +12144,74 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C95" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97"/>
+      <c r="B97" t="s">
         <v>263</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>264</v>
       </c>
-      <c r="D96" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
-        <v>123</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
         <v>1266</v>
       </c>
-      <c r="B99" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100"/>
       <c r="B100" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="C100" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -12172,10 +12223,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="C101" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -12187,10 +12238,10 @@
     <row r="102">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="C102" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -12202,10 +12253,10 @@
     <row r="103">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C103" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -12217,10 +12268,10 @@
     <row r="104">
       <c r="A104"/>
       <c r="B104" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="C104" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
@@ -12232,10 +12283,10 @@
     <row r="105">
       <c r="A105"/>
       <c r="B105" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="C105" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
@@ -12247,10 +12298,10 @@
     <row r="106">
       <c r="A106"/>
       <c r="B106" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="C106" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -12262,10 +12313,10 @@
     <row r="107">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="C107" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -12277,10 +12328,10 @@
     <row r="108">
       <c r="A108"/>
       <c r="B108" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="C108" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
@@ -12292,10 +12343,10 @@
     <row r="109">
       <c r="A109"/>
       <c r="B109" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="C109" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -12307,10 +12358,10 @@
     <row r="110">
       <c r="A110"/>
       <c r="B110" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="C110" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
@@ -12322,10 +12373,10 @@
     <row r="111">
       <c r="A111"/>
       <c r="B111" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="C111" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
@@ -12334,47 +12385,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" t="s">
-        <v>123</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" t="s">
-        <v>3</v>
-      </c>
-      <c r="E113" t="s">
-        <v>124</v>
+    <row r="112">
+      <c r="A112"/>
+      <c r="B112" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
         <v>1272</v>
       </c>
-      <c r="B114" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D114" t="s">
-        <v>18</v>
-      </c>
-      <c r="E114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115"/>
       <c r="B115" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="C115" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="D115" t="s">
         <v>18</v>
@@ -12386,10 +12437,10 @@
     <row r="116">
       <c r="A116"/>
       <c r="B116" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="C116" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="D116" t="s">
         <v>18</v>
@@ -12398,111 +12449,111 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>123</v>
-      </c>
-      <c r="C118" t="s">
-        <v>2</v>
-      </c>
-      <c r="D118" t="s">
-        <v>3</v>
-      </c>
-      <c r="E118" t="s">
-        <v>124</v>
+    <row r="117">
+      <c r="A117"/>
+      <c r="B117" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
         <v>1275</v>
       </c>
-      <c r="B119" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D119" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120"/>
       <c r="B120" t="s">
-        <v>513</v>
+        <v>1349</v>
       </c>
       <c r="C120" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="D120" t="s">
         <v>18</v>
       </c>
       <c r="E120" t="s">
-        <v>515</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="121">
       <c r="A121"/>
       <c r="B121" t="s">
-        <v>1348</v>
+        <v>513</v>
       </c>
       <c r="C121" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
       </c>
       <c r="E121" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2</v>
-      </c>
-      <c r="D123" t="s">
-        <v>3</v>
-      </c>
-      <c r="E123" t="s">
-        <v>124</v>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122"/>
+      <c r="B122" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
         <v>1278</v>
       </c>
-      <c r="B124" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D124" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125"/>
       <c r="B125" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="C125" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="D125" t="s">
         <v>18</v>
@@ -12514,10 +12565,10 @@
     <row r="126">
       <c r="A126"/>
       <c r="B126" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="C126" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="D126" t="s">
         <v>18</v>
@@ -12526,141 +12577,141 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" t="s">
-        <v>123</v>
-      </c>
-      <c r="C128" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" t="s">
-        <v>124</v>
+    <row r="127">
+      <c r="A127"/>
+      <c r="B127" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>123</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
         <v>1281</v>
       </c>
-      <c r="B129" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130"/>
       <c r="B130" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C130" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D130" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="E130" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="131">
       <c r="A131"/>
       <c r="B131" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C131" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D131" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="E131" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="132">
       <c r="A132"/>
       <c r="B132" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C132" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D132" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="E132" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="133">
       <c r="A133"/>
       <c r="B133" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C133" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D133" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="E133" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>1</v>
-      </c>
-      <c r="B135" t="s">
-        <v>123</v>
-      </c>
-      <c r="C135" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" t="s">
-        <v>124</v>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134"/>
+      <c r="B134" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>123</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
         <v>1293</v>
       </c>
-      <c r="B136" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D136" t="s">
-        <v>18</v>
-      </c>
-      <c r="E136" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137"/>
       <c r="B137" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="C137" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
@@ -12672,10 +12723,10 @@
     <row r="138">
       <c r="A138"/>
       <c r="B138" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="C138" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
@@ -12687,10 +12738,10 @@
     <row r="139">
       <c r="A139"/>
       <c r="B139" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="C139" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
@@ -12702,59 +12753,59 @@
     <row r="140">
       <c r="A140"/>
       <c r="B140" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141"/>
+      <c r="B141" t="s">
         <v>260</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>262</v>
       </c>
-      <c r="D140" t="s">
-        <v>18</v>
-      </c>
-      <c r="E140" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" t="s">
-        <v>123</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2</v>
-      </c>
-      <c r="D142" t="s">
-        <v>3</v>
-      </c>
-      <c r="E142" t="s">
-        <v>124</v>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>123</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
         <v>393</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>534</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>535</v>
-      </c>
-      <c r="D143" t="s">
-        <v>18</v>
-      </c>
-      <c r="E143" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144"/>
-      <c r="B144" t="s">
-        <v>536</v>
-      </c>
-      <c r="C144" t="s">
-        <v>537</v>
       </c>
       <c r="D144" t="s">
         <v>18</v>
@@ -12766,59 +12817,59 @@
     <row r="145">
       <c r="A145"/>
       <c r="B145" t="s">
+        <v>536</v>
+      </c>
+      <c r="C145" t="s">
+        <v>537</v>
+      </c>
+      <c r="D145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146"/>
+      <c r="B146" t="s">
         <v>341</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>342</v>
       </c>
-      <c r="D145" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>1</v>
-      </c>
-      <c r="B147" t="s">
-        <v>123</v>
-      </c>
-      <c r="C147" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" t="s">
-        <v>3</v>
-      </c>
-      <c r="E147" t="s">
-        <v>124</v>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>123</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
         <v>483</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>560</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>561</v>
-      </c>
-      <c r="D148" t="s">
-        <v>18</v>
-      </c>
-      <c r="E148" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149"/>
-      <c r="B149" t="s">
-        <v>562</v>
-      </c>
-      <c r="C149" t="s">
-        <v>563</v>
       </c>
       <c r="D149" t="s">
         <v>18</v>
@@ -12830,10 +12881,10 @@
     <row r="150">
       <c r="A150"/>
       <c r="B150" t="s">
-        <v>274</v>
+        <v>562</v>
       </c>
       <c r="C150" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D150" t="s">
         <v>18</v>
@@ -12845,15 +12896,79 @@
     <row r="151">
       <c r="A151"/>
       <c r="B151" t="s">
+        <v>274</v>
+      </c>
+      <c r="C151" t="s">
+        <v>564</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152"/>
+      <c r="B152" t="s">
         <v>341</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>342</v>
       </c>
-      <c r="D151" t="s">
-        <v>18</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>123</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D155" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156"/>
+      <c r="B156" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12870,6 +12985,7 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12926,7 +13042,7 @@
         <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>1384</v>
+        <v>1393</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>18</v>
@@ -12969,7 +13085,7 @@
         <v>1245</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -12981,13 +13097,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1386</v>
+        <v>1395</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>1387</v>
+        <v>1396</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>18</v>
@@ -13002,16 +13118,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1388</v>
+        <v>1397</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1389</v>
+        <v>1398</v>
       </c>
       <c r="C6" t="s">
-        <v>1390</v>
+        <v>1399</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>1391</v>
+        <v>1400</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -13029,10 +13145,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>1392</v>
+        <v>1401</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1393</v>
+        <v>1402</v>
       </c>
       <c r="E7"/>
       <c r="G7" s="12" t="s">
@@ -13994,13 +14110,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1389</v>
+        <v>1398</v>
       </c>
       <c r="B72" t="s">
-        <v>1394</v>
+        <v>1403</v>
       </c>
       <c r="C72" t="s">
-        <v>1395</v>
+        <v>1404</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -14012,31 +14128,31 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>1396</v>
+        <v>1405</v>
       </c>
       <c r="C73" t="s">
-        <v>1397</v>
+        <v>1406</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>1398</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>1399</v>
+        <v>1408</v>
       </c>
       <c r="C74" t="s">
-        <v>1400</v>
+        <v>1409</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>1401</v>
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
@@ -14095,13 +14211,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1402</v>
+        <v>1411</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>1251</v>
       </c>
       <c r="C2" t="s">
-        <v>1403</v>
+        <v>1412</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>18</v>
@@ -14116,13 +14232,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1404</v>
+        <v>1413</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1405</v>
+        <v>1414</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -14135,16 +14251,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1406</v>
+        <v>1415</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>1407</v>
+        <v>1416</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1408</v>
+        <v>1417</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -14255,13 +14371,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1409</v>
+        <v>1418</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1410</v>
+        <v>1419</v>
       </c>
       <c r="C10" t="s">
-        <v>1411</v>
+        <v>1420</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>18</v>
@@ -14276,13 +14392,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1412</v>
+        <v>1421</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1413</v>
+        <v>1422</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>18</v>
@@ -14295,13 +14411,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1414</v>
+        <v>1423</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1415</v>
+        <v>1424</v>
       </c>
       <c r="C12" t="s">
-        <v>1416</v>
+        <v>1425</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>18</v>
@@ -14316,13 +14432,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1417</v>
+        <v>1426</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>1418</v>
+        <v>1427</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>18</v>
@@ -14337,13 +14453,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1419</v>
+        <v>1428</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>18</v>
@@ -14356,13 +14472,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1421</v>
+        <v>1430</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>1422</v>
+        <v>1431</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>18</v>
@@ -14375,13 +14491,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1423</v>
+        <v>1432</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>1424</v>
+        <v>1433</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>18</v>
@@ -14394,13 +14510,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1425</v>
+        <v>1434</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>1426</v>
+        <v>1435</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>18</v>
@@ -14413,13 +14529,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1428</v>
+        <v>1437</v>
       </c>
       <c r="C18" t="s">
-        <v>1429</v>
+        <v>1438</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>18</v>
@@ -14432,13 +14548,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1430</v>
+        <v>1439</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>1431</v>
+        <v>1440</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>18</v>
@@ -14451,13 +14567,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1432</v>
+        <v>1441</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>1433</v>
+        <v>1442</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>18</v>
@@ -14470,13 +14586,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1434</v>
+        <v>1443</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1435</v>
+        <v>1444</v>
       </c>
       <c r="C21" t="s">
-        <v>1436</v>
+        <v>1445</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>18</v>
@@ -14489,10 +14605,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1437</v>
+        <v>1446</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>1438</v>
+        <v>1447</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -14508,13 +14624,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1439</v>
+        <v>1448</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>480</v>
       </c>
       <c r="C23" t="s">
-        <v>1440</v>
+        <v>1449</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>18</v>
@@ -14527,13 +14643,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1441</v>
+        <v>1450</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>480</v>
       </c>
       <c r="C24" t="s">
-        <v>1442</v>
+        <v>1451</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>18</v>
@@ -14546,13 +14662,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1443</v>
+        <v>1452</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1444</v>
+        <v>1453</v>
       </c>
       <c r="C25" t="s">
-        <v>1445</v>
+        <v>1454</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>18</v>
@@ -14565,13 +14681,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1446</v>
+        <v>1455</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>480</v>
       </c>
       <c r="C26" t="s">
-        <v>1447</v>
+        <v>1456</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>18</v>
@@ -14584,13 +14700,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1448</v>
+        <v>1457</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>480</v>
       </c>
       <c r="C27" t="s">
-        <v>1449</v>
+        <v>1458</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>18</v>
@@ -14603,11 +14719,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1450</v>
+        <v>1459</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" t="s">
-        <v>1451</v>
+        <v>1460</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>18</v>
@@ -14620,11 +14736,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1452</v>
+        <v>1461</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" t="s">
-        <v>1453</v>
+        <v>1462</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>18</v>
@@ -14637,13 +14753,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1454</v>
+        <v>1463</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>1455</v>
+        <v>1464</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>18</v>
@@ -14656,13 +14772,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1456</v>
+        <v>1465</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>1457</v>
+        <v>1466</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>18</v>
@@ -14692,13 +14808,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1410</v>
+        <v>1419</v>
       </c>
       <c r="B34" t="s">
-        <v>1458</v>
+        <v>1467</v>
       </c>
       <c r="C34" t="s">
-        <v>1459</v>
+        <v>1468</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -14710,10 +14826,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1460</v>
+        <v>1469</v>
       </c>
       <c r="C35" t="s">
-        <v>1461</v>
+        <v>1470</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -14725,10 +14841,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1462</v>
+        <v>1471</v>
       </c>
       <c r="C36" t="s">
-        <v>1463</v>
+        <v>1472</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -14740,10 +14856,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>1464</v>
+        <v>1473</v>
       </c>
       <c r="C37" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -14755,10 +14871,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1466</v>
+        <v>1475</v>
       </c>
       <c r="C38" t="s">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -14770,10 +14886,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1468</v>
+        <v>1477</v>
       </c>
       <c r="C39" t="s">
-        <v>1469</v>
+        <v>1478</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -14785,10 +14901,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1470</v>
+        <v>1479</v>
       </c>
       <c r="C40" t="s">
-        <v>1471</v>
+        <v>1480</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -14800,10 +14916,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1472</v>
+        <v>1481</v>
       </c>
       <c r="C41" t="s">
-        <v>1473</v>
+        <v>1482</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -14815,10 +14931,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1474</v>
+        <v>1483</v>
       </c>
       <c r="C42" t="s">
-        <v>1475</v>
+        <v>1484</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -14830,10 +14946,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1476</v>
+        <v>1485</v>
       </c>
       <c r="C43" t="s">
-        <v>1477</v>
+        <v>1486</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -14845,10 +14961,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1478</v>
+        <v>1487</v>
       </c>
       <c r="C44" t="s">
-        <v>1479</v>
+        <v>1488</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -14860,10 +14976,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>1480</v>
+        <v>1489</v>
       </c>
       <c r="C45" t="s">
-        <v>1481</v>
+        <v>1490</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -14875,10 +14991,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1482</v>
+        <v>1491</v>
       </c>
       <c r="C46" t="s">
-        <v>1483</v>
+        <v>1492</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -14890,10 +15006,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1484</v>
+        <v>1493</v>
       </c>
       <c r="C47" t="s">
-        <v>1485</v>
+        <v>1494</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -14905,10 +15021,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1486</v>
+        <v>1495</v>
       </c>
       <c r="C48" t="s">
-        <v>1487</v>
+        <v>1496</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -14920,10 +15036,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>1488</v>
+        <v>1497</v>
       </c>
       <c r="C49" t="s">
-        <v>1489</v>
+        <v>1498</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -14935,10 +15051,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>1490</v>
+        <v>1499</v>
       </c>
       <c r="C50" t="s">
-        <v>1491</v>
+        <v>1500</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -14950,10 +15066,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>1492</v>
+        <v>1501</v>
       </c>
       <c r="C51" t="s">
-        <v>1493</v>
+        <v>1502</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -14965,10 +15081,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1494</v>
+        <v>1503</v>
       </c>
       <c r="C52" t="s">
-        <v>1495</v>
+        <v>1504</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -15011,13 +15127,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1415</v>
+        <v>1424</v>
       </c>
       <c r="B56" t="s">
-        <v>1496</v>
+        <v>1505</v>
       </c>
       <c r="C56" t="s">
-        <v>1497</v>
+        <v>1506</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -15029,10 +15145,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>1498</v>
+        <v>1507</v>
       </c>
       <c r="C57" t="s">
-        <v>1499</v>
+        <v>1508</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -15060,13 +15176,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1428</v>
+        <v>1437</v>
       </c>
       <c r="B60" t="s">
-        <v>1500</v>
+        <v>1509</v>
       </c>
       <c r="C60" t="s">
-        <v>1501</v>
+        <v>1510</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -15078,10 +15194,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>1502</v>
+        <v>1511</v>
       </c>
       <c r="C61" t="s">
-        <v>1503</v>
+        <v>1512</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -15109,13 +15225,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1435</v>
+        <v>1444</v>
       </c>
       <c r="B64" t="s">
-        <v>1504</v>
+        <v>1513</v>
       </c>
       <c r="C64" t="s">
-        <v>1505</v>
+        <v>1514</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -15127,10 +15243,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>1506</v>
+        <v>1515</v>
       </c>
       <c r="C65" t="s">
-        <v>1507</v>
+        <v>1516</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -15142,10 +15258,10 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>1508</v>
+        <v>1517</v>
       </c>
       <c r="C66" t="s">
-        <v>1509</v>
+        <v>1518</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -15173,13 +15289,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1444</v>
+        <v>1453</v>
       </c>
       <c r="B69" t="s">
-        <v>1510</v>
+        <v>1519</v>
       </c>
       <c r="C69" t="s">
-        <v>1511</v>
+        <v>1520</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -15206,10 +15322,10 @@
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>1512</v>
+        <v>1521</v>
       </c>
       <c r="C71" t="s">
-        <v>1513</v>
+        <v>1522</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -15221,10 +15337,10 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>1514</v>
+        <v>1523</v>
       </c>
       <c r="C72" t="s">
-        <v>1515</v>
+        <v>1524</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -15292,10 +15408,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1516</v>
+        <v>1525</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1438</v>
+        <v>1447</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -15313,16 +15429,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1517</v>
+        <v>1526</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>1518</v>
+        <v>1527</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1519</v>
+        <v>1528</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -15334,16 +15450,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1520</v>
+        <v>1529</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1521</v>
+        <v>1530</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>1522</v>
+        <v>1531</v>
       </c>
       <c r="E4"/>
       <c r="G4" s="14" t="s">
@@ -15353,16 +15469,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1523</v>
+        <v>1532</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1524</v>
+        <v>1533</v>
       </c>
       <c r="C5" t="s">
-        <v>1525</v>
+        <v>1534</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>1526</v>
+        <v>1535</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -15374,16 +15490,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1527</v>
+        <v>1536</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1528</v>
+        <v>1537</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>1529</v>
+        <v>1538</v>
       </c>
       <c r="E6"/>
       <c r="G6" s="14" t="s">
@@ -15393,16 +15509,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1530</v>
+        <v>1539</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>1531</v>
+        <v>1540</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1532</v>
+        <v>1541</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -15414,16 +15530,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1417</v>
+        <v>1426</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>1418</v>
+        <v>1427</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>1533</v>
+        <v>1542</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -15435,16 +15551,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1419</v>
+        <v>1428</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="E9"/>
       <c r="G9" s="14" t="s">
@@ -15454,7 +15570,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1535</v>
+        <v>1544</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>364</v>
@@ -15475,16 +15591,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1536</v>
+        <v>1545</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1444</v>
+        <v>1453</v>
       </c>
       <c r="C11" t="s">
-        <v>1537</v>
+        <v>1546</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1538</v>
+        <v>1547</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -15496,16 +15612,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1539</v>
+        <v>1548</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1540</v>
+        <v>1549</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1541</v>
+        <v>1550</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -15517,16 +15633,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1542</v>
+        <v>1551</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>480</v>
       </c>
       <c r="C13" t="s">
-        <v>1543</v>
+        <v>1552</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>1544</v>
+        <v>1553</v>
       </c>
       <c r="E13"/>
       <c r="G13" s="14" t="s">
@@ -15536,16 +15652,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1545</v>
+        <v>1554</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>480</v>
       </c>
       <c r="C14" t="s">
-        <v>1546</v>
+        <v>1555</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1547</v>
+        <v>1556</v>
       </c>
       <c r="E14"/>
       <c r="G14" s="14" t="s">
@@ -15555,16 +15671,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1548</v>
+        <v>1557</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>1549</v>
+        <v>1558</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1550</v>
+        <v>1559</v>
       </c>
       <c r="E15"/>
       <c r="G15" s="14" t="s">
@@ -15574,13 +15690,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1551</v>
+        <v>1560</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>1552</v>
+        <v>1561</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>18</v>
@@ -16469,13 +16585,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1524</v>
+        <v>1533</v>
       </c>
       <c r="B77" t="s">
-        <v>1553</v>
+        <v>1562</v>
       </c>
       <c r="C77" t="s">
-        <v>1554</v>
+        <v>1563</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -16487,10 +16603,10 @@
     <row r="78">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>1555</v>
+        <v>1564</v>
       </c>
       <c r="C78" t="s">
-        <v>1556</v>
+        <v>1565</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -16502,10 +16618,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>1557</v>
+        <v>1566</v>
       </c>
       <c r="C79" t="s">
-        <v>1558</v>
+        <v>1567</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -16517,10 +16633,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>1559</v>
+        <v>1568</v>
       </c>
       <c r="C80" t="s">
-        <v>1560</v>
+        <v>1569</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -16532,10 +16648,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>1561</v>
+        <v>1570</v>
       </c>
       <c r="C81" t="s">
-        <v>1562</v>
+        <v>1571</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -16547,7 +16663,7 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>1563</v>
+        <v>1572</v>
       </c>
       <c r="C82" t="s">
         <v>576</v>
@@ -16562,10 +16678,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>1564</v>
+        <v>1573</v>
       </c>
       <c r="C83" t="s">
-        <v>1565</v>
+        <v>1574</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -16577,10 +16693,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>1566</v>
+        <v>1575</v>
       </c>
       <c r="C84" t="s">
-        <v>1567</v>
+        <v>1576</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -16592,10 +16708,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>1568</v>
+        <v>1577</v>
       </c>
       <c r="C85" t="s">
-        <v>1569</v>
+        <v>1578</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -16607,10 +16723,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="C86" t="s">
-        <v>1571</v>
+        <v>1580</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -16622,10 +16738,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>1572</v>
+        <v>1581</v>
       </c>
       <c r="C87" t="s">
-        <v>1573</v>
+        <v>1582</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -16637,10 +16753,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>1574</v>
+        <v>1583</v>
       </c>
       <c r="C88" t="s">
-        <v>1575</v>
+        <v>1584</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -16652,10 +16768,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>1576</v>
+        <v>1585</v>
       </c>
       <c r="C89" t="s">
-        <v>1577</v>
+        <v>1586</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -16667,10 +16783,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>1578</v>
+        <v>1587</v>
       </c>
       <c r="C90" t="s">
-        <v>1579</v>
+        <v>1588</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -16682,10 +16798,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>1580</v>
+        <v>1589</v>
       </c>
       <c r="C91" t="s">
-        <v>1581</v>
+        <v>1590</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -16697,10 +16813,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>1582</v>
+        <v>1591</v>
       </c>
       <c r="C92" t="s">
-        <v>1583</v>
+        <v>1592</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -16712,10 +16828,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>1584</v>
+        <v>1593</v>
       </c>
       <c r="C93" t="s">
-        <v>1585</v>
+        <v>1594</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -16727,10 +16843,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>1586</v>
+        <v>1595</v>
       </c>
       <c r="C94" t="s">
-        <v>1587</v>
+        <v>1596</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -16773,13 +16889,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1444</v>
+        <v>1453</v>
       </c>
       <c r="B98" t="s">
-        <v>1510</v>
+        <v>1519</v>
       </c>
       <c r="C98" t="s">
-        <v>1511</v>
+        <v>1520</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -16806,10 +16922,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>1512</v>
+        <v>1521</v>
       </c>
       <c r="C100" t="s">
-        <v>1513</v>
+        <v>1522</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -16821,10 +16937,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>1514</v>
+        <v>1523</v>
       </c>
       <c r="C101" t="s">
-        <v>1515</v>
+        <v>1524</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -16890,10 +17006,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1516</v>
+        <v>1525</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1438</v>
+        <v>1447</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -16909,13 +17025,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1530</v>
+        <v>1539</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>1531</v>
+        <v>1540</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>18</v>
@@ -16928,13 +17044,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1588</v>
+        <v>1597</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1589</v>
+        <v>1598</v>
       </c>
       <c r="C4" t="s">
-        <v>1590</v>
+        <v>1599</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>18</v>
@@ -16947,13 +17063,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1591</v>
+        <v>1600</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1589</v>
+        <v>1598</v>
       </c>
       <c r="C5" t="s">
-        <v>1592</v>
+        <v>1601</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>18</v>
@@ -16966,13 +17082,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1593</v>
+        <v>1602</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1589</v>
+        <v>1598</v>
       </c>
       <c r="C6" t="s">
-        <v>1594</v>
+        <v>1603</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>18</v>
@@ -16985,13 +17101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1595</v>
+        <v>1604</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>1596</v>
+        <v>1605</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>18</v>
@@ -17004,13 +17120,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1597</v>
+        <v>1606</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>1598</v>
+        <v>1607</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>18</v>
@@ -17023,13 +17139,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1599</v>
+        <v>1608</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>1600</v>
+        <v>1609</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>18</v>
@@ -17042,13 +17158,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1601</v>
+        <v>1610</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>1602</v>
+        <v>1611</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>18</v>
@@ -17061,13 +17177,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1603</v>
+        <v>1612</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>1604</v>
+        <v>1613</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>18</v>
@@ -17080,13 +17196,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1605</v>
+        <v>1614</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>1606</v>
+        <v>1615</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>18</v>
@@ -17099,13 +17215,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1607</v>
+        <v>1616</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>1608</v>
+        <v>1617</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>18</v>
@@ -17118,13 +17234,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1609</v>
+        <v>1618</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>1610</v>
+        <v>1619</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>18</v>
@@ -17137,13 +17253,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1611</v>
+        <v>1620</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>1612</v>
+        <v>1621</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>18</v>
@@ -17156,13 +17272,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1613</v>
+        <v>1622</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>1614</v>
+        <v>1623</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>18</v>
@@ -17175,13 +17291,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1615</v>
+        <v>1624</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>1616</v>
+        <v>1625</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>18</v>
@@ -17194,13 +17310,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1617</v>
+        <v>1626</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>1618</v>
+        <v>1627</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>18</v>
@@ -17213,13 +17329,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1619</v>
+        <v>1628</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>1620</v>
+        <v>1629</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>18</v>
@@ -17232,13 +17348,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1621</v>
+        <v>1630</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>1622</v>
+        <v>1631</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>18</v>
@@ -17251,13 +17367,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1623</v>
+        <v>1632</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>1624</v>
+        <v>1633</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>18</v>
@@ -17270,13 +17386,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1625</v>
+        <v>1634</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>1626</v>
+        <v>1635</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>18</v>
@@ -17289,13 +17405,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1627</v>
+        <v>1636</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>1628</v>
+        <v>1637</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>18</v>
@@ -17325,13 +17441,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1589</v>
+        <v>1598</v>
       </c>
       <c r="B26" t="s">
-        <v>1514</v>
+        <v>1523</v>
       </c>
       <c r="C26" t="s">
-        <v>1515</v>
+        <v>1524</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -17343,10 +17459,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>1512</v>
+        <v>1521</v>
       </c>
       <c r="C27" t="s">
-        <v>1513</v>
+        <v>1522</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -17358,10 +17474,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>1510</v>
+        <v>1519</v>
       </c>
       <c r="C28" t="s">
-        <v>1511</v>
+        <v>1520</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -17425,13 +17541,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1629</v>
+        <v>1638</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1630</v>
+        <v>1639</v>
       </c>
       <c r="C2" t="s">
-        <v>1631</v>
+        <v>1640</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>18</v>
@@ -17452,7 +17568,7 @@
         <v>1251</v>
       </c>
       <c r="C3" t="s">
-        <v>1403</v>
+        <v>1412</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>18</v>
@@ -17465,13 +17581,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1632</v>
+        <v>1641</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1633</v>
+        <v>1642</v>
       </c>
       <c r="C4" t="s">
-        <v>1634</v>
+        <v>1643</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>18</v>
@@ -17484,13 +17600,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1635</v>
+        <v>1644</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1636</v>
+        <v>1645</v>
       </c>
       <c r="C5" t="s">
-        <v>1637</v>
+        <v>1646</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>18</v>
@@ -17503,16 +17619,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1638</v>
+        <v>1647</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1639</v>
+        <v>1648</v>
       </c>
       <c r="C6" t="s">
-        <v>1640</v>
+        <v>1649</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1641</v>
+        <v>1650</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -17524,13 +17640,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1642</v>
+        <v>1651</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1643</v>
+        <v>1652</v>
       </c>
       <c r="C7" t="s">
-        <v>1644</v>
+        <v>1653</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>18</v>
@@ -17543,13 +17659,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1645</v>
+        <v>1654</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>1646</v>
+        <v>1655</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>18</v>
@@ -17564,13 +17680,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1647</v>
+        <v>1656</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>1648</v>
+        <v>1657</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>18</v>
@@ -17583,13 +17699,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1649</v>
+        <v>1658</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1650</v>
+        <v>1659</v>
       </c>
       <c r="C10" t="s">
-        <v>1651</v>
+        <v>1660</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>18</v>
@@ -17602,13 +17718,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1652</v>
+        <v>1661</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>1653</v>
+        <v>1662</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>18</v>
@@ -17621,13 +17737,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1654</v>
+        <v>1663</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>1655</v>
+        <v>1664</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>18</v>
@@ -17640,13 +17756,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1656</v>
+        <v>1665</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C13" t="s">
-        <v>1657</v>
+        <v>1666</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>18</v>
@@ -17659,13 +17775,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1658</v>
+        <v>1667</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>1659</v>
+        <v>1668</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>18</v>
@@ -17678,13 +17794,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1660</v>
+        <v>1669</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C15" t="s">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>18</v>
@@ -17699,13 +17815,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1662</v>
+        <v>1671</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>1663</v>
+        <v>1672</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>18</v>
@@ -17718,7 +17834,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1664</v>
+        <v>1673</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
@@ -17737,7 +17853,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>29</v>
@@ -17756,7 +17872,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1666</v>
+        <v>1675</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>29</v>
@@ -17792,13 +17908,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1630</v>
+        <v>1639</v>
       </c>
       <c r="B22" t="s">
-        <v>1667</v>
+        <v>1676</v>
       </c>
       <c r="C22" t="s">
-        <v>1668</v>
+        <v>1677</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -17810,10 +17926,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>1669</v>
+        <v>1678</v>
       </c>
       <c r="C23" t="s">
-        <v>1670</v>
+        <v>1679</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -17825,10 +17941,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1671</v>
+        <v>1680</v>
       </c>
       <c r="C24" t="s">
-        <v>1672</v>
+        <v>1681</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -17840,10 +17956,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>1673</v>
+        <v>1682</v>
       </c>
       <c r="C25" t="s">
-        <v>1674</v>
+        <v>1683</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -17871,13 +17987,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1639</v>
+        <v>1648</v>
       </c>
       <c r="B28" t="s">
-        <v>1675</v>
+        <v>1684</v>
       </c>
       <c r="C28" t="s">
-        <v>1676</v>
+        <v>1685</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -17889,10 +18005,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1677</v>
+        <v>1686</v>
       </c>
       <c r="C29" t="s">
-        <v>1678</v>
+        <v>1687</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -17904,10 +18020,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1679</v>
+        <v>1688</v>
       </c>
       <c r="C30" t="s">
-        <v>1680</v>
+        <v>1689</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -17919,10 +18035,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1681</v>
+        <v>1690</v>
       </c>
       <c r="C31" t="s">
-        <v>1682</v>
+        <v>1691</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -17934,10 +18050,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>1683</v>
+        <v>1692</v>
       </c>
       <c r="C32" t="s">
-        <v>1684</v>
+        <v>1693</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -17949,10 +18065,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1685</v>
+        <v>1694</v>
       </c>
       <c r="C33" t="s">
-        <v>1686</v>
+        <v>1695</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -17964,10 +18080,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>1687</v>
+        <v>1696</v>
       </c>
       <c r="C34" t="s">
-        <v>1688</v>
+        <v>1697</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -17979,10 +18095,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1689</v>
+        <v>1698</v>
       </c>
       <c r="C35" t="s">
-        <v>1690</v>
+        <v>1699</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -17994,10 +18110,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1691</v>
+        <v>1700</v>
       </c>
       <c r="C36" t="s">
-        <v>1692</v>
+        <v>1701</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -18009,10 +18125,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>1693</v>
+        <v>1702</v>
       </c>
       <c r="C37" t="s">
-        <v>1694</v>
+        <v>1703</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -18024,10 +18140,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1695</v>
+        <v>1704</v>
       </c>
       <c r="C38" t="s">
-        <v>1696</v>
+        <v>1705</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -18039,10 +18155,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1697</v>
+        <v>1706</v>
       </c>
       <c r="C39" t="s">
-        <v>1698</v>
+        <v>1707</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -18054,10 +18170,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1699</v>
+        <v>1708</v>
       </c>
       <c r="C40" t="s">
-        <v>1700</v>
+        <v>1709</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -18069,10 +18185,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1701</v>
+        <v>1710</v>
       </c>
       <c r="C41" t="s">
-        <v>1702</v>
+        <v>1711</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -18084,10 +18200,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1703</v>
+        <v>1712</v>
       </c>
       <c r="C42" t="s">
-        <v>1704</v>
+        <v>1713</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -18099,10 +18215,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1705</v>
+        <v>1714</v>
       </c>
       <c r="C43" t="s">
-        <v>1706</v>
+        <v>1715</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -18114,10 +18230,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1707</v>
+        <v>1716</v>
       </c>
       <c r="C44" t="s">
-        <v>1708</v>
+        <v>1717</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -18132,7 +18248,7 @@
         <v>260</v>
       </c>
       <c r="C45" t="s">
-        <v>1709</v>
+        <v>1718</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -18144,10 +18260,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1710</v>
+        <v>1719</v>
       </c>
       <c r="C46" t="s">
-        <v>1711</v>
+        <v>1720</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -18159,10 +18275,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1712</v>
+        <v>1721</v>
       </c>
       <c r="C47" t="s">
-        <v>1713</v>
+        <v>1722</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -18174,10 +18290,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1714</v>
+        <v>1723</v>
       </c>
       <c r="C48" t="s">
-        <v>1715</v>
+        <v>1724</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -18205,13 +18321,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1643</v>
+        <v>1652</v>
       </c>
       <c r="B51" t="s">
-        <v>1716</v>
+        <v>1725</v>
       </c>
       <c r="C51" t="s">
-        <v>1717</v>
+        <v>1726</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -18223,10 +18339,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1718</v>
+        <v>1727</v>
       </c>
       <c r="C52" t="s">
-        <v>1719</v>
+        <v>1728</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -18238,10 +18354,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1720</v>
+        <v>1729</v>
       </c>
       <c r="C53" t="s">
-        <v>1721</v>
+        <v>1730</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -18269,13 +18385,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1650</v>
+        <v>1659</v>
       </c>
       <c r="B56" t="s">
         <v>519</v>
       </c>
       <c r="C56" t="s">
-        <v>1722</v>
+        <v>1731</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -18290,7 +18406,7 @@
         <v>522</v>
       </c>
       <c r="C57" t="s">
-        <v>1723</v>
+        <v>1732</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -18302,10 +18418,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>1724</v>
+        <v>1733</v>
       </c>
       <c r="C58" t="s">
-        <v>1725</v>
+        <v>1734</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -18317,10 +18433,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>1726</v>
+        <v>1735</v>
       </c>
       <c r="C59" t="s">
-        <v>1727</v>
+        <v>1736</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -18387,16 +18503,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1728</v>
+        <v>1737</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1729</v>
+        <v>1738</v>
       </c>
       <c r="C2" t="s">
-        <v>1730</v>
+        <v>1739</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1731</v>
+        <v>1740</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -18408,16 +18524,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1732</v>
+        <v>1741</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1733</v>
+        <v>1742</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>1734</v>
+        <v>1743</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -18429,16 +18545,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1735</v>
+        <v>1744</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>1736</v>
+        <v>1745</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>1737</v>
+        <v>1746</v>
       </c>
       <c r="E4"/>
       <c r="G4" s="17" t="s">
@@ -18490,13 +18606,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1738</v>
+        <v>1747</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>1739</v>
+        <v>1748</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>18</v>
@@ -18509,16 +18625,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1740</v>
+        <v>1749</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>1741</v>
+        <v>1750</v>
       </c>
       <c r="C8" t="s">
-        <v>1742</v>
+        <v>1751</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>1743</v>
+        <v>1752</v>
       </c>
       <c r="E8"/>
       <c r="G8" s="17" t="s">
@@ -18528,16 +18644,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1744</v>
+        <v>1753</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1745</v>
+        <v>1754</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>1746</v>
+        <v>1755</v>
       </c>
       <c r="E9"/>
       <c r="G9" s="17" t="s">
@@ -18547,16 +18663,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1747</v>
+        <v>1756</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1748</v>
+        <v>1757</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>1749</v>
+        <v>1758</v>
       </c>
       <c r="E10"/>
       <c r="G10" s="17" t="s">
@@ -18566,16 +18682,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1750</v>
+        <v>1759</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1751</v>
+        <v>1760</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>1752</v>
+        <v>1761</v>
       </c>
       <c r="E11"/>
       <c r="G11" s="17" t="s">
@@ -18585,16 +18701,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1753</v>
+        <v>1762</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1754</v>
+        <v>1763</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>1755</v>
+        <v>1764</v>
       </c>
       <c r="E12"/>
       <c r="G12" s="17" t="s">
@@ -18661,13 +18777,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1756</v>
+        <v>1765</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>1757</v>
+        <v>1766</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>18</v>
@@ -18754,13 +18870,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1729</v>
+        <v>1738</v>
       </c>
       <c r="B22" t="s">
-        <v>1758</v>
+        <v>1767</v>
       </c>
       <c r="C22" t="s">
-        <v>1759</v>
+        <v>1768</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -18775,7 +18891,7 @@
         <v>513</v>
       </c>
       <c r="C23" t="s">
-        <v>1672</v>
+        <v>1681</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -18787,16 +18903,16 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1760</v>
+        <v>1769</v>
       </c>
       <c r="C24" t="s">
-        <v>1761</v>
+        <v>1770</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>1762</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="26">
@@ -18818,13 +18934,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1741</v>
+        <v>1750</v>
       </c>
       <c r="B27" t="s">
-        <v>1763</v>
+        <v>1772</v>
       </c>
       <c r="C27" t="s">
-        <v>1764</v>
+        <v>1773</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -18866,10 +18982,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1765</v>
+        <v>1774</v>
       </c>
       <c r="C30" t="s">
-        <v>1766</v>
+        <v>1775</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -18881,10 +18997,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1767</v>
+        <v>1776</v>
       </c>
       <c r="C31" t="s">
-        <v>1768</v>
+        <v>1777</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -19839,13 +19955,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1632</v>
+        <v>1641</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>1633</v>
+        <v>1642</v>
       </c>
       <c r="C2" t="s">
-        <v>1672</v>
+        <v>1681</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>18</v>
@@ -19863,10 +19979,10 @@
         <v>356</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1769</v>
+        <v>1778</v>
       </c>
       <c r="C3" t="s">
-        <v>1769</v>
+        <v>1778</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>18</v>
@@ -19881,13 +19997,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1770</v>
+        <v>1779</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1771</v>
+        <v>1780</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>18</v>
@@ -19971,13 +20087,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1773</v>
+        <v>1782</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>18</v>
@@ -20072,7 +20188,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>1774</v>
+        <v>1783</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>18</v>
@@ -20091,7 +20207,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>1775</v>
+        <v>1784</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>18</v>
@@ -20104,10 +20220,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1776</v>
+        <v>1785</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1777</v>
+        <v>1786</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -20123,7 +20239,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1778</v>
+        <v>1787</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>480</v>
@@ -20142,7 +20258,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1779</v>
+        <v>1788</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>480</v>
@@ -20197,7 +20313,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1777</v>
+        <v>1786</v>
       </c>
       <c r="B15" t="s">
         <v>278</v>
@@ -20245,10 +20361,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1780</v>
+        <v>1789</v>
       </c>
       <c r="C18" t="s">
-        <v>1780</v>
+        <v>1789</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -20638,13 +20754,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1773</v>
+        <v>1782</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>18</v>
@@ -20657,13 +20773,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1781</v>
+        <v>1790</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1782</v>
+        <v>1791</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>18</v>
@@ -20676,13 +20792,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>18</v>
@@ -20695,7 +20811,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1779</v>
+        <v>1788</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>480</v>
@@ -20785,13 +20901,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1773</v>
+        <v>1782</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>18</v>
@@ -20804,13 +20920,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1781</v>
+        <v>1790</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1782</v>
+        <v>1791</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>18</v>
@@ -20823,13 +20939,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>18</v>
@@ -20861,7 +20977,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1779</v>
+        <v>1788</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>480</v>
@@ -20951,13 +21067,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1773</v>
+        <v>1782</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>18</v>
@@ -21008,7 +21124,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1779</v>
+        <v>1788</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>480</v>
@@ -21054,7 +21170,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21098,13 +21214,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>480</v>
       </c>
       <c r="C2" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>18</v>
@@ -21117,13 +21233,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>18</v>
@@ -21174,13 +21290,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1754</v>
+        <v>1763</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>18</v>
@@ -21231,11 +21347,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>18</v>
@@ -21324,13 +21440,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1792</v>
+        <v>1801</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>1418</v>
+        <v>1427</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>18</v>
@@ -21349,7 +21465,7 @@
         <v>471</v>
       </c>
       <c r="C15" t="s">
-        <v>1793</v>
+        <v>1802</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>18</v>
@@ -21362,13 +21478,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1794</v>
+        <v>1803</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>364</v>
       </c>
       <c r="C16" t="s">
-        <v>1795</v>
+        <v>1804</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>18</v>
@@ -21381,16 +21497,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1796</v>
+        <v>1805</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>1797</v>
+        <v>1806</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>1798</v>
+        <v>1807</v>
       </c>
       <c r="E17"/>
       <c r="G17" s="23" t="s">
@@ -21400,10 +21516,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1799</v>
+        <v>1808</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1800</v>
+        <v>1809</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -22295,13 +22411,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1800</v>
+        <v>1809</v>
       </c>
       <c r="B79" t="s">
-        <v>1801</v>
+        <v>1810</v>
       </c>
       <c r="C79" t="s">
-        <v>1802</v>
+        <v>1811</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -22313,10 +22429,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>1803</v>
+        <v>1812</v>
       </c>
       <c r="C80" t="s">
-        <v>1804</v>
+        <v>1813</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -22328,10 +22444,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>1805</v>
+        <v>1814</v>
       </c>
       <c r="C81" t="s">
-        <v>1806</v>
+        <v>1815</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -22343,10 +22459,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>1807</v>
+        <v>1816</v>
       </c>
       <c r="C82" t="s">
-        <v>1808</v>
+        <v>1817</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -22358,15 +22474,30 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>1809</v>
+        <v>1818</v>
       </c>
       <c r="C83" t="s">
-        <v>1810</v>
+        <v>1819</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
       </c>
       <c r="E83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84"/>
+      <c r="B84" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s">
         <v>18</v>
       </c>
     </row>
@@ -22390,12 +22521,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1811</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1812</v>
+        <v>1823</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="1906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6824" uniqueCount="1912">
   <si>
     <t>Field</t>
   </si>
@@ -4264,10 +4264,10 @@
     <t>Face-to-face contact of at least 15 minutes</t>
   </si>
   <si>
-    <t>MEDICAL_UNSAVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical personal at close proximity (2 meter) without protective equipment		</t>
+    <t>MEDICAL_UNSAFE</t>
+  </si>
+  <si>
+    <t>Medical personnel with a high risk of exposure, e.g. unprotected relevant exposure to secretions, exposure to aerosols from COVID-19 cases</t>
   </si>
   <si>
     <t>SAME_ROOM</t>
@@ -4288,16 +4288,16 @@
     <t>Face-to-face contact of less than 15 minutes</t>
   </si>
   <si>
-    <t>MEDICAL_SAVE</t>
-  </si>
-  <si>
-    <t>Medical personal at save proximity (&gt; 2 meter) or with protective equipment</t>
+    <t>MEDICAL_SAFE</t>
+  </si>
+  <si>
+    <t>Medical personnel at save proximity (&gt; 2 meter) or with protective equipment</t>
   </si>
   <si>
     <t>MEDICAL_SAME_ROOM</t>
   </si>
   <si>
-    <t>Medical personal that was in same room or house with source case</t>
+    <t>Medical personnel that was in same room or house with source case</t>
   </si>
   <si>
     <t>AEROSOL</t>
@@ -4312,12 +4312,30 @@
     <t>Medical personnel at save proximity (&gt; 2 meter), without direct contact with secretions or excretions of the patient and without aerosol exposure</t>
   </si>
   <si>
+    <t>MEDICAL_LIMITED</t>
+  </si>
+  <si>
+    <t>Medical personnel with limited exposure, e.g. with contact &lt; 2m to COVID-19 cases without protective equipment, ≥ 15min face-to-face contact (without exposure as described under Ia)</t>
+  </si>
+  <si>
     <t>HIGH_RISK</t>
   </si>
   <si>
     <t>High risk contact</t>
   </si>
   <si>
+    <t>HIGH_RISK_MED</t>
+  </si>
+  <si>
+    <t>High risk medical contact</t>
+  </si>
+  <si>
+    <t>MEDIUM_RISK_MED</t>
+  </si>
+  <si>
+    <t>Medium risk medical contact</t>
+  </si>
+  <si>
     <t>LOW_RISK</t>
   </si>
   <si>
@@ -5752,7 +5770,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.41.0-SNAPSHOT</t>
+    <t>1.42.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -6598,7 +6616,7 @@
 </file>
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ContactContactProximity" displayName="ContactContactProximity" ref="A108:E121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ContactContactProximity" displayName="ContactContactProximity" ref="A108:E122">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6612,7 +6630,7 @@
 </file>
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ContactContactCategory" displayName="ContactContactCategory" ref="A123:E126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ContactContactCategory" displayName="ContactContactCategory" ref="A124:E129">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6626,7 +6644,7 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ContactContactClassification" displayName="ContactContactClassification" ref="A128:E131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ContactContactClassification" displayName="ContactContactClassification" ref="A131:E134">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6640,7 +6658,7 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ContactContactStatus" displayName="ContactContactStatus" ref="A133:E136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ContactContactStatus" displayName="ContactContactStatus" ref="A136:E139">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6654,7 +6672,7 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="ContactFollowUpStatus" displayName="ContactFollowUpStatus" ref="A138:E143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="ContactFollowUpStatus" displayName="ContactFollowUpStatus" ref="A141:E146">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6682,7 +6700,7 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="ContactContactRelation" displayName="ContactContactRelation" ref="A145:E150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="ContactContactRelation" displayName="ContactContactRelation" ref="A148:E153">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6696,7 +6714,7 @@
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="ContactYesNoUnknown" displayName="ContactYesNoUnknown" ref="A152:E155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="ContactYesNoUnknown" displayName="ContactYesNoUnknown" ref="A155:E158">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6710,7 +6728,7 @@
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ContactQuarantineType" displayName="ContactQuarantineType" ref="A157:E161">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ContactQuarantineType" displayName="ContactQuarantineType" ref="A160:E164">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -10801,7 +10819,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12817,42 +12835,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2</v>
-      </c>
-      <c r="D123" t="s">
-        <v>3</v>
-      </c>
-      <c r="E123" t="s">
-        <v>124</v>
+    <row r="122">
+      <c r="A122"/>
+      <c r="B122" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
         <v>1359</v>
       </c>
-      <c r="B124" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D124" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125"/>
       <c r="B125" t="s">
         <v>1427</v>
       </c>
@@ -12881,294 +12899,294 @@
         <v>18</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127"/>
+      <c r="B127" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="128">
-      <c r="A128" t="s">
+      <c r="A128"/>
+      <c r="B128" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129"/>
+      <c r="B129" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
         <v>1</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B131" t="s">
         <v>123</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C131" t="s">
         <v>2</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D131" t="s">
         <v>3</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E131" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="s">
+    <row r="132">
+      <c r="A132" t="s">
         <v>1362</v>
       </c>
-      <c r="B129" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D129" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130"/>
-      <c r="B130" t="s">
+      <c r="B132" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133"/>
+      <c r="B133" t="s">
         <v>536</v>
       </c>
-      <c r="C130" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D130" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="C133" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131"/>
-      <c r="B131" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
+    <row r="134">
+      <c r="A134"/>
+      <c r="B134" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
         <v>1</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B136" t="s">
         <v>123</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C136" t="s">
         <v>2</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D136" t="s">
         <v>3</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E136" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="s">
+    <row r="137">
+      <c r="A137" t="s">
         <v>1365</v>
       </c>
-      <c r="B134" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D134" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135"/>
-      <c r="B135" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D135" t="s">
-        <v>18</v>
-      </c>
-      <c r="E135" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136"/>
-      <c r="B136" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D136" t="s">
-        <v>18</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="B137" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s">
+      <c r="A138"/>
+      <c r="B138" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139"/>
+      <c r="B139" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
         <v>1</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B141" t="s">
         <v>123</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C141" t="s">
         <v>2</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D141" t="s">
         <v>3</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E141" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="s">
+    <row r="142">
+      <c r="A142" t="s">
         <v>1368</v>
       </c>
-      <c r="B139" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D139" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E139" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140"/>
-      <c r="B140" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="B142" t="s">
         <v>1450</v>
       </c>
-      <c r="E140" t="s">
+      <c r="C142" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141"/>
-      <c r="B141" t="s">
+      <c r="D142" t="s">
         <v>1452</v>
       </c>
-      <c r="C141" t="s">
+      <c r="E142" t="s">
         <v>1453</v>
-      </c>
-      <c r="D141" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E141" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142"/>
-      <c r="B142" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E142" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="143">
       <c r="A143"/>
       <c r="B143" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144"/>
+      <c r="B144" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D144" t="s">
         <v>1460</v>
       </c>
-      <c r="C143" t="s">
+      <c r="E144" t="s">
         <v>1461</v>
       </c>
-      <c r="D143" t="s">
+    </row>
+    <row r="145">
+      <c r="A145"/>
+      <c r="B145" t="s">
         <v>1462</v>
       </c>
-      <c r="E143" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
+      <c r="C145" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146"/>
+      <c r="B146" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
         <v>1</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B148" t="s">
         <v>123</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C148" t="s">
         <v>2</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D148" t="s">
         <v>3</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E148" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="s">
+    <row r="149">
+      <c r="A149" t="s">
         <v>1380</v>
       </c>
-      <c r="B146" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D146" t="s">
-        <v>18</v>
-      </c>
-      <c r="E146" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147"/>
-      <c r="B147" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D147" t="s">
-        <v>18</v>
-      </c>
-      <c r="E147" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148"/>
-      <c r="B148" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D148" t="s">
-        <v>18</v>
-      </c>
-      <c r="E148" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149"/>
       <c r="B149" t="s">
         <v>1469</v>
       </c>
@@ -13185,158 +13203,203 @@
     <row r="150">
       <c r="A150"/>
       <c r="B150" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151"/>
+      <c r="B151" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152"/>
+      <c r="B152" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153"/>
+      <c r="B153" t="s">
         <v>260</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C153" t="s">
         <v>262</v>
       </c>
-      <c r="D150" t="s">
-        <v>18</v>
-      </c>
-      <c r="E150" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
+      <c r="D153" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
         <v>1</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B155" t="s">
         <v>123</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C155" t="s">
         <v>2</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D155" t="s">
         <v>3</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E155" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="s">
+    <row r="156">
+      <c r="A156" t="s">
         <v>393</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B156" t="s">
         <v>557</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C156" t="s">
         <v>558</v>
       </c>
-      <c r="D153" t="s">
-        <v>18</v>
-      </c>
-      <c r="E153" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154"/>
-      <c r="B154" t="s">
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157"/>
+      <c r="B157" t="s">
         <v>559</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C157" t="s">
         <v>560</v>
       </c>
-      <c r="D154" t="s">
-        <v>18</v>
-      </c>
-      <c r="E154" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155"/>
-      <c r="B155" t="s">
+      <c r="D157" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158"/>
+      <c r="B158" t="s">
         <v>341</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C158" t="s">
         <v>342</v>
       </c>
-      <c r="D155" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
+      <c r="D158" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
         <v>1</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B160" t="s">
         <v>123</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C160" t="s">
         <v>2</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D160" t="s">
         <v>3</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E160" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="s">
+    <row r="161">
+      <c r="A161" t="s">
         <v>483</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B161" t="s">
         <v>583</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C161" t="s">
         <v>584</v>
       </c>
-      <c r="D158" t="s">
-        <v>18</v>
-      </c>
-      <c r="E158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159"/>
-      <c r="B159" t="s">
+      <c r="D161" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162"/>
+      <c r="B162" t="s">
         <v>585</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C162" t="s">
         <v>586</v>
       </c>
-      <c r="D159" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160"/>
-      <c r="B160" t="s">
+      <c r="D162" t="s">
+        <v>18</v>
+      </c>
+      <c r="E162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163"/>
+      <c r="B163" t="s">
         <v>274</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C163" t="s">
         <v>587</v>
       </c>
-      <c r="D160" t="s">
-        <v>18</v>
-      </c>
-      <c r="E160" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161"/>
-      <c r="B161" t="s">
+      <c r="D163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164"/>
+      <c r="B164" t="s">
         <v>341</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C164" t="s">
         <v>342</v>
       </c>
-      <c r="D161" t="s">
-        <v>18</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13409,7 +13472,7 @@
         <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>1471</v>
+        <v>1477</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>18</v>
@@ -13452,7 +13515,7 @@
         <v>1332</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1472</v>
+        <v>1478</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -13464,13 +13527,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>1474</v>
+        <v>1480</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>18</v>
@@ -13485,16 +13548,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1475</v>
+        <v>1481</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1476</v>
+        <v>1482</v>
       </c>
       <c r="C6" t="s">
-        <v>1477</v>
+        <v>1483</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>1478</v>
+        <v>1484</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -13512,10 +13575,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1480</v>
+        <v>1486</v>
       </c>
       <c r="E7"/>
       <c r="G7" s="12" t="s">
@@ -13550,7 +13613,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>1481</v>
+        <v>1487</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>18</v>
@@ -13569,7 +13632,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>1482</v>
+        <v>1488</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>18</v>
@@ -14477,13 +14540,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1476</v>
+        <v>1482</v>
       </c>
       <c r="B72" t="s">
-        <v>1483</v>
+        <v>1489</v>
       </c>
       <c r="C72" t="s">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -14495,31 +14558,31 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>1485</v>
+        <v>1491</v>
       </c>
       <c r="C73" t="s">
-        <v>1486</v>
+        <v>1492</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>1487</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>1488</v>
+        <v>1494</v>
       </c>
       <c r="C74" t="s">
-        <v>1489</v>
+        <v>1495</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>1490</v>
+        <v>1496</v>
       </c>
     </row>
   </sheetData>
@@ -14578,13 +14641,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>1338</v>
       </c>
       <c r="C2" t="s">
-        <v>1492</v>
+        <v>1498</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>18</v>
@@ -14597,10 +14660,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1493</v>
+        <v>1499</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1494</v>
+        <v>1500</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -14616,13 +14679,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1496</v>
+        <v>1502</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>18</v>
@@ -14635,13 +14698,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1497</v>
+        <v>1503</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1498</v>
+        <v>1504</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>18</v>
@@ -14654,16 +14717,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1499</v>
+        <v>1505</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>1500</v>
+        <v>1506</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -14774,13 +14837,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
       <c r="C12" t="s">
-        <v>1504</v>
+        <v>1510</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>18</v>
@@ -14795,13 +14858,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1505</v>
+        <v>1511</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>18</v>
@@ -14814,13 +14877,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1507</v>
+        <v>1513</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1508</v>
+        <v>1514</v>
       </c>
       <c r="C14" t="s">
-        <v>1509</v>
+        <v>1515</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>18</v>
@@ -14835,7 +14898,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>52</v>
@@ -14856,13 +14919,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>18</v>
@@ -14875,13 +14938,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1513</v>
+        <v>1519</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>1514</v>
+        <v>1520</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>18</v>
@@ -14894,13 +14957,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1515</v>
+        <v>1521</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>1516</v>
+        <v>1522</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>18</v>
@@ -14913,13 +14976,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1517</v>
+        <v>1523</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>18</v>
@@ -14932,13 +14995,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1519</v>
+        <v>1525</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1520</v>
+        <v>1526</v>
       </c>
       <c r="C20" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>18</v>
@@ -14951,13 +15014,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1522</v>
+        <v>1528</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>1523</v>
+        <v>1529</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>18</v>
@@ -14970,7 +15033,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1524</v>
+        <v>1530</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>9</v>
@@ -14989,13 +15052,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1525</v>
+        <v>1531</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
       <c r="C23" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>18</v>
@@ -15008,10 +15071,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1529</v>
+        <v>1535</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -15027,13 +15090,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>480</v>
       </c>
       <c r="C25" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>18</v>
@@ -15046,13 +15109,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1532</v>
+        <v>1538</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>480</v>
       </c>
       <c r="C26" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>18</v>
@@ -15065,13 +15128,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="C27" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>18</v>
@@ -15084,13 +15147,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>480</v>
       </c>
       <c r="C28" t="s">
-        <v>1538</v>
+        <v>1544</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>18</v>
@@ -15103,13 +15166,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>480</v>
       </c>
       <c r="C29" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>18</v>
@@ -15122,11 +15185,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>18</v>
@@ -15139,11 +15202,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>18</v>
@@ -15156,13 +15219,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>18</v>
@@ -15175,13 +15238,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>18</v>
@@ -15211,13 +15274,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
       <c r="B36" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="C36" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -15229,10 +15292,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
       <c r="C37" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -15244,10 +15307,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="C38" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -15259,10 +15322,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
       <c r="C39" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -15274,10 +15337,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
       <c r="C40" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -15289,10 +15352,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="C41" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -15304,10 +15367,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
       <c r="C42" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -15319,10 +15382,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1563</v>
+        <v>1569</v>
       </c>
       <c r="C43" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -15334,10 +15397,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="C44" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -15349,10 +15412,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>1567</v>
+        <v>1573</v>
       </c>
       <c r="C45" t="s">
-        <v>1568</v>
+        <v>1574</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -15364,10 +15427,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1569</v>
+        <v>1575</v>
       </c>
       <c r="C46" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -15379,10 +15442,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
       <c r="C47" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -15394,10 +15457,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
       <c r="C48" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -15409,10 +15472,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
       <c r="C49" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -15424,10 +15487,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="C50" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -15439,10 +15502,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
       <c r="C51" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -15454,10 +15517,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
       <c r="C52" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -15469,10 +15532,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
       <c r="C53" t="s">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -15484,10 +15547,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
       <c r="C54" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -15530,13 +15593,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1508</v>
+        <v>1514</v>
       </c>
       <c r="B58" t="s">
-        <v>1587</v>
+        <v>1593</v>
       </c>
       <c r="C58" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -15548,10 +15611,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
       <c r="C59" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -15579,13 +15642,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1520</v>
+        <v>1526</v>
       </c>
       <c r="B62" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="C62" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -15597,10 +15660,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
       <c r="C63" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -15628,13 +15691,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
       <c r="B66" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
       <c r="C66" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -15646,10 +15709,10 @@
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="C67" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -15661,10 +15724,10 @@
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="C68" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -15692,13 +15755,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="B71" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="C71" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -15725,10 +15788,10 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="C73" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -15740,10 +15803,10 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="C74" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -15811,10 +15874,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1529</v>
+        <v>1535</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -15832,16 +15895,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -15853,16 +15916,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="E4"/>
       <c r="G4" s="14" t="s">
@@ -15872,16 +15935,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="C5" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -15893,16 +15956,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
       <c r="E6"/>
       <c r="G6" s="14" t="s">
@@ -15912,16 +15975,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -15933,7 +15996,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>52</v>
@@ -15942,7 +16005,7 @@
         <v>597</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>1624</v>
+        <v>1630</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -15954,16 +16017,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="E9"/>
       <c r="G9" s="14" t="s">
@@ -15973,7 +16036,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>364</v>
@@ -15994,16 +16057,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="C11" t="s">
-        <v>1628</v>
+        <v>1634</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -16015,16 +16078,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1631</v>
+        <v>1637</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -16036,16 +16099,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>480</v>
       </c>
       <c r="C13" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -16057,16 +16120,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>480</v>
       </c>
       <c r="C14" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
       <c r="E14"/>
       <c r="G14" s="14" t="s">
@@ -16076,16 +16139,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="E15"/>
       <c r="G15" s="14" t="s">
@@ -16095,13 +16158,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>18</v>
@@ -16990,13 +17053,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="B77" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="C77" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -17008,10 +17071,10 @@
     <row r="78">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
       <c r="C78" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -17023,10 +17086,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
       <c r="C79" t="s">
-        <v>1649</v>
+        <v>1655</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -17038,10 +17101,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="C80" t="s">
-        <v>1651</v>
+        <v>1657</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -17053,10 +17116,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="C81" t="s">
-        <v>1653</v>
+        <v>1659</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -17068,7 +17131,7 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="C82" t="s">
         <v>618</v>
@@ -17083,10 +17146,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
       <c r="C83" t="s">
-        <v>1656</v>
+        <v>1662</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -17098,10 +17161,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="C84" t="s">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -17113,10 +17176,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="C85" t="s">
-        <v>1660</v>
+        <v>1666</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -17128,10 +17191,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
       <c r="C86" t="s">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -17143,10 +17206,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="C87" t="s">
-        <v>1664</v>
+        <v>1670</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -17158,10 +17221,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>1665</v>
+        <v>1671</v>
       </c>
       <c r="C88" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -17173,10 +17236,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="C89" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -17188,10 +17251,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>1669</v>
+        <v>1675</v>
       </c>
       <c r="C90" t="s">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -17203,10 +17266,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>1671</v>
+        <v>1677</v>
       </c>
       <c r="C91" t="s">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -17218,10 +17281,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="C92" t="s">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -17233,10 +17296,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>1675</v>
+        <v>1681</v>
       </c>
       <c r="C93" t="s">
-        <v>1676</v>
+        <v>1682</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -17248,10 +17311,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>1677</v>
+        <v>1683</v>
       </c>
       <c r="C94" t="s">
-        <v>1678</v>
+        <v>1684</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -17294,13 +17357,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="B98" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="C98" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -17327,10 +17390,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="C100" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -17342,10 +17405,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="C101" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -17411,10 +17474,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1529</v>
+        <v>1535</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -17430,13 +17493,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>18</v>
@@ -17449,13 +17512,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1679</v>
+        <v>1685</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="C4" t="s">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>18</v>
@@ -17468,13 +17531,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="C5" t="s">
-        <v>1683</v>
+        <v>1689</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>18</v>
@@ -17487,13 +17550,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="C6" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>18</v>
@@ -17506,13 +17569,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>1687</v>
+        <v>1693</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>18</v>
@@ -17525,13 +17588,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>18</v>
@@ -17544,13 +17607,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>18</v>
@@ -17563,13 +17626,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>1693</v>
+        <v>1699</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>18</v>
@@ -17582,13 +17645,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1694</v>
+        <v>1700</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>1695</v>
+        <v>1701</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>18</v>
@@ -17601,13 +17664,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1696</v>
+        <v>1702</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>1697</v>
+        <v>1703</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>18</v>
@@ -17620,13 +17683,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1698</v>
+        <v>1704</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>1699</v>
+        <v>1705</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>18</v>
@@ -17639,13 +17702,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1700</v>
+        <v>1706</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>18</v>
@@ -17658,13 +17721,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>1703</v>
+        <v>1709</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>18</v>
@@ -17677,13 +17740,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1704</v>
+        <v>1710</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>18</v>
@@ -17696,13 +17759,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1706</v>
+        <v>1712</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>1707</v>
+        <v>1713</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>18</v>
@@ -17715,13 +17778,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1708</v>
+        <v>1714</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>1709</v>
+        <v>1715</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>18</v>
@@ -17734,13 +17797,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>18</v>
@@ -17753,13 +17816,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>1713</v>
+        <v>1719</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>18</v>
@@ -17772,13 +17835,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1714</v>
+        <v>1720</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>1715</v>
+        <v>1721</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>18</v>
@@ -17791,13 +17854,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1716</v>
+        <v>1722</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>1717</v>
+        <v>1723</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>18</v>
@@ -17810,13 +17873,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1718</v>
+        <v>1724</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>1719</v>
+        <v>1725</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>18</v>
@@ -17846,13 +17909,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="B26" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="C26" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -17864,10 +17927,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="C27" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -17879,10 +17942,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="C28" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -17946,13 +18009,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1720</v>
+        <v>1726</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1721</v>
+        <v>1727</v>
       </c>
       <c r="C2" t="s">
-        <v>1722</v>
+        <v>1728</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>18</v>
@@ -17973,7 +18036,7 @@
         <v>1338</v>
       </c>
       <c r="C3" t="s">
-        <v>1492</v>
+        <v>1498</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>18</v>
@@ -17986,13 +18049,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1723</v>
+        <v>1729</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1724</v>
+        <v>1730</v>
       </c>
       <c r="C4" t="s">
-        <v>1725</v>
+        <v>1731</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>18</v>
@@ -18005,13 +18068,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1726</v>
+        <v>1732</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1494</v>
+        <v>1500</v>
       </c>
       <c r="C5" t="s">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>18</v>
@@ -18024,16 +18087,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1728</v>
+        <v>1734</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1729</v>
+        <v>1735</v>
       </c>
       <c r="C6" t="s">
-        <v>1730</v>
+        <v>1736</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1731</v>
+        <v>1737</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -18045,13 +18108,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1732</v>
+        <v>1738</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1733</v>
+        <v>1739</v>
       </c>
       <c r="C7" t="s">
-        <v>1734</v>
+        <v>1740</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>18</v>
@@ -18064,13 +18127,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1735</v>
+        <v>1741</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>1736</v>
+        <v>1742</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>18</v>
@@ -18085,13 +18148,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1737</v>
+        <v>1743</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>1738</v>
+        <v>1744</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>18</v>
@@ -18104,13 +18167,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1739</v>
+        <v>1745</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1740</v>
+        <v>1746</v>
       </c>
       <c r="C10" t="s">
-        <v>1741</v>
+        <v>1747</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>18</v>
@@ -18123,13 +18186,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1742</v>
+        <v>1748</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>1743</v>
+        <v>1749</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>18</v>
@@ -18142,13 +18205,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1744</v>
+        <v>1750</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>1745</v>
+        <v>1751</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>18</v>
@@ -18161,13 +18224,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1746</v>
+        <v>1752</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C13" t="s">
-        <v>1747</v>
+        <v>1753</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>18</v>
@@ -18180,13 +18243,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1748</v>
+        <v>1754</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>1749</v>
+        <v>1755</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>18</v>
@@ -18199,13 +18262,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1750</v>
+        <v>1756</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C15" t="s">
-        <v>1751</v>
+        <v>1757</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>18</v>
@@ -18220,13 +18283,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1752</v>
+        <v>1758</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>1753</v>
+        <v>1759</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>18</v>
@@ -18239,7 +18302,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1754</v>
+        <v>1760</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
@@ -18258,7 +18321,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1755</v>
+        <v>1761</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>29</v>
@@ -18277,7 +18340,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1756</v>
+        <v>1762</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>29</v>
@@ -18313,13 +18376,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1721</v>
+        <v>1727</v>
       </c>
       <c r="B22" t="s">
-        <v>1757</v>
+        <v>1763</v>
       </c>
       <c r="C22" t="s">
-        <v>1758</v>
+        <v>1764</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -18331,10 +18394,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>1759</v>
+        <v>1765</v>
       </c>
       <c r="C23" t="s">
-        <v>1760</v>
+        <v>1766</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -18346,10 +18409,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="C24" t="s">
-        <v>1762</v>
+        <v>1768</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -18361,10 +18424,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>1763</v>
+        <v>1769</v>
       </c>
       <c r="C25" t="s">
-        <v>1764</v>
+        <v>1770</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -18392,13 +18455,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1729</v>
+        <v>1735</v>
       </c>
       <c r="B28" t="s">
-        <v>1765</v>
+        <v>1771</v>
       </c>
       <c r="C28" t="s">
-        <v>1766</v>
+        <v>1772</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -18410,10 +18473,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1767</v>
+        <v>1773</v>
       </c>
       <c r="C29" t="s">
-        <v>1768</v>
+        <v>1774</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -18425,10 +18488,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1769</v>
+        <v>1775</v>
       </c>
       <c r="C30" t="s">
-        <v>1770</v>
+        <v>1776</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -18440,10 +18503,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="C31" t="s">
-        <v>1772</v>
+        <v>1778</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -18455,10 +18518,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>1773</v>
+        <v>1779</v>
       </c>
       <c r="C32" t="s">
-        <v>1774</v>
+        <v>1780</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -18470,10 +18533,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1775</v>
+        <v>1781</v>
       </c>
       <c r="C33" t="s">
-        <v>1776</v>
+        <v>1782</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -18485,10 +18548,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>1777</v>
+        <v>1783</v>
       </c>
       <c r="C34" t="s">
-        <v>1778</v>
+        <v>1784</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -18500,10 +18563,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1779</v>
+        <v>1785</v>
       </c>
       <c r="C35" t="s">
-        <v>1780</v>
+        <v>1786</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -18515,10 +18578,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1781</v>
+        <v>1787</v>
       </c>
       <c r="C36" t="s">
-        <v>1782</v>
+        <v>1788</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -18530,10 +18593,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>1783</v>
+        <v>1789</v>
       </c>
       <c r="C37" t="s">
-        <v>1784</v>
+        <v>1790</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -18545,10 +18608,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1785</v>
+        <v>1791</v>
       </c>
       <c r="C38" t="s">
-        <v>1786</v>
+        <v>1792</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -18560,10 +18623,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1787</v>
+        <v>1793</v>
       </c>
       <c r="C39" t="s">
-        <v>1788</v>
+        <v>1794</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -18575,10 +18638,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1789</v>
+        <v>1795</v>
       </c>
       <c r="C40" t="s">
-        <v>1790</v>
+        <v>1796</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -18590,10 +18653,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1791</v>
+        <v>1797</v>
       </c>
       <c r="C41" t="s">
-        <v>1792</v>
+        <v>1798</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -18605,10 +18668,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1793</v>
+        <v>1799</v>
       </c>
       <c r="C42" t="s">
-        <v>1794</v>
+        <v>1800</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -18620,10 +18683,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1795</v>
+        <v>1801</v>
       </c>
       <c r="C43" t="s">
-        <v>1796</v>
+        <v>1802</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -18635,10 +18698,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1797</v>
+        <v>1803</v>
       </c>
       <c r="C44" t="s">
-        <v>1798</v>
+        <v>1804</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -18653,7 +18716,7 @@
         <v>260</v>
       </c>
       <c r="C45" t="s">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -18665,10 +18728,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1800</v>
+        <v>1806</v>
       </c>
       <c r="C46" t="s">
-        <v>1801</v>
+        <v>1807</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -18680,10 +18743,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1802</v>
+        <v>1808</v>
       </c>
       <c r="C47" t="s">
-        <v>1803</v>
+        <v>1809</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -18695,10 +18758,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1804</v>
+        <v>1810</v>
       </c>
       <c r="C48" t="s">
-        <v>1805</v>
+        <v>1811</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -18726,13 +18789,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1733</v>
+        <v>1739</v>
       </c>
       <c r="B51" t="s">
-        <v>1806</v>
+        <v>1812</v>
       </c>
       <c r="C51" t="s">
-        <v>1807</v>
+        <v>1813</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -18744,10 +18807,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1808</v>
+        <v>1814</v>
       </c>
       <c r="C52" t="s">
-        <v>1809</v>
+        <v>1815</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -18759,10 +18822,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1810</v>
+        <v>1816</v>
       </c>
       <c r="C53" t="s">
-        <v>1811</v>
+        <v>1817</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -18790,13 +18853,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1740</v>
+        <v>1746</v>
       </c>
       <c r="B56" t="s">
         <v>542</v>
       </c>
       <c r="C56" t="s">
-        <v>1812</v>
+        <v>1818</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -18811,7 +18874,7 @@
         <v>545</v>
       </c>
       <c r="C57" t="s">
-        <v>1813</v>
+        <v>1819</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -18823,10 +18886,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>1814</v>
+        <v>1820</v>
       </c>
       <c r="C58" t="s">
-        <v>1815</v>
+        <v>1821</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -18838,10 +18901,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>1816</v>
+        <v>1822</v>
       </c>
       <c r="C59" t="s">
-        <v>1817</v>
+        <v>1823</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -18908,16 +18971,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1818</v>
+        <v>1824</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1819</v>
+        <v>1825</v>
       </c>
       <c r="C2" t="s">
-        <v>1820</v>
+        <v>1826</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1821</v>
+        <v>1827</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -18929,16 +18992,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1822</v>
+        <v>1828</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1823</v>
+        <v>1829</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>1824</v>
+        <v>1830</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -18950,16 +19013,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1825</v>
+        <v>1831</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>1826</v>
+        <v>1832</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>1827</v>
+        <v>1833</v>
       </c>
       <c r="E4"/>
       <c r="G4" s="17" t="s">
@@ -19011,13 +19074,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1828</v>
+        <v>1834</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>1829</v>
+        <v>1835</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>18</v>
@@ -19030,16 +19093,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1830</v>
+        <v>1836</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>1831</v>
+        <v>1837</v>
       </c>
       <c r="C8" t="s">
-        <v>1832</v>
+        <v>1838</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>1833</v>
+        <v>1839</v>
       </c>
       <c r="E8"/>
       <c r="G8" s="17" t="s">
@@ -19049,16 +19112,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1834</v>
+        <v>1840</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1835</v>
+        <v>1841</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>1836</v>
+        <v>1842</v>
       </c>
       <c r="E9"/>
       <c r="G9" s="17" t="s">
@@ -19068,16 +19131,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1837</v>
+        <v>1843</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1838</v>
+        <v>1844</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>1839</v>
+        <v>1845</v>
       </c>
       <c r="E10"/>
       <c r="G10" s="17" t="s">
@@ -19087,16 +19150,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1840</v>
+        <v>1846</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1841</v>
+        <v>1847</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>1842</v>
+        <v>1848</v>
       </c>
       <c r="E11"/>
       <c r="G11" s="17" t="s">
@@ -19106,16 +19169,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1843</v>
+        <v>1849</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1844</v>
+        <v>1850</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>1845</v>
+        <v>1851</v>
       </c>
       <c r="E12"/>
       <c r="G12" s="17" t="s">
@@ -19182,13 +19245,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1846</v>
+        <v>1852</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>1847</v>
+        <v>1853</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>18</v>
@@ -19275,13 +19338,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1819</v>
+        <v>1825</v>
       </c>
       <c r="B22" t="s">
-        <v>1848</v>
+        <v>1854</v>
       </c>
       <c r="C22" t="s">
-        <v>1849</v>
+        <v>1855</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -19296,7 +19359,7 @@
         <v>536</v>
       </c>
       <c r="C23" t="s">
-        <v>1762</v>
+        <v>1768</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -19308,16 +19371,16 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1850</v>
+        <v>1856</v>
       </c>
       <c r="C24" t="s">
-        <v>1851</v>
+        <v>1857</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>1852</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="26">
@@ -19339,13 +19402,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1831</v>
+        <v>1837</v>
       </c>
       <c r="B27" t="s">
-        <v>1853</v>
+        <v>1859</v>
       </c>
       <c r="C27" t="s">
-        <v>1854</v>
+        <v>1860</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -19387,10 +19450,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1855</v>
+        <v>1861</v>
       </c>
       <c r="C30" t="s">
-        <v>1856</v>
+        <v>1862</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -19402,10 +19465,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1857</v>
+        <v>1863</v>
       </c>
       <c r="C31" t="s">
-        <v>1858</v>
+        <v>1864</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -20360,13 +20423,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1723</v>
+        <v>1729</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>1724</v>
+        <v>1730</v>
       </c>
       <c r="C2" t="s">
-        <v>1762</v>
+        <v>1768</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>18</v>
@@ -20384,10 +20447,10 @@
         <v>356</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1859</v>
+        <v>1865</v>
       </c>
       <c r="C3" t="s">
-        <v>1859</v>
+        <v>1865</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>18</v>
@@ -20402,13 +20465,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1860</v>
+        <v>1866</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1861</v>
+        <v>1867</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>18</v>
@@ -20492,13 +20555,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1862</v>
+        <v>1868</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1863</v>
+        <v>1869</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>18</v>
@@ -20593,7 +20656,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>1864</v>
+        <v>1870</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>18</v>
@@ -20612,7 +20675,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>1865</v>
+        <v>1871</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>18</v>
@@ -20625,10 +20688,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1866</v>
+        <v>1872</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1867</v>
+        <v>1873</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -20644,7 +20707,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1868</v>
+        <v>1874</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>480</v>
@@ -20663,7 +20726,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1869</v>
+        <v>1875</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>480</v>
@@ -20718,7 +20781,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1867</v>
+        <v>1873</v>
       </c>
       <c r="B15" t="s">
         <v>278</v>
@@ -21159,13 +21222,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1862</v>
+        <v>1868</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1863</v>
+        <v>1869</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>18</v>
@@ -21178,13 +21241,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1870</v>
+        <v>1876</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>18</v>
@@ -21197,13 +21260,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1872</v>
+        <v>1878</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>1873</v>
+        <v>1879</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>18</v>
@@ -21216,7 +21279,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1869</v>
+        <v>1875</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>480</v>
@@ -21306,13 +21369,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1862</v>
+        <v>1868</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1863</v>
+        <v>1869</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>18</v>
@@ -21325,13 +21388,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1870</v>
+        <v>1876</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>18</v>
@@ -21344,13 +21407,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1872</v>
+        <v>1878</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>1873</v>
+        <v>1879</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>18</v>
@@ -21382,7 +21445,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1869</v>
+        <v>1875</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>480</v>
@@ -21472,13 +21535,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1862</v>
+        <v>1868</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1863</v>
+        <v>1869</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>18</v>
@@ -21529,7 +21592,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1869</v>
+        <v>1875</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>480</v>
@@ -21619,13 +21682,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1874</v>
+        <v>1880</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>480</v>
       </c>
       <c r="C2" t="s">
-        <v>1875</v>
+        <v>1881</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>18</v>
@@ -21638,13 +21701,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1876</v>
+        <v>1882</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1877</v>
+        <v>1883</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>18</v>
@@ -21695,13 +21758,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1878</v>
+        <v>1884</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1844</v>
+        <v>1850</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>18</v>
@@ -21752,11 +21815,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1879</v>
+        <v>1885</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" t="s">
-        <v>1880</v>
+        <v>1886</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>18</v>
@@ -21845,7 +21908,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1881</v>
+        <v>1887</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>52</v>
@@ -21870,7 +21933,7 @@
         <v>471</v>
       </c>
       <c r="C15" t="s">
-        <v>1882</v>
+        <v>1888</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>18</v>
@@ -21883,13 +21946,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1883</v>
+        <v>1889</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>364</v>
       </c>
       <c r="C16" t="s">
-        <v>1884</v>
+        <v>1890</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>18</v>
@@ -21902,16 +21965,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1885</v>
+        <v>1891</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>1886</v>
+        <v>1892</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>1887</v>
+        <v>1893</v>
       </c>
       <c r="E17"/>
       <c r="G17" s="23" t="s">
@@ -21921,10 +21984,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1888</v>
+        <v>1894</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1889</v>
+        <v>1895</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -22816,13 +22879,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1889</v>
+        <v>1895</v>
       </c>
       <c r="B79" t="s">
-        <v>1890</v>
+        <v>1896</v>
       </c>
       <c r="C79" t="s">
-        <v>1891</v>
+        <v>1897</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -22834,10 +22897,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>1892</v>
+        <v>1898</v>
       </c>
       <c r="C80" t="s">
-        <v>1893</v>
+        <v>1899</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -22849,10 +22912,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>1894</v>
+        <v>1900</v>
       </c>
       <c r="C81" t="s">
-        <v>1895</v>
+        <v>1901</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -22864,10 +22927,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>1896</v>
+        <v>1902</v>
       </c>
       <c r="C82" t="s">
-        <v>1897</v>
+        <v>1903</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -22879,10 +22942,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>1898</v>
+        <v>1904</v>
       </c>
       <c r="C83" t="s">
-        <v>1899</v>
+        <v>1905</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -22894,10 +22957,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>1900</v>
+        <v>1906</v>
       </c>
       <c r="C84" t="s">
-        <v>1901</v>
+        <v>1907</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -22909,10 +22972,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>1902</v>
+        <v>1908</v>
       </c>
       <c r="C85" t="s">
-        <v>1903</v>
+        <v>1909</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -22941,12 +23004,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1904</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1905</v>
+        <v>1911</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6824" uniqueCount="1912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="1916">
   <si>
     <t>Field</t>
   </si>
@@ -5761,10 +5761,22 @@
     <t>Español (Ecuador)</t>
   </si>
   <si>
+    <t>ES_CU</t>
+  </si>
+  <si>
+    <t>Español (Cuba)</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Italiano</t>
+  </si>
+  <si>
     <t>FI</t>
   </si>
   <si>
-    <t>Suomi</t>
+    <t>Suom</t>
   </si>
   <si>
     <t>SORMAS Version</t>
@@ -7268,7 +7280,7 @@
 </file>
 
 <file path=xl/tables/table95.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="95" name="UserLanguage" displayName="UserLanguage" ref="A78:E85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="95" name="UserLanguage" displayName="UserLanguage" ref="A78:E87">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -21638,7 +21650,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22981,6 +22993,36 @@
         <v>18</v>
       </c>
       <c r="E85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86"/>
+      <c r="B86" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87"/>
+      <c r="B87" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" t="s">
         <v>18</v>
       </c>
     </row>
@@ -23004,12 +23046,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -1228,6 +1228,12 @@
     <t>Describe sequelae</t>
   </si>
   <si>
+    <t>facilityType</t>
+  </si>
+  <si>
+    <t>FacilityType</t>
+  </si>
+  <si>
     <t>healthFacility</t>
   </si>
   <si>
@@ -1582,12 +1588,6 @@
     <t>Trimester</t>
   </si>
   <si>
-    <t>facilityType</t>
-  </si>
-  <si>
-    <t>FacilityType</t>
-  </si>
-  <si>
     <t>BUBONIC</t>
   </si>
   <si>
@@ -1735,6 +1735,246 @@
     <t>No</t>
   </si>
   <si>
+    <t>ASSOCIATION</t>
+  </si>
+  <si>
+    <t>Association, club</t>
+  </si>
+  <si>
+    <t>BUSINESS</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>CAMPSITE</t>
+  </si>
+  <si>
+    <t>Campsite</t>
+  </si>
+  <si>
+    <t>CANTINE</t>
+  </si>
+  <si>
+    <t>Cantine</t>
+  </si>
+  <si>
+    <t>CHILDRENS_DAY_CARE</t>
+  </si>
+  <si>
+    <t>Children's day care</t>
+  </si>
+  <si>
+    <t>CHILDRENS_HOME</t>
+  </si>
+  <si>
+    <t>Children's home</t>
+  </si>
+  <si>
+    <t>CORRECTIONAL_FACILITY</t>
+  </si>
+  <si>
+    <t>Correctional facility</t>
+  </si>
+  <si>
+    <t>CRUISE_SHIP</t>
+  </si>
+  <si>
+    <t>Cruise ship</t>
+  </si>
+  <si>
+    <t>ELDERLY_CARE</t>
+  </si>
+  <si>
+    <t>Elderly care</t>
+  </si>
+  <si>
+    <t>EVENT_VENUE</t>
+  </si>
+  <si>
+    <t>Event venue</t>
+  </si>
+  <si>
+    <t>FOOD_STALL</t>
+  </si>
+  <si>
+    <t>Food stall</t>
+  </si>
+  <si>
+    <t>HOLIDAY_CAMP</t>
+  </si>
+  <si>
+    <t>Holiday camp</t>
+  </si>
+  <si>
+    <t>HOMELESS_SHELTER</t>
+  </si>
+  <si>
+    <t>Homeless shelter</t>
+  </si>
+  <si>
+    <t>HOSTEL</t>
+  </si>
+  <si>
+    <t>Hostel, dormitory</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
+    <t>Hotel, B&amp;B, inn, lodge</t>
+  </si>
+  <si>
+    <t>KINDERGARTEN</t>
+  </si>
+  <si>
+    <t>Kindergarten/After school care</t>
+  </si>
+  <si>
+    <t>LABORATORY</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>MASS_ACCOMMODATION</t>
+  </si>
+  <si>
+    <t>Mass accomodation (e.g. guest and harvest workers)</t>
+  </si>
+  <si>
+    <t>MILITARY_BARRACKS</t>
+  </si>
+  <si>
+    <t>Military barracks</t>
+  </si>
+  <si>
+    <t>MOBILE_NURSING_SERVICE</t>
+  </si>
+  <si>
+    <t>Mobile nursing service</t>
+  </si>
+  <si>
+    <t>OTHER_ACCOMMODATION</t>
+  </si>
+  <si>
+    <t>Other Accomodation</t>
+  </si>
+  <si>
+    <t>OTHER_CARE_FACILITY</t>
+  </si>
+  <si>
+    <t>Other Care facility</t>
+  </si>
+  <si>
+    <t>OTHER_CATERING_OUTLET</t>
+  </si>
+  <si>
+    <t>Other Catering outlet</t>
+  </si>
+  <si>
+    <t>OTHER_EDUCATIONAL_FACILITY</t>
+  </si>
+  <si>
+    <t>Other Educational facility</t>
+  </si>
+  <si>
+    <t>OTHER_LEISURE_FACILITY</t>
+  </si>
+  <si>
+    <t>Other Leisure facility</t>
+  </si>
+  <si>
+    <t>OTHER_MEDICAL_FACILITY</t>
+  </si>
+  <si>
+    <t>Other Medical facility</t>
+  </si>
+  <si>
+    <t>OTHER_RESIDENCE</t>
+  </si>
+  <si>
+    <t>Other Residence</t>
+  </si>
+  <si>
+    <t>OTHER_WORKING_PLACE</t>
+  </si>
+  <si>
+    <t>Other Working place/company</t>
+  </si>
+  <si>
+    <t>OUTPATIENT_TREATMENT_FACILITY</t>
+  </si>
+  <si>
+    <t>Outpatient treatment facility</t>
+  </si>
+  <si>
+    <t>PLACE_OF_WORSHIP</t>
+  </si>
+  <si>
+    <t>Place of worship</t>
+  </si>
+  <si>
+    <t>PUBLIC_PLACE</t>
+  </si>
+  <si>
+    <t>Public place/playground</t>
+  </si>
+  <si>
+    <t>REFUGEE_ACCOMMODATION</t>
+  </si>
+  <si>
+    <t>Refrugee accomodation/initial reception facility</t>
+  </si>
+  <si>
+    <t>REHAB_FACILITY</t>
+  </si>
+  <si>
+    <t>Rehab facility</t>
+  </si>
+  <si>
+    <t>RESTAURANT</t>
+  </si>
+  <si>
+    <t>Restaurant/tavern</t>
+  </si>
+  <si>
+    <t>RETIREMENT_HOME</t>
+  </si>
+  <si>
+    <t>Retirement home</t>
+  </si>
+  <si>
+    <t>SCHOOL</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>SWIMMING_POOL</t>
+  </si>
+  <si>
+    <t>Swimming pool</t>
+  </si>
+  <si>
+    <t>THEATER</t>
+  </si>
+  <si>
+    <t>Theater/cinema</t>
+  </si>
+  <si>
+    <t>UNIVERSITY</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>ZOO</t>
+  </si>
+  <si>
+    <t>Zoological garden, animal park</t>
+  </si>
+  <si>
     <t>VACCINATED</t>
   </si>
   <si>
@@ -1840,12 +2080,6 @@
     <t>Community facility</t>
   </si>
   <si>
-    <t>LABORATORY</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
     <t>OWN_DETERMINATION</t>
   </si>
   <si>
@@ -1880,240 +2114,6 @@
   </si>
   <si>
     <t>Third</t>
-  </si>
-  <si>
-    <t>ASSOCIATION</t>
-  </si>
-  <si>
-    <t>Association, club</t>
-  </si>
-  <si>
-    <t>BUSINESS</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>CAMPSITE</t>
-  </si>
-  <si>
-    <t>Campsite</t>
-  </si>
-  <si>
-    <t>CANTINE</t>
-  </si>
-  <si>
-    <t>Cantine</t>
-  </si>
-  <si>
-    <t>CHILDRENS_DAY_CARE</t>
-  </si>
-  <si>
-    <t>Children's day care</t>
-  </si>
-  <si>
-    <t>CHILDRENS_HOME</t>
-  </si>
-  <si>
-    <t>Children's home</t>
-  </si>
-  <si>
-    <t>CORRECTIONAL_FACILITY</t>
-  </si>
-  <si>
-    <t>Correctional facility</t>
-  </si>
-  <si>
-    <t>CRUISE_SHIP</t>
-  </si>
-  <si>
-    <t>Cruise ship</t>
-  </si>
-  <si>
-    <t>ELDERLY_CARE</t>
-  </si>
-  <si>
-    <t>Elderly care</t>
-  </si>
-  <si>
-    <t>EVENT_VENUE</t>
-  </si>
-  <si>
-    <t>Event venue</t>
-  </si>
-  <si>
-    <t>FOOD_STALL</t>
-  </si>
-  <si>
-    <t>Food stall</t>
-  </si>
-  <si>
-    <t>HOLIDAY_CAMP</t>
-  </si>
-  <si>
-    <t>Holiday camp</t>
-  </si>
-  <si>
-    <t>HOMELESS_SHELTER</t>
-  </si>
-  <si>
-    <t>Homeless shelter</t>
-  </si>
-  <si>
-    <t>HOSTEL</t>
-  </si>
-  <si>
-    <t>Hostel, dormitory</t>
-  </si>
-  <si>
-    <t>HOTEL</t>
-  </si>
-  <si>
-    <t>Hotel, B&amp;B, inn, lodge</t>
-  </si>
-  <si>
-    <t>KINDERGARTEN</t>
-  </si>
-  <si>
-    <t>Kindergarten/After school care</t>
-  </si>
-  <si>
-    <t>MASS_ACCOMMODATION</t>
-  </si>
-  <si>
-    <t>Mass accomodation (e.g. guest and harvest workers)</t>
-  </si>
-  <si>
-    <t>MILITARY_BARRACKS</t>
-  </si>
-  <si>
-    <t>Military barracks</t>
-  </si>
-  <si>
-    <t>MOBILE_NURSING_SERVICE</t>
-  </si>
-  <si>
-    <t>Mobile nursing service</t>
-  </si>
-  <si>
-    <t>OTHER_ACCOMMODATION</t>
-  </si>
-  <si>
-    <t>Other Accomodation</t>
-  </si>
-  <si>
-    <t>OTHER_CARE_FACILITY</t>
-  </si>
-  <si>
-    <t>Other Care facility</t>
-  </si>
-  <si>
-    <t>OTHER_CATERING_OUTLET</t>
-  </si>
-  <si>
-    <t>Other Catering outlet</t>
-  </si>
-  <si>
-    <t>OTHER_EDUCATIONAL_FACILITY</t>
-  </si>
-  <si>
-    <t>Other Educational facility</t>
-  </si>
-  <si>
-    <t>OTHER_LEISURE_FACILITY</t>
-  </si>
-  <si>
-    <t>Other Leisure facility</t>
-  </si>
-  <si>
-    <t>OTHER_MEDICAL_FACILITY</t>
-  </si>
-  <si>
-    <t>Other Medical facility</t>
-  </si>
-  <si>
-    <t>OTHER_RESIDENCE</t>
-  </si>
-  <si>
-    <t>Other Residence</t>
-  </si>
-  <si>
-    <t>OTHER_WORKING_PLACE</t>
-  </si>
-  <si>
-    <t>Other Working place/company</t>
-  </si>
-  <si>
-    <t>OUTPATIENT_TREATMENT_FACILITY</t>
-  </si>
-  <si>
-    <t>Outpatient treatment facility</t>
-  </si>
-  <si>
-    <t>PLACE_OF_WORSHIP</t>
-  </si>
-  <si>
-    <t>Place of worship</t>
-  </si>
-  <si>
-    <t>PUBLIC_PLACE</t>
-  </si>
-  <si>
-    <t>Public place/playground</t>
-  </si>
-  <si>
-    <t>REFUGEE_ACCOMMODATION</t>
-  </si>
-  <si>
-    <t>Refrugee accomodation/initial reception facility</t>
-  </si>
-  <si>
-    <t>REHAB_FACILITY</t>
-  </si>
-  <si>
-    <t>Rehab facility</t>
-  </si>
-  <si>
-    <t>RESTAURANT</t>
-  </si>
-  <si>
-    <t>Restaurant/tavern</t>
-  </si>
-  <si>
-    <t>RETIREMENT_HOME</t>
-  </si>
-  <si>
-    <t>Retirement home</t>
-  </si>
-  <si>
-    <t>SCHOOL</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>SWIMMING_POOL</t>
-  </si>
-  <si>
-    <t>Swimming pool</t>
-  </si>
-  <si>
-    <t>THEATER</t>
-  </si>
-  <si>
-    <t>Theater/cinema</t>
-  </si>
-  <si>
-    <t>UNIVERSITY</t>
-  </si>
-  <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>ZOO</t>
-  </si>
-  <si>
-    <t>Zoological garden, animal park</t>
   </si>
   <si>
     <t>admittedToHealthFacility</t>
@@ -6457,7 +6457,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="CaseVaccination" displayName="CaseVaccination" ref="A174:E177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="CaseFacilityType" displayName="CaseFacilityType" ref="A174:E215">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6471,7 +6471,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="CaseVaccinationInfoSource" displayName="CaseVaccinationInfoSource" ref="A179:E181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="CaseVaccination" displayName="CaseVaccination" ref="A217:E220">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6485,7 +6485,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="CaseHospitalWardType" displayName="CaseHospitalWardType" ref="A183:E192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="CaseVaccinationInfoSource" displayName="CaseVaccinationInfoSource" ref="A222:E224">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6499,7 +6499,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="CaseCaseOrigin" displayName="CaseCaseOrigin" ref="A194:E196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="CaseHospitalWardType" displayName="CaseHospitalWardType" ref="A226:E235">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6513,7 +6513,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="CaseQuarantineType" displayName="CaseQuarantineType" ref="A198:E203">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="CaseCaseOrigin" displayName="CaseCaseOrigin" ref="A237:E239">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6527,7 +6527,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="CaseReportingType" displayName="CaseReportingType" ref="A205:E214">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="CaseQuarantineType" displayName="CaseQuarantineType" ref="A241:E246">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6541,7 +6541,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="CaseTrimester" displayName="CaseTrimester" ref="A216:E220">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="CaseReportingType" displayName="CaseReportingType" ref="A248:E257">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6555,7 +6555,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="CaseFacilityType" displayName="CaseFacilityType" ref="A222:E263">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="CaseTrimester" displayName="CaseTrimester" ref="A259:E263">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -10248,7 +10248,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>1413</v>
@@ -10267,10 +10267,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -11411,7 +11411,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>29</v>
@@ -11430,7 +11430,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>29</v>
@@ -11449,7 +11449,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>29</v>
@@ -11682,7 +11682,7 @@
         <v>1458</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C23" t="s">
         <v>1459</v>
@@ -11755,13 +11755,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>18</v>
@@ -11777,7 +11777,7 @@
         <v>1468</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C28" t="s">
         <v>1469</v>
@@ -11850,13 +11850,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C32" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>18</v>
@@ -11869,13 +11869,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>18</v>
@@ -11888,13 +11888,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>18</v>
@@ -11907,13 +11907,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>18</v>
@@ -12004,13 +12004,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>18</v>
@@ -12023,13 +12023,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C41" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>18</v>
@@ -12042,13 +12042,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C42" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>18</v>
@@ -12061,13 +12061,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>18</v>
@@ -12080,13 +12080,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>18</v>
@@ -12099,13 +12099,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>393</v>
       </c>
       <c r="C45" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>18</v>
@@ -12118,13 +12118,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>18</v>
@@ -12137,13 +12137,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>393</v>
       </c>
       <c r="C47" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>18</v>
@@ -12156,13 +12156,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>18</v>
@@ -12175,13 +12175,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>18</v>
@@ -12194,13 +12194,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C50" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>18</v>
@@ -13792,13 +13792,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B163" t="s">
-        <v>588</v>
+        <v>668</v>
       </c>
       <c r="C163" t="s">
-        <v>589</v>
+        <v>669</v>
       </c>
       <c r="D163" t="s">
         <v>18</v>
@@ -13810,10 +13810,10 @@
     <row r="164">
       <c r="A164"/>
       <c r="B164" t="s">
-        <v>590</v>
+        <v>670</v>
       </c>
       <c r="C164" t="s">
-        <v>591</v>
+        <v>671</v>
       </c>
       <c r="D164" t="s">
         <v>18</v>
@@ -13828,7 +13828,7 @@
         <v>274</v>
       </c>
       <c r="C165" t="s">
-        <v>592</v>
+        <v>672</v>
       </c>
       <c r="D165" t="s">
         <v>18</v>
@@ -14052,13 +14052,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>18</v>
@@ -14071,7 +14071,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>29</v>
@@ -14090,7 +14090,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>29</v>
@@ -14109,7 +14109,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>29</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>29</v>
@@ -15282,7 +15282,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>29</v>
@@ -15301,7 +15301,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>29</v>
@@ -15387,7 +15387,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>18</v>
@@ -15522,7 +15522,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>18</v>
@@ -15576,7 +15576,7 @@
         <v>1621</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C26" t="s">
         <v>1622</v>
@@ -15595,7 +15595,7 @@
         <v>1623</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C27" t="s">
         <v>1624</v>
@@ -15633,7 +15633,7 @@
         <v>1628</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C29" t="s">
         <v>1629</v>
@@ -15652,7 +15652,7 @@
         <v>1630</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C30" t="s">
         <v>1631</v>
@@ -16485,7 +16485,7 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>1715</v>
@@ -16585,7 +16585,7 @@
         <v>1724</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C13" t="s">
         <v>1725</v>
@@ -16606,7 +16606,7 @@
         <v>1727</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C14" t="s">
         <v>1728</v>
@@ -19481,7 +19481,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
@@ -19842,13 +19842,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>364</v>
       </c>
       <c r="C22" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>18</v>
@@ -19880,7 +19880,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>29</v>
@@ -19899,7 +19899,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>29</v>
@@ -19918,7 +19918,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>29</v>
@@ -20130,10 +20130,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>590</v>
+        <v>670</v>
       </c>
       <c r="C42" t="s">
-        <v>591</v>
+        <v>671</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -20175,7 +20175,7 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C45" t="s">
         <v>1966</v>
@@ -21482,7 +21482,7 @@
         <v>1982</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>516</v>
+        <v>398</v>
       </c>
       <c r="C9" t="s">
         <v>1983</v>
@@ -21501,7 +21501,7 @@
         <v>1984</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -21520,7 +21520,7 @@
         <v>1985</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -21536,13 +21536,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>18</v>
@@ -21572,13 +21572,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>516</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s">
-        <v>615</v>
+        <v>566</v>
       </c>
       <c r="C15" t="s">
-        <v>616</v>
+        <v>567</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -21590,10 +21590,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>617</v>
+        <v>568</v>
       </c>
       <c r="C16" t="s">
-        <v>618</v>
+        <v>569</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -21605,10 +21605,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>619</v>
+        <v>570</v>
       </c>
       <c r="C17" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -21620,10 +21620,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
       <c r="C18" t="s">
-        <v>622</v>
+        <v>573</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -21635,10 +21635,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>623</v>
+        <v>574</v>
       </c>
       <c r="C19" t="s">
-        <v>624</v>
+        <v>575</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -21650,10 +21650,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>625</v>
+        <v>576</v>
       </c>
       <c r="C20" t="s">
-        <v>626</v>
+        <v>577</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -21665,10 +21665,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>627</v>
+        <v>578</v>
       </c>
       <c r="C21" t="s">
-        <v>628</v>
+        <v>579</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -21680,10 +21680,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>629</v>
+        <v>580</v>
       </c>
       <c r="C22" t="s">
-        <v>630</v>
+        <v>581</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -21695,10 +21695,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>631</v>
+        <v>582</v>
       </c>
       <c r="C23" t="s">
-        <v>632</v>
+        <v>583</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -21710,10 +21710,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>633</v>
+        <v>584</v>
       </c>
       <c r="C24" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -21725,10 +21725,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>635</v>
+        <v>586</v>
       </c>
       <c r="C25" t="s">
-        <v>636</v>
+        <v>587</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -21740,10 +21740,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>637</v>
+        <v>588</v>
       </c>
       <c r="C26" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -21755,10 +21755,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="C27" t="s">
-        <v>640</v>
+        <v>591</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -21785,10 +21785,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>641</v>
+        <v>592</v>
       </c>
       <c r="C29" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -21800,10 +21800,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>643</v>
+        <v>594</v>
       </c>
       <c r="C30" t="s">
-        <v>644</v>
+        <v>595</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -21815,10 +21815,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>645</v>
+        <v>596</v>
       </c>
       <c r="C31" t="s">
-        <v>646</v>
+        <v>597</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -21830,10 +21830,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C32" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -21845,10 +21845,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="C33" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -21860,10 +21860,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>649</v>
+        <v>602</v>
       </c>
       <c r="C34" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -21875,10 +21875,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
       <c r="C35" t="s">
-        <v>652</v>
+        <v>605</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -21890,10 +21890,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>653</v>
+        <v>606</v>
       </c>
       <c r="C36" t="s">
-        <v>654</v>
+        <v>607</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -21905,10 +21905,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="C37" t="s">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -21920,10 +21920,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="C38" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -21935,10 +21935,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="C39" t="s">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -21950,10 +21950,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>661</v>
+        <v>614</v>
       </c>
       <c r="C40" t="s">
-        <v>662</v>
+        <v>615</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -21965,10 +21965,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="C41" t="s">
-        <v>664</v>
+        <v>617</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -21980,10 +21980,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="C42" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -21995,10 +21995,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="C43" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -22010,10 +22010,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
       <c r="C44" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -22025,10 +22025,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="C45" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -22040,10 +22040,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C46" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -22055,10 +22055,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="C47" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -22070,10 +22070,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>677</v>
+        <v>630</v>
       </c>
       <c r="C48" t="s">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -22085,10 +22085,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>679</v>
+        <v>632</v>
       </c>
       <c r="C49" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -22100,10 +22100,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="C50" t="s">
-        <v>682</v>
+        <v>635</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -22115,10 +22115,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>683</v>
+        <v>636</v>
       </c>
       <c r="C51" t="s">
-        <v>684</v>
+        <v>637</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -22130,10 +22130,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>685</v>
+        <v>638</v>
       </c>
       <c r="C52" t="s">
-        <v>686</v>
+        <v>639</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -22145,10 +22145,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>687</v>
+        <v>640</v>
       </c>
       <c r="C53" t="s">
-        <v>688</v>
+        <v>641</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -22160,10 +22160,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>689</v>
+        <v>642</v>
       </c>
       <c r="C54" t="s">
-        <v>690</v>
+        <v>643</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -22175,10 +22175,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="C55" t="s">
-        <v>692</v>
+        <v>645</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -22628,7 +22628,7 @@
         <v>1985</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -22644,13 +22644,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>18</v>
@@ -22813,7 +22813,7 @@
         <v>1985</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -22829,13 +22829,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>18</v>
@@ -22960,7 +22960,7 @@
         <v>1985</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -22976,13 +22976,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>18</v>
@@ -23050,7 +23050,7 @@
         <v>1992</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C2" t="s">
         <v>1993</v>
@@ -23254,13 +23254,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>18</v>
@@ -23279,7 +23279,7 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>18</v>
@@ -23292,10 +23292,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C15" t="s">
         <v>2001</v>
@@ -25037,38 +25037,36 @@
         <v>397</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>398</v>
       </c>
       <c r="C27" t="s">
-        <v>398</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E27"/>
       <c r="G27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
+      <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>399</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
         <v>400</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28"/>
+        <v>401</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
       <c r="G28" s="3" t="s">
         <v>12</v>
       </c>
@@ -25078,60 +25076,60 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>393</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>402</v>
+        <v>55</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>403</v>
+        <v>18</v>
       </c>
       <c r="E29"/>
       <c r="G29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H29"/>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>403</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" t="s">
         <v>404</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="C30" t="s">
-        <v>406</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E30"/>
       <c r="G30" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>406</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C31" t="s">
         <v>408</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>409</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E31"/>
       <c r="G31" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -25139,20 +25137,20 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
         <v>411</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>412</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E32"/>
       <c r="G32" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -25160,29 +25158,31 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>413</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
         <v>414</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C33" t="s">
-        <v>416</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E33"/>
       <c r="G33" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="H33"/>
+        <v>415</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>416</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>418</v>
@@ -25192,30 +25192,30 @@
       </c>
       <c r="E34"/>
       <c r="G34" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>419</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
         <v>420</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C35" t="s">
-        <v>421</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E35"/>
       <c r="G35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35"/>
+        <v>421</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -25241,7 +25241,7 @@
         <v>424</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s">
         <v>425</v>
@@ -25251,18 +25251,16 @@
       </c>
       <c r="E37"/>
       <c r="G37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="b">
-        <v>1</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="H37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>426</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>9</v>
+        <v>364</v>
       </c>
       <c r="C38" t="s">
         <v>427</v>
@@ -25274,7 +25272,9 @@
       <c r="G38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H38"/>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -25319,26 +25319,26 @@
         <v>432</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
         <v>433</v>
-      </c>
-      <c r="C41" t="s">
-        <v>434</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E41"/>
       <c r="G41" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>434</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>436</v>
@@ -25357,7 +25357,7 @@
         <v>437</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>364</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
         <v>438</v>
@@ -25367,7 +25367,7 @@
       </c>
       <c r="E43"/>
       <c r="G43" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H43"/>
     </row>
@@ -25376,13 +25376,13 @@
         <v>439</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="C44" t="s">
         <v>440</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>441</v>
+        <v>18</v>
       </c>
       <c r="E44"/>
       <c r="G44" s="3" t="s">
@@ -25392,16 +25392,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C45" t="s">
+        <v>442</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="E45"/>
       <c r="G45" s="3" t="s">
@@ -25411,16 +25411,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C46" t="s">
+        <v>445</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="E46"/>
       <c r="G46" s="3" t="s">
@@ -25430,16 +25430,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>447</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
         <v>448</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="C47" t="s">
-        <v>449</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E47"/>
       <c r="G47" s="3" t="s">
@@ -25474,7 +25474,7 @@
         <v>453</v>
       </c>
       <c r="C49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>18</v>
@@ -25487,10 +25487,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>454</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="C50" t="s">
         <v>456</v>
@@ -25512,7 +25512,7 @@
         <v>458</v>
       </c>
       <c r="C51" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>18</v>
@@ -25525,13 +25525,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>459</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" t="s">
         <v>461</v>
-      </c>
-      <c r="C52" t="s">
-        <v>462</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>18</v>
@@ -25544,13 +25544,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>462</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>464</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>18</v>
@@ -25563,13 +25563,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>465</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>466</v>
+        <v>18</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>18</v>
@@ -25582,13 +25582,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>466</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" t="s">
         <v>468</v>
-      </c>
-      <c r="C55" t="s">
-        <v>469</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>18</v>
@@ -25601,13 +25601,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>469</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" t="s">
         <v>471</v>
-      </c>
-      <c r="C56" t="s">
-        <v>472</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>18</v>
@@ -25620,10 +25620,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>472</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C57" t="s">
         <v>474</v>
@@ -25680,10 +25680,10 @@
         <v>479</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
         <v>480</v>
-      </c>
-      <c r="C60" t="s">
-        <v>481</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>18</v>
@@ -25696,13 +25696,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>481</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" t="s">
         <v>483</v>
-      </c>
-      <c r="C61" t="s">
-        <v>484</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>18</v>
@@ -25715,10 +25715,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>484</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C62" t="s">
         <v>486</v>
@@ -25737,7 +25737,7 @@
         <v>487</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
         <v>488</v>
@@ -25775,7 +25775,7 @@
         <v>491</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
         <v>492</v>
@@ -25794,7 +25794,7 @@
         <v>493</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>480</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
         <v>494</v>
@@ -25813,7 +25813,7 @@
         <v>495</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C67" t="s">
         <v>496</v>
@@ -25832,7 +25832,7 @@
         <v>497</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>39</v>
+        <v>482</v>
       </c>
       <c r="C68" t="s">
         <v>498</v>
@@ -25870,7 +25870,7 @@
         <v>501</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>393</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
         <v>502</v>
@@ -25889,7 +25889,7 @@
         <v>503</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="C71" t="s">
         <v>504</v>
@@ -25908,7 +25908,7 @@
         <v>505</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>393</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
         <v>506</v>
@@ -25927,10 +25927,10 @@
         <v>507</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="C73" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>18</v>
@@ -25943,13 +25943,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>509</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>18</v>
@@ -25962,10 +25962,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>510</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="C75" t="s">
         <v>512</v>
@@ -25984,7 +25984,7 @@
         <v>513</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>514</v>
+        <v>393</v>
       </c>
       <c r="C76" t="s">
         <v>514</v>
@@ -26006,7 +26006,7 @@
         <v>516</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>516</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>18</v>
@@ -27373,7 +27373,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B175" t="s">
         <v>566</v>
@@ -27406,10 +27406,10 @@
     <row r="177">
       <c r="A177"/>
       <c r="B177" t="s">
-        <v>341</v>
+        <v>570</v>
       </c>
       <c r="C177" t="s">
-        <v>342</v>
+        <v>571</v>
       </c>
       <c r="D177" t="s">
         <v>18</v>
@@ -27418,32 +27418,43 @@
         <v>18</v>
       </c>
     </row>
+    <row r="178">
+      <c r="A178"/>
+      <c r="B178" t="s">
+        <v>572</v>
+      </c>
+      <c r="C178" t="s">
+        <v>573</v>
+      </c>
+      <c r="D178" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="179">
-      <c r="A179" t="s">
-        <v>1</v>
-      </c>
+      <c r="A179"/>
       <c r="B179" t="s">
-        <v>123</v>
+        <v>574</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>575</v>
       </c>
       <c r="D179" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E179" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s">
-        <v>415</v>
-      </c>
+      <c r="A180"/>
       <c r="B180" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C180" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D180" t="s">
         <v>18</v>
@@ -27455,10 +27466,10 @@
     <row r="181">
       <c r="A181"/>
       <c r="B181" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C181" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D181" t="s">
         <v>18</v>
@@ -27467,32 +27478,43 @@
         <v>18</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182"/>
+      <c r="B182" t="s">
+        <v>580</v>
+      </c>
+      <c r="C182" t="s">
+        <v>581</v>
+      </c>
+      <c r="D182" t="s">
+        <v>18</v>
+      </c>
+      <c r="E182" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="183">
-      <c r="A183" t="s">
-        <v>1</v>
-      </c>
+      <c r="A183"/>
       <c r="B183" t="s">
-        <v>123</v>
+        <v>582</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>583</v>
       </c>
       <c r="D183" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E183" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s">
-        <v>433</v>
-      </c>
+      <c r="A184"/>
       <c r="B184" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="C184" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="D184" t="s">
         <v>18</v>
@@ -27504,10 +27526,10 @@
     <row r="185">
       <c r="A185"/>
       <c r="B185" t="s">
-        <v>276</v>
+        <v>586</v>
       </c>
       <c r="C185" t="s">
-        <v>277</v>
+        <v>587</v>
       </c>
       <c r="D185" t="s">
         <v>18</v>
@@ -27519,10 +27541,10 @@
     <row r="186">
       <c r="A186"/>
       <c r="B186" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="C186" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="D186" t="s">
         <v>18</v>
@@ -27534,10 +27556,10 @@
     <row r="187">
       <c r="A187"/>
       <c r="B187" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="C187" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="D187" t="s">
         <v>18</v>
@@ -27549,10 +27571,10 @@
     <row r="188">
       <c r="A188"/>
       <c r="B188" t="s">
-        <v>578</v>
+        <v>268</v>
       </c>
       <c r="C188" t="s">
-        <v>578</v>
+        <v>269</v>
       </c>
       <c r="D188" t="s">
         <v>18</v>
@@ -27564,10 +27586,10 @@
     <row r="189">
       <c r="A189"/>
       <c r="B189" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="C189" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="D189" t="s">
         <v>18</v>
@@ -27579,10 +27601,10 @@
     <row r="190">
       <c r="A190"/>
       <c r="B190" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="C190" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="D190" t="s">
         <v>18</v>
@@ -27594,10 +27616,10 @@
     <row r="191">
       <c r="A191"/>
       <c r="B191" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="C191" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="D191" t="s">
         <v>18</v>
@@ -27609,10 +27631,10 @@
     <row r="192">
       <c r="A192"/>
       <c r="B192" t="s">
-        <v>260</v>
+        <v>598</v>
       </c>
       <c r="C192" t="s">
-        <v>262</v>
+        <v>599</v>
       </c>
       <c r="D192" t="s">
         <v>18</v>
@@ -27621,32 +27643,43 @@
         <v>18</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193"/>
+      <c r="B193" t="s">
+        <v>600</v>
+      </c>
+      <c r="C193" t="s">
+        <v>601</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="194">
-      <c r="A194" t="s">
-        <v>1</v>
-      </c>
+      <c r="A194"/>
       <c r="B194" t="s">
-        <v>123</v>
+        <v>602</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>603</v>
       </c>
       <c r="D194" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E194" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s">
-        <v>468</v>
-      </c>
+      <c r="A195"/>
       <c r="B195" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="C195" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="D195" t="s">
         <v>18</v>
@@ -27658,10 +27691,10 @@
     <row r="196">
       <c r="A196"/>
       <c r="B196" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="C196" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
@@ -27670,32 +27703,43 @@
         <v>18</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197"/>
+      <c r="B197" t="s">
+        <v>608</v>
+      </c>
+      <c r="C197" t="s">
+        <v>609</v>
+      </c>
+      <c r="D197" t="s">
+        <v>18</v>
+      </c>
+      <c r="E197" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="198">
-      <c r="A198" t="s">
-        <v>1</v>
-      </c>
+      <c r="A198"/>
       <c r="B198" t="s">
-        <v>123</v>
+        <v>610</v>
       </c>
       <c r="C198" t="s">
-        <v>2</v>
+        <v>611</v>
       </c>
       <c r="D198" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E198" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s">
-        <v>483</v>
-      </c>
+      <c r="A199"/>
       <c r="B199" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="C199" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="D199" t="s">
         <v>18</v>
@@ -27707,10 +27751,10 @@
     <row r="200">
       <c r="A200"/>
       <c r="B200" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="C200" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="D200" t="s">
         <v>18</v>
@@ -27722,10 +27766,10 @@
     <row r="201">
       <c r="A201"/>
       <c r="B201" t="s">
-        <v>274</v>
+        <v>616</v>
       </c>
       <c r="C201" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="D201" t="s">
         <v>18</v>
@@ -27737,10 +27781,10 @@
     <row r="202">
       <c r="A202"/>
       <c r="B202" t="s">
-        <v>341</v>
+        <v>618</v>
       </c>
       <c r="C202" t="s">
-        <v>342</v>
+        <v>619</v>
       </c>
       <c r="D202" t="s">
         <v>18</v>
@@ -27752,10 +27796,10 @@
     <row r="203">
       <c r="A203"/>
       <c r="B203" t="s">
-        <v>260</v>
+        <v>620</v>
       </c>
       <c r="C203" t="s">
-        <v>262</v>
+        <v>621</v>
       </c>
       <c r="D203" t="s">
         <v>18</v>
@@ -27764,32 +27808,43 @@
         <v>18</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204"/>
+      <c r="B204" t="s">
+        <v>622</v>
+      </c>
+      <c r="C204" t="s">
+        <v>623</v>
+      </c>
+      <c r="D204" t="s">
+        <v>18</v>
+      </c>
+      <c r="E204" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="205">
-      <c r="A205" t="s">
-        <v>1</v>
-      </c>
+      <c r="A205"/>
       <c r="B205" t="s">
-        <v>123</v>
+        <v>624</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>625</v>
       </c>
       <c r="D205" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E205" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s">
-        <v>509</v>
-      </c>
+      <c r="A206"/>
       <c r="B206" t="s">
-        <v>593</v>
+        <v>626</v>
       </c>
       <c r="C206" t="s">
-        <v>594</v>
+        <v>627</v>
       </c>
       <c r="D206" t="s">
         <v>18</v>
@@ -27801,10 +27856,10 @@
     <row r="207">
       <c r="A207"/>
       <c r="B207" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
       <c r="C207" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
       <c r="D207" t="s">
         <v>18</v>
@@ -27816,10 +27871,10 @@
     <row r="208">
       <c r="A208"/>
       <c r="B208" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
       <c r="C208" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="D208" t="s">
         <v>18</v>
@@ -27831,10 +27886,10 @@
     <row r="209">
       <c r="A209"/>
       <c r="B209" t="s">
-        <v>599</v>
+        <v>632</v>
       </c>
       <c r="C209" t="s">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="D209" t="s">
         <v>18</v>
@@ -27846,10 +27901,10 @@
     <row r="210">
       <c r="A210"/>
       <c r="B210" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="C210" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="D210" t="s">
         <v>18</v>
@@ -27861,10 +27916,10 @@
     <row r="211">
       <c r="A211"/>
       <c r="B211" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="C211" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
       <c r="D211" t="s">
         <v>18</v>
@@ -27876,10 +27931,10 @@
     <row r="212">
       <c r="A212"/>
       <c r="B212" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="C212" t="s">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="D212" t="s">
         <v>18</v>
@@ -27891,10 +27946,10 @@
     <row r="213">
       <c r="A213"/>
       <c r="B213" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="C213" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="D213" t="s">
         <v>18</v>
@@ -27906,10 +27961,10 @@
     <row r="214">
       <c r="A214"/>
       <c r="B214" t="s">
-        <v>260</v>
+        <v>642</v>
       </c>
       <c r="C214" t="s">
-        <v>262</v>
+        <v>643</v>
       </c>
       <c r="D214" t="s">
         <v>18</v>
@@ -27918,47 +27973,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>1</v>
-      </c>
-      <c r="B216" t="s">
-        <v>123</v>
-      </c>
-      <c r="C216" t="s">
-        <v>2</v>
-      </c>
-      <c r="D216" t="s">
-        <v>3</v>
-      </c>
-      <c r="E216" t="s">
-        <v>124</v>
+    <row r="215">
+      <c r="A215"/>
+      <c r="B215" t="s">
+        <v>644</v>
+      </c>
+      <c r="C215" t="s">
+        <v>645</v>
+      </c>
+      <c r="D215" t="s">
+        <v>18</v>
+      </c>
+      <c r="E215" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="B217" t="s">
-        <v>609</v>
+        <v>123</v>
       </c>
       <c r="C217" t="s">
-        <v>610</v>
+        <v>2</v>
       </c>
       <c r="D217" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218"/>
+      <c r="A218" t="s">
+        <v>407</v>
+      </c>
       <c r="B218" t="s">
-        <v>611</v>
+        <v>646</v>
       </c>
       <c r="C218" t="s">
-        <v>612</v>
+        <v>647</v>
       </c>
       <c r="D218" t="s">
         <v>18</v>
@@ -27970,10 +28025,10 @@
     <row r="219">
       <c r="A219"/>
       <c r="B219" t="s">
-        <v>613</v>
+        <v>648</v>
       </c>
       <c r="C219" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="D219" t="s">
         <v>18</v>
@@ -28016,13 +28071,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>516</v>
+        <v>417</v>
       </c>
       <c r="B223" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="C223" t="s">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="D223" t="s">
         <v>18</v>
@@ -28034,10 +28089,10 @@
     <row r="224">
       <c r="A224"/>
       <c r="B224" t="s">
-        <v>617</v>
+        <v>652</v>
       </c>
       <c r="C224" t="s">
-        <v>618</v>
+        <v>653</v>
       </c>
       <c r="D224" t="s">
         <v>18</v>
@@ -28046,43 +28101,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225"/>
-      <c r="B225" t="s">
-        <v>619</v>
-      </c>
-      <c r="C225" t="s">
-        <v>620</v>
-      </c>
-      <c r="D225" t="s">
-        <v>18</v>
-      </c>
-      <c r="E225" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="226">
-      <c r="A226"/>
+      <c r="A226" t="s">
+        <v>1</v>
+      </c>
       <c r="B226" t="s">
-        <v>621</v>
+        <v>123</v>
       </c>
       <c r="C226" t="s">
-        <v>622</v>
+        <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227"/>
+      <c r="A227" t="s">
+        <v>435</v>
+      </c>
       <c r="B227" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="C227" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="D227" t="s">
         <v>18</v>
@@ -28094,10 +28138,10 @@
     <row r="228">
       <c r="A228"/>
       <c r="B228" t="s">
-        <v>625</v>
+        <v>276</v>
       </c>
       <c r="C228" t="s">
-        <v>626</v>
+        <v>277</v>
       </c>
       <c r="D228" t="s">
         <v>18</v>
@@ -28109,10 +28153,10 @@
     <row r="229">
       <c r="A229"/>
       <c r="B229" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="C229" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="D229" t="s">
         <v>18</v>
@@ -28124,10 +28168,10 @@
     <row r="230">
       <c r="A230"/>
       <c r="B230" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="C230" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="D230" t="s">
         <v>18</v>
@@ -28139,10 +28183,10 @@
     <row r="231">
       <c r="A231"/>
       <c r="B231" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="C231" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="D231" t="s">
         <v>18</v>
@@ -28154,10 +28198,10 @@
     <row r="232">
       <c r="A232"/>
       <c r="B232" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="C232" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="D232" t="s">
         <v>18</v>
@@ -28169,10 +28213,10 @@
     <row r="233">
       <c r="A233"/>
       <c r="B233" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="C233" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="D233" t="s">
         <v>18</v>
@@ -28184,10 +28228,10 @@
     <row r="234">
       <c r="A234"/>
       <c r="B234" t="s">
-        <v>637</v>
+        <v>662</v>
       </c>
       <c r="C234" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="D234" t="s">
         <v>18</v>
@@ -28199,10 +28243,10 @@
     <row r="235">
       <c r="A235"/>
       <c r="B235" t="s">
-        <v>639</v>
+        <v>260</v>
       </c>
       <c r="C235" t="s">
-        <v>640</v>
+        <v>262</v>
       </c>
       <c r="D235" t="s">
         <v>18</v>
@@ -28211,43 +28255,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236"/>
-      <c r="B236" t="s">
-        <v>268</v>
-      </c>
-      <c r="C236" t="s">
-        <v>269</v>
-      </c>
-      <c r="D236" t="s">
-        <v>18</v>
-      </c>
-      <c r="E236" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="237">
-      <c r="A237"/>
+      <c r="A237" t="s">
+        <v>1</v>
+      </c>
       <c r="B237" t="s">
-        <v>641</v>
+        <v>123</v>
       </c>
       <c r="C237" t="s">
-        <v>642</v>
+        <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E237" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238"/>
+      <c r="A238" t="s">
+        <v>470</v>
+      </c>
       <c r="B238" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="C238" t="s">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="D238" t="s">
         <v>18</v>
@@ -28259,10 +28292,10 @@
     <row r="239">
       <c r="A239"/>
       <c r="B239" t="s">
-        <v>645</v>
+        <v>666</v>
       </c>
       <c r="C239" t="s">
-        <v>646</v>
+        <v>667</v>
       </c>
       <c r="D239" t="s">
         <v>18</v>
@@ -28271,43 +28304,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240"/>
-      <c r="B240" t="s">
-        <v>601</v>
-      </c>
-      <c r="C240" t="s">
-        <v>602</v>
-      </c>
-      <c r="D240" t="s">
-        <v>18</v>
-      </c>
-      <c r="E240" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="241">
-      <c r="A241"/>
+      <c r="A241" t="s">
+        <v>1</v>
+      </c>
       <c r="B241" t="s">
-        <v>647</v>
+        <v>123</v>
       </c>
       <c r="C241" t="s">
-        <v>648</v>
+        <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E241" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242"/>
+      <c r="A242" t="s">
+        <v>485</v>
+      </c>
       <c r="B242" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="C242" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="D242" t="s">
         <v>18</v>
@@ -28319,10 +28341,10 @@
     <row r="243">
       <c r="A243"/>
       <c r="B243" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="C243" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="D243" t="s">
         <v>18</v>
@@ -28334,10 +28356,10 @@
     <row r="244">
       <c r="A244"/>
       <c r="B244" t="s">
-        <v>653</v>
+        <v>274</v>
       </c>
       <c r="C244" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="D244" t="s">
         <v>18</v>
@@ -28349,10 +28371,10 @@
     <row r="245">
       <c r="A245"/>
       <c r="B245" t="s">
-        <v>655</v>
+        <v>341</v>
       </c>
       <c r="C245" t="s">
-        <v>656</v>
+        <v>342</v>
       </c>
       <c r="D245" t="s">
         <v>18</v>
@@ -28364,10 +28386,10 @@
     <row r="246">
       <c r="A246"/>
       <c r="B246" t="s">
-        <v>657</v>
+        <v>260</v>
       </c>
       <c r="C246" t="s">
-        <v>658</v>
+        <v>262</v>
       </c>
       <c r="D246" t="s">
         <v>18</v>
@@ -28376,43 +28398,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247"/>
-      <c r="B247" t="s">
-        <v>659</v>
-      </c>
-      <c r="C247" t="s">
-        <v>660</v>
-      </c>
-      <c r="D247" t="s">
-        <v>18</v>
-      </c>
-      <c r="E247" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="248">
-      <c r="A248"/>
+      <c r="A248" t="s">
+        <v>1</v>
+      </c>
       <c r="B248" t="s">
-        <v>661</v>
+        <v>123</v>
       </c>
       <c r="C248" t="s">
-        <v>662</v>
+        <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E248" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249"/>
+      <c r="A249" t="s">
+        <v>511</v>
+      </c>
       <c r="B249" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="C249" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="D249" t="s">
         <v>18</v>
@@ -28424,10 +28435,10 @@
     <row r="250">
       <c r="A250"/>
       <c r="B250" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="C250" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D250" t="s">
         <v>18</v>
@@ -28439,10 +28450,10 @@
     <row r="251">
       <c r="A251"/>
       <c r="B251" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="C251" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="D251" t="s">
         <v>18</v>
@@ -28454,10 +28465,10 @@
     <row r="252">
       <c r="A252"/>
       <c r="B252" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="C252" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="D252" t="s">
         <v>18</v>
@@ -28469,10 +28480,10 @@
     <row r="253">
       <c r="A253"/>
       <c r="B253" t="s">
-        <v>671</v>
+        <v>598</v>
       </c>
       <c r="C253" t="s">
-        <v>672</v>
+        <v>599</v>
       </c>
       <c r="D253" t="s">
         <v>18</v>
@@ -28484,10 +28495,10 @@
     <row r="254">
       <c r="A254"/>
       <c r="B254" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="C254" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="D254" t="s">
         <v>18</v>
@@ -28499,10 +28510,10 @@
     <row r="255">
       <c r="A255"/>
       <c r="B255" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="C255" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="D255" t="s">
         <v>18</v>
@@ -28514,10 +28525,10 @@
     <row r="256">
       <c r="A256"/>
       <c r="B256" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="C256" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="D256" t="s">
         <v>18</v>
@@ -28529,10 +28540,10 @@
     <row r="257">
       <c r="A257"/>
       <c r="B257" t="s">
-        <v>679</v>
+        <v>260</v>
       </c>
       <c r="C257" t="s">
-        <v>680</v>
+        <v>262</v>
       </c>
       <c r="D257" t="s">
         <v>18</v>
@@ -28541,43 +28552,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258"/>
-      <c r="B258" t="s">
-        <v>681</v>
-      </c>
-      <c r="C258" t="s">
-        <v>682</v>
-      </c>
-      <c r="D258" t="s">
-        <v>18</v>
-      </c>
-      <c r="E258" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="259">
-      <c r="A259"/>
+      <c r="A259" t="s">
+        <v>1</v>
+      </c>
       <c r="B259" t="s">
-        <v>683</v>
+        <v>123</v>
       </c>
       <c r="C259" t="s">
-        <v>684</v>
+        <v>2</v>
       </c>
       <c r="D259" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E259" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260"/>
+      <c r="A260" t="s">
+        <v>516</v>
+      </c>
       <c r="B260" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C260" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D260" t="s">
         <v>18</v>
@@ -28589,10 +28589,10 @@
     <row r="261">
       <c r="A261"/>
       <c r="B261" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C261" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D261" t="s">
         <v>18</v>
@@ -28604,10 +28604,10 @@
     <row r="262">
       <c r="A262"/>
       <c r="B262" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C262" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D262" t="s">
         <v>18</v>
@@ -28619,10 +28619,10 @@
     <row r="263">
       <c r="A263"/>
       <c r="B263" t="s">
-        <v>691</v>
+        <v>341</v>
       </c>
       <c r="C263" t="s">
-        <v>692</v>
+        <v>342</v>
       </c>
       <c r="D263" t="s">
         <v>18</v>
@@ -29871,7 +29871,7 @@
         <v>839</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C45" t="s">
         <v>840</v>
@@ -29890,7 +29890,7 @@
         <v>841</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C46" t="s">
         <v>842</v>
@@ -29928,7 +29928,7 @@
         <v>845</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C48" t="s">
         <v>846</v>
@@ -29947,7 +29947,7 @@
         <v>847</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C49" t="s">
         <v>848</v>
@@ -29966,7 +29966,7 @@
         <v>849</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C50" t="s">
         <v>850</v>
@@ -30004,7 +30004,7 @@
         <v>854</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C52" t="s">
         <v>855</v>
@@ -30137,7 +30137,7 @@
         <v>865</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C59" t="s">
         <v>866</v>
@@ -30175,7 +30175,7 @@
         <v>869</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C61" t="s">
         <v>870</v>
@@ -30951,7 +30951,7 @@
         <v>969</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C101" t="s">
         <v>970</v>
@@ -33534,7 +33534,7 @@
         <v>1276</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C51" t="s">
         <v>1277</v>
@@ -33937,13 +33937,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B79" t="s">
-        <v>566</v>
+        <v>646</v>
       </c>
       <c r="C79" t="s">
-        <v>567</v>
+        <v>647</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -33955,10 +33955,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="C80" t="s">
-        <v>569</v>
+        <v>649</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -34594,7 +34594,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>1350</v>
@@ -35208,7 +35208,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1350</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7047" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7055" uniqueCount="1984">
   <si>
     <t>Field</t>
   </si>
@@ -424,6 +424,18 @@
     <t>Female</t>
   </si>
   <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>YEARS</t>
   </si>
   <si>
@@ -817,15 +829,9 @@
     <t>C.pneumoniae</t>
   </si>
   <si>
-    <t>OTHER</t>
-  </si>
-  <si>
     <t>Other Epidemic Disease</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>UNDEFINED</t>
   </si>
   <si>
@@ -1058,12 +1064,6 @@
   </si>
   <si>
     <t>Rural</t>
-  </si>
-  <si>
-    <t>UNKNOWN</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>disease</t>
@@ -6116,7 +6116,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="PersonOccupationType" displayName="PersonOccupationType" ref="A142:E157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="PersonOccupationType" displayName="PersonOccupationType" ref="A144:E159">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6262,7 +6262,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="PersonSex" displayName="PersonSex" ref="A49:E51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="PersonSex" displayName="PersonSex" ref="A49:E53">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6419,7 +6419,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PersonApproximateAgeType" displayName="PersonApproximateAgeType" ref="A53:E56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PersonApproximateAgeType" displayName="PersonApproximateAgeType" ref="A55:E58">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6579,7 +6579,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="PersonPresentCondition" displayName="PersonPresentCondition" ref="A58:E61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="PersonPresentCondition" displayName="PersonPresentCondition" ref="A60:E63">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6742,7 +6742,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PersonCauseOfDeath" displayName="PersonCauseOfDeath" ref="A63:E65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PersonCauseOfDeath" displayName="PersonCauseOfDeath" ref="A65:E67">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6902,7 +6902,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="PersonDisease" displayName="PersonDisease" ref="A67:E123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="PersonDisease" displayName="PersonDisease" ref="A69:E125">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7062,7 +7062,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="PersonDeathPlaceType" displayName="PersonDeathPlaceType" ref="A125:E128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="PersonDeathPlaceType" displayName="PersonDeathPlaceType" ref="A127:E130">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7222,7 +7222,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="PersonBurialConductor" displayName="PersonBurialConductor" ref="A130:E132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="PersonBurialConductor" displayName="PersonBurialConductor" ref="A132:E134">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7382,7 +7382,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="PersonEducationType" displayName="PersonEducationType" ref="A134:E140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="PersonEducationType" displayName="PersonEducationType" ref="A136:E142">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7555,7 +7555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8544,57 +8544,57 @@
         <v>18</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52"/>
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="53">
-      <c r="A53" t="s">
+      <c r="A53"/>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
         <v>1</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>123</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>2</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>3</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s">
+    <row r="56">
+      <c r="A56" t="s">
         <v>36</v>
       </c>
-      <c r="B54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55"/>
-      <c r="B55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" t="s">
-        <v>132</v>
-      </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56"/>
       <c r="B56" t="s">
         <v>133</v>
       </c>
@@ -8608,57 +8608,57 @@
         <v>18</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57"/>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="58">
-      <c r="A58" t="s">
+      <c r="A58"/>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
         <v>1</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>123</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" t="s">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D60" t="s">
         <v>3</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s">
+    <row r="61">
+      <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B59" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60"/>
-      <c r="B60" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61"/>
       <c r="B61" t="s">
         <v>139</v>
       </c>
@@ -8672,106 +8672,106 @@
         <v>18</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="63">
-      <c r="A63" t="s">
+      <c r="A63"/>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
         <v>1</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>123</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" t="s">
         <v>2</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D65" t="s">
         <v>3</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E65" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="s">
+    <row r="66">
+      <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65"/>
-      <c r="B65" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s">
+      <c r="A67"/>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
         <v>1</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>123</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>2</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D69" t="s">
         <v>3</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s">
+    <row r="70">
+      <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69"/>
-      <c r="B69" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70"/>
       <c r="B70" t="s">
         <v>149</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71">
@@ -8797,31 +8797,31 @@
         <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" t="s">
         <v>154</v>
       </c>
-      <c r="C72" t="s">
-        <v>155</v>
-      </c>
       <c r="D72" t="s">
         <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -8833,16 +8833,16 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" t="s">
         <v>159</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
         <v>160</v>
-      </c>
-      <c r="D74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -8857,7 +8857,7 @@
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76">
@@ -8902,16 +8902,16 @@
         <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s">
         <v>170</v>
-      </c>
-      <c r="C79" t="s">
-        <v>171</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -8923,61 +8923,61 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" t="s">
         <v>172</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
         <v>173</v>
-      </c>
-      <c r="D80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" t="s">
         <v>175</v>
       </c>
-      <c r="C81" t="s">
-        <v>176</v>
-      </c>
       <c r="D81" t="s">
         <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
         <v>178</v>
-      </c>
-      <c r="C82" t="s">
-        <v>179</v>
-      </c>
-      <c r="D82" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" t="s">
         <v>180</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
         <v>181</v>
-      </c>
-      <c r="D83" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -8992,16 +8992,16 @@
         <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
         <v>185</v>
-      </c>
-      <c r="C85" t="s">
-        <v>186</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -9013,16 +9013,16 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" t="s">
         <v>187</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
         <v>188</v>
-      </c>
-      <c r="D86" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -9106,7 +9106,7 @@
         <v>199</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -9118,10 +9118,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -9133,7 +9133,7 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
         <v>203</v>
@@ -9457,52 +9457,52 @@
         <v>18</v>
       </c>
       <c r="E115" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116"/>
       <c r="B116" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" t="s">
         <v>247</v>
       </c>
-      <c r="C116" t="s">
-        <v>248</v>
-      </c>
       <c r="D116" t="s">
         <v>18</v>
       </c>
       <c r="E116" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
       <c r="A117"/>
       <c r="B117" t="s">
+        <v>248</v>
+      </c>
+      <c r="C117" t="s">
+        <v>249</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" t="s">
         <v>250</v>
-      </c>
-      <c r="C117" t="s">
-        <v>251</v>
-      </c>
-      <c r="D117" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118"/>
       <c r="B118" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" t="s">
         <v>252</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" t="s">
         <v>253</v>
-      </c>
-      <c r="D118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="119">
@@ -9562,81 +9562,81 @@
         <v>18</v>
       </c>
       <c r="E122" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
       <c r="A123"/>
       <c r="B123" t="s">
+        <v>262</v>
+      </c>
+      <c r="C123" t="s">
         <v>263</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124"/>
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" t="s">
         <v>264</v>
       </c>
-      <c r="D123" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125"/>
+      <c r="B125" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
+      <c r="C125" t="s">
+        <v>266</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
         <v>1</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B127" t="s">
         <v>123</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C127" t="s">
         <v>2</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D127" t="s">
         <v>3</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E127" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="s">
+    <row r="128">
+      <c r="A128" t="s">
         <v>76</v>
       </c>
-      <c r="B126" t="s">
-        <v>266</v>
-      </c>
-      <c r="C126" t="s">
-        <v>267</v>
-      </c>
-      <c r="D126" t="s">
-        <v>18</v>
-      </c>
-      <c r="E126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127"/>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>268</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>269</v>
       </c>
-      <c r="D127" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128"/>
-      <c r="B128" t="s">
-        <v>260</v>
-      </c>
-      <c r="C128" t="s">
-        <v>262</v>
-      </c>
       <c r="D128" t="s">
         <v>18</v>
       </c>
@@ -9644,111 +9644,111 @@
         <v>18</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129"/>
+      <c r="B129" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" t="s">
+        <v>271</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="130">
-      <c r="A130" t="s">
+      <c r="A130"/>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>130</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
         <v>1</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B132" t="s">
         <v>123</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C132" t="s">
         <v>2</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D132" t="s">
         <v>3</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E132" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="s">
+    <row r="133">
+      <c r="A133" t="s">
         <v>87</v>
       </c>
-      <c r="B131" t="s">
-        <v>270</v>
-      </c>
-      <c r="C131" t="s">
-        <v>271</v>
-      </c>
-      <c r="D131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132"/>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>272</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>273</v>
       </c>
-      <c r="D132" t="s">
-        <v>18</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s">
+      <c r="A134"/>
+      <c r="B134" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" t="s">
+        <v>275</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
         <v>1</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B136" t="s">
         <v>123</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C136" t="s">
         <v>2</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D136" t="s">
         <v>3</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E136" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="s">
+    <row r="137">
+      <c r="A137" t="s">
         <v>100</v>
       </c>
-      <c r="B135" t="s">
-        <v>274</v>
-      </c>
-      <c r="C135" t="s">
-        <v>275</v>
-      </c>
-      <c r="D135" t="s">
-        <v>18</v>
-      </c>
-      <c r="E135" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136"/>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>276</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>277</v>
-      </c>
-      <c r="D136" t="s">
-        <v>18</v>
-      </c>
-      <c r="E136" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137"/>
-      <c r="B137" t="s">
-        <v>278</v>
-      </c>
-      <c r="C137" t="s">
-        <v>279</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
@@ -9760,10 +9760,10 @@
     <row r="138">
       <c r="A138"/>
       <c r="B138" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C138" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
@@ -9775,10 +9775,10 @@
     <row r="139">
       <c r="A139"/>
       <c r="B139" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C139" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
@@ -9790,10 +9790,10 @@
     <row r="140">
       <c r="A140"/>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="D140" t="s">
         <v>18</v>
@@ -9802,62 +9802,62 @@
         <v>18</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141"/>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" t="s">
+        <v>285</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="142">
-      <c r="A142" t="s">
+      <c r="A142"/>
+      <c r="B142" t="s">
+        <v>129</v>
+      </c>
+      <c r="C142" t="s">
+        <v>130</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
         <v>1</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B144" t="s">
         <v>123</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C144" t="s">
         <v>2</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D144" t="s">
         <v>3</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E144" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="s">
+    <row r="145">
+      <c r="A145" t="s">
         <v>105</v>
       </c>
-      <c r="B143" t="s">
-        <v>284</v>
-      </c>
-      <c r="C143" t="s">
-        <v>285</v>
-      </c>
-      <c r="D143" t="s">
-        <v>18</v>
-      </c>
-      <c r="E143" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144"/>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>286</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>287</v>
-      </c>
-      <c r="D144" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145"/>
-      <c r="B145" t="s">
-        <v>288</v>
-      </c>
-      <c r="C145" t="s">
-        <v>289</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
@@ -9869,10 +9869,10 @@
     <row r="146">
       <c r="A146"/>
       <c r="B146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D146" t="s">
         <v>18</v>
@@ -9884,10 +9884,10 @@
     <row r="147">
       <c r="A147"/>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C147" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D147" t="s">
         <v>18</v>
@@ -9899,10 +9899,10 @@
     <row r="148">
       <c r="A148"/>
       <c r="B148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D148" t="s">
         <v>18</v>
@@ -9914,10 +9914,10 @@
     <row r="149">
       <c r="A149"/>
       <c r="B149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C149" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D149" t="s">
         <v>18</v>
@@ -9929,10 +9929,10 @@
     <row r="150">
       <c r="A150"/>
       <c r="B150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C150" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D150" t="s">
         <v>18</v>
@@ -9944,10 +9944,10 @@
     <row r="151">
       <c r="A151"/>
       <c r="B151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C151" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D151" t="s">
         <v>18</v>
@@ -9959,10 +9959,10 @@
     <row r="152">
       <c r="A152"/>
       <c r="B152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D152" t="s">
         <v>18</v>
@@ -9974,10 +9974,10 @@
     <row r="153">
       <c r="A153"/>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D153" t="s">
         <v>18</v>
@@ -9989,10 +9989,10 @@
     <row r="154">
       <c r="A154"/>
       <c r="B154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D154" t="s">
         <v>18</v>
@@ -10004,10 +10004,10 @@
     <row r="155">
       <c r="A155"/>
       <c r="B155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D155" t="s">
         <v>18</v>
@@ -10019,10 +10019,10 @@
     <row r="156">
       <c r="A156"/>
       <c r="B156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D156" t="s">
         <v>18</v>
@@ -10034,15 +10034,45 @@
     <row r="157">
       <c r="A157"/>
       <c r="B157" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="C157" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="D157" t="s">
         <v>18</v>
       </c>
       <c r="E157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158"/>
+      <c r="B158" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158" t="s">
+        <v>313</v>
+      </c>
+      <c r="D158" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159"/>
+      <c r="B159" t="s">
+        <v>129</v>
+      </c>
+      <c r="C159" t="s">
+        <v>130</v>
+      </c>
+      <c r="D159" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10243,25 +10273,25 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -10273,10 +10303,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -10288,55 +10318,55 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -10348,10 +10378,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -10363,10 +10393,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -10378,10 +10408,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -10393,25 +10423,25 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -10423,40 +10453,40 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -10468,10 +10498,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -10483,25 +10513,25 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -10513,10 +10543,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -10528,10 +10558,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -10543,10 +10573,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -10558,10 +10588,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -10573,10 +10603,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -10588,10 +10618,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -10603,10 +10633,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -10618,10 +10648,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -10633,10 +10663,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -10648,10 +10678,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -10663,10 +10693,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -10678,10 +10708,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -10693,10 +10723,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -10708,10 +10738,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -10723,10 +10753,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -10738,10 +10768,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -10753,10 +10783,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -10768,10 +10798,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -10783,10 +10813,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -10798,10 +10828,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -10813,10 +10843,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -10828,10 +10858,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -10843,10 +10873,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -10858,10 +10888,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C51" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -10873,10 +10903,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -10888,10 +10918,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -10903,10 +10933,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C54" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -10918,10 +10948,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -10933,10 +10963,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -10948,40 +10978,40 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C57" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C58" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -10993,10 +11023,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C60" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -11008,10 +11038,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C61" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -11023,10 +11053,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -11038,10 +11068,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -11053,31 +11083,31 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C65" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -11329,7 +11359,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>42</v>
@@ -11348,7 +11378,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>46</v>
@@ -12170,25 +12200,25 @@
         <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -12200,10 +12230,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -12215,55 +12245,55 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -12275,10 +12305,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -12290,10 +12320,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -12305,10 +12335,10 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -12320,25 +12350,25 @@
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -12350,40 +12380,40 @@
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -12395,10 +12425,10 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -12410,25 +12440,25 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -12440,10 +12470,10 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -12455,10 +12485,10 @@
     <row r="76">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -12470,10 +12500,10 @@
     <row r="77">
       <c r="A77"/>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -12485,10 +12515,10 @@
     <row r="78">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -12500,10 +12530,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C79" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -12515,10 +12545,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C80" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -12530,10 +12560,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -12545,10 +12575,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -12560,10 +12590,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -12575,10 +12605,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -12590,10 +12620,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -12605,10 +12635,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C86" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -12620,10 +12650,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -12635,10 +12665,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -12650,10 +12680,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C89" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -12665,10 +12695,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -12680,10 +12710,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -12695,10 +12725,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C92" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -12710,10 +12740,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -12725,10 +12755,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C94" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -12740,10 +12770,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C95" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -12755,10 +12785,10 @@
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -12770,10 +12800,10 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C97" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -12785,10 +12815,10 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C98" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -12800,10 +12830,10 @@
     <row r="99">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C99" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -12815,10 +12845,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C100" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -12830,10 +12860,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C101" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -12845,10 +12875,10 @@
     <row r="102">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C102" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -12860,10 +12890,10 @@
     <row r="103">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -12875,40 +12905,40 @@
     <row r="104">
       <c r="A104"/>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C104" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
       </c>
       <c r="E104" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105">
       <c r="A105"/>
       <c r="B105" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C105" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
       </c>
       <c r="E105" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106">
       <c r="A106"/>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C106" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -12920,10 +12950,10 @@
     <row r="107">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C107" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -12935,10 +12965,10 @@
     <row r="108">
       <c r="A108"/>
       <c r="B108" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C108" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
@@ -12950,10 +12980,10 @@
     <row r="109">
       <c r="A109"/>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C109" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -12965,10 +12995,10 @@
     <row r="110">
       <c r="A110"/>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C110" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
@@ -12980,31 +13010,31 @@
     <row r="111">
       <c r="A111"/>
       <c r="B111" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112"/>
       <c r="B112" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C112" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
       </c>
       <c r="E112" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114">
@@ -13074,10 +13104,10 @@
     <row r="118">
       <c r="A118"/>
       <c r="B118" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C118" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
@@ -13089,10 +13119,10 @@
     <row r="119">
       <c r="A119"/>
       <c r="B119" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C119" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D119" t="s">
         <v>18</v>
@@ -13138,10 +13168,10 @@
     <row r="123">
       <c r="A123"/>
       <c r="B123" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D123" t="s">
         <v>18</v>
@@ -13153,10 +13183,10 @@
     <row r="124">
       <c r="A124"/>
       <c r="B124" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
@@ -13792,10 +13822,10 @@
     <row r="171">
       <c r="A171"/>
       <c r="B171" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C171" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D171" t="s">
         <v>18</v>
@@ -13856,10 +13886,10 @@
     <row r="176">
       <c r="A176"/>
       <c r="B176" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C176" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D176" t="s">
         <v>18</v>
@@ -13920,7 +13950,7 @@
     <row r="181">
       <c r="A181"/>
       <c r="B181" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C181" t="s">
         <v>602</v>
@@ -13935,10 +13965,10 @@
     <row r="182">
       <c r="A182"/>
       <c r="B182" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C182" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D182" t="s">
         <v>18</v>
@@ -13950,10 +13980,10 @@
     <row r="183">
       <c r="A183"/>
       <c r="B183" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C183" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D183" t="s">
         <v>18</v>
@@ -14245,25 +14275,25 @@
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -14275,10 +14305,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -14290,55 +14320,55 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -14350,10 +14380,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -14365,10 +14395,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -14380,10 +14410,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -14395,25 +14425,25 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -14425,40 +14455,40 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -14470,10 +14500,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -14485,25 +14515,25 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -14515,10 +14545,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -14530,10 +14560,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -14545,10 +14575,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -14560,10 +14590,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -14575,10 +14605,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -14590,10 +14620,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -14605,10 +14635,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -14620,10 +14650,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -14635,10 +14665,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -14650,10 +14680,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -14665,10 +14695,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -14680,10 +14710,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -14695,10 +14725,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -14710,10 +14740,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -14725,10 +14755,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -14740,10 +14770,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -14755,10 +14785,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -14770,10 +14800,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -14785,10 +14815,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C50" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -14800,10 +14830,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -14815,10 +14845,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C52" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -14830,10 +14860,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -14845,10 +14875,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C54" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -14860,10 +14890,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -14875,10 +14905,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -14890,10 +14920,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C57" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -14905,10 +14935,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -14920,10 +14950,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C59" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -14935,10 +14965,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -14950,40 +14980,40 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C62" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -14995,10 +15025,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -15010,10 +15040,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C65" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -15025,10 +15055,10 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -15040,10 +15070,10 @@
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C67" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -15055,31 +15085,31 @@
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C69" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71">
@@ -16142,10 +16172,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -16777,25 +16807,25 @@
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -16807,10 +16837,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -16822,55 +16852,55 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -16882,10 +16912,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -16897,10 +16927,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -16912,10 +16942,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -16927,25 +16957,25 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -16957,40 +16987,40 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -17002,10 +17032,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -17017,25 +17047,25 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -17047,10 +17077,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -17062,10 +17092,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -17077,10 +17107,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -17092,10 +17122,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -17107,10 +17137,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -17122,10 +17152,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -17137,10 +17167,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -17152,10 +17182,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -17167,10 +17197,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -17182,10 +17212,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -17197,10 +17227,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -17212,10 +17242,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -17227,10 +17257,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -17242,10 +17272,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -17257,10 +17287,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -17272,10 +17302,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -17287,10 +17317,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -17302,10 +17332,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -17317,10 +17347,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -17332,10 +17362,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C56" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -17347,10 +17377,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -17362,10 +17392,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -17377,10 +17407,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C59" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -17392,10 +17422,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C60" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -17407,10 +17437,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C61" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -17422,10 +17452,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C62" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -17437,10 +17467,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -17452,10 +17482,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -17467,10 +17497,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -17482,40 +17512,40 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C68" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -17527,10 +17557,10 @@
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C69" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -17542,10 +17572,10 @@
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -17557,10 +17587,10 @@
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -17572,10 +17602,10 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C72" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -17587,31 +17617,31 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76">
@@ -17906,10 +17936,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -19293,7 +19323,7 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
         <v>1838</v>
@@ -20178,10 +20208,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -20242,10 +20272,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C43" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -20287,10 +20317,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -20302,10 +20332,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -20415,25 +20445,25 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -20445,10 +20475,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -20460,55 +20490,55 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -20520,10 +20550,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -20535,10 +20565,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -20550,10 +20580,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -20565,25 +20595,25 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -20595,40 +20625,40 @@
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -20640,10 +20670,10 @@
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -20655,25 +20685,25 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -20685,10 +20715,10 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -20700,10 +20730,10 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -20715,10 +20745,10 @@
     <row r="76">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -20730,10 +20760,10 @@
     <row r="77">
       <c r="A77"/>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -20745,10 +20775,10 @@
     <row r="78">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -20760,10 +20790,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -20775,10 +20805,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -20790,10 +20820,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -20805,10 +20835,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -20820,10 +20850,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -20835,10 +20865,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -20850,10 +20880,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -20865,10 +20895,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C86" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -20880,10 +20910,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -20895,10 +20925,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -20910,10 +20940,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C89" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -20925,10 +20955,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -20940,10 +20970,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C91" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -20955,10 +20985,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -20970,10 +21000,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -20985,10 +21015,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C94" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -21000,10 +21030,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -21015,10 +21045,10 @@
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -21030,10 +21060,10 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C97" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -21045,10 +21075,10 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C98" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -21060,10 +21090,10 @@
     <row r="99">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C99" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -21075,10 +21105,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -21090,10 +21120,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -21105,10 +21135,10 @@
     <row r="102">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C102" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -21120,40 +21150,40 @@
     <row r="103">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C103" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
       </c>
       <c r="E103" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104">
       <c r="A104"/>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C104" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
       </c>
       <c r="E104" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105">
       <c r="A105"/>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C105" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
@@ -21165,10 +21195,10 @@
     <row r="106">
       <c r="A106"/>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -21180,10 +21210,10 @@
     <row r="107">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -21195,10 +21225,10 @@
     <row r="108">
       <c r="A108"/>
       <c r="B108" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C108" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
@@ -21210,10 +21240,10 @@
     <row r="109">
       <c r="A109"/>
       <c r="B109" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C109" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -21225,31 +21255,31 @@
     <row r="110">
       <c r="A110"/>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
       </c>
       <c r="E110" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111"/>
       <c r="B111" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C111" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -21462,13 +21492,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>18</v>
@@ -21481,13 +21511,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>18</v>
@@ -21500,13 +21530,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>18</v>
@@ -21519,13 +21549,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>18</v>
@@ -21538,7 +21568,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>29</v>
@@ -21557,7 +21587,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>29</v>
@@ -21672,10 +21702,10 @@
         <v>1932</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -21687,10 +21717,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -21702,10 +21732,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -21784,13 +21814,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -21803,13 +21833,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -21822,13 +21852,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -21847,7 +21877,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -21860,13 +21890,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -21879,13 +21909,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -21898,16 +21928,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E8"/>
       <c r="G8" s="2" t="s">
@@ -21917,16 +21947,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E9"/>
       <c r="G9" s="2" t="s">
@@ -21936,16 +21966,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E10"/>
       <c r="G10" s="2" t="s">
@@ -21955,16 +21985,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E11"/>
       <c r="G11" s="2" t="s">
@@ -21974,13 +22004,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -22010,13 +22040,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -22028,10 +22058,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -22043,10 +22073,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -22333,13 +22363,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>18</v>
@@ -22461,13 +22491,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>18</v>
@@ -22480,13 +22510,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>18</v>
@@ -22739,13 +22769,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>18</v>
@@ -22758,13 +22788,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>18</v>
@@ -22777,13 +22807,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>18</v>
@@ -22930,25 +22960,25 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -22960,10 +22990,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -22975,55 +23005,55 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -23035,10 +23065,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -23050,10 +23080,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -23065,10 +23095,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -23080,25 +23110,25 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -23110,40 +23140,40 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -23155,10 +23185,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -23170,25 +23200,25 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -23200,10 +23230,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -23215,10 +23245,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -23230,10 +23260,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -23245,10 +23275,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -23260,10 +23290,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -23275,10 +23305,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -23290,10 +23320,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -23305,10 +23335,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -23320,10 +23350,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -23335,10 +23365,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -23350,10 +23380,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -23365,10 +23395,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -23380,10 +23410,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -23395,10 +23425,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -23410,10 +23440,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -23425,10 +23455,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -23440,10 +23470,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -23455,10 +23485,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -23470,10 +23500,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -23485,10 +23515,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -23500,10 +23530,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -23515,10 +23545,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -23530,10 +23560,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -23545,10 +23575,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -23560,10 +23590,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -23575,10 +23605,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -23590,10 +23620,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -23605,10 +23635,10 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C66" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -23620,10 +23650,10 @@
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -23635,40 +23665,40 @@
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C69" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -23680,10 +23710,10 @@
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -23695,10 +23725,10 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C72" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -23710,10 +23740,10 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C73" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -23725,10 +23755,10 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C74" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -23740,31 +23770,31 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78">
@@ -24102,7 +24132,7 @@
       </c>
       <c r="E4"/>
       <c r="G4" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -24123,7 +24153,7 @@
       </c>
       <c r="E5"/>
       <c r="G5" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -24144,7 +24174,7 @@
       </c>
       <c r="E6"/>
       <c r="G6" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -24566,13 +24596,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>18</v>
@@ -24589,13 +24619,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>18</v>
@@ -24612,13 +24642,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>18</v>
@@ -24812,7 +24842,7 @@
       </c>
       <c r="E38"/>
       <c r="G38" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H38"/>
     </row>
@@ -24831,7 +24861,7 @@
       </c>
       <c r="E39"/>
       <c r="G39" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H39"/>
     </row>
@@ -25619,25 +25649,25 @@
         <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -25649,10 +25679,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -25664,55 +25694,55 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -25724,10 +25754,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -25739,10 +25769,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C90" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -25754,10 +25784,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -25769,25 +25799,25 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -25799,40 +25829,40 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C96" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -25844,10 +25874,10 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -25859,25 +25889,25 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
       </c>
       <c r="E98" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -25889,10 +25919,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -25904,10 +25934,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C101" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -25919,10 +25949,10 @@
     <row r="102">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -25934,10 +25964,10 @@
     <row r="103">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C103" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -25949,10 +25979,10 @@
     <row r="104">
       <c r="A104"/>
       <c r="B104" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C104" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
@@ -25964,10 +25994,10 @@
     <row r="105">
       <c r="A105"/>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C105" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
@@ -25979,10 +26009,10 @@
     <row r="106">
       <c r="A106"/>
       <c r="B106" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C106" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -25994,10 +26024,10 @@
     <row r="107">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -26009,10 +26039,10 @@
     <row r="108">
       <c r="A108"/>
       <c r="B108" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C108" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
@@ -26024,10 +26054,10 @@
     <row r="109">
       <c r="A109"/>
       <c r="B109" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C109" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -26039,10 +26069,10 @@
     <row r="110">
       <c r="A110"/>
       <c r="B110" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C110" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
@@ -26054,10 +26084,10 @@
     <row r="111">
       <c r="A111"/>
       <c r="B111" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
@@ -26069,10 +26099,10 @@
     <row r="112">
       <c r="A112"/>
       <c r="B112" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C112" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
@@ -26084,10 +26114,10 @@
     <row r="113">
       <c r="A113"/>
       <c r="B113" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C113" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D113" t="s">
         <v>18</v>
@@ -26099,10 +26129,10 @@
     <row r="114">
       <c r="A114"/>
       <c r="B114" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C114" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
@@ -26114,10 +26144,10 @@
     <row r="115">
       <c r="A115"/>
       <c r="B115" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C115" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D115" t="s">
         <v>18</v>
@@ -26129,10 +26159,10 @@
     <row r="116">
       <c r="A116"/>
       <c r="B116" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C116" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D116" t="s">
         <v>18</v>
@@ -26144,10 +26174,10 @@
     <row r="117">
       <c r="A117"/>
       <c r="B117" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C117" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
@@ -26159,10 +26189,10 @@
     <row r="118">
       <c r="A118"/>
       <c r="B118" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C118" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
@@ -26174,10 +26204,10 @@
     <row r="119">
       <c r="A119"/>
       <c r="B119" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C119" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D119" t="s">
         <v>18</v>
@@ -26189,10 +26219,10 @@
     <row r="120">
       <c r="A120"/>
       <c r="B120" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C120" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D120" t="s">
         <v>18</v>
@@ -26204,10 +26234,10 @@
     <row r="121">
       <c r="A121"/>
       <c r="B121" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C121" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
@@ -26219,10 +26249,10 @@
     <row r="122">
       <c r="A122"/>
       <c r="B122" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C122" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D122" t="s">
         <v>18</v>
@@ -26234,10 +26264,10 @@
     <row r="123">
       <c r="A123"/>
       <c r="B123" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C123" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D123" t="s">
         <v>18</v>
@@ -26249,10 +26279,10 @@
     <row r="124">
       <c r="A124"/>
       <c r="B124" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C124" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
@@ -26264,10 +26294,10 @@
     <row r="125">
       <c r="A125"/>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C125" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D125" t="s">
         <v>18</v>
@@ -26279,10 +26309,10 @@
     <row r="126">
       <c r="A126"/>
       <c r="B126" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C126" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D126" t="s">
         <v>18</v>
@@ -26294,10 +26324,10 @@
     <row r="127">
       <c r="A127"/>
       <c r="B127" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C127" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D127" t="s">
         <v>18</v>
@@ -26309,10 +26339,10 @@
     <row r="128">
       <c r="A128"/>
       <c r="B128" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C128" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D128" t="s">
         <v>18</v>
@@ -26324,40 +26354,40 @@
     <row r="129">
       <c r="A129"/>
       <c r="B129" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C129" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D129" t="s">
         <v>18</v>
       </c>
       <c r="E129" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130">
       <c r="A130"/>
       <c r="B130" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C130" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D130" t="s">
         <v>18</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131">
       <c r="A131"/>
       <c r="B131" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D131" t="s">
         <v>18</v>
@@ -26369,10 +26399,10 @@
     <row r="132">
       <c r="A132"/>
       <c r="B132" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C132" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D132" t="s">
         <v>18</v>
@@ -26384,10 +26414,10 @@
     <row r="133">
       <c r="A133"/>
       <c r="B133" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C133" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D133" t="s">
         <v>18</v>
@@ -26399,10 +26429,10 @@
     <row r="134">
       <c r="A134"/>
       <c r="B134" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C134" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D134" t="s">
         <v>18</v>
@@ -26414,10 +26444,10 @@
     <row r="135">
       <c r="A135"/>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C135" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D135" t="s">
         <v>18</v>
@@ -26429,31 +26459,31 @@
     <row r="136">
       <c r="A136"/>
       <c r="B136" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C136" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
       </c>
       <c r="E136" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137">
       <c r="A137"/>
       <c r="B137" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C137" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139">
@@ -26545,7 +26575,7 @@
         <v>527</v>
       </c>
       <c r="C145" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
@@ -26809,10 +26839,10 @@
     <row r="165">
       <c r="A165"/>
       <c r="B165" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C165" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D165" t="s">
         <v>18</v>
@@ -26952,10 +26982,10 @@
     <row r="176">
       <c r="A176"/>
       <c r="B176" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C176" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D176" t="s">
         <v>18</v>
@@ -27016,10 +27046,10 @@
     <row r="181">
       <c r="A181"/>
       <c r="B181" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C181" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D181" t="s">
         <v>18</v>
@@ -27114,10 +27144,10 @@
     <row r="189">
       <c r="A189"/>
       <c r="B189" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C189" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D189" t="s">
         <v>18</v>
@@ -27219,10 +27249,10 @@
     <row r="196">
       <c r="A196"/>
       <c r="B196" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C196" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
@@ -27332,7 +27362,7 @@
     <row r="205">
       <c r="A205"/>
       <c r="B205" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C205" t="s">
         <v>602</v>
@@ -27347,10 +27377,10 @@
     <row r="206">
       <c r="A206"/>
       <c r="B206" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C206" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D206" t="s">
         <v>18</v>
@@ -27362,10 +27392,10 @@
     <row r="207">
       <c r="A207"/>
       <c r="B207" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C207" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D207" t="s">
         <v>18</v>
@@ -27516,10 +27546,10 @@
     <row r="218">
       <c r="A218"/>
       <c r="B218" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C218" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D218" t="s">
         <v>18</v>
@@ -27595,10 +27625,10 @@
     <row r="224">
       <c r="A224"/>
       <c r="B224" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C224" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D224" t="s">
         <v>18</v>
@@ -27935,10 +27965,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -28348,7 +28378,7 @@
       </c>
       <c r="E19"/>
       <c r="G19" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H19"/>
     </row>
@@ -28367,7 +28397,7 @@
       </c>
       <c r="E20"/>
       <c r="G20" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H20"/>
     </row>
@@ -29008,7 +29038,7 @@
       </c>
       <c r="E53"/>
       <c r="G53" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H53"/>
     </row>
@@ -29027,7 +29057,7 @@
       </c>
       <c r="E54"/>
       <c r="G54" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H54"/>
     </row>
@@ -29046,7 +29076,7 @@
       </c>
       <c r="E55"/>
       <c r="G55" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H55"/>
     </row>
@@ -29065,7 +29095,7 @@
       </c>
       <c r="E56"/>
       <c r="G56" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H56"/>
     </row>
@@ -30341,7 +30371,7 @@
       </c>
       <c r="E122"/>
       <c r="G122" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H122"/>
     </row>
@@ -30360,7 +30390,7 @@
       </c>
       <c r="E123"/>
       <c r="G123" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H123"/>
     </row>
@@ -30379,7 +30409,7 @@
       </c>
       <c r="E124"/>
       <c r="G124" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H124"/>
     </row>
@@ -30398,7 +30428,7 @@
       </c>
       <c r="E125"/>
       <c r="G125" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H125"/>
     </row>
@@ -30417,7 +30447,7 @@
       </c>
       <c r="E126"/>
       <c r="G126" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H126"/>
     </row>
@@ -30436,7 +30466,7 @@
       </c>
       <c r="E127"/>
       <c r="G127" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H127"/>
     </row>
@@ -30455,7 +30485,7 @@
       </c>
       <c r="E128"/>
       <c r="G128" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H128"/>
     </row>
@@ -30474,7 +30504,7 @@
       </c>
       <c r="E129"/>
       <c r="G129" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H129"/>
     </row>
@@ -30493,7 +30523,7 @@
       </c>
       <c r="E130"/>
       <c r="G130" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H130"/>
     </row>
@@ -30512,7 +30542,7 @@
       </c>
       <c r="E131"/>
       <c r="G131" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H131"/>
     </row>
@@ -30531,7 +30561,7 @@
       </c>
       <c r="E132"/>
       <c r="G132" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H132"/>
     </row>
@@ -30550,7 +30580,7 @@
       </c>
       <c r="E133"/>
       <c r="G133" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H133"/>
     </row>
@@ -30569,7 +30599,7 @@
       </c>
       <c r="E134"/>
       <c r="G134" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H134"/>
     </row>
@@ -30588,7 +30618,7 @@
       </c>
       <c r="E135"/>
       <c r="G135" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H135"/>
     </row>
@@ -30607,7 +30637,7 @@
       </c>
       <c r="E136"/>
       <c r="G136" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H136"/>
     </row>
@@ -30626,7 +30656,7 @@
       </c>
       <c r="E137"/>
       <c r="G137" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H137"/>
     </row>
@@ -30645,7 +30675,7 @@
       </c>
       <c r="E138"/>
       <c r="G138" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H138"/>
     </row>
@@ -30683,7 +30713,7 @@
       </c>
       <c r="E140"/>
       <c r="G140" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H140"/>
     </row>
@@ -31289,10 +31319,10 @@
     <row r="173">
       <c r="A173"/>
       <c r="B173" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C173" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D173" t="s">
         <v>18</v>
@@ -31353,10 +31383,10 @@
     <row r="178">
       <c r="A178"/>
       <c r="B178" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C178" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D178" t="s">
         <v>18</v>
@@ -31511,7 +31541,7 @@
     <row r="190">
       <c r="A190"/>
       <c r="B190" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C190" t="s">
         <v>1073</v>
@@ -32417,7 +32447,7 @@
         <v>383</v>
       </c>
       <c r="C46" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>18</v>
@@ -32708,10 +32738,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -32802,10 +32832,10 @@
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -32836,10 +32866,10 @@
         <v>1206</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -32851,10 +32881,10 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -32881,10 +32911,10 @@
     <row r="76">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -32945,10 +32975,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -33021,7 +33051,7 @@
         <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>18</v>
@@ -33097,7 +33127,7 @@
         <v>383</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>18</v>
@@ -33502,10 +33532,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -33956,10 +33986,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -34020,10 +34050,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -34114,10 +34144,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -34532,10 +34562,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -34596,10 +34626,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -34690,10 +34720,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7055" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7047" uniqueCount="1984">
   <si>
     <t>Field</t>
   </si>
@@ -424,646 +424,646 @@
     <t>Female</t>
   </si>
   <si>
+    <t>YEARS</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>MONTHS</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>DAYS</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>ALIVE</t>
+  </si>
+  <si>
+    <t>Alive</t>
+  </si>
+  <si>
+    <t>DEAD</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>BURIED</t>
+  </si>
+  <si>
+    <t>Buried</t>
+  </si>
+  <si>
+    <t>EPIDEMIC_DISEASE</t>
+  </si>
+  <si>
+    <t>Epidemic disease</t>
+  </si>
+  <si>
+    <t>OTHER_CAUSE</t>
+  </si>
+  <si>
+    <t>Other cause</t>
+  </si>
+  <si>
+    <t>AFP</t>
+  </si>
+  <si>
+    <t>Acute Flaccid Paralysis</t>
+  </si>
+  <si>
+    <t>CHOLERA</t>
+  </si>
+  <si>
+    <t>Cholera</t>
+  </si>
+  <si>
+    <t>CONGENITAL_RUBELLA</t>
+  </si>
+  <si>
+    <t>Congenital Rubella</t>
+  </si>
+  <si>
+    <t>CSM</t>
+  </si>
+  <si>
+    <t>Meningitis (CSM)</t>
+  </si>
+  <si>
+    <t>Meningitis</t>
+  </si>
+  <si>
+    <t>DENGUE</t>
+  </si>
+  <si>
+    <t>Dengue Fever</t>
+  </si>
+  <si>
+    <t>Dengue</t>
+  </si>
+  <si>
+    <t>EVD</t>
+  </si>
+  <si>
+    <t>Ebola Virus Disease</t>
+  </si>
+  <si>
+    <t>GUINEA_WORM</t>
+  </si>
+  <si>
+    <t>Guinea Worm</t>
+  </si>
+  <si>
+    <t>LASSA</t>
+  </si>
+  <si>
+    <t>Lassa</t>
+  </si>
+  <si>
+    <t>MEASLES</t>
+  </si>
+  <si>
+    <t>Measles</t>
+  </si>
+  <si>
+    <t>MONKEYPOX</t>
+  </si>
+  <si>
+    <t>Monkeypox</t>
+  </si>
+  <si>
+    <t>NEW_INFLUENZA</t>
+  </si>
+  <si>
+    <t>Influenza (New subtype)</t>
+  </si>
+  <si>
+    <t>New Flu</t>
+  </si>
+  <si>
+    <t>PLAGUE</t>
+  </si>
+  <si>
+    <t>Plague</t>
+  </si>
+  <si>
+    <t>POLIO</t>
+  </si>
+  <si>
+    <t>Poliomyelitis</t>
+  </si>
+  <si>
+    <t>Polio</t>
+  </si>
+  <si>
+    <t>UNSPECIFIED_VHF</t>
+  </si>
+  <si>
+    <t>Unspecified VHF</t>
+  </si>
+  <si>
+    <t>VHF</t>
+  </si>
+  <si>
+    <t>WEST_NILE_FEVER</t>
+  </si>
+  <si>
+    <t>West Nile Fever</t>
+  </si>
+  <si>
+    <t>YELLOW_FEVER</t>
+  </si>
+  <si>
+    <t>Yellow Fever</t>
+  </si>
+  <si>
+    <t>RABIES</t>
+  </si>
+  <si>
+    <t>Human Rabies</t>
+  </si>
+  <si>
+    <t>Rabies</t>
+  </si>
+  <si>
+    <t>ANTHRAX</t>
+  </si>
+  <si>
+    <t>Anthrax</t>
+  </si>
+  <si>
+    <t>CORONAVIRUS</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>PNEUMONIA</t>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+  </si>
+  <si>
+    <t>MALARIA</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>TYPHOID_FEVER</t>
+  </si>
+  <si>
+    <t>Typhoid Fever</t>
+  </si>
+  <si>
+    <t>ACUTE_VIRAL_HEPATITIS</t>
+  </si>
+  <si>
+    <t>Acute Viral Hepatitis</t>
+  </si>
+  <si>
+    <t>NON_NEONATAL_TETANUS</t>
+  </si>
+  <si>
+    <t>Non-Neonatal Tetanus</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>SCHISTOSOMIASIS</t>
+  </si>
+  <si>
+    <t>Schistosomiasis</t>
+  </si>
+  <si>
+    <t>SOIL_TRANSMITTED_HELMINTHS</t>
+  </si>
+  <si>
+    <t>Soil-Transmitted Helminths</t>
+  </si>
+  <si>
+    <t>TRYPANOSOMIASIS</t>
+  </si>
+  <si>
+    <t>Trypanosomiasis</t>
+  </si>
+  <si>
+    <t>DIARRHEA_DEHYDRATION</t>
+  </si>
+  <si>
+    <t>Diarrhea w/ Dehydration (&lt; 5)</t>
+  </si>
+  <si>
+    <t>DIARRHEA_BLOOD</t>
+  </si>
+  <si>
+    <t>Diarrhea w/ Blood (Shigella)</t>
+  </si>
+  <si>
+    <t>SNAKE_BITE</t>
+  </si>
+  <si>
+    <t>Snake Bite</t>
+  </si>
+  <si>
+    <t>RUBELLA</t>
+  </si>
+  <si>
+    <t>Rubella</t>
+  </si>
+  <si>
+    <t>TUBERCULOSIS</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>LEPROSY</t>
+  </si>
+  <si>
+    <t>Leprosy</t>
+  </si>
+  <si>
+    <t>LYMPHATIC_FILARIASIS</t>
+  </si>
+  <si>
+    <t>Lymphatic Filariasis</t>
+  </si>
+  <si>
+    <t>BURULI_ULCER</t>
+  </si>
+  <si>
+    <t>Buruli Ulcer</t>
+  </si>
+  <si>
+    <t>PERTUSSIS</t>
+  </si>
+  <si>
+    <t>Pertussis</t>
+  </si>
+  <si>
+    <t>NEONATAL_TETANUS</t>
+  </si>
+  <si>
+    <t>Neonatal Tetanus</t>
+  </si>
+  <si>
+    <t>ONCHOCERCIASIS</t>
+  </si>
+  <si>
+    <t>Onchocerciasis</t>
+  </si>
+  <si>
+    <t>DIPHTERIA</t>
+  </si>
+  <si>
+    <t>Diphteria</t>
+  </si>
+  <si>
+    <t>TRACHOMA</t>
+  </si>
+  <si>
+    <t>Trachoma</t>
+  </si>
+  <si>
+    <t>YAWS_ENDEMIC_SYPHILIS</t>
+  </si>
+  <si>
+    <t>Yaws and Endemic Syphilis</t>
+  </si>
+  <si>
+    <t>MATERNAL_DEATHS</t>
+  </si>
+  <si>
+    <t>Maternal Deaths</t>
+  </si>
+  <si>
+    <t>PERINATAL_DEATHS</t>
+  </si>
+  <si>
+    <t>Perinatal Deaths</t>
+  </si>
+  <si>
+    <t>INFLUENZA_A</t>
+  </si>
+  <si>
+    <t>Influenza A</t>
+  </si>
+  <si>
+    <t>INFLUENZA_B</t>
+  </si>
+  <si>
+    <t>Influenza B</t>
+  </si>
+  <si>
+    <t>H_METAPNEUMOVIRUS</t>
+  </si>
+  <si>
+    <t>H.metapneumovirus</t>
+  </si>
+  <si>
+    <t>RESPIRATORY_SYNCYTIAL_VIRUS</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus (RSV)</t>
+  </si>
+  <si>
+    <t>RSV</t>
+  </si>
+  <si>
+    <t>PARAINFLUENZA_1_4</t>
+  </si>
+  <si>
+    <t>Parainfluenza (1-4)</t>
+  </si>
+  <si>
+    <t>Parainfluenza</t>
+  </si>
+  <si>
+    <t>ADENOVIRUS</t>
+  </si>
+  <si>
+    <t>Adenovirus</t>
+  </si>
+  <si>
+    <t>RHINOVIRUS</t>
+  </si>
+  <si>
+    <t>Rhinovirus</t>
+  </si>
+  <si>
+    <t>ENTEROVIRUS</t>
+  </si>
+  <si>
+    <t>Enterovirus</t>
+  </si>
+  <si>
+    <t>M_PNEUMONIAE</t>
+  </si>
+  <si>
+    <t>M.pneumoniae</t>
+  </si>
+  <si>
+    <t>C_PNEUMONIAE</t>
+  </si>
+  <si>
+    <t>C.pneumoniae</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
+    <t>Other Epidemic Disease</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
+    <t>UNDEFINED</t>
+  </si>
+  <si>
+    <t>Not Yet Defined</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>COMMUNITY</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>HOSPITAL</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>FAMILY_COMMUNITY</t>
+  </si>
+  <si>
+    <t>Family/Community</t>
+  </si>
+  <si>
+    <t>OUTBREAK_TEAM</t>
+  </si>
+  <si>
+    <t>Outbreak burial team</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>No education</t>
+  </si>
+  <si>
+    <t>NURSERY</t>
+  </si>
+  <si>
+    <t>Nursery</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>SECONDARY</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>TERTIARY</t>
+  </si>
+  <si>
+    <t>Tertiary</t>
+  </si>
+  <si>
+    <t>FARMER</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>BUTCHER</t>
+  </si>
+  <si>
+    <t>Butcher</t>
+  </si>
+  <si>
+    <t>HUNTER_MEAT_TRADER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunter / trader of  game meat </t>
+  </si>
+  <si>
+    <t>MINER</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>RELIGIOUS_LEADER</t>
+  </si>
+  <si>
+    <t>Religious leader</t>
+  </si>
+  <si>
+    <t>HOUSEWIFE</t>
+  </si>
+  <si>
+    <t>Housewife</t>
+  </si>
+  <si>
+    <t>PUPIL_STUDENT</t>
+  </si>
+  <si>
+    <t>Pupil / student</t>
+  </si>
+  <si>
+    <t>CHILD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child </t>
+  </si>
+  <si>
+    <t>BUSINESSMAN_WOMAN</t>
+  </si>
+  <si>
+    <t>Businessman / woman</t>
+  </si>
+  <si>
+    <t>TRANSPORTER</t>
+  </si>
+  <si>
+    <t>Transporter</t>
+  </si>
+  <si>
+    <t>HEALTHCARE_WORKER</t>
+  </si>
+  <si>
+    <t>Healthcare worker</t>
+  </si>
+  <si>
+    <t>TRADITIONAL_SPIRITUAL_HEALER</t>
+  </si>
+  <si>
+    <t>Traditional / spiritual healer</t>
+  </si>
+  <si>
+    <t>WORKING_WITH_ANIMALS</t>
+  </si>
+  <si>
+    <t>Working with animals</t>
+  </si>
+  <si>
+    <t>LABORATORY_STAFF</t>
+  </si>
+  <si>
+    <t>Laboratory staff</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>Address or landmark</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Community contact person</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>areaType</t>
+  </si>
+  <si>
+    <t>AreaType</t>
+  </si>
+  <si>
+    <t>Area type (urban/rural)</t>
+  </si>
+  <si>
+    <t>The type of area of the community.</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>GPS latitude</t>
+  </si>
+  <si>
+    <t>GPS latitude is the north/south angular location in degrees</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>GPS longitude</t>
+  </si>
+  <si>
+    <t>GPS longitude is the the east/west angular location in degrees</t>
+  </si>
+  <si>
+    <t>latLonAccuracy</t>
+  </si>
+  <si>
+    <t>GPS accuracy in m</t>
+  </si>
+  <si>
+    <t>If you draw a circle centered at this location's latitude and longitude, and with a radius equal to the accuracy, then there is a 68% probability that the true location is inside the circle</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>Postal code</t>
+  </si>
+  <si>
+    <t>URBAN</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>RURAL</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
     <t>UNKNOWN</t>
   </si>
   <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>YEARS</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>MONTHS</t>
-  </si>
-  <si>
-    <t>Months</t>
-  </si>
-  <si>
-    <t>DAYS</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>ALIVE</t>
-  </si>
-  <si>
-    <t>Alive</t>
-  </si>
-  <si>
-    <t>DEAD</t>
-  </si>
-  <si>
-    <t>Dead</t>
-  </si>
-  <si>
-    <t>BURIED</t>
-  </si>
-  <si>
-    <t>Buried</t>
-  </si>
-  <si>
-    <t>EPIDEMIC_DISEASE</t>
-  </si>
-  <si>
-    <t>Epidemic disease</t>
-  </si>
-  <si>
-    <t>OTHER_CAUSE</t>
-  </si>
-  <si>
-    <t>Other cause</t>
-  </si>
-  <si>
-    <t>AFP</t>
-  </si>
-  <si>
-    <t>Acute Flaccid Paralysis</t>
-  </si>
-  <si>
-    <t>CHOLERA</t>
-  </si>
-  <si>
-    <t>Cholera</t>
-  </si>
-  <si>
-    <t>CONGENITAL_RUBELLA</t>
-  </si>
-  <si>
-    <t>Congenital Rubella</t>
-  </si>
-  <si>
-    <t>CSM</t>
-  </si>
-  <si>
-    <t>Meningitis (CSM)</t>
-  </si>
-  <si>
-    <t>Meningitis</t>
-  </si>
-  <si>
-    <t>DENGUE</t>
-  </si>
-  <si>
-    <t>Dengue Fever</t>
-  </si>
-  <si>
-    <t>Dengue</t>
-  </si>
-  <si>
-    <t>EVD</t>
-  </si>
-  <si>
-    <t>Ebola Virus Disease</t>
-  </si>
-  <si>
-    <t>GUINEA_WORM</t>
-  </si>
-  <si>
-    <t>Guinea Worm</t>
-  </si>
-  <si>
-    <t>LASSA</t>
-  </si>
-  <si>
-    <t>Lassa</t>
-  </si>
-  <si>
-    <t>MEASLES</t>
-  </si>
-  <si>
-    <t>Measles</t>
-  </si>
-  <si>
-    <t>MONKEYPOX</t>
-  </si>
-  <si>
-    <t>Monkeypox</t>
-  </si>
-  <si>
-    <t>NEW_INFLUENZA</t>
-  </si>
-  <si>
-    <t>Influenza (New subtype)</t>
-  </si>
-  <si>
-    <t>New Flu</t>
-  </si>
-  <si>
-    <t>PLAGUE</t>
-  </si>
-  <si>
-    <t>Plague</t>
-  </si>
-  <si>
-    <t>POLIO</t>
-  </si>
-  <si>
-    <t>Poliomyelitis</t>
-  </si>
-  <si>
-    <t>Polio</t>
-  </si>
-  <si>
-    <t>UNSPECIFIED_VHF</t>
-  </si>
-  <si>
-    <t>Unspecified VHF</t>
-  </si>
-  <si>
-    <t>VHF</t>
-  </si>
-  <si>
-    <t>WEST_NILE_FEVER</t>
-  </si>
-  <si>
-    <t>West Nile Fever</t>
-  </si>
-  <si>
-    <t>YELLOW_FEVER</t>
-  </si>
-  <si>
-    <t>Yellow Fever</t>
-  </si>
-  <si>
-    <t>RABIES</t>
-  </si>
-  <si>
-    <t>Human Rabies</t>
-  </si>
-  <si>
-    <t>Rabies</t>
-  </si>
-  <si>
-    <t>ANTHRAX</t>
-  </si>
-  <si>
-    <t>Anthrax</t>
-  </si>
-  <si>
-    <t>CORONAVIRUS</t>
-  </si>
-  <si>
-    <t>COVID-19</t>
-  </si>
-  <si>
-    <t>PNEUMONIA</t>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-  </si>
-  <si>
-    <t>MALARIA</t>
-  </si>
-  <si>
-    <t>Malaria</t>
-  </si>
-  <si>
-    <t>TYPHOID_FEVER</t>
-  </si>
-  <si>
-    <t>Typhoid Fever</t>
-  </si>
-  <si>
-    <t>ACUTE_VIRAL_HEPATITIS</t>
-  </si>
-  <si>
-    <t>Acute Viral Hepatitis</t>
-  </si>
-  <si>
-    <t>NON_NEONATAL_TETANUS</t>
-  </si>
-  <si>
-    <t>Non-Neonatal Tetanus</t>
-  </si>
-  <si>
-    <t>HIV</t>
-  </si>
-  <si>
-    <t>SCHISTOSOMIASIS</t>
-  </si>
-  <si>
-    <t>Schistosomiasis</t>
-  </si>
-  <si>
-    <t>SOIL_TRANSMITTED_HELMINTHS</t>
-  </si>
-  <si>
-    <t>Soil-Transmitted Helminths</t>
-  </si>
-  <si>
-    <t>TRYPANOSOMIASIS</t>
-  </si>
-  <si>
-    <t>Trypanosomiasis</t>
-  </si>
-  <si>
-    <t>DIARRHEA_DEHYDRATION</t>
-  </si>
-  <si>
-    <t>Diarrhea w/ Dehydration (&lt; 5)</t>
-  </si>
-  <si>
-    <t>DIARRHEA_BLOOD</t>
-  </si>
-  <si>
-    <t>Diarrhea w/ Blood (Shigella)</t>
-  </si>
-  <si>
-    <t>SNAKE_BITE</t>
-  </si>
-  <si>
-    <t>Snake Bite</t>
-  </si>
-  <si>
-    <t>RUBELLA</t>
-  </si>
-  <si>
-    <t>Rubella</t>
-  </si>
-  <si>
-    <t>TUBERCULOSIS</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
-  </si>
-  <si>
-    <t>LEPROSY</t>
-  </si>
-  <si>
-    <t>Leprosy</t>
-  </si>
-  <si>
-    <t>LYMPHATIC_FILARIASIS</t>
-  </si>
-  <si>
-    <t>Lymphatic Filariasis</t>
-  </si>
-  <si>
-    <t>BURULI_ULCER</t>
-  </si>
-  <si>
-    <t>Buruli Ulcer</t>
-  </si>
-  <si>
-    <t>PERTUSSIS</t>
-  </si>
-  <si>
-    <t>Pertussis</t>
-  </si>
-  <si>
-    <t>NEONATAL_TETANUS</t>
-  </si>
-  <si>
-    <t>Neonatal Tetanus</t>
-  </si>
-  <si>
-    <t>ONCHOCERCIASIS</t>
-  </si>
-  <si>
-    <t>Onchocerciasis</t>
-  </si>
-  <si>
-    <t>DIPHTERIA</t>
-  </si>
-  <si>
-    <t>Diphteria</t>
-  </si>
-  <si>
-    <t>TRACHOMA</t>
-  </si>
-  <si>
-    <t>Trachoma</t>
-  </si>
-  <si>
-    <t>YAWS_ENDEMIC_SYPHILIS</t>
-  </si>
-  <si>
-    <t>Yaws and Endemic Syphilis</t>
-  </si>
-  <si>
-    <t>MATERNAL_DEATHS</t>
-  </si>
-  <si>
-    <t>Maternal Deaths</t>
-  </si>
-  <si>
-    <t>PERINATAL_DEATHS</t>
-  </si>
-  <si>
-    <t>Perinatal Deaths</t>
-  </si>
-  <si>
-    <t>INFLUENZA_A</t>
-  </si>
-  <si>
-    <t>Influenza A</t>
-  </si>
-  <si>
-    <t>INFLUENZA_B</t>
-  </si>
-  <si>
-    <t>Influenza B</t>
-  </si>
-  <si>
-    <t>H_METAPNEUMOVIRUS</t>
-  </si>
-  <si>
-    <t>H.metapneumovirus</t>
-  </si>
-  <si>
-    <t>RESPIRATORY_SYNCYTIAL_VIRUS</t>
-  </si>
-  <si>
-    <t>Respiratory syncytial virus (RSV)</t>
-  </si>
-  <si>
-    <t>RSV</t>
-  </si>
-  <si>
-    <t>PARAINFLUENZA_1_4</t>
-  </si>
-  <si>
-    <t>Parainfluenza (1-4)</t>
-  </si>
-  <si>
-    <t>Parainfluenza</t>
-  </si>
-  <si>
-    <t>ADENOVIRUS</t>
-  </si>
-  <si>
-    <t>Adenovirus</t>
-  </si>
-  <si>
-    <t>RHINOVIRUS</t>
-  </si>
-  <si>
-    <t>Rhinovirus</t>
-  </si>
-  <si>
-    <t>ENTEROVIRUS</t>
-  </si>
-  <si>
-    <t>Enterovirus</t>
-  </si>
-  <si>
-    <t>M_PNEUMONIAE</t>
-  </si>
-  <si>
-    <t>M.pneumoniae</t>
-  </si>
-  <si>
-    <t>C_PNEUMONIAE</t>
-  </si>
-  <si>
-    <t>C.pneumoniae</t>
-  </si>
-  <si>
-    <t>Other Epidemic Disease</t>
-  </si>
-  <si>
-    <t>UNDEFINED</t>
-  </si>
-  <si>
-    <t>Not Yet Defined</t>
-  </si>
-  <si>
-    <t>Undefined</t>
-  </si>
-  <si>
-    <t>COMMUNITY</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>HOSPITAL</t>
-  </si>
-  <si>
-    <t>Hospital</t>
-  </si>
-  <si>
-    <t>FAMILY_COMMUNITY</t>
-  </si>
-  <si>
-    <t>Family/Community</t>
-  </si>
-  <si>
-    <t>OUTBREAK_TEAM</t>
-  </si>
-  <si>
-    <t>Outbreak burial team</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>No education</t>
-  </si>
-  <si>
-    <t>NURSERY</t>
-  </si>
-  <si>
-    <t>Nursery</t>
-  </si>
-  <si>
-    <t>PRIMARY</t>
-  </si>
-  <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>SECONDARY</t>
-  </si>
-  <si>
-    <t>Secondary</t>
-  </si>
-  <si>
-    <t>TERTIARY</t>
-  </si>
-  <si>
-    <t>Tertiary</t>
-  </si>
-  <si>
-    <t>FARMER</t>
-  </si>
-  <si>
-    <t>Farmer</t>
-  </si>
-  <si>
-    <t>BUTCHER</t>
-  </si>
-  <si>
-    <t>Butcher</t>
-  </si>
-  <si>
-    <t>HUNTER_MEAT_TRADER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hunter / trader of  game meat </t>
-  </si>
-  <si>
-    <t>MINER</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>RELIGIOUS_LEADER</t>
-  </si>
-  <si>
-    <t>Religious leader</t>
-  </si>
-  <si>
-    <t>HOUSEWIFE</t>
-  </si>
-  <si>
-    <t>Housewife</t>
-  </si>
-  <si>
-    <t>PUPIL_STUDENT</t>
-  </si>
-  <si>
-    <t>Pupil / student</t>
-  </si>
-  <si>
-    <t>CHILD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child </t>
-  </si>
-  <si>
-    <t>BUSINESSMAN_WOMAN</t>
-  </si>
-  <si>
-    <t>Businessman / woman</t>
-  </si>
-  <si>
-    <t>TRANSPORTER</t>
-  </si>
-  <si>
-    <t>Transporter</t>
-  </si>
-  <si>
-    <t>HEALTHCARE_WORKER</t>
-  </si>
-  <si>
-    <t>Healthcare worker</t>
-  </si>
-  <si>
-    <t>TRADITIONAL_SPIRITUAL_HEALER</t>
-  </si>
-  <si>
-    <t>Traditional / spiritual healer</t>
-  </si>
-  <si>
-    <t>WORKING_WITH_ANIMALS</t>
-  </si>
-  <si>
-    <t>Working with animals</t>
-  </si>
-  <si>
-    <t>LABORATORY_STAFF</t>
-  </si>
-  <si>
-    <t>Laboratory staff</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>Address or landmark</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>Community contact person</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>areaType</t>
-  </si>
-  <si>
-    <t>AreaType</t>
-  </si>
-  <si>
-    <t>Area type (urban/rural)</t>
-  </si>
-  <si>
-    <t>The type of area of the community.</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>GPS latitude</t>
-  </si>
-  <si>
-    <t>GPS latitude is the north/south angular location in degrees</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>GPS longitude</t>
-  </si>
-  <si>
-    <t>GPS longitude is the the east/west angular location in degrees</t>
-  </si>
-  <si>
-    <t>latLonAccuracy</t>
-  </si>
-  <si>
-    <t>GPS accuracy in m</t>
-  </si>
-  <si>
-    <t>If you draw a circle centered at this location's latitude and longitude, and with a radius equal to the accuracy, then there is a 68% probability that the true location is inside the circle</t>
-  </si>
-  <si>
-    <t>postalCode</t>
-  </si>
-  <si>
-    <t>Postal code</t>
-  </si>
-  <si>
-    <t>URBAN</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>RURAL</t>
-  </si>
-  <si>
-    <t>Rural</t>
   </si>
   <si>
     <t>disease</t>
@@ -6116,7 +6116,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="PersonOccupationType" displayName="PersonOccupationType" ref="A144:E159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="PersonOccupationType" displayName="PersonOccupationType" ref="A142:E157">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6262,7 +6262,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="PersonSex" displayName="PersonSex" ref="A49:E53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="PersonSex" displayName="PersonSex" ref="A49:E51">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6419,7 +6419,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PersonApproximateAgeType" displayName="PersonApproximateAgeType" ref="A55:E58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PersonApproximateAgeType" displayName="PersonApproximateAgeType" ref="A53:E56">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6579,7 +6579,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="PersonPresentCondition" displayName="PersonPresentCondition" ref="A60:E63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="PersonPresentCondition" displayName="PersonPresentCondition" ref="A58:E61">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6742,7 +6742,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PersonCauseOfDeath" displayName="PersonCauseOfDeath" ref="A65:E67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PersonCauseOfDeath" displayName="PersonCauseOfDeath" ref="A63:E65">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -6902,7 +6902,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="PersonDisease" displayName="PersonDisease" ref="A69:E125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="PersonDisease" displayName="PersonDisease" ref="A67:E123">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7062,7 +7062,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="PersonDeathPlaceType" displayName="PersonDeathPlaceType" ref="A127:E130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="PersonDeathPlaceType" displayName="PersonDeathPlaceType" ref="A125:E128">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7222,7 +7222,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="PersonBurialConductor" displayName="PersonBurialConductor" ref="A132:E134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="PersonBurialConductor" displayName="PersonBurialConductor" ref="A130:E132">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7382,7 +7382,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="PersonEducationType" displayName="PersonEducationType" ref="A136:E142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="PersonEducationType" displayName="PersonEducationType" ref="A134:E140">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7555,7 +7555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8544,57 +8544,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s">
+    <row r="53">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
         <v>129</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>130</v>
       </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53"/>
-      <c r="B53" t="s">
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55"/>
+      <c r="B55" t="s">
         <v>131</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>132</v>
       </c>
-      <c r="D53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s">
-        <v>36</v>
-      </c>
+      <c r="A56"/>
       <c r="B56" t="s">
         <v>133</v>
       </c>
@@ -8608,57 +8608,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57"/>
-      <c r="B57" t="s">
+    <row r="58">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
         <v>135</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>136</v>
       </c>
-      <c r="D57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58"/>
-      <c r="B58" t="s">
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60" t="s">
         <v>137</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" t="s">
         <v>138</v>
       </c>
-      <c r="D58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
       <c r="D60" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
+      <c r="A61"/>
       <c r="B61" t="s">
         <v>139</v>
       </c>
@@ -8672,106 +8672,106 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62"/>
-      <c r="B62" t="s">
+    <row r="63">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
         <v>141</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>142</v>
       </c>
-      <c r="D62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63"/>
-      <c r="B63" t="s">
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65" t="s">
         <v>143</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" t="s">
         <v>144</v>
       </c>
-      <c r="D63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
         <v>1</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>123</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C67" t="s">
         <v>2</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D67" t="s">
         <v>3</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E67" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="68">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
         <v>145</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C68" t="s">
         <v>146</v>
       </c>
-      <c r="D66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67"/>
-      <c r="B67" t="s">
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69"/>
+      <c r="B69" t="s">
         <v>147</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>148</v>
       </c>
-      <c r="D67" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2</v>
-      </c>
       <c r="D69" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
+      <c r="A70"/>
       <c r="B70" t="s">
         <v>149</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
@@ -8797,31 +8797,31 @@
         <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -8833,16 +8833,16 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -8857,7 +8857,7 @@
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -8902,16 +8902,16 @@
         <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -8923,61 +8923,61 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -8992,16 +8992,16 @@
         <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -9013,16 +9013,16 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -9106,7 +9106,7 @@
         <v>199</v>
       </c>
       <c r="C92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -9118,10 +9118,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" t="s">
         <v>201</v>
-      </c>
-      <c r="C93" t="s">
-        <v>202</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -9133,7 +9133,7 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C94" t="s">
         <v>203</v>
@@ -9457,52 +9457,52 @@
         <v>18</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116">
       <c r="A116"/>
       <c r="B116" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C116" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
         <v>18</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117">
       <c r="A117"/>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C117" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
       </c>
       <c r="E117" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118"/>
       <c r="B118" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
       </c>
       <c r="E118" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
@@ -9562,193 +9562,193 @@
         <v>18</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123">
       <c r="A123"/>
       <c r="B123" t="s">
+        <v>263</v>
+      </c>
+      <c r="C123" t="s">
+        <v>264</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" t="s">
+        <v>266</v>
+      </c>
+      <c r="C126" t="s">
+        <v>267</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127"/>
+      <c r="B127" t="s">
+        <v>268</v>
+      </c>
+      <c r="C127" t="s">
+        <v>269</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128"/>
+      <c r="B128" t="s">
+        <v>260</v>
+      </c>
+      <c r="C128" t="s">
         <v>262</v>
       </c>
-      <c r="C123" t="s">
-        <v>263</v>
-      </c>
-      <c r="D123" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124"/>
-      <c r="B124" t="s">
-        <v>129</v>
-      </c>
-      <c r="C124" t="s">
-        <v>264</v>
-      </c>
-      <c r="D124" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125"/>
-      <c r="B125" t="s">
-        <v>265</v>
-      </c>
-      <c r="C125" t="s">
-        <v>266</v>
-      </c>
-      <c r="D125" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
         <v>1</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B130" t="s">
         <v>123</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C130" t="s">
         <v>2</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D130" t="s">
         <v>3</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E130" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>76</v>
-      </c>
-      <c r="B128" t="s">
-        <v>268</v>
-      </c>
-      <c r="C128" t="s">
-        <v>269</v>
-      </c>
-      <c r="D128" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129"/>
-      <c r="B129" t="s">
+    <row r="131">
+      <c r="A131" t="s">
+        <v>87</v>
+      </c>
+      <c r="B131" t="s">
         <v>270</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C131" t="s">
         <v>271</v>
       </c>
-      <c r="D129" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130"/>
-      <c r="B130" t="s">
-        <v>129</v>
-      </c>
-      <c r="C130" t="s">
-        <v>130</v>
-      </c>
-      <c r="D130" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s">
+      <c r="A132"/>
+      <c r="B132" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" t="s">
+        <v>273</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
         <v>1</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B134" t="s">
         <v>123</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C134" t="s">
         <v>2</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D134" t="s">
         <v>3</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E134" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>87</v>
-      </c>
-      <c r="B133" t="s">
-        <v>272</v>
-      </c>
-      <c r="C133" t="s">
-        <v>273</v>
-      </c>
-      <c r="D133" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134"/>
-      <c r="B134" t="s">
+    <row r="135">
+      <c r="A135" t="s">
+        <v>100</v>
+      </c>
+      <c r="B135" t="s">
         <v>274</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>275</v>
       </c>
-      <c r="D134" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s">
-        <v>1</v>
-      </c>
+      <c r="A136"/>
       <c r="B136" t="s">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="D136" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E136" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s">
-        <v>100</v>
-      </c>
+      <c r="A137"/>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C137" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
@@ -9760,10 +9760,10 @@
     <row r="138">
       <c r="A138"/>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C138" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
@@ -9775,10 +9775,10 @@
     <row r="139">
       <c r="A139"/>
       <c r="B139" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C139" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
@@ -9790,10 +9790,10 @@
     <row r="140">
       <c r="A140"/>
       <c r="B140" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C140" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D140" t="s">
         <v>18</v>
@@ -9802,62 +9802,62 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141"/>
-      <c r="B141" t="s">
+    <row r="142">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>123</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>105</v>
+      </c>
+      <c r="B143" t="s">
         <v>284</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C143" t="s">
         <v>285</v>
       </c>
-      <c r="D141" t="s">
-        <v>18</v>
-      </c>
-      <c r="E141" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142"/>
-      <c r="B142" t="s">
-        <v>129</v>
-      </c>
-      <c r="C142" t="s">
-        <v>130</v>
-      </c>
-      <c r="D142" t="s">
-        <v>18</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="D143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s">
-        <v>1</v>
-      </c>
+      <c r="A144"/>
       <c r="B144" t="s">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c r="C144" t="s">
-        <v>2</v>
+        <v>287</v>
       </c>
       <c r="D144" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E144" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s">
-        <v>105</v>
-      </c>
+      <c r="A145"/>
       <c r="B145" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C145" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
@@ -9869,10 +9869,10 @@
     <row r="146">
       <c r="A146"/>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C146" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D146" t="s">
         <v>18</v>
@@ -9884,10 +9884,10 @@
     <row r="147">
       <c r="A147"/>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C147" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D147" t="s">
         <v>18</v>
@@ -9899,10 +9899,10 @@
     <row r="148">
       <c r="A148"/>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C148" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D148" t="s">
         <v>18</v>
@@ -9914,10 +9914,10 @@
     <row r="149">
       <c r="A149"/>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C149" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D149" t="s">
         <v>18</v>
@@ -9929,10 +9929,10 @@
     <row r="150">
       <c r="A150"/>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C150" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D150" t="s">
         <v>18</v>
@@ -9944,10 +9944,10 @@
     <row r="151">
       <c r="A151"/>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C151" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D151" t="s">
         <v>18</v>
@@ -9959,10 +9959,10 @@
     <row r="152">
       <c r="A152"/>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C152" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D152" t="s">
         <v>18</v>
@@ -9974,10 +9974,10 @@
     <row r="153">
       <c r="A153"/>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C153" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D153" t="s">
         <v>18</v>
@@ -9989,10 +9989,10 @@
     <row r="154">
       <c r="A154"/>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C154" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D154" t="s">
         <v>18</v>
@@ -10004,10 +10004,10 @@
     <row r="155">
       <c r="A155"/>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D155" t="s">
         <v>18</v>
@@ -10019,10 +10019,10 @@
     <row r="156">
       <c r="A156"/>
       <c r="B156" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C156" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D156" t="s">
         <v>18</v>
@@ -10034,45 +10034,15 @@
     <row r="157">
       <c r="A157"/>
       <c r="B157" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="C157" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="D157" t="s">
         <v>18</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158"/>
-      <c r="B158" t="s">
-        <v>312</v>
-      </c>
-      <c r="C158" t="s">
-        <v>313</v>
-      </c>
-      <c r="D158" t="s">
-        <v>18</v>
-      </c>
-      <c r="E158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159"/>
-      <c r="B159" t="s">
-        <v>129</v>
-      </c>
-      <c r="C159" t="s">
-        <v>130</v>
-      </c>
-      <c r="D159" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10273,25 +10243,25 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -10303,10 +10273,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -10318,55 +10288,55 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -10378,10 +10348,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -10393,10 +10363,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -10408,10 +10378,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -10423,25 +10393,25 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -10453,40 +10423,40 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -10498,10 +10468,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -10513,25 +10483,25 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -10543,10 +10513,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -10558,10 +10528,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -10573,10 +10543,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -10588,10 +10558,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -10603,10 +10573,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -10618,10 +10588,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -10633,10 +10603,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -10648,10 +10618,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -10663,10 +10633,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -10678,10 +10648,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -10693,10 +10663,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -10708,10 +10678,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -10723,10 +10693,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -10738,10 +10708,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -10753,10 +10723,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -10768,10 +10738,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -10783,10 +10753,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C44" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -10798,10 +10768,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -10813,10 +10783,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -10828,10 +10798,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -10843,10 +10813,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -10858,10 +10828,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C49" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -10873,10 +10843,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -10888,10 +10858,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -10903,10 +10873,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C52" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -10918,10 +10888,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -10933,10 +10903,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C54" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -10948,10 +10918,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C55" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -10963,10 +10933,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -10978,40 +10948,40 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -11023,10 +10993,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C60" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -11038,10 +11008,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C61" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -11053,10 +11023,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C62" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -11068,10 +11038,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C63" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -11083,31 +11053,31 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C64" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65" t="s">
+        <v>264</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
         <v>265</v>
-      </c>
-      <c r="C65" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -11359,7 +11329,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>42</v>
@@ -11378,7 +11348,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>46</v>
@@ -12200,25 +12170,25 @@
         <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -12230,10 +12200,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -12245,55 +12215,55 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -12305,10 +12275,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -12320,10 +12290,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -12335,10 +12305,10 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -12350,25 +12320,25 @@
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -12380,40 +12350,40 @@
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -12425,10 +12395,10 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -12440,25 +12410,25 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -12470,10 +12440,10 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -12485,10 +12455,10 @@
     <row r="76">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -12500,10 +12470,10 @@
     <row r="77">
       <c r="A77"/>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -12515,10 +12485,10 @@
     <row r="78">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -12530,10 +12500,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -12545,10 +12515,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -12560,10 +12530,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -12575,10 +12545,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -12590,10 +12560,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -12605,10 +12575,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -12620,10 +12590,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -12635,10 +12605,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -12650,10 +12620,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C87" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -12665,10 +12635,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -12680,10 +12650,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -12695,10 +12665,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C90" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -12710,10 +12680,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -12725,10 +12695,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C92" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -12740,10 +12710,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -12755,10 +12725,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -12770,10 +12740,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C95" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -12785,10 +12755,10 @@
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -12800,10 +12770,10 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -12815,10 +12785,10 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -12830,10 +12800,10 @@
     <row r="99">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C99" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -12845,10 +12815,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -12860,10 +12830,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C101" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -12875,10 +12845,10 @@
     <row r="102">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -12890,10 +12860,10 @@
     <row r="103">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C103" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -12905,40 +12875,40 @@
     <row r="104">
       <c r="A104"/>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
       </c>
       <c r="E104" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105">
       <c r="A105"/>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
       </c>
       <c r="E105" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106">
       <c r="A106"/>
       <c r="B106" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -12950,10 +12920,10 @@
     <row r="107">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C107" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -12965,10 +12935,10 @@
     <row r="108">
       <c r="A108"/>
       <c r="B108" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C108" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
@@ -12980,10 +12950,10 @@
     <row r="109">
       <c r="A109"/>
       <c r="B109" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -12995,10 +12965,10 @@
     <row r="110">
       <c r="A110"/>
       <c r="B110" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C110" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
@@ -13010,31 +12980,31 @@
     <row r="111">
       <c r="A111"/>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C111" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112">
       <c r="A112"/>
       <c r="B112" t="s">
+        <v>263</v>
+      </c>
+      <c r="C112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" t="s">
         <v>265</v>
-      </c>
-      <c r="C112" t="s">
-        <v>266</v>
-      </c>
-      <c r="D112" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="114">
@@ -13104,10 +13074,10 @@
     <row r="118">
       <c r="A118"/>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
@@ -13119,10 +13089,10 @@
     <row r="119">
       <c r="A119"/>
       <c r="B119" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D119" t="s">
         <v>18</v>
@@ -13168,10 +13138,10 @@
     <row r="123">
       <c r="A123"/>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C123" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D123" t="s">
         <v>18</v>
@@ -13183,10 +13153,10 @@
     <row r="124">
       <c r="A124"/>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C124" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
@@ -13822,10 +13792,10 @@
     <row r="171">
       <c r="A171"/>
       <c r="B171" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C171" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D171" t="s">
         <v>18</v>
@@ -13886,10 +13856,10 @@
     <row r="176">
       <c r="A176"/>
       <c r="B176" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C176" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D176" t="s">
         <v>18</v>
@@ -13950,7 +13920,7 @@
     <row r="181">
       <c r="A181"/>
       <c r="B181" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C181" t="s">
         <v>602</v>
@@ -13965,10 +13935,10 @@
     <row r="182">
       <c r="A182"/>
       <c r="B182" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C182" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D182" t="s">
         <v>18</v>
@@ -13980,10 +13950,10 @@
     <row r="183">
       <c r="A183"/>
       <c r="B183" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C183" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D183" t="s">
         <v>18</v>
@@ -14275,25 +14245,25 @@
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -14305,10 +14275,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -14320,55 +14290,55 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -14380,10 +14350,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -14395,10 +14365,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -14410,10 +14380,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -14425,25 +14395,25 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -14455,40 +14425,40 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -14500,10 +14470,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -14515,25 +14485,25 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -14545,10 +14515,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -14560,10 +14530,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -14575,10 +14545,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -14590,10 +14560,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -14605,10 +14575,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -14620,10 +14590,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -14635,10 +14605,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -14650,10 +14620,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -14665,10 +14635,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -14680,10 +14650,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -14695,10 +14665,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -14710,10 +14680,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -14725,10 +14695,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -14740,10 +14710,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -14755,10 +14725,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -14770,10 +14740,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -14785,10 +14755,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -14800,10 +14770,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -14815,10 +14785,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C50" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -14830,10 +14800,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -14845,10 +14815,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C52" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -14860,10 +14830,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -14875,10 +14845,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C54" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -14890,10 +14860,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -14905,10 +14875,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -14920,10 +14890,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -14935,10 +14905,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C58" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -14950,10 +14920,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C59" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -14965,10 +14935,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -14980,40 +14950,40 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C62" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C63" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -15025,10 +14995,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C64" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -15040,10 +15010,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -15055,10 +15025,10 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -15070,10 +15040,10 @@
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C67" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -15085,31 +15055,31 @@
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C68" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
         <v>265</v>
-      </c>
-      <c r="C69" t="s">
-        <v>266</v>
-      </c>
-      <c r="D69" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="71">
@@ -16172,10 +16142,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -16807,25 +16777,25 @@
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -16837,10 +16807,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -16852,55 +16822,55 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -16912,10 +16882,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -16927,10 +16897,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -16942,10 +16912,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -16957,25 +16927,25 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -16987,40 +16957,40 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -17032,10 +17002,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -17047,25 +17017,25 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -17077,10 +17047,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -17092,10 +17062,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -17107,10 +17077,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -17122,10 +17092,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -17137,10 +17107,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -17152,10 +17122,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -17167,10 +17137,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -17182,10 +17152,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -17197,10 +17167,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -17212,10 +17182,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -17227,10 +17197,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -17242,10 +17212,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -17257,10 +17227,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -17272,10 +17242,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -17287,10 +17257,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -17302,10 +17272,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -17317,10 +17287,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -17332,10 +17302,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -17347,10 +17317,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -17362,10 +17332,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -17377,10 +17347,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -17392,10 +17362,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -17407,10 +17377,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -17422,10 +17392,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -17437,10 +17407,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -17452,10 +17422,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -17467,10 +17437,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C63" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -17482,10 +17452,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C64" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -17497,10 +17467,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -17512,40 +17482,40 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C66" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C67" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C68" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -17557,10 +17527,10 @@
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -17572,10 +17542,10 @@
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C70" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -17587,10 +17557,10 @@
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C71" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -17602,10 +17572,10 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C72" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -17617,31 +17587,31 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C73" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" t="s">
+        <v>264</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
         <v>265</v>
-      </c>
-      <c r="C74" t="s">
-        <v>266</v>
-      </c>
-      <c r="D74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="76">
@@ -17936,10 +17906,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C95" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -19323,7 +19293,7 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C45" t="s">
         <v>1838</v>
@@ -20208,10 +20178,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -20272,10 +20242,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -20317,10 +20287,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -20332,10 +20302,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -20445,25 +20415,25 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -20475,10 +20445,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -20490,55 +20460,55 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -20550,10 +20520,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -20565,10 +20535,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -20580,10 +20550,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -20595,25 +20565,25 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -20625,40 +20595,40 @@
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -20670,10 +20640,10 @@
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -20685,25 +20655,25 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -20715,10 +20685,10 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -20730,10 +20700,10 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -20745,10 +20715,10 @@
     <row r="76">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C76" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -20760,10 +20730,10 @@
     <row r="77">
       <c r="A77"/>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -20775,10 +20745,10 @@
     <row r="78">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C78" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -20790,10 +20760,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -20805,10 +20775,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -20820,10 +20790,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -20835,10 +20805,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -20850,10 +20820,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -20865,10 +20835,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C84" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -20880,10 +20850,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -20895,10 +20865,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C86" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -20910,10 +20880,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C87" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -20925,10 +20895,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -20940,10 +20910,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -20955,10 +20925,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -20970,10 +20940,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -20985,10 +20955,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -21000,10 +20970,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C93" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -21015,10 +20985,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C94" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -21030,10 +21000,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C95" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -21045,10 +21015,10 @@
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C96" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -21060,10 +21030,10 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C97" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -21075,10 +21045,10 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C98" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -21090,10 +21060,10 @@
     <row r="99">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C99" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -21105,10 +21075,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C100" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -21120,10 +21090,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -21135,10 +21105,10 @@
     <row r="102">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C102" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -21150,40 +21120,40 @@
     <row r="103">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C103" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
       </c>
       <c r="E103" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104">
       <c r="A104"/>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
       </c>
       <c r="E104" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105">
       <c r="A105"/>
       <c r="B105" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
@@ -21195,10 +21165,10 @@
     <row r="106">
       <c r="A106"/>
       <c r="B106" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -21210,10 +21180,10 @@
     <row r="107">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C107" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -21225,10 +21195,10 @@
     <row r="108">
       <c r="A108"/>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
@@ -21240,10 +21210,10 @@
     <row r="109">
       <c r="A109"/>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C109" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -21255,31 +21225,31 @@
     <row r="110">
       <c r="A110"/>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C110" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
       </c>
       <c r="E110" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111">
       <c r="A111"/>
       <c r="B111" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" t="s">
+        <v>264</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" t="s">
         <v>265</v>
-      </c>
-      <c r="C111" t="s">
-        <v>266</v>
-      </c>
-      <c r="D111" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -21492,13 +21462,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>18</v>
@@ -21511,13 +21481,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>18</v>
@@ -21530,13 +21500,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>18</v>
@@ -21549,13 +21519,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>18</v>
@@ -21568,7 +21538,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>29</v>
@@ -21587,7 +21557,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>29</v>
@@ -21702,10 +21672,10 @@
         <v>1932</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -21717,10 +21687,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -21732,10 +21702,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -21814,13 +21784,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -21833,13 +21803,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -21852,13 +21822,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -21877,7 +21847,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -21890,13 +21860,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -21909,13 +21879,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -21928,16 +21898,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="E8"/>
       <c r="G8" s="2" t="s">
@@ -21947,16 +21917,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E9"/>
       <c r="G9" s="2" t="s">
@@ -21966,16 +21936,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E10"/>
       <c r="G10" s="2" t="s">
@@ -21985,16 +21955,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E11"/>
       <c r="G11" s="2" t="s">
@@ -22004,13 +21974,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -22040,13 +22010,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -22058,10 +22028,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -22073,10 +22043,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -22363,13 +22333,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>18</v>
@@ -22491,13 +22461,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>18</v>
@@ -22510,13 +22480,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>18</v>
@@ -22769,13 +22739,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>18</v>
@@ -22788,13 +22758,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>18</v>
@@ -22807,13 +22777,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>18</v>
@@ -22960,25 +22930,25 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -22990,10 +22960,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -23005,55 +22975,55 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -23065,10 +23035,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -23080,10 +23050,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -23095,10 +23065,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -23110,25 +23080,25 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -23140,40 +23110,40 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -23185,10 +23155,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -23200,25 +23170,25 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -23230,10 +23200,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -23245,10 +23215,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -23260,10 +23230,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -23275,10 +23245,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -23290,10 +23260,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -23305,10 +23275,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -23320,10 +23290,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -23335,10 +23305,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -23350,10 +23320,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -23365,10 +23335,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -23380,10 +23350,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -23395,10 +23365,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -23410,10 +23380,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -23425,10 +23395,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -23440,10 +23410,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -23455,10 +23425,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -23470,10 +23440,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -23485,10 +23455,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -23500,10 +23470,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -23515,10 +23485,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -23530,10 +23500,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C59" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -23545,10 +23515,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C60" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -23560,10 +23530,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C61" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -23575,10 +23545,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C62" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -23590,10 +23560,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -23605,10 +23575,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -23620,10 +23590,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -23635,10 +23605,10 @@
     <row r="66">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -23650,10 +23620,10 @@
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -23665,40 +23635,40 @@
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C68" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -23710,10 +23680,10 @@
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C71" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -23725,10 +23695,10 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -23740,10 +23710,10 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -23755,10 +23725,10 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C74" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -23770,31 +23740,31 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C75" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76">
       <c r="A76"/>
       <c r="B76" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
         <v>265</v>
-      </c>
-      <c r="C76" t="s">
-        <v>266</v>
-      </c>
-      <c r="D76" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="78">
@@ -24132,7 +24102,7 @@
       </c>
       <c r="E4"/>
       <c r="G4" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -24153,7 +24123,7 @@
       </c>
       <c r="E5"/>
       <c r="G5" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -24174,7 +24144,7 @@
       </c>
       <c r="E6"/>
       <c r="G6" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -24596,13 +24566,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>18</v>
@@ -24619,13 +24589,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>18</v>
@@ -24642,13 +24612,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>18</v>
@@ -24842,7 +24812,7 @@
       </c>
       <c r="E38"/>
       <c r="G38" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H38"/>
     </row>
@@ -24861,7 +24831,7 @@
       </c>
       <c r="E39"/>
       <c r="G39" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H39"/>
     </row>
@@ -25649,25 +25619,25 @@
         <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -25679,10 +25649,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -25694,55 +25664,55 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C86" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -25754,10 +25724,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -25769,10 +25739,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -25784,10 +25754,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C91" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -25799,25 +25769,25 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C92" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -25829,40 +25799,40 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -25874,10 +25844,10 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -25889,25 +25859,25 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C99" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -25919,10 +25889,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -25934,10 +25904,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C101" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -25949,10 +25919,10 @@
     <row r="102">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C102" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -25964,10 +25934,10 @@
     <row r="103">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C103" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -25979,10 +25949,10 @@
     <row r="104">
       <c r="A104"/>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
@@ -25994,10 +25964,10 @@
     <row r="105">
       <c r="A105"/>
       <c r="B105" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C105" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
@@ -26009,10 +25979,10 @@
     <row r="106">
       <c r="A106"/>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C106" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -26024,10 +25994,10 @@
     <row r="107">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C107" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -26039,10 +26009,10 @@
     <row r="108">
       <c r="A108"/>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
@@ -26054,10 +26024,10 @@
     <row r="109">
       <c r="A109"/>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C109" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -26069,10 +26039,10 @@
     <row r="110">
       <c r="A110"/>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C110" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
@@ -26084,10 +26054,10 @@
     <row r="111">
       <c r="A111"/>
       <c r="B111" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C111" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
@@ -26099,10 +26069,10 @@
     <row r="112">
       <c r="A112"/>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
@@ -26114,10 +26084,10 @@
     <row r="113">
       <c r="A113"/>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C113" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D113" t="s">
         <v>18</v>
@@ -26129,10 +26099,10 @@
     <row r="114">
       <c r="A114"/>
       <c r="B114" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C114" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
@@ -26144,10 +26114,10 @@
     <row r="115">
       <c r="A115"/>
       <c r="B115" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C115" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D115" t="s">
         <v>18</v>
@@ -26159,10 +26129,10 @@
     <row r="116">
       <c r="A116"/>
       <c r="B116" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C116" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D116" t="s">
         <v>18</v>
@@ -26174,10 +26144,10 @@
     <row r="117">
       <c r="A117"/>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C117" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
@@ -26189,10 +26159,10 @@
     <row r="118">
       <c r="A118"/>
       <c r="B118" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C118" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
@@ -26204,10 +26174,10 @@
     <row r="119">
       <c r="A119"/>
       <c r="B119" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C119" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D119" t="s">
         <v>18</v>
@@ -26219,10 +26189,10 @@
     <row r="120">
       <c r="A120"/>
       <c r="B120" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C120" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D120" t="s">
         <v>18</v>
@@ -26234,10 +26204,10 @@
     <row r="121">
       <c r="A121"/>
       <c r="B121" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C121" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
@@ -26249,10 +26219,10 @@
     <row r="122">
       <c r="A122"/>
       <c r="B122" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D122" t="s">
         <v>18</v>
@@ -26264,10 +26234,10 @@
     <row r="123">
       <c r="A123"/>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C123" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D123" t="s">
         <v>18</v>
@@ -26279,10 +26249,10 @@
     <row r="124">
       <c r="A124"/>
       <c r="B124" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C124" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
@@ -26294,10 +26264,10 @@
     <row r="125">
       <c r="A125"/>
       <c r="B125" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C125" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D125" t="s">
         <v>18</v>
@@ -26309,10 +26279,10 @@
     <row r="126">
       <c r="A126"/>
       <c r="B126" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C126" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D126" t="s">
         <v>18</v>
@@ -26324,10 +26294,10 @@
     <row r="127">
       <c r="A127"/>
       <c r="B127" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C127" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D127" t="s">
         <v>18</v>
@@ -26339,10 +26309,10 @@
     <row r="128">
       <c r="A128"/>
       <c r="B128" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C128" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D128" t="s">
         <v>18</v>
@@ -26354,40 +26324,40 @@
     <row r="129">
       <c r="A129"/>
       <c r="B129" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C129" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D129" t="s">
         <v>18</v>
       </c>
       <c r="E129" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130">
       <c r="A130"/>
       <c r="B130" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C130" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D130" t="s">
         <v>18</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131">
       <c r="A131"/>
       <c r="B131" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C131" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D131" t="s">
         <v>18</v>
@@ -26399,10 +26369,10 @@
     <row r="132">
       <c r="A132"/>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C132" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D132" t="s">
         <v>18</v>
@@ -26414,10 +26384,10 @@
     <row r="133">
       <c r="A133"/>
       <c r="B133" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C133" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D133" t="s">
         <v>18</v>
@@ -26429,10 +26399,10 @@
     <row r="134">
       <c r="A134"/>
       <c r="B134" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C134" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D134" t="s">
         <v>18</v>
@@ -26444,10 +26414,10 @@
     <row r="135">
       <c r="A135"/>
       <c r="B135" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C135" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D135" t="s">
         <v>18</v>
@@ -26459,31 +26429,31 @@
     <row r="136">
       <c r="A136"/>
       <c r="B136" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
       </c>
       <c r="E136" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137">
       <c r="A137"/>
       <c r="B137" t="s">
+        <v>263</v>
+      </c>
+      <c r="C137" t="s">
+        <v>264</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" t="s">
         <v>265</v>
-      </c>
-      <c r="C137" t="s">
-        <v>266</v>
-      </c>
-      <c r="D137" t="s">
-        <v>18</v>
-      </c>
-      <c r="E137" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="139">
@@ -26575,7 +26545,7 @@
         <v>527</v>
       </c>
       <c r="C145" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
@@ -26839,10 +26809,10 @@
     <row r="165">
       <c r="A165"/>
       <c r="B165" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C165" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D165" t="s">
         <v>18</v>
@@ -26982,10 +26952,10 @@
     <row r="176">
       <c r="A176"/>
       <c r="B176" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C176" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D176" t="s">
         <v>18</v>
@@ -27046,10 +27016,10 @@
     <row r="181">
       <c r="A181"/>
       <c r="B181" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C181" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D181" t="s">
         <v>18</v>
@@ -27144,10 +27114,10 @@
     <row r="189">
       <c r="A189"/>
       <c r="B189" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C189" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D189" t="s">
         <v>18</v>
@@ -27249,10 +27219,10 @@
     <row r="196">
       <c r="A196"/>
       <c r="B196" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C196" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
@@ -27362,7 +27332,7 @@
     <row r="205">
       <c r="A205"/>
       <c r="B205" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C205" t="s">
         <v>602</v>
@@ -27377,10 +27347,10 @@
     <row r="206">
       <c r="A206"/>
       <c r="B206" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C206" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D206" t="s">
         <v>18</v>
@@ -27392,10 +27362,10 @@
     <row r="207">
       <c r="A207"/>
       <c r="B207" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C207" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D207" t="s">
         <v>18</v>
@@ -27546,10 +27516,10 @@
     <row r="218">
       <c r="A218"/>
       <c r="B218" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C218" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D218" t="s">
         <v>18</v>
@@ -27625,10 +27595,10 @@
     <row r="224">
       <c r="A224"/>
       <c r="B224" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C224" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D224" t="s">
         <v>18</v>
@@ -27965,10 +27935,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -28378,7 +28348,7 @@
       </c>
       <c r="E19"/>
       <c r="G19" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H19"/>
     </row>
@@ -28397,7 +28367,7 @@
       </c>
       <c r="E20"/>
       <c r="G20" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H20"/>
     </row>
@@ -29038,7 +29008,7 @@
       </c>
       <c r="E53"/>
       <c r="G53" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H53"/>
     </row>
@@ -29057,7 +29027,7 @@
       </c>
       <c r="E54"/>
       <c r="G54" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H54"/>
     </row>
@@ -29076,7 +29046,7 @@
       </c>
       <c r="E55"/>
       <c r="G55" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H55"/>
     </row>
@@ -29095,7 +29065,7 @@
       </c>
       <c r="E56"/>
       <c r="G56" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H56"/>
     </row>
@@ -30371,7 +30341,7 @@
       </c>
       <c r="E122"/>
       <c r="G122" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H122"/>
     </row>
@@ -30390,7 +30360,7 @@
       </c>
       <c r="E123"/>
       <c r="G123" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H123"/>
     </row>
@@ -30409,7 +30379,7 @@
       </c>
       <c r="E124"/>
       <c r="G124" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H124"/>
     </row>
@@ -30428,7 +30398,7 @@
       </c>
       <c r="E125"/>
       <c r="G125" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H125"/>
     </row>
@@ -30447,7 +30417,7 @@
       </c>
       <c r="E126"/>
       <c r="G126" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H126"/>
     </row>
@@ -30466,7 +30436,7 @@
       </c>
       <c r="E127"/>
       <c r="G127" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H127"/>
     </row>
@@ -30485,7 +30455,7 @@
       </c>
       <c r="E128"/>
       <c r="G128" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H128"/>
     </row>
@@ -30504,7 +30474,7 @@
       </c>
       <c r="E129"/>
       <c r="G129" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H129"/>
     </row>
@@ -30523,7 +30493,7 @@
       </c>
       <c r="E130"/>
       <c r="G130" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H130"/>
     </row>
@@ -30542,7 +30512,7 @@
       </c>
       <c r="E131"/>
       <c r="G131" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H131"/>
     </row>
@@ -30561,7 +30531,7 @@
       </c>
       <c r="E132"/>
       <c r="G132" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H132"/>
     </row>
@@ -30580,7 +30550,7 @@
       </c>
       <c r="E133"/>
       <c r="G133" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H133"/>
     </row>
@@ -30599,7 +30569,7 @@
       </c>
       <c r="E134"/>
       <c r="G134" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H134"/>
     </row>
@@ -30618,7 +30588,7 @@
       </c>
       <c r="E135"/>
       <c r="G135" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H135"/>
     </row>
@@ -30637,7 +30607,7 @@
       </c>
       <c r="E136"/>
       <c r="G136" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H136"/>
     </row>
@@ -30656,7 +30626,7 @@
       </c>
       <c r="E137"/>
       <c r="G137" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H137"/>
     </row>
@@ -30675,7 +30645,7 @@
       </c>
       <c r="E138"/>
       <c r="G138" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H138"/>
     </row>
@@ -30713,7 +30683,7 @@
       </c>
       <c r="E140"/>
       <c r="G140" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H140"/>
     </row>
@@ -31319,10 +31289,10 @@
     <row r="173">
       <c r="A173"/>
       <c r="B173" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C173" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D173" t="s">
         <v>18</v>
@@ -31383,10 +31353,10 @@
     <row r="178">
       <c r="A178"/>
       <c r="B178" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C178" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D178" t="s">
         <v>18</v>
@@ -31541,7 +31511,7 @@
     <row r="190">
       <c r="A190"/>
       <c r="B190" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C190" t="s">
         <v>1073</v>
@@ -32447,7 +32417,7 @@
         <v>383</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>18</v>
@@ -32738,10 +32708,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -32832,10 +32802,10 @@
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -32866,10 +32836,10 @@
         <v>1206</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -32881,10 +32851,10 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -32911,10 +32881,10 @@
     <row r="76">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -32975,10 +32945,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -33051,7 +33021,7 @@
         <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>18</v>
@@ -33127,7 +33097,7 @@
         <v>383</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>18</v>
@@ -33532,10 +33502,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -33986,10 +33956,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -34050,10 +34020,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -34144,10 +34114,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -34562,10 +34532,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -34626,10 +34596,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -34720,10 +34690,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -6001,7 +6001,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.46.0-SNAPSHOT</t>
+    <t>1.47.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7047" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7070" uniqueCount="1986">
   <si>
     <t>Field</t>
   </si>
@@ -4651,6 +4651,12 @@
     <t>Field sample ID</t>
   </si>
   <si>
+    <t>forRetest</t>
+  </si>
+  <si>
+    <t>Sample is for retest</t>
+  </si>
+  <si>
     <t>sampleDateTime</t>
   </si>
   <si>
@@ -5986,7 +5992,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.45.0-SNAPSHOT</t>
+    <t>1.45.0</t>
   </si>
 </sst>
 </file>
@@ -6117,6 +6123,20 @@
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="PersonOccupationType" displayName="PersonOccupationType" ref="A142:E157">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table100.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="100" name="UserLanguage" displayName="UserLanguage" ref="A78:E90">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7031,7 +7051,7 @@
 </file>
 
 <file path=xl/tables/table68.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="68" name="Sample" displayName="Sample" ref="A1:H34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="68" name="Sample" displayName="Sample" ref="A1:H35">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -7048,7 +7068,7 @@
 </file>
 
 <file path=xl/tables/table69.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="69" name="SampleSampleMaterial" displayName="SampleSampleMaterial" ref="A36:E56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="69" name="SampleYesNoUnknown" displayName="SampleYesNoUnknown" ref="A37:E40">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7076,7 +7096,7 @@
 </file>
 
 <file path=xl/tables/table70.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="70" name="SampleSamplePurpose" displayName="SampleSamplePurpose" ref="A58:E60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="70" name="SampleSampleMaterial" displayName="SampleSampleMaterial" ref="A42:E62">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7090,7 +7110,7 @@
 </file>
 
 <file path=xl/tables/table71.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="71" name="SampleSpecimenCondition" displayName="SampleSpecimenCondition" ref="A62:E64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="71" name="SampleSamplePurpose" displayName="SampleSamplePurpose" ref="A64:E66">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7104,7 +7124,7 @@
 </file>
 
 <file path=xl/tables/table72.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="72" name="SampleSampleSource" displayName="SampleSampleSource" ref="A66:E69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="72" name="SampleSpecimenCondition" displayName="SampleSpecimenCondition" ref="A68:E70">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7118,7 +7138,7 @@
 </file>
 
 <file path=xl/tables/table73.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="73" name="SamplePathogenTestResultType" displayName="SamplePathogenTestResultType" ref="A71:E75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="73" name="SampleSampleSource" displayName="SampleSampleSource" ref="A72:E75">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7132,7 +7152,21 @@
 </file>
 
 <file path=xl/tables/table74.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="74" name="Pathogen_test" displayName="Pathogen_test" ref="A1:H16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="74" name="SamplePathogenTestResultType" displayName="SamplePathogenTestResultType" ref="A77:E81">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table75.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="75" name="Pathogen_test" displayName="Pathogen_test" ref="A1:H16">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -7148,22 +7182,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table75.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="75" name="Pathogen_testDisease" displayName="Pathogen_testDisease" ref="A18:E74">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
 <file path=xl/tables/table76.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="76" name="Pathogen_testPathogenTestType" displayName="Pathogen_testPathogenTestType" ref="A76:E95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="76" name="Pathogen_testDisease" displayName="Pathogen_testDisease" ref="A18:E74">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7177,7 +7197,7 @@
 </file>
 
 <file path=xl/tables/table77.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="77" name="Pathogen_testPathogenTestResultType" displayName="Pathogen_testPathogenTestResultType" ref="A97:E101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="77" name="Pathogen_testPathogenTestType" displayName="Pathogen_testPathogenTestType" ref="A76:E95">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7191,7 +7211,21 @@
 </file>
 
 <file path=xl/tables/table78.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="78" name="Additional_test" displayName="Additional_test" ref="A1:H23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="78" name="Pathogen_testPathogenTestResultType" displayName="Pathogen_testPathogenTestResultType" ref="A97:E101">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table79.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="79" name="Additional_test" displayName="Additional_test" ref="A1:H23">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -7204,20 +7238,6 @@
     <tableColumn id="8" name="Outbreaks"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
-<file path=xl/tables/table79.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="79" name="Additional_testSimpleTestResultType" displayName="Additional_testSimpleTestResultType" ref="A25:E28">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
@@ -7236,7 +7256,21 @@
 </file>
 
 <file path=xl/tables/table80.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="80" name="Task" displayName="Task" ref="A1:H19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="80" name="Additional_testSimpleTestResultType" displayName="Additional_testSimpleTestResultType" ref="A25:E28">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table81.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="81" name="Task" displayName="Task" ref="A1:H19">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -7252,22 +7286,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table81.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="81" name="TaskTaskContext" displayName="TaskTaskContext" ref="A21:E25">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
 <file path=xl/tables/table82.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="82" name="TaskTaskType" displayName="TaskTaskType" ref="A27:E48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="82" name="TaskTaskContext" displayName="TaskTaskContext" ref="A21:E25">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7281,7 +7301,7 @@
 </file>
 
 <file path=xl/tables/table83.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="83" name="TaskTaskPriority" displayName="TaskTaskPriority" ref="A50:E53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="83" name="TaskTaskType" displayName="TaskTaskType" ref="A27:E48">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7295,7 +7315,7 @@
 </file>
 
 <file path=xl/tables/table84.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="84" name="TaskTaskStatus" displayName="TaskTaskStatus" ref="A55:E59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="84" name="TaskTaskPriority" displayName="TaskTaskPriority" ref="A50:E53">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7309,7 +7329,21 @@
 </file>
 
 <file path=xl/tables/table85.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="85" name="Event" displayName="Event" ref="A1:H26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="85" name="TaskTaskStatus" displayName="TaskTaskStatus" ref="A55:E59">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table86.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="86" name="Event" displayName="Event" ref="A1:H26">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -7325,22 +7359,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table86.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="86" name="EventEventStatus" displayName="EventEventStatus" ref="A28:E33">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
 <file path=xl/tables/table87.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="87" name="EventYesNoUnknown" displayName="EventYesNoUnknown" ref="A35:E38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="87" name="EventEventStatus" displayName="EventEventStatus" ref="A28:E33">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7354,7 +7374,7 @@
 </file>
 
 <file path=xl/tables/table88.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="88" name="EventTypeOfPlace" displayName="EventTypeOfPlace" ref="A40:E47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="88" name="EventYesNoUnknown" displayName="EventYesNoUnknown" ref="A35:E38">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7368,7 +7388,7 @@
 </file>
 
 <file path=xl/tables/table89.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="89" name="EventEventSourceType" displayName="EventEventSourceType" ref="A49:E53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="89" name="EventTypeOfPlace" displayName="EventTypeOfPlace" ref="A40:E47">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7396,7 +7416,7 @@
 </file>
 
 <file path=xl/tables/table90.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="90" name="EventDisease" displayName="EventDisease" ref="A55:E111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="90" name="EventEventSourceType" displayName="EventEventSourceType" ref="A49:E53">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7410,24 +7430,21 @@
 </file>
 
 <file path=xl/tables/table91.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="91" name="Event_participant" displayName="Event_participant" ref="A1:H5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="91" name="EventDisease" displayName="EventDisease" ref="A55:E111">
   <autoFilter/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Field"/>
-    <tableColumn id="2" name="Type"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
     <tableColumn id="3" name="Caption"/>
     <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Required"/>
-    <tableColumn id="6" name="New disease"/>
-    <tableColumn id="7" name="Diseases"/>
-    <tableColumn id="8" name="Outbreaks"/>
+    <tableColumn id="5" name="Short"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
 <file path=xl/tables/table92.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="92" name="Facility" displayName="Facility" ref="A1:H12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="92" name="Event_participant" displayName="Event_participant" ref="A1:H5">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -7444,21 +7461,7 @@
 </file>
 
 <file path=xl/tables/table93.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="93" name="FacilityFacilityType" displayName="FacilityFacilityType" ref="A14:E18">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
-<file path=xl/tables/table94.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="94" name="Region" displayName="Region" ref="A1:H7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="93" name="Facility" displayName="Facility" ref="A1:H12">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -7474,8 +7477,22 @@
 </table>
 </file>
 
+<file path=xl/tables/table94.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="94" name="FacilityFacilityType" displayName="FacilityFacilityType" ref="A14:E18">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
 <file path=xl/tables/table95.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="95" name="District" displayName="District" ref="A1:H7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="95" name="Region" displayName="Region" ref="A1:H7">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -7492,7 +7509,7 @@
 </file>
 
 <file path=xl/tables/table96.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="96" name="Community" displayName="Community" ref="A1:H6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="96" name="District" displayName="District" ref="A1:H7">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -7509,7 +7526,7 @@
 </file>
 
 <file path=xl/tables/table97.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="97" name="User" displayName="User" ref="A1:H18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="97" name="Community" displayName="Community" ref="A1:H6">
   <autoFilter/>
   <tableColumns count="8">
     <tableColumn id="1" name="Field"/>
@@ -7526,21 +7543,24 @@
 </file>
 
 <file path=xl/tables/table98.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="98" name="UserDisease" displayName="UserDisease" ref="A20:E76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="98" name="User" displayName="User" ref="A1:H18">
   <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Type"/>
     <tableColumn id="3" name="Caption"/>
     <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="New disease"/>
+    <tableColumn id="7" name="Diseases"/>
+    <tableColumn id="8" name="Outbreaks"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
 <file path=xl/tables/table99.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="99" name="UserLanguage" displayName="UserLanguage" ref="A78:E90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="99" name="UserDisease" displayName="UserDisease" ref="A20:E76">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -15158,7 +15178,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15300,17 +15320,15 @@
         <v>1538</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>39</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
         <v>1539</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1540</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E7"/>
       <c r="G7" s="13" t="s">
         <v>12</v>
       </c>
@@ -15318,16 +15336,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1360</v>
+        <v>1540</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>1541</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>18</v>
+        <v>1542</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -15339,13 +15357,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>1360</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>364</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>18</v>
@@ -15360,18 +15378,20 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
@@ -15379,7 +15399,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>29</v>
@@ -15398,7 +15418,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>29</v>
@@ -15417,20 +15437,18 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1541</v>
+        <v>451</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1542</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>1543</v>
+        <v>18</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
+      <c r="E13"/>
       <c r="G13" s="13" t="s">
         <v>12</v>
       </c>
@@ -15438,10 +15456,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>1544</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>1545</v>
@@ -15449,7 +15467,9 @@
       <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
       <c r="G14" s="13" t="s">
         <v>12</v>
       </c>
@@ -15460,17 +15480,15 @@
         <v>1546</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
         <v>1547</v>
       </c>
-      <c r="C15" t="s">
-        <v>1548</v>
-      </c>
       <c r="D15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
+      <c r="E15"/>
       <c r="G15" s="13" t="s">
         <v>12</v>
       </c>
@@ -15478,13 +15496,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>1549</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="C16" t="s">
-        <v>612</v>
+        <v>1550</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>18</v>
@@ -15499,18 +15517,20 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>1551</v>
+        <v>612</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
       <c r="G17" s="13" t="s">
         <v>12</v>
       </c>
@@ -15521,7 +15541,7 @@
         <v>1552</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>1553</v>
@@ -15540,7 +15560,7 @@
         <v>1554</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>1555</v>
@@ -15559,7 +15579,7 @@
         <v>1556</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>1557</v>
@@ -15578,10 +15598,10 @@
         <v>1558</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
         <v>1559</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1560</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>18</v>
@@ -15594,10 +15614,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>1561</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>1562</v>
@@ -15619,7 +15639,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>510</v>
+        <v>1564</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>18</v>
@@ -15632,13 +15652,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1565</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>1566</v>
+        <v>510</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>18</v>
@@ -15651,13 +15671,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>1567</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" t="s">
         <v>1568</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>18</v>
@@ -15673,10 +15693,10 @@
         <v>1569</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>486</v>
+        <v>1570</v>
       </c>
       <c r="C26" t="s">
-        <v>1570</v>
+        <v>18</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>18</v>
@@ -15711,10 +15731,10 @@
         <v>1573</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C28" t="s">
         <v>1574</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1575</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>18</v>
@@ -15727,10 +15747,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>1576</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>486</v>
       </c>
       <c r="C29" t="s">
         <v>1577</v>
@@ -15767,7 +15787,9 @@
       <c r="A31" t="s">
         <v>1580</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>486</v>
+      </c>
       <c r="C31" t="s">
         <v>1581</v>
       </c>
@@ -15801,9 +15823,7 @@
       <c r="A33" t="s">
         <v>1584</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="B33" s="13"/>
       <c r="C33" t="s">
         <v>1585</v>
       </c>
@@ -15835,47 +15855,51 @@
       </c>
       <c r="H34"/>
     </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>124</v>
-      </c>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35"/>
+      <c r="G35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1542</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>1588</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>1589</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
+      <c r="A38" t="s">
+        <v>383</v>
+      </c>
       <c r="B38" t="s">
-        <v>1590</v>
+        <v>557</v>
       </c>
       <c r="C38" t="s">
-        <v>1591</v>
+        <v>558</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -15887,10 +15911,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1592</v>
+        <v>559</v>
       </c>
       <c r="C39" t="s">
-        <v>1593</v>
+        <v>560</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -15902,10 +15926,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1594</v>
+        <v>341</v>
       </c>
       <c r="C40" t="s">
-        <v>1595</v>
+        <v>342</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -15914,43 +15938,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41"/>
-      <c r="B41" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="42">
-      <c r="A42"/>
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
       <c r="B42" t="s">
-        <v>1598</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>1599</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43"/>
+      <c r="A43" t="s">
+        <v>1544</v>
+      </c>
       <c r="B43" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="C43" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -15962,10 +15975,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
       <c r="C44" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -15977,10 +15990,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="C45" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -15992,10 +16005,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
       <c r="C46" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -16007,10 +16020,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
       <c r="C47" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -16022,10 +16035,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="C48" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -16037,10 +16050,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="C49" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -16052,10 +16065,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
       <c r="C50" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -16067,10 +16080,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="C51" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -16082,10 +16095,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="C52" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -16097,10 +16110,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="C53" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -16112,10 +16125,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="C54" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -16127,10 +16140,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="C55" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -16142,10 +16155,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>1616</v>
       </c>
       <c r="C56" t="s">
-        <v>262</v>
+        <v>1617</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -16154,32 +16167,43 @@
         <v>18</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57"/>
+      <c r="B57" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="58">
-      <c r="A58" t="s">
-        <v>1</v>
-      </c>
+      <c r="A58"/>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>1620</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>1621</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s">
-        <v>1547</v>
-      </c>
+      <c r="A59"/>
       <c r="B59" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="C59" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -16191,172 +16215,172 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61"/>
+      <c r="B61" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B65" t="s">
         <v>1628</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C65" t="s">
         <v>1629</v>
       </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
         <v>1</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B68" t="s">
         <v>123</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C68" t="s">
         <v>2</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D68" t="s">
         <v>3</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E68" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64"/>
-      <c r="B64" t="s">
+    <row r="69">
+      <c r="A69" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B69" t="s">
         <v>1632</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C69" t="s">
         <v>1633</v>
       </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70"/>
+      <c r="B70" t="s">
         <v>1634</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C70" t="s">
         <v>1635</v>
       </c>
-      <c r="D67" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68"/>
-      <c r="B68" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D68" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69"/>
-      <c r="B69" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D69" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
-        <v>123</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" t="s">
-        <v>124</v>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1574</v>
+        <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>1640</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>1641</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73"/>
+      <c r="A73" t="s">
+        <v>1567</v>
+      </c>
       <c r="B73" t="s">
-        <v>561</v>
+        <v>1636</v>
       </c>
       <c r="C73" t="s">
-        <v>563</v>
+        <v>1637</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -16368,10 +16392,10 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="C74" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -16383,15 +16407,94 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79"/>
+      <c r="B79" t="s">
+        <v>561</v>
+      </c>
+      <c r="C79" t="s">
+        <v>563</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80"/>
+      <c r="B80" t="s">
         <v>1644</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C80" t="s">
         <v>1645</v>
       </c>
-      <c r="D75" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81"/>
+      <c r="B81" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16404,6 +16507,7 @@
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -16454,10 +16558,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -16475,16 +16579,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -16496,16 +16600,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="E4"/>
       <c r="G4" s="14" t="s">
@@ -16515,16 +16619,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="C5" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -16536,16 +16640,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="E6"/>
       <c r="G6" s="14" t="s">
@@ -16555,16 +16659,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -16576,7 +16680,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>52</v>
@@ -16585,7 +16689,7 @@
         <v>612</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -16597,16 +16701,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="E9"/>
       <c r="G9" s="14" t="s">
@@ -16616,7 +16720,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>364</v>
@@ -16637,16 +16741,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="C11" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -16658,16 +16762,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -16679,16 +16783,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>486</v>
       </c>
       <c r="C13" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -16700,16 +16804,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>486</v>
       </c>
       <c r="C14" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="E14"/>
       <c r="G14" s="14" t="s">
@@ -16719,16 +16823,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="E15"/>
       <c r="G15" s="14" t="s">
@@ -16738,13 +16842,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>18</v>
@@ -17633,13 +17737,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="B77" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="C77" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -17651,10 +17755,10 @@
     <row r="78">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="C78" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -17666,10 +17770,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="C79" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -17681,10 +17785,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="C80" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -17696,10 +17800,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="C81" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -17711,7 +17815,7 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="C82" t="s">
         <v>633</v>
@@ -17726,10 +17830,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="C83" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -17741,10 +17845,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C84" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -17756,10 +17860,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="C85" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -17771,10 +17875,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="C86" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -17786,10 +17890,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="C87" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -17801,10 +17905,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C88" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -17816,10 +17920,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C89" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -17831,10 +17935,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="C90" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -17846,10 +17950,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C91" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -17861,10 +17965,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C92" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -17876,10 +17980,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="C93" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -17891,10 +17995,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="C94" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -17937,13 +18041,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="B98" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="C98" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -17970,10 +18074,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="C100" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -17985,10 +18089,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="C101" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -18054,10 +18158,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -18073,13 +18177,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>18</v>
@@ -18092,13 +18196,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="C4" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>18</v>
@@ -18111,13 +18215,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>1721</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>1719</v>
-      </c>
       <c r="C5" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>18</v>
@@ -18130,13 +18234,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="C6" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>18</v>
@@ -18149,13 +18253,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>18</v>
@@ -18168,13 +18272,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>18</v>
@@ -18187,13 +18291,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>18</v>
@@ -18206,13 +18310,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>18</v>
@@ -18225,13 +18329,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>18</v>
@@ -18244,13 +18348,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>18</v>
@@ -18263,13 +18367,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>18</v>
@@ -18282,13 +18386,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>18</v>
@@ -18301,13 +18405,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>18</v>
@@ -18320,13 +18424,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>18</v>
@@ -18339,13 +18443,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>18</v>
@@ -18358,13 +18462,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>18</v>
@@ -18377,13 +18481,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>18</v>
@@ -18396,13 +18500,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>18</v>
@@ -18415,13 +18519,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>18</v>
@@ -18434,13 +18538,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>18</v>
@@ -18453,13 +18557,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>18</v>
@@ -18489,13 +18593,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="B26" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="C26" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -18507,10 +18611,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="C27" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -18522,10 +18626,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="C28" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -18589,13 +18693,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="C2" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>18</v>
@@ -18629,13 +18733,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="C4" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>18</v>
@@ -18648,13 +18752,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>1531</v>
       </c>
       <c r="C5" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>18</v>
@@ -18667,16 +18771,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="C6" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -18688,13 +18792,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="C7" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>18</v>
@@ -18707,13 +18811,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>18</v>
@@ -18728,13 +18832,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>18</v>
@@ -18747,13 +18851,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="C10" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>18</v>
@@ -18766,13 +18870,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>18</v>
@@ -18785,13 +18889,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>18</v>
@@ -18804,13 +18908,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C13" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>18</v>
@@ -18823,13 +18927,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>18</v>
@@ -18842,13 +18946,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C15" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>18</v>
@@ -18863,13 +18967,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>18</v>
@@ -18882,7 +18986,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
@@ -18901,7 +19005,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>29</v>
@@ -18920,7 +19024,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>29</v>
@@ -18956,13 +19060,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="B22" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="C22" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -18974,10 +19078,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="C23" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -18989,10 +19093,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="C24" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -19004,10 +19108,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="C25" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -19035,13 +19139,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="B28" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="C28" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -19053,10 +19157,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="C29" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -19068,10 +19172,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="C30" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -19083,10 +19187,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="C31" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -19098,10 +19202,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="C32" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -19113,10 +19217,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="C33" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -19128,10 +19232,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="C34" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -19143,10 +19247,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="C35" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -19158,10 +19262,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="C36" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -19173,10 +19277,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="C37" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -19188,10 +19292,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="C38" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -19203,10 +19307,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="C39" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -19218,10 +19322,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="C40" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -19233,10 +19337,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="C41" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -19248,10 +19352,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="C42" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -19263,10 +19367,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="C43" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -19278,10 +19382,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="C44" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -19296,7 +19400,7 @@
         <v>260</v>
       </c>
       <c r="C45" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -19308,10 +19412,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="C46" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -19323,10 +19427,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="C47" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -19338,10 +19442,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="C48" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -19369,13 +19473,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="B51" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="C51" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -19387,10 +19491,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="C52" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -19402,10 +19506,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="C53" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -19433,13 +19537,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="B56" t="s">
         <v>561</v>
       </c>
       <c r="C56" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -19454,7 +19558,7 @@
         <v>564</v>
       </c>
       <c r="C57" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -19466,10 +19570,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="C58" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -19481,10 +19585,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="C59" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -19551,16 +19655,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="C2" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -19572,7 +19676,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>9</v>
@@ -19591,7 +19695,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>9</v>
@@ -19600,7 +19704,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -19612,13 +19716,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>383</v>
       </c>
       <c r="C5" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>18</v>
@@ -19631,16 +19735,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="E6"/>
       <c r="G6" s="17" t="s">
@@ -19650,16 +19754,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="E7"/>
       <c r="G7" s="17" t="s">
@@ -19711,13 +19815,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>18</v>
@@ -19730,16 +19834,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="C11" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="E11"/>
       <c r="G11" s="17" t="s">
@@ -19749,13 +19853,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="C12" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>18</v>
@@ -19768,16 +19872,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="E13"/>
       <c r="G13" s="17" t="s">
@@ -19787,16 +19891,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="E14"/>
       <c r="G14" s="17" t="s">
@@ -19806,16 +19910,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="E15"/>
       <c r="G15" s="17" t="s">
@@ -19825,16 +19929,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="E16"/>
       <c r="G16" s="17" t="s">
@@ -19844,16 +19948,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="E17"/>
       <c r="G17" s="17" t="s">
@@ -19863,16 +19967,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="E18"/>
       <c r="G18" s="17" t="s">
@@ -19882,16 +19986,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="E19"/>
       <c r="G19" s="17" t="s">
@@ -19958,13 +20062,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>18</v>
@@ -20051,13 +20155,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="B29" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="C29" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -20069,10 +20173,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="C30" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -20084,10 +20188,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="C31" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -20099,10 +20203,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="C32" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -20209,13 +20313,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B41" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="C41" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -20257,10 +20361,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="C44" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -20272,10 +20376,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="C45" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -20333,13 +20437,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="B50" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="C50" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -20351,10 +20455,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="C51" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -20366,10 +20470,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="C52" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -20381,10 +20485,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="C53" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -21311,13 +21415,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="C2" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>18</v>
@@ -21335,10 +21439,10 @@
         <v>356</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="C3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>18</v>
@@ -21353,13 +21457,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>18</v>
@@ -21443,13 +21547,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>18</v>
@@ -21544,7 +21648,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>18</v>
@@ -21563,7 +21667,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>18</v>
@@ -21576,10 +21680,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -21595,7 +21699,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>486</v>
@@ -21614,7 +21718,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>486</v>
@@ -21669,7 +21773,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B15" t="s">
         <v>278</v>
@@ -22110,13 +22214,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>18</v>
@@ -22129,13 +22233,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>18</v>
@@ -22148,13 +22252,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>18</v>
@@ -22167,7 +22271,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>486</v>
@@ -22205,10 +22309,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -22276,13 +22380,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>18</v>
@@ -22295,13 +22399,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>18</v>
@@ -22314,13 +22418,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>18</v>
@@ -22352,7 +22456,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>486</v>
@@ -22442,13 +22546,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>18</v>
@@ -22499,7 +22603,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>486</v>
@@ -22589,13 +22693,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>486</v>
       </c>
       <c r="C2" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>18</v>
@@ -22608,13 +22712,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>18</v>
@@ -22665,13 +22769,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>18</v>
@@ -22709,7 +22813,7 @@
         <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>18</v>
@@ -22722,11 +22826,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>18</v>
@@ -22815,7 +22919,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>52</v>
@@ -22840,7 +22944,7 @@
         <v>477</v>
       </c>
       <c r="C15" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>18</v>
@@ -22853,13 +22957,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>364</v>
       </c>
       <c r="C16" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>18</v>
@@ -22872,16 +22976,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="E17"/>
       <c r="G17" s="23" t="s">
@@ -22891,10 +22995,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -23786,13 +23890,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B79" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="C79" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -23804,10 +23908,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="C80" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -23819,10 +23923,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="C81" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -23834,10 +23938,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="C82" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -23849,10 +23953,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="C83" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -23864,10 +23968,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="C84" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -23879,10 +23983,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="C85" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -23894,10 +23998,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="C86" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -23909,10 +24013,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="C87" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -23924,10 +24028,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="C88" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -23939,10 +24043,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="C89" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -23954,10 +24058,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="C90" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -23986,12 +24090,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7849" uniqueCount="2150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7849" uniqueCount="2152">
   <si>
     <t>Field</t>
   </si>
@@ -6331,7 +6331,13 @@
     <t>publicOwnership</t>
   </si>
   <si>
+    <t>Public ownership</t>
+  </si>
+  <si>
     <t>archived</t>
+  </si>
+  <si>
+    <t>Archived</t>
   </si>
   <si>
     <t>epidCode</t>
@@ -12785,7 +12791,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>584</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>18</v>
@@ -12804,7 +12810,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>587</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>18</v>
@@ -12823,7 +12829,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>590</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>18</v>
@@ -23256,7 +23262,7 @@
         <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>2098</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>18</v>
@@ -23269,13 +23275,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>2100</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>18</v>
@@ -24525,13 +24531,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>18</v>
@@ -24544,13 +24550,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>18</v>
@@ -24563,13 +24569,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>2100</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>18</v>
@@ -24601,10 +24607,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -24691,13 +24697,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>18</v>
@@ -24710,13 +24716,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>18</v>
@@ -24748,13 +24754,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>2100</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>18</v>
@@ -24895,13 +24901,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>2100</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>18</v>
@@ -24985,13 +24991,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>18</v>
@@ -25004,13 +25010,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>18</v>
@@ -25061,7 +25067,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>9</v>
@@ -25105,7 +25111,7 @@
         <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>18</v>
@@ -25118,11 +25124,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>18</v>
@@ -25135,10 +25141,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -25230,7 +25236,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>58</v>
@@ -25255,7 +25261,7 @@
         <v>615</v>
       </c>
       <c r="C16" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>18</v>
@@ -25268,13 +25274,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>498</v>
       </c>
       <c r="C17" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>18</v>
@@ -25287,16 +25293,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="E18"/>
       <c r="G18" s="23" t="s">
@@ -25306,10 +25312,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -26201,13 +26207,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="B80" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="C80" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -26219,10 +26225,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="C81" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -26234,10 +26240,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="C82" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -26249,10 +26255,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="C83" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -26264,10 +26270,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="C84" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -26279,10 +26285,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="C85" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -26294,10 +26300,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="C86" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -26309,10 +26315,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="C87" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -26324,10 +26330,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="C88" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -26339,10 +26345,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="C89" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -26354,10 +26360,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="C90" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -26369,10 +26375,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="C91" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -26384,10 +26390,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="C92" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -26416,12 +26422,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7849" uniqueCount="2149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7849" uniqueCount="2150">
   <si>
     <t>Field</t>
   </si>
@@ -3964,13 +3964,16 @@
     <t>Exposure (e.g. handling, butchering) to animals (or their remains) in an area where infected animals have been confirmed in the past month</t>
   </si>
   <si>
+    <t>AFP, Guinea Worm, New Flu, Anthrax, Polio, Undefined, Other</t>
+  </si>
+  <si>
     <t>sickDeadAnimals</t>
   </si>
   <si>
     <t>Exposure to sick/unxeplainedly dead animals</t>
   </si>
   <si>
-    <t>AFP, Guinea Worm, New Flu, Polio, Rabies, Anthrax, COVID-19, Undefined, Other</t>
+    <t>AFP, Guinea Worm, New Flu, Polio, Rabies, Anthrax, Undefined, Other</t>
   </si>
   <si>
     <t>sickDeadAnimalsDetails</t>
@@ -4030,7 +4033,7 @@
     <t>Did you have contact with live or dead bats or their excreta during the incubation period?</t>
   </si>
   <si>
-    <t>AFP, EVD, Guinea Worm, Lassa, Polio, VHF, Rabies, COVID-19, Undefined, Other</t>
+    <t>AFP, EVD, Guinea Worm, Lassa, Polio, VHF, Rabies, Undefined, Other</t>
   </si>
   <si>
     <t>primates</t>
@@ -4111,9 +4114,6 @@
     <t>Did you have contact with other animals during the incubation period?</t>
   </si>
   <si>
-    <t>AFP, EVD, Guinea Worm, Lassa, Monkeypox, Polio, VHF, Rabies, Anthrax, COVID-19, Undefined, Other</t>
-  </si>
-  <si>
     <t>otherAnimalsDetails</t>
   </si>
   <si>
@@ -4289,6 +4289,9 @@
   </si>
   <si>
     <t>Did you have contact with live, dead or consume camel products during the incubation period?</t>
+  </si>
+  <si>
+    <t>Undefined, Other</t>
   </si>
   <si>
     <t>snakes</t>
@@ -11616,7 +11619,7 @@
         <v>601</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -11670,13 +11673,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>18</v>
@@ -11689,13 +11692,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>18</v>
@@ -11708,13 +11711,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>18</v>
@@ -12639,13 +12642,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C2" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>18</v>
@@ -12658,13 +12661,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>18</v>
@@ -12677,13 +12680,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>18</v>
@@ -12702,7 +12705,7 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>18</v>
@@ -12734,13 +12737,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>18</v>
@@ -12842,7 +12845,7 @@
         <v>537</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="E12"/>
       <c r="G12" s="11" t="s">
@@ -12861,7 +12864,7 @@
         <v>538</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="E13"/>
       <c r="G13" s="11" t="s">
@@ -12880,7 +12883,7 @@
         <v>539</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="E14"/>
       <c r="G14" s="11" t="s">
@@ -12890,13 +12893,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>18</v>
@@ -12911,13 +12914,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C16" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>18</v>
@@ -12930,13 +12933,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>18</v>
@@ -12949,13 +12952,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C18" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>18</v>
@@ -12968,13 +12971,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>18</v>
@@ -12987,16 +12990,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C20" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="E20"/>
       <c r="G20" s="11" t="s">
@@ -13006,13 +13009,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>18</v>
@@ -13025,13 +13028,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C22" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>18</v>
@@ -13044,13 +13047,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C23" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>18</v>
@@ -13063,13 +13066,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="C24" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>18</v>
@@ -13091,7 +13094,7 @@
         <v>668</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="E25"/>
       <c r="G25" s="11" t="s">
@@ -13158,13 +13161,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>18</v>
@@ -13177,16 +13180,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C30" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="E30"/>
       <c r="G30" s="11" t="s">
@@ -13196,13 +13199,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>18</v>
@@ -13234,13 +13237,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>18</v>
@@ -13253,13 +13256,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>517</v>
       </c>
       <c r="C34" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>18</v>
@@ -13272,7 +13275,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>9</v>
@@ -13291,13 +13294,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>517</v>
       </c>
       <c r="C36" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>18</v>
@@ -13392,7 +13395,7 @@
         <v>491</v>
       </c>
       <c r="C41" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>18</v>
@@ -13407,13 +13410,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>498</v>
       </c>
       <c r="C42" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>18</v>
@@ -13426,13 +13429,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C43" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>18</v>
@@ -13445,13 +13448,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>498</v>
       </c>
       <c r="C44" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>18</v>
@@ -13749,10 +13752,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -14644,10 +14647,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B121" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C121" t="s">
         <v>492</v>
@@ -14662,10 +14665,10 @@
     <row r="122">
       <c r="A122"/>
       <c r="B122" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C122" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D122" t="s">
         <v>18</v>
@@ -14677,10 +14680,10 @@
     <row r="123">
       <c r="A123"/>
       <c r="B123" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C123" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="D123" t="s">
         <v>18</v>
@@ -14738,13 +14741,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B128" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="C128" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="D128" t="s">
         <v>18</v>
@@ -14802,13 +14805,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B133" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C133" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D133" t="s">
         <v>18</v>
@@ -14820,10 +14823,10 @@
     <row r="134">
       <c r="A134"/>
       <c r="B134" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C134" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="D134" t="s">
         <v>18</v>
@@ -14835,10 +14838,10 @@
     <row r="135">
       <c r="A135"/>
       <c r="B135" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C135" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="D135" t="s">
         <v>18</v>
@@ -14850,10 +14853,10 @@
     <row r="136">
       <c r="A136"/>
       <c r="B136" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C136" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
@@ -14865,10 +14868,10 @@
     <row r="137">
       <c r="A137"/>
       <c r="B137" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C137" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
@@ -14880,10 +14883,10 @@
     <row r="138">
       <c r="A138"/>
       <c r="B138" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C138" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
@@ -14895,10 +14898,10 @@
     <row r="139">
       <c r="A139"/>
       <c r="B139" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C139" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
@@ -14910,10 +14913,10 @@
     <row r="140">
       <c r="A140"/>
       <c r="B140" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C140" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D140" t="s">
         <v>18</v>
@@ -14925,10 +14928,10 @@
     <row r="141">
       <c r="A141"/>
       <c r="B141" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C141" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D141" t="s">
         <v>18</v>
@@ -14940,10 +14943,10 @@
     <row r="142">
       <c r="A142"/>
       <c r="B142" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C142" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="D142" t="s">
         <v>18</v>
@@ -14955,10 +14958,10 @@
     <row r="143">
       <c r="A143"/>
       <c r="B143" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C143" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="D143" t="s">
         <v>18</v>
@@ -14970,10 +14973,10 @@
     <row r="144">
       <c r="A144"/>
       <c r="B144" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C144" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="D144" t="s">
         <v>18</v>
@@ -14985,10 +14988,10 @@
     <row r="145">
       <c r="A145"/>
       <c r="B145" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C145" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
@@ -15000,10 +15003,10 @@
     <row r="146">
       <c r="A146"/>
       <c r="B146" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C146" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="D146" t="s">
         <v>18</v>
@@ -15031,13 +15034,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B149" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C149" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="D149" t="s">
         <v>18</v>
@@ -15049,10 +15052,10 @@
     <row r="150">
       <c r="A150"/>
       <c r="B150" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C150" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="D150" t="s">
         <v>18</v>
@@ -15064,10 +15067,10 @@
     <row r="151">
       <c r="A151"/>
       <c r="B151" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C151" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="D151" t="s">
         <v>18</v>
@@ -15079,10 +15082,10 @@
     <row r="152">
       <c r="A152"/>
       <c r="B152" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C152" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="D152" t="s">
         <v>18</v>
@@ -15094,10 +15097,10 @@
     <row r="153">
       <c r="A153"/>
       <c r="B153" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C153" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="D153" t="s">
         <v>18</v>
@@ -15125,19 +15128,19 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B156" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="C156" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="D156" t="s">
         <v>18</v>
       </c>
       <c r="E156" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="157">
@@ -15146,7 +15149,7 @@
         <v>699</v>
       </c>
       <c r="C157" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="D157" t="s">
         <v>18</v>
@@ -15158,16 +15161,16 @@
     <row r="158">
       <c r="A158"/>
       <c r="B158" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C158" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="D158" t="s">
         <v>18</v>
       </c>
       <c r="E158" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="160">
@@ -15189,13 +15192,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B161" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C161" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D161" t="s">
         <v>18</v>
@@ -15207,10 +15210,10 @@
     <row r="162">
       <c r="A162"/>
       <c r="B162" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C162" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="D162" t="s">
         <v>18</v>
@@ -15222,10 +15225,10 @@
     <row r="163">
       <c r="A163"/>
       <c r="B163" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C163" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="D163" t="s">
         <v>18</v>
@@ -15347,13 +15350,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B173" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C173" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="D173" t="s">
         <v>18</v>
@@ -15365,10 +15368,10 @@
     <row r="174">
       <c r="A174"/>
       <c r="B174" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C174" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="D174" t="s">
         <v>18</v>
@@ -15380,10 +15383,10 @@
     <row r="175">
       <c r="A175"/>
       <c r="B175" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C175" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="D175" t="s">
         <v>18</v>
@@ -15395,10 +15398,10 @@
     <row r="176">
       <c r="A176"/>
       <c r="B176" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C176" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="D176" t="s">
         <v>18</v>
@@ -15651,7 +15654,7 @@
         <v>491</v>
       </c>
       <c r="C2" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>18</v>
@@ -15685,16 +15688,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -15706,13 +15709,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>498</v>
       </c>
       <c r="C5" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>18</v>
@@ -15727,16 +15730,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C6" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -15748,16 +15751,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="E7"/>
       <c r="G7" s="12" t="s">
@@ -15792,7 +15795,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>18</v>
@@ -15811,7 +15814,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>18</v>
@@ -16719,13 +16722,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B72" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C72" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -16737,31 +16740,31 @@
     <row r="73">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C73" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C74" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
   </sheetData>
@@ -16820,13 +16823,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C2" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>18</v>
@@ -16839,10 +16842,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -16858,10 +16861,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -16877,13 +16880,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>18</v>
@@ -16896,13 +16899,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>18</v>
@@ -16915,16 +16918,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -16936,7 +16939,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>42</v>
@@ -17035,13 +17038,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C13" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>18</v>
@@ -17056,13 +17059,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>18</v>
@@ -17075,13 +17078,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C15" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>18</v>
@@ -17096,7 +17099,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>58</v>
@@ -17117,13 +17120,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>18</v>
@@ -17136,13 +17139,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>18</v>
@@ -17155,13 +17158,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>18</v>
@@ -17174,13 +17177,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>18</v>
@@ -17193,13 +17196,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C21" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>18</v>
@@ -17212,13 +17215,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>18</v>
@@ -17231,7 +17234,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>9</v>
@@ -17250,13 +17253,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C24" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>18</v>
@@ -17269,10 +17272,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -17288,13 +17291,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>18</v>
@@ -17307,13 +17310,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>18</v>
@@ -17326,13 +17329,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C28" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>18</v>
@@ -17345,13 +17348,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>18</v>
@@ -17364,13 +17367,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>18</v>
@@ -17383,11 +17386,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>18</v>
@@ -17400,11 +17403,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>18</v>
@@ -17417,13 +17420,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>18</v>
@@ -17436,13 +17439,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>18</v>
@@ -17472,13 +17475,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B37" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="C37" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -17490,10 +17493,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C38" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -17505,10 +17508,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C39" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -17520,10 +17523,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C40" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -17535,10 +17538,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C41" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -17550,10 +17553,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C42" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -17565,10 +17568,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="C43" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -17580,10 +17583,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C44" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -17595,10 +17598,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C45" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -17610,10 +17613,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="C46" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -17625,10 +17628,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C47" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -17640,10 +17643,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C48" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -17655,10 +17658,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="C49" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -17670,10 +17673,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C50" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -17685,10 +17688,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="C51" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -17700,10 +17703,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C52" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -17715,10 +17718,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C53" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -17730,10 +17733,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C54" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -17745,10 +17748,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C55" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -17791,13 +17794,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B59" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="C59" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -17809,10 +17812,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C60" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -17840,13 +17843,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B63" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="C63" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -17858,10 +17861,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C64" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -17889,13 +17892,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B67" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C67" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -17907,10 +17910,10 @@
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="C68" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -17922,10 +17925,10 @@
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C69" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -17953,13 +17956,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B72" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C72" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -17986,10 +17989,10 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="C74" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -18001,10 +18004,10 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C75" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -18072,10 +18075,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -18093,16 +18096,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -18114,16 +18117,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="E4"/>
       <c r="G4" s="14" t="s">
@@ -18133,16 +18136,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="C5" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -18154,16 +18157,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E6"/>
       <c r="G6" s="14" t="s">
@@ -18173,16 +18176,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -18194,7 +18197,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>58</v>
@@ -18203,7 +18206,7 @@
         <v>197</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -18215,16 +18218,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="E9"/>
       <c r="G9" s="14" t="s">
@@ -18234,7 +18237,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>498</v>
@@ -18255,16 +18258,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C11" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -18276,16 +18279,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -18297,16 +18300,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -18318,16 +18321,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="E14"/>
       <c r="G14" s="14" t="s">
@@ -18337,16 +18340,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="E15"/>
       <c r="G15" s="14" t="s">
@@ -18356,13 +18359,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>18</v>
@@ -19251,13 +19254,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B77" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C77" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -19269,10 +19272,10 @@
     <row r="78">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="C78" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -19284,10 +19287,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C79" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -19299,10 +19302,10 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C80" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -19314,10 +19317,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="C81" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -19329,7 +19332,7 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C82" t="s">
         <v>802</v>
@@ -19344,10 +19347,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C83" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -19359,10 +19362,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C84" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -19374,10 +19377,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C85" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -19389,10 +19392,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C86" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -19404,10 +19407,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C87" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -19419,10 +19422,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="C88" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -19434,10 +19437,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C89" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -19449,10 +19452,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="C90" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -19464,10 +19467,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C91" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -19479,10 +19482,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C92" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -19494,10 +19497,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C93" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -19509,10 +19512,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C94" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -19555,13 +19558,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B98" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C98" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -19588,10 +19591,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="C100" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -19603,10 +19606,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C101" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -19672,10 +19675,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -19691,13 +19694,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>18</v>
@@ -19710,13 +19713,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="C4" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>18</v>
@@ -19729,13 +19732,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="C5" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>18</v>
@@ -19748,13 +19751,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="C6" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>18</v>
@@ -19767,13 +19770,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>18</v>
@@ -19786,13 +19789,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>18</v>
@@ -19805,13 +19808,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>18</v>
@@ -19824,13 +19827,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>18</v>
@@ -19843,13 +19846,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>18</v>
@@ -19862,13 +19865,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>18</v>
@@ -19881,13 +19884,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>18</v>
@@ -19900,13 +19903,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>18</v>
@@ -19919,13 +19922,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>18</v>
@@ -19938,13 +19941,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>18</v>
@@ -19957,13 +19960,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>18</v>
@@ -19976,13 +19979,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>18</v>
@@ -19995,13 +19998,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>18</v>
@@ -20014,13 +20017,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>18</v>
@@ -20033,13 +20036,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>18</v>
@@ -20052,13 +20055,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>18</v>
@@ -20071,13 +20074,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>18</v>
@@ -20107,13 +20110,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B26" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C26" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -20125,10 +20128,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="C27" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -20140,10 +20143,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C28" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -20207,13 +20210,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C2" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>18</v>
@@ -20228,13 +20231,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C3" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>18</v>
@@ -20247,13 +20250,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C4" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>18</v>
@@ -20266,13 +20269,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C5" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>18</v>
@@ -20285,16 +20288,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C6" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -20306,13 +20309,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C7" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>18</v>
@@ -20325,13 +20328,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>18</v>
@@ -20346,13 +20349,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>18</v>
@@ -20365,13 +20368,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="C10" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>18</v>
@@ -20384,13 +20387,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>18</v>
@@ -20403,13 +20406,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>18</v>
@@ -20422,13 +20425,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>498</v>
       </c>
       <c r="C13" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>18</v>
@@ -20441,13 +20444,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>18</v>
@@ -20460,13 +20463,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>498</v>
       </c>
       <c r="C15" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>18</v>
@@ -20481,13 +20484,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>18</v>
@@ -20500,7 +20503,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
@@ -20519,7 +20522,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>29</v>
@@ -20538,7 +20541,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>29</v>
@@ -20574,13 +20577,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B22" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="C22" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -20592,10 +20595,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C23" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -20607,10 +20610,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C24" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -20622,10 +20625,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C25" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -20653,13 +20656,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B28" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="C28" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -20671,10 +20674,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="C29" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -20686,10 +20689,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C30" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -20701,10 +20704,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="C31" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -20716,10 +20719,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="C32" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -20731,10 +20734,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C33" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -20746,10 +20749,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C34" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -20761,10 +20764,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C35" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -20776,10 +20779,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -20791,10 +20794,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C37" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -20806,10 +20809,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C38" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -20821,10 +20824,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="C39" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -20836,10 +20839,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="C40" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -20851,10 +20854,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C41" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -20866,10 +20869,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C42" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -20881,10 +20884,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C43" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -20896,10 +20899,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C44" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -20914,7 +20917,7 @@
         <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -20926,10 +20929,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C46" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -20941,10 +20944,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C47" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -20956,10 +20959,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C48" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -20987,13 +20990,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B51" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C51" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -21005,10 +21008,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C52" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -21020,10 +21023,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C53" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -21051,13 +21054,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B56" t="s">
         <v>715</v>
       </c>
       <c r="C56" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -21072,7 +21075,7 @@
         <v>718</v>
       </c>
       <c r="C57" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -21084,10 +21087,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C58" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -21099,10 +21102,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C59" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -21169,16 +21172,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C2" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -21190,7 +21193,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>9</v>
@@ -21209,7 +21212,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>9</v>
@@ -21218,7 +21221,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -21230,13 +21233,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>517</v>
       </c>
       <c r="C5" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>18</v>
@@ -21249,16 +21252,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="E6"/>
       <c r="G6" s="17" t="s">
@@ -21268,16 +21271,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="E7"/>
       <c r="G7" s="17" t="s">
@@ -21287,7 +21290,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>42</v>
@@ -21329,7 +21332,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>101</v>
@@ -21348,16 +21351,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C11" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="E11"/>
       <c r="G11" s="17" t="s">
@@ -21367,13 +21370,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="C12" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>18</v>
@@ -21386,16 +21389,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="E13"/>
       <c r="G13" s="17" t="s">
@@ -21405,16 +21408,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="E14"/>
       <c r="G14" s="17" t="s">
@@ -21424,16 +21427,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="E15"/>
       <c r="G15" s="17" t="s">
@@ -21443,16 +21446,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="E16"/>
       <c r="G16" s="17" t="s">
@@ -21462,16 +21465,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="E17"/>
       <c r="G17" s="17" t="s">
@@ -21481,16 +21484,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="E18"/>
       <c r="G18" s="17" t="s">
@@ -21500,16 +21503,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="E19"/>
       <c r="G19" s="17" t="s">
@@ -21576,13 +21579,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>18</v>
@@ -21669,13 +21672,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B29" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="C29" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -21687,10 +21690,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C30" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -21702,10 +21705,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="C31" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -21717,10 +21720,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="C32" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -21732,10 +21735,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C33" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -21827,10 +21830,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B41" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="C41" t="s">
         <v>542</v>
@@ -21845,10 +21848,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C42" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -21890,10 +21893,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="C45" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -21908,7 +21911,7 @@
         <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -21966,13 +21969,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B51" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="C51" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -21984,10 +21987,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="C52" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -21999,10 +22002,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="C53" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -22014,10 +22017,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C54" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -22963,13 +22966,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C3" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>18</v>
@@ -22987,10 +22990,10 @@
         <v>490</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="C4" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>18</v>
@@ -23005,13 +23008,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>18</v>
@@ -23024,10 +23027,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -23095,13 +23098,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>18</v>
@@ -23196,7 +23199,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>18</v>
@@ -23215,7 +23218,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>18</v>
@@ -23228,7 +23231,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>55</v>
@@ -23247,7 +23250,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>133</v>
@@ -23266,7 +23269,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>133</v>
@@ -24503,13 +24506,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>18</v>
@@ -24522,13 +24525,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>18</v>
@@ -24541,13 +24544,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>18</v>
@@ -24560,7 +24563,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>133</v>
@@ -24598,10 +24601,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -24669,13 +24672,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>18</v>
@@ -24688,13 +24691,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>18</v>
@@ -24707,13 +24710,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>18</v>
@@ -24745,7 +24748,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>133</v>
@@ -24835,13 +24838,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>18</v>
@@ -24892,7 +24895,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>133</v>
@@ -24982,13 +24985,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>18</v>
@@ -25001,13 +25004,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>18</v>
@@ -25058,13 +25061,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>18</v>
@@ -25102,7 +25105,7 @@
         <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>18</v>
@@ -25115,11 +25118,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>18</v>
@@ -25132,10 +25135,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -25227,7 +25230,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>58</v>
@@ -25252,7 +25255,7 @@
         <v>615</v>
       </c>
       <c r="C16" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>18</v>
@@ -25265,13 +25268,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>498</v>
       </c>
       <c r="C17" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>18</v>
@@ -25284,16 +25287,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="E18"/>
       <c r="G18" s="23" t="s">
@@ -25303,10 +25306,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -26198,13 +26201,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="B80" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="C80" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -26216,10 +26219,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="C81" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -26231,10 +26234,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="C82" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -26246,10 +26249,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="C83" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -26261,10 +26264,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="C84" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -26276,10 +26279,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="C85" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -26291,10 +26294,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="C86" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -26306,10 +26309,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="C87" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -26321,10 +26324,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="C88" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -26336,10 +26339,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="C89" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -26351,10 +26354,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="C90" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -26366,10 +26369,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="C91" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -26381,10 +26384,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="C92" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -26413,12 +26416,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
     </row>
   </sheetData>
@@ -35451,231 +35454,231 @@
       </c>
       <c r="E16"/>
       <c r="G16" s="6" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C17" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E17"/>
       <c r="G17" s="6" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E18"/>
       <c r="G18" s="6" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E19"/>
       <c r="G19" s="6" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E20"/>
       <c r="G20" s="6" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C21" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E21"/>
       <c r="G21" s="6" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C22" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E22"/>
       <c r="G22" s="6" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E23"/>
       <c r="G23" s="6" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="E24"/>
       <c r="G24" s="6" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C25" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="E25"/>
       <c r="G25" s="6" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C26" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E26"/>
       <c r="G26" s="6" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C27" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E27"/>
       <c r="G27" s="6" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C28" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="E28"/>
       <c r="G28" s="6" t="s">
@@ -35685,115 +35688,115 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C29" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E29"/>
       <c r="G29" s="6" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C30" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="E30"/>
       <c r="G30" s="6" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C31" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E31"/>
       <c r="G31" s="6" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C32" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E32"/>
       <c r="G32" s="6" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C33" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E33"/>
       <c r="G33" s="6" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C34" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="E34"/>
       <c r="G34" s="6" t="s">
-        <v>1358</v>
+        <v>1336</v>
       </c>
       <c r="H34"/>
     </row>
@@ -35812,7 +35815,7 @@
       </c>
       <c r="E35"/>
       <c r="G35" s="6" t="s">
-        <v>1358</v>
+        <v>1336</v>
       </c>
       <c r="H35"/>
     </row>
@@ -36116,7 +36119,7 @@
       </c>
       <c r="E51"/>
       <c r="G51" s="6" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H51"/>
     </row>
@@ -36135,7 +36138,7 @@
       </c>
       <c r="E52"/>
       <c r="G52" s="6" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H52"/>
     </row>
@@ -36154,7 +36157,7 @@
       </c>
       <c r="E53"/>
       <c r="G53" s="6" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H53"/>
     </row>
@@ -36230,26 +36233,26 @@
       </c>
       <c r="E57"/>
       <c r="G57" s="6" t="s">
-        <v>976</v>
+        <v>1418</v>
       </c>
       <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>517</v>
       </c>
       <c r="C58" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E58"/>
       <c r="G58" s="6" t="s">
-        <v>976</v>
+        <v>1418</v>
       </c>
       <c r="H58"/>
     </row>
@@ -36339,10 +36342,10 @@
         <v>1363</v>
       </c>
       <c r="B66" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C66" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -36354,10 +36357,10 @@
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C67" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -36369,10 +36372,10 @@
     <row r="68">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C68" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -36384,10 +36387,10 @@
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C69" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -36463,10 +36466,10 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C75" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -36612,7 +36615,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>517</v>
@@ -36631,13 +36634,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C3" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>18</v>
@@ -36650,13 +36653,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C4" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>18</v>
@@ -36669,13 +36672,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C5" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>18</v>
@@ -36688,7 +36691,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>517</v>
@@ -36707,13 +36710,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C7" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>18</v>
@@ -36726,13 +36729,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C8" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>18</v>
@@ -36745,13 +36748,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C9" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>18</v>
@@ -36764,13 +36767,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C10" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>18</v>
@@ -36783,13 +36786,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C11" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>18</v>
@@ -36802,13 +36805,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C12" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>18</v>
@@ -36821,13 +36824,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C13" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>18</v>
@@ -36840,13 +36843,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C14" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>18</v>
@@ -36859,13 +36862,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C15" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>18</v>
@@ -36878,13 +36881,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C16" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>18</v>
@@ -36897,13 +36900,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C17" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>18</v>
@@ -36916,13 +36919,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C18" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>18</v>
@@ -36935,13 +36938,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C19" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>18</v>
@@ -36954,13 +36957,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C20" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>18</v>
@@ -36973,13 +36976,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C21" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>18</v>
@@ -36992,13 +36995,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C22" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>18</v>
@@ -37011,13 +37014,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>517</v>
       </c>
       <c r="C23" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>18</v>
@@ -37030,13 +37033,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>18</v>
@@ -37169,7 +37172,7 @@
         <v>599</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -37185,13 +37188,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>18</v>
@@ -37204,13 +37207,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>18</v>
@@ -37223,13 +37226,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>18</v>
@@ -37242,13 +37245,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>18</v>
@@ -37261,13 +37264,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C7" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
@@ -37280,13 +37283,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -37299,13 +37302,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C9" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -37318,13 +37321,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -37337,13 +37340,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -37356,13 +37359,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C12" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
@@ -37375,13 +37378,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -37394,13 +37397,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>18</v>
@@ -37430,13 +37433,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B17" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C17" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -37448,10 +37451,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C18" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -37463,10 +37466,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C19" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -37478,10 +37481,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C20" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -37493,10 +37496,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C21" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -37508,10 +37511,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C22" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -37523,10 +37526,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C23" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -37538,10 +37541,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C24" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -37584,13 +37587,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B28" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C28" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -37602,10 +37605,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C29" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -37648,13 +37651,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B33" t="s">
         <v>1254</v>
       </c>
       <c r="C33" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -37666,10 +37669,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C34" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -37684,7 +37687,7 @@
         <v>1256</v>
       </c>
       <c r="C35" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -37696,10 +37699,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C36" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -37783,7 +37786,7 @@
         <v>599</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -37799,13 +37802,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
@@ -37818,13 +37821,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>18</v>
@@ -37837,13 +37840,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C5" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
@@ -37856,13 +37859,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>18</v>
@@ -37875,13 +37878,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C7" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>18</v>
@@ -37894,13 +37897,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>18</v>
@@ -37913,13 +37916,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C9" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>18</v>
@@ -37932,13 +37935,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
@@ -37951,13 +37954,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>18</v>
@@ -37970,10 +37973,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -38006,13 +38009,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B15" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C15" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -38024,10 +38027,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C16" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -38039,10 +38042,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C17" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -38054,10 +38057,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C18" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -38069,10 +38072,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C19" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -38084,10 +38087,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C20" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -38099,10 +38102,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C21" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -38114,10 +38117,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C22" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -38160,13 +38163,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B26" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C26" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -38178,10 +38181,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C27" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -38224,13 +38227,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B31" t="s">
         <v>1254</v>
       </c>
       <c r="C31" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -38242,10 +38245,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C32" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -38260,7 +38263,7 @@
         <v>1256</v>
       </c>
       <c r="C33" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -38272,10 +38275,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C34" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -6820,7 +6820,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.50.0-SNAPSHOT</t>
+    <t>1.51.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -6820,7 +6820,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.50.0-SNAPSHOT</t>
+    <t>${project.version}</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -6871,7 +6871,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.51.0-SNAPSHOT</t>
+    <t>${project.version}</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -6437,7 +6437,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.52.0-SNAPSHOT</t>
+    <t>1.53.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9601" uniqueCount="2467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9648" uniqueCount="2483">
   <si>
     <t>Field</t>
   </si>
@@ -1656,7 +1656,7 @@
     <t>addressTypeDetails</t>
   </si>
   <si>
-    <t>Address Type specification</t>
+    <t>Address name / description</t>
   </si>
   <si>
     <t>facilityType</t>
@@ -4914,6 +4914,12 @@
     <t>Public place</t>
   </si>
   <si>
+    <t>SCATTERED</t>
+  </si>
+  <si>
+    <t>Scattered</t>
+  </si>
+  <si>
     <t>BUS</t>
   </si>
   <si>
@@ -6957,6 +6963,9 @@
     <t>not executable</t>
   </si>
   <si>
+    <t>superordinateEvent</t>
+  </si>
+  <si>
     <t>eventStatus</t>
   </si>
   <si>
@@ -7131,6 +7140,21 @@
     <t>Specify other event place</t>
   </si>
   <si>
+    <t>transregionalOutbreak</t>
+  </si>
+  <si>
+    <t>Transregional outbreak</t>
+  </si>
+  <si>
+    <t>diseaseTransmissionMode</t>
+  </si>
+  <si>
+    <t>DiseaseTransmissionMode</t>
+  </si>
+  <si>
+    <t>Primary mode of transmission</t>
+  </si>
+  <si>
     <t>SIGNAL</t>
   </si>
   <si>
@@ -7225,6 +7249,30 @@
   </si>
   <si>
     <t>Medico-social establishments</t>
+  </si>
+  <si>
+    <t>HUMAN_TO_HUMAN</t>
+  </si>
+  <si>
+    <t>Primarily via human to human</t>
+  </si>
+  <si>
+    <t>Primarily via animal</t>
+  </si>
+  <si>
+    <t>Primarily via environment</t>
+  </si>
+  <si>
+    <t>FOOD</t>
+  </si>
+  <si>
+    <t>Primarily via food</t>
+  </si>
+  <si>
+    <t>VECTOR_BORNE</t>
+  </si>
+  <si>
+    <t>Primarily vector-borne</t>
   </si>
   <si>
     <t>Person</t>
@@ -7817,7 +7865,7 @@
 </file>
 
 <file path=xl/tables/table114.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="114" name="Event" displayName="Event" ref="A1:K39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="114" name="Event" displayName="Event" ref="A1:K41">
   <autoFilter/>
   <tableColumns count="11">
     <tableColumn id="1" name="Field"/>
@@ -7837,7 +7885,7 @@
 </file>
 
 <file path=xl/tables/table115.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="115" name="EventEventStatus" displayName="EventEventStatus" ref="A41:E46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="115" name="EventEventStatus" displayName="EventEventStatus" ref="A43:E48">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7851,7 +7899,7 @@
 </file>
 
 <file path=xl/tables/table116.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="116" name="EventRiskLevel" displayName="EventRiskLevel" ref="A48:E52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="116" name="EventRiskLevel" displayName="EventRiskLevel" ref="A50:E54">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7865,7 +7913,7 @@
 </file>
 
 <file path=xl/tables/table117.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="117" name="EventEventInvestigationStatus" displayName="EventEventInvestigationStatus" ref="A54:E58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="117" name="EventEventInvestigationStatus" displayName="EventEventInvestigationStatus" ref="A56:E60">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7879,7 +7927,7 @@
 </file>
 
 <file path=xl/tables/table118.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="118" name="EventYesNoUnknown" displayName="EventYesNoUnknown" ref="A60:E63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="118" name="EventYesNoUnknown" displayName="EventYesNoUnknown" ref="A62:E65">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7893,7 +7941,7 @@
 </file>
 
 <file path=xl/tables/table119.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="119" name="EventTypeOfPlace" displayName="EventTypeOfPlace" ref="A65:E72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="119" name="EventTypeOfPlace" displayName="EventTypeOfPlace" ref="A67:E75">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7921,7 +7969,7 @@
 </file>
 
 <file path=xl/tables/table120.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="120" name="EventMeansOfTransport" displayName="EventMeansOfTransport" ref="A74:E79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="120" name="EventMeansOfTransport" displayName="EventMeansOfTransport" ref="A77:E82">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7935,7 +7983,7 @@
 </file>
 
 <file path=xl/tables/table121.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="121" name="EventEventSourceType" displayName="EventEventSourceType" ref="A81:E86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="121" name="EventEventSourceType" displayName="EventEventSourceType" ref="A84:E89">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7949,7 +7997,7 @@
 </file>
 
 <file path=xl/tables/table122.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="122" name="EventInstitutionalPartnerType" displayName="EventInstitutionalPartnerType" ref="A88:E94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="122" name="EventInstitutionalPartnerType" displayName="EventInstitutionalPartnerType" ref="A91:E97">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7963,7 +8011,7 @@
 </file>
 
 <file path=xl/tables/table123.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="123" name="EventDisease" displayName="EventDisease" ref="A96:E152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="123" name="EventDisease" displayName="EventDisease" ref="A99:E155">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -7977,27 +8025,21 @@
 </file>
 
 <file path=xl/tables/table124.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="124" name="Event_participant" displayName="Event_participant" ref="A1:K8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="124" name="EventDiseaseTransmissionMode" displayName="EventDiseaseTransmissionMode" ref="A157:E163">
   <autoFilter/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Field"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Data protection"/>
-    <tableColumn id="4" name="Caption"/>
-    <tableColumn id="5" name="Description"/>
-    <tableColumn id="6" name="Required"/>
-    <tableColumn id="7" name="New disease"/>
-    <tableColumn id="8" name="Diseases"/>
-    <tableColumn id="9" name="Outbreaks"/>
-    <tableColumn id="10" name="Ignored countries"/>
-    <tableColumn id="11" name="Exclusive countries"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
 <file path=xl/tables/table125.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="125" name="Facility" displayName="Facility" ref="A1:K12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="125" name="Event_participant" displayName="Event_participant" ref="A1:K8">
   <autoFilter/>
   <tableColumns count="11">
     <tableColumn id="1" name="Field"/>
@@ -8017,21 +8059,7 @@
 </file>
 
 <file path=xl/tables/table126.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="126" name="FacilityFacilityType" displayName="FacilityFacilityType" ref="A14:E55">
-  <autoFilter/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Caption"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Short"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
-</table>
-</file>
-
-<file path=xl/tables/table127.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="127" name="Country" displayName="Country" ref="A1:K6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="126" name="Facility" displayName="Facility" ref="A1:K12">
   <autoFilter/>
   <tableColumns count="11">
     <tableColumn id="1" name="Field"/>
@@ -8050,8 +8078,22 @@
 </table>
 </file>
 
+<file path=xl/tables/table127.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="127" name="FacilityFacilityType" displayName="FacilityFacilityType" ref="A14:E55">
+  <autoFilter/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Short"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
 <file path=xl/tables/table128.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="128" name="Region" displayName="Region" ref="A1:K7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="128" name="Country" displayName="Country" ref="A1:K6">
   <autoFilter/>
   <tableColumns count="11">
     <tableColumn id="1" name="Field"/>
@@ -8071,7 +8113,7 @@
 </file>
 
 <file path=xl/tables/table129.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="129" name="District" displayName="District" ref="A1:K7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="129" name="Region" displayName="Region" ref="A1:K7">
   <autoFilter/>
   <tableColumns count="11">
     <tableColumn id="1" name="Field"/>
@@ -8105,7 +8147,7 @@
 </file>
 
 <file path=xl/tables/table130.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="130" name="Community" displayName="Community" ref="A1:K6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="130" name="District" displayName="District" ref="A1:K7">
   <autoFilter/>
   <tableColumns count="11">
     <tableColumn id="1" name="Field"/>
@@ -8125,7 +8167,7 @@
 </file>
 
 <file path=xl/tables/table131.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="131" name="User" displayName="User" ref="A1:K19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="131" name="Community" displayName="Community" ref="A1:K6">
   <autoFilter/>
   <tableColumns count="11">
     <tableColumn id="1" name="Field"/>
@@ -8145,7 +8187,27 @@
 </file>
 
 <file path=xl/tables/table132.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="132" name="UserFacilityReference" displayName="UserFacilityReference" ref="A21:D24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="132" name="User" displayName="User" ref="A1:K19">
+  <autoFilter/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Data protection"/>
+    <tableColumn id="4" name="Caption"/>
+    <tableColumn id="5" name="Description"/>
+    <tableColumn id="6" name="Required"/>
+    <tableColumn id="7" name="New disease"/>
+    <tableColumn id="8" name="Diseases"/>
+    <tableColumn id="9" name="Outbreaks"/>
+    <tableColumn id="10" name="Ignored countries"/>
+    <tableColumn id="11" name="Exclusive countries"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table133.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="133" name="UserFacilityReference" displayName="UserFacilityReference" ref="A21:D24">
   <autoFilter/>
   <tableColumns count="4">
     <tableColumn id="1" name="Type"/>
@@ -8157,8 +8219,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table133.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="133" name="UserDisease" displayName="UserDisease" ref="A26:E82">
+<file path=xl/tables/table134.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="134" name="UserDisease" displayName="UserDisease" ref="A26:E82">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8171,8 +8233,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table134.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="134" name="UserLanguage" displayName="UserLanguage" ref="A84:E97">
+<file path=xl/tables/table135.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="135" name="UserLanguage" displayName="UserLanguage" ref="A84:E97">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8877,7 +8939,7 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ExposureTypeOfPlace" displayName="ExposureTypeOfPlace" ref="A73:E80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ExposureTypeOfPlace" displayName="ExposureTypeOfPlace" ref="A73:E81">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8891,7 +8953,7 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ExposureMeansOfTransport" displayName="ExposureMeansOfTransport" ref="A82:E87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ExposureMeansOfTransport" displayName="ExposureMeansOfTransport" ref="A83:E88">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8905,7 +8967,7 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="ExposureYesNoUnknown" displayName="ExposureYesNoUnknown" ref="A89:E92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="ExposureYesNoUnknown" displayName="ExposureYesNoUnknown" ref="A90:E93">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8933,7 +8995,7 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="ExposureAnimalCondition" displayName="ExposureAnimalCondition" ref="A94:E98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="ExposureAnimalCondition" displayName="ExposureAnimalCondition" ref="A95:E99">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8947,7 +9009,7 @@
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="ExposureAnimalContactType" displayName="ExposureAnimalContactType" ref="A100:E105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="ExposureAnimalContactType" displayName="ExposureAnimalContactType" ref="A101:E106">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8961,7 +9023,7 @@
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ExposureWaterSource" displayName="ExposureWaterSource" ref="A107:E112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ExposureWaterSource" displayName="ExposureWaterSource" ref="A108:E113">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8975,7 +9037,7 @@
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="ExposureGatheringType" displayName="ExposureGatheringType" ref="A114:E118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="ExposureGatheringType" displayName="ExposureGatheringType" ref="A115:E119">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8989,7 +9051,7 @@
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="ExposureHabitationType" displayName="ExposureHabitationType" ref="A120:E122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="ExposureHabitationType" displayName="ExposureHabitationType" ref="A121:E123">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -9003,7 +9065,7 @@
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="ExposureTypeOfAnimal" displayName="ExposureTypeOfAnimal" ref="A124:E139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="ExposureTypeOfAnimal" displayName="ExposureTypeOfAnimal" ref="A125:E140">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -13899,7 +13961,7 @@
         <v>683</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
@@ -13918,14 +13980,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>22</v>
@@ -13940,7 +14002,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>12</v>
@@ -13949,7 +14011,7 @@
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>22</v>
@@ -13964,14 +14026,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>22</v>
@@ -13986,7 +14048,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>12</v>
@@ -13995,7 +14057,7 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>22</v>
@@ -14010,14 +14072,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>22</v>
@@ -14032,14 +14094,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>22</v>
@@ -14054,14 +14116,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>22</v>
@@ -14076,7 +14138,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>12</v>
@@ -14085,7 +14147,7 @@
         <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>22</v>
@@ -14100,7 +14162,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>12</v>
@@ -14109,7 +14171,7 @@
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>22</v>
@@ -14124,10 +14186,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
@@ -14163,13 +14225,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="B15" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="C15" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -14181,10 +14243,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="C16" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -14196,10 +14258,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="C17" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -14211,10 +14273,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="C18" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -14226,10 +14288,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="C19" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -14241,10 +14303,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="C20" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -14256,10 +14318,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="C21" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -14271,10 +14333,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="C22" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -14317,13 +14379,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="B26" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="C26" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -14335,10 +14397,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="C27" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -14381,13 +14443,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="B31" t="s">
         <v>1457</v>
       </c>
       <c r="C31" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -14399,10 +14461,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="C32" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -14417,7 +14479,7 @@
         <v>1459</v>
       </c>
       <c r="C33" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -14429,10 +14491,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="C34" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -14528,7 +14590,7 @@
         <v>685</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
@@ -14591,14 +14653,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>22</v>
@@ -14613,7 +14675,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>12</v>
@@ -14622,7 +14684,7 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>22</v>
@@ -14637,7 +14699,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>12</v>
@@ -14646,7 +14708,7 @@
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>22</v>
@@ -15585,14 +15647,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>22</v>
@@ -15607,14 +15669,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>22</v>
@@ -15629,7 +15691,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>12</v>
@@ -15638,7 +15700,7 @@
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>22</v>
@@ -15660,7 +15722,7 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>22</v>
@@ -15697,14 +15759,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>22</v>
@@ -15825,7 +15887,7 @@
         <v>623</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="F12"/>
       <c r="H12" s="12" t="s">
@@ -15847,7 +15909,7 @@
         <v>624</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="F13"/>
       <c r="H13" s="12" t="s">
@@ -15869,7 +15931,7 @@
         <v>625</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="F14"/>
       <c r="H14" s="12" t="s">
@@ -15881,14 +15943,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>140</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>22</v>
@@ -15905,14 +15967,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -15927,14 +15989,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>22</v>
@@ -15951,14 +16013,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>22</v>
@@ -15975,7 +16037,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>12</v>
@@ -15984,7 +16046,7 @@
         <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>22</v>
@@ -16001,14 +16063,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>22</v>
@@ -16025,7 +16087,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>12</v>
@@ -16034,7 +16096,7 @@
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>22</v>
@@ -16051,17 +16113,17 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="F22"/>
       <c r="H22" s="12" t="s">
@@ -16073,7 +16135,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>12</v>
@@ -16082,7 +16144,7 @@
         <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>22</v>
@@ -16097,14 +16159,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>22</v>
@@ -16119,14 +16181,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>22</v>
@@ -16141,14 +16203,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>22</v>
@@ -16173,7 +16235,7 @@
         <v>756</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="F27"/>
       <c r="H27" s="12" t="s">
@@ -16262,7 +16324,7 @@
         <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>22</v>
@@ -16277,17 +16339,17 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="F32"/>
       <c r="H32" s="12" t="s">
@@ -16299,7 +16361,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>12</v>
@@ -16308,7 +16370,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>22</v>
@@ -16371,14 +16433,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>140</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>22</v>
@@ -16393,14 +16455,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>603</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>22</v>
@@ -16415,7 +16477,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>12</v>
@@ -16424,7 +16486,7 @@
         <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>22</v>
@@ -16439,14 +16501,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>603</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>22</v>
@@ -16558,7 +16620,7 @@
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>22</v>
@@ -16575,7 +16637,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>584</v>
@@ -16584,7 +16646,7 @@
         <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>22</v>
@@ -16599,14 +16661,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>22</v>
@@ -16621,7 +16683,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>584</v>
@@ -16630,7 +16692,7 @@
         <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>22</v>
@@ -17003,10 +17065,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="s">
@@ -17069,14 +17131,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>603</v>
       </c>
       <c r="C66"/>
       <c r="D66" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>22</v>
@@ -17091,14 +17153,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="C67"/>
       <c r="D67" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>22</v>
@@ -17115,7 +17177,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>12</v>
@@ -18113,10 +18175,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="B133" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="C133" t="s">
         <v>577</v>
@@ -18131,10 +18193,10 @@
     <row r="134">
       <c r="A134"/>
       <c r="B134" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="C134" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="D134" t="s">
         <v>22</v>
@@ -18146,10 +18208,10 @@
     <row r="135">
       <c r="A135"/>
       <c r="B135" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="C135" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="D135" t="s">
         <v>22</v>
@@ -18207,13 +18269,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="B140" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="C140" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="D140" t="s">
         <v>22</v>
@@ -18271,13 +18333,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="B145" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="C145" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="D145" t="s">
         <v>22</v>
@@ -18289,10 +18351,10 @@
     <row r="146">
       <c r="A146"/>
       <c r="B146" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="C146" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="D146" t="s">
         <v>22</v>
@@ -18304,10 +18366,10 @@
     <row r="147">
       <c r="A147"/>
       <c r="B147" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="C147" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="D147" t="s">
         <v>22</v>
@@ -18319,10 +18381,10 @@
     <row r="148">
       <c r="A148"/>
       <c r="B148" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="C148" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="D148" t="s">
         <v>22</v>
@@ -18334,10 +18396,10 @@
     <row r="149">
       <c r="A149"/>
       <c r="B149" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="C149" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="D149" t="s">
         <v>22</v>
@@ -18349,10 +18411,10 @@
     <row r="150">
       <c r="A150"/>
       <c r="B150" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="C150" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="D150" t="s">
         <v>22</v>
@@ -18364,10 +18426,10 @@
     <row r="151">
       <c r="A151"/>
       <c r="B151" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="C151" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="D151" t="s">
         <v>22</v>
@@ -18379,10 +18441,10 @@
     <row r="152">
       <c r="A152"/>
       <c r="B152" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="C152" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="D152" t="s">
         <v>22</v>
@@ -18394,10 +18456,10 @@
     <row r="153">
       <c r="A153"/>
       <c r="B153" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="C153" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="D153" t="s">
         <v>22</v>
@@ -18409,10 +18471,10 @@
     <row r="154">
       <c r="A154"/>
       <c r="B154" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="C154" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="D154" t="s">
         <v>22</v>
@@ -18424,10 +18486,10 @@
     <row r="155">
       <c r="A155"/>
       <c r="B155" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="C155" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="D155" t="s">
         <v>22</v>
@@ -18439,10 +18501,10 @@
     <row r="156">
       <c r="A156"/>
       <c r="B156" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="C156" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="D156" t="s">
         <v>22</v>
@@ -18454,10 +18516,10 @@
     <row r="157">
       <c r="A157"/>
       <c r="B157" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="C157" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="D157" t="s">
         <v>22</v>
@@ -18469,10 +18531,10 @@
     <row r="158">
       <c r="A158"/>
       <c r="B158" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="C158" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="D158" t="s">
         <v>22</v>
@@ -18500,13 +18562,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="B161" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="C161" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="D161" t="s">
         <v>22</v>
@@ -18518,10 +18580,10 @@
     <row r="162">
       <c r="A162"/>
       <c r="B162" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="C162" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="D162" t="s">
         <v>22</v>
@@ -18533,10 +18595,10 @@
     <row r="163">
       <c r="A163"/>
       <c r="B163" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="C163" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="D163" t="s">
         <v>22</v>
@@ -18548,10 +18610,10 @@
     <row r="164">
       <c r="A164"/>
       <c r="B164" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="C164" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="D164" t="s">
         <v>22</v>
@@ -18563,10 +18625,10 @@
     <row r="165">
       <c r="A165"/>
       <c r="B165" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="C165" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="D165" t="s">
         <v>22</v>
@@ -18594,19 +18656,19 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="B168" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="C168" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="D168" t="s">
         <v>22</v>
       </c>
       <c r="E168" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="169">
@@ -18615,7 +18677,7 @@
         <v>821</v>
       </c>
       <c r="C169" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="D169" t="s">
         <v>22</v>
@@ -18627,16 +18689,16 @@
     <row r="170">
       <c r="A170"/>
       <c r="B170" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="C170" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="D170" t="s">
         <v>22</v>
       </c>
       <c r="E170" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="172">
@@ -18658,13 +18720,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="B173" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="C173" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="D173" t="s">
         <v>22</v>
@@ -18676,10 +18738,10 @@
     <row r="174">
       <c r="A174"/>
       <c r="B174" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="C174" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="D174" t="s">
         <v>22</v>
@@ -18691,10 +18753,10 @@
     <row r="175">
       <c r="A175"/>
       <c r="B175" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="C175" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="D175" t="s">
         <v>22</v>
@@ -18816,13 +18878,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="B185" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="C185" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="D185" t="s">
         <v>22</v>
@@ -18834,10 +18896,10 @@
     <row r="186">
       <c r="A186"/>
       <c r="B186" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="C186" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="D186" t="s">
         <v>22</v>
@@ -18849,10 +18911,10 @@
     <row r="187">
       <c r="A187"/>
       <c r="B187" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="C187" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="D187" t="s">
         <v>22</v>
@@ -18864,10 +18926,10 @@
     <row r="188">
       <c r="A188"/>
       <c r="B188" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="C188" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="D188" t="s">
         <v>22</v>
@@ -19113,13 +19175,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="B207" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="C207" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="D207" t="s">
         <v>22</v>
@@ -19131,10 +19193,10 @@
     <row r="208">
       <c r="A208"/>
       <c r="B208" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="C208" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="D208" t="s">
         <v>22</v>
@@ -19146,7 +19208,7 @@
     <row r="209">
       <c r="A209"/>
       <c r="B209" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="C209" t="s">
         <v>962</v>
@@ -19258,7 +19320,7 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>22</v>
@@ -19297,17 +19359,17 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -19321,7 +19383,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>584</v>
@@ -19330,7 +19392,7 @@
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>22</v>
@@ -19347,17 +19409,17 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -19371,7 +19433,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>12</v>
@@ -19380,10 +19442,10 @@
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="F7"/>
       <c r="H7" s="13" t="s">
@@ -19426,7 +19488,7 @@
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>22</v>
@@ -19450,7 +19512,7 @@
         <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>22</v>
@@ -19487,14 +19549,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>22</v>
@@ -20385,13 +20447,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="C73" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="D73" t="s">
         <v>22</v>
@@ -20403,31 +20465,31 @@
     <row r="74">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="C74" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="D74" t="s">
         <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="C75" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="D75" t="s">
         <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="77">
@@ -20449,13 +20511,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B78" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="C78" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
@@ -20467,10 +20529,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="C79" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="D79" t="s">
         <v>22</v>
@@ -20548,14 +20610,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>22</v>
@@ -20570,14 +20632,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>1561</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>22</v>
@@ -20592,14 +20654,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>22</v>
@@ -20614,14 +20676,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>22</v>
@@ -20636,14 +20698,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>22</v>
@@ -20658,17 +20720,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -20682,7 +20744,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>55</v>
@@ -20800,14 +20862,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>22</v>
@@ -20824,7 +20886,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>12</v>
@@ -20833,7 +20895,7 @@
         <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>22</v>
@@ -20848,14 +20910,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>22</v>
@@ -20872,7 +20934,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>72</v>
@@ -20896,7 +20958,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>12</v>
@@ -20905,7 +20967,7 @@
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>22</v>
@@ -20920,14 +20982,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>22</v>
@@ -20942,7 +21004,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>12</v>
@@ -20951,7 +21013,7 @@
         <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>22</v>
@@ -20966,14 +21028,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>22</v>
@@ -20988,14 +21050,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>22</v>
@@ -21010,7 +21072,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>12</v>
@@ -21019,7 +21081,7 @@
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>22</v>
@@ -21034,7 +21096,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>12</v>
@@ -21058,14 +21120,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>22</v>
@@ -21080,10 +21142,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
@@ -21102,14 +21164,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>22</v>
@@ -21124,14 +21186,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>22</v>
@@ -21146,14 +21208,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>22</v>
@@ -21168,14 +21230,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>22</v>
@@ -21190,14 +21252,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>22</v>
@@ -21212,12 +21274,12 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>22</v>
@@ -21232,12 +21294,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>22</v>
@@ -21252,14 +21314,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>22</v>
@@ -21274,14 +21336,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>22</v>
@@ -21409,13 +21471,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="B44" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="C44" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -21427,10 +21489,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="C45" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -21442,10 +21504,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="C46" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -21457,10 +21519,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="C47" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -21472,10 +21534,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="C48" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -21487,10 +21549,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="C49" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -21502,10 +21564,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="C50" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -21517,10 +21579,10 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="C51" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -21532,10 +21594,10 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="C52" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
@@ -21547,10 +21609,10 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="C53" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -21562,10 +21624,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="C54" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -21577,10 +21639,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="C55" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
@@ -21592,10 +21654,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="C56" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
@@ -21607,10 +21669,10 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="C57" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -21622,10 +21684,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="C58" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -21637,10 +21699,10 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="C59" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -21652,10 +21714,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="C60" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -21667,10 +21729,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="C61" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
@@ -21682,10 +21744,10 @@
     <row r="62">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="C62" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -21728,13 +21790,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B66" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="C66" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
@@ -21746,10 +21808,10 @@
     <row r="67">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="C67" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="D67" t="s">
         <v>22</v>
@@ -21777,13 +21839,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B70" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="C70" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="D70" t="s">
         <v>22</v>
@@ -21795,10 +21857,10 @@
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="C71" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="D71" t="s">
         <v>22</v>
@@ -21826,13 +21888,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B74" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="C74" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="D74" t="s">
         <v>22</v>
@@ -21844,10 +21906,10 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="C75" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="D75" t="s">
         <v>22</v>
@@ -21859,10 +21921,10 @@
     <row r="76">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="C76" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="D76" t="s">
         <v>22</v>
@@ -21890,13 +21952,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B79" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="C79" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="D79" t="s">
         <v>22</v>
@@ -21923,10 +21985,10 @@
     <row r="81">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="C81" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="D81" t="s">
         <v>22</v>
@@ -21938,10 +22000,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="C82" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="D82" t="s">
         <v>22</v>
@@ -22022,10 +22084,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
@@ -22046,17 +22108,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -22070,17 +22132,17 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="F4"/>
       <c r="H4" s="15" t="s">
@@ -22092,17 +22154,17 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -22116,7 +22178,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>12</v>
@@ -22125,10 +22187,10 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="F6"/>
       <c r="H6" s="15" t="s">
@@ -22140,17 +22202,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -22164,7 +22226,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>72</v>
@@ -22174,7 +22236,7 @@
         <v>228</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -22188,7 +22250,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>12</v>
@@ -22197,10 +22259,10 @@
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="F9"/>
       <c r="H9" s="15" t="s">
@@ -22212,7 +22274,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>584</v>
@@ -22238,17 +22300,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -22262,7 +22324,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>12</v>
@@ -22271,10 +22333,10 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -22288,17 +22350,17 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>140</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -22312,17 +22374,17 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>140</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="F14"/>
       <c r="H14" s="15" t="s">
@@ -22334,7 +22396,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>12</v>
@@ -22343,10 +22405,10 @@
         <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="F15"/>
       <c r="H15" s="15" t="s">
@@ -22358,14 +22420,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>22</v>
@@ -23308,13 +23370,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="B82" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="C82" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="D82" t="s">
         <v>22</v>
@@ -23326,10 +23388,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="C83" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="D83" t="s">
         <v>22</v>
@@ -23341,10 +23403,10 @@
     <row r="84">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="C84" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="D84" t="s">
         <v>22</v>
@@ -23356,10 +23418,10 @@
     <row r="85">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="C85" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="D85" t="s">
         <v>22</v>
@@ -23371,10 +23433,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="C86" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="D86" t="s">
         <v>22</v>
@@ -23386,7 +23448,7 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="C87" t="s">
         <v>1003</v>
@@ -23401,10 +23463,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="C88" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="D88" t="s">
         <v>22</v>
@@ -23416,10 +23478,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="C89" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="D89" t="s">
         <v>22</v>
@@ -23431,10 +23493,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="C90" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="D90" t="s">
         <v>22</v>
@@ -23446,10 +23508,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="C91" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="D91" t="s">
         <v>22</v>
@@ -23461,10 +23523,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="C92" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="D92" t="s">
         <v>22</v>
@@ -23476,10 +23538,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="C93" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="D93" t="s">
         <v>22</v>
@@ -23491,10 +23553,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="C94" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="D94" t="s">
         <v>22</v>
@@ -23506,10 +23568,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="C95" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="D95" t="s">
         <v>22</v>
@@ -23521,10 +23583,10 @@
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="C96" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -23536,10 +23598,10 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="C97" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -23551,10 +23613,10 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="C98" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="D98" t="s">
         <v>22</v>
@@ -23566,10 +23628,10 @@
     <row r="99">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="C99" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="D99" t="s">
         <v>22</v>
@@ -23581,10 +23643,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="C100" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="D100" t="s">
         <v>22</v>
@@ -23627,13 +23689,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B104" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="C104" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="D104" t="s">
         <v>22</v>
@@ -23660,10 +23722,10 @@
     <row r="106">
       <c r="A106"/>
       <c r="B106" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="C106" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="D106" t="s">
         <v>22</v>
@@ -23675,10 +23737,10 @@
     <row r="107">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="C107" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="D107" t="s">
         <v>22</v>
@@ -23757,10 +23819,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
@@ -23779,14 +23841,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>22</v>
@@ -23801,14 +23863,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>22</v>
@@ -23823,14 +23885,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>2167</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>2165</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
@@ -23845,14 +23907,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>22</v>
@@ -23867,14 +23929,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>22</v>
@@ -23889,14 +23951,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>22</v>
@@ -23911,14 +23973,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>22</v>
@@ -23933,14 +23995,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>22</v>
@@ -23955,14 +24017,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>22</v>
@@ -23977,14 +24039,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>22</v>
@@ -23999,14 +24061,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>22</v>
@@ -24021,14 +24083,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>22</v>
@@ -24043,14 +24105,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>22</v>
@@ -24065,14 +24127,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>22</v>
@@ -24087,14 +24149,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>22</v>
@@ -24109,14 +24171,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>22</v>
@@ -24131,14 +24193,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>22</v>
@@ -24153,14 +24215,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>22</v>
@@ -24175,14 +24237,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>22</v>
@@ -24197,14 +24259,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>22</v>
@@ -24219,14 +24281,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>22</v>
@@ -24258,13 +24320,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="B26" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="C26" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -24276,10 +24338,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="C27" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -24291,10 +24353,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="C28" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -24370,14 +24432,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>22</v>
@@ -24394,14 +24456,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>22</v>
@@ -24416,14 +24478,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>22</v>
@@ -24438,14 +24500,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>1561</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>22</v>
@@ -24460,17 +24522,17 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -24484,14 +24546,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>22</v>
@@ -24506,14 +24568,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>22</v>
@@ -24530,14 +24592,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>22</v>
@@ -24552,14 +24614,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>22</v>
@@ -24574,14 +24636,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>22</v>
@@ -24596,14 +24658,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>22</v>
@@ -24618,14 +24680,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>584</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>22</v>
@@ -24640,14 +24702,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>22</v>
@@ -24662,14 +24724,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>584</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>22</v>
@@ -24686,14 +24748,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>22</v>
@@ -24708,7 +24770,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>42</v>
@@ -24730,7 +24792,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>42</v>
@@ -24752,7 +24814,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>42</v>
@@ -24791,13 +24853,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="B22" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="C22" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -24809,10 +24871,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="C23" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -24824,10 +24886,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="C24" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -24839,10 +24901,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="C25" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -24870,13 +24932,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="B28" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="C28" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -24888,10 +24950,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="C29" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -24903,10 +24965,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="C30" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -24918,10 +24980,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="C31" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -24933,10 +24995,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="C32" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -24948,10 +25010,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="C33" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -24963,10 +25025,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="C34" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -24978,10 +25040,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="C35" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -24993,10 +25055,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="C36" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -25008,10 +25070,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="C37" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -25023,10 +25085,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="C38" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -25038,10 +25100,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="C39" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -25053,10 +25115,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="C40" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -25068,10 +25130,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="C41" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -25083,10 +25145,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="C42" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
@@ -25098,10 +25160,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="C43" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
@@ -25113,10 +25175,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="C44" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -25128,10 +25190,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="C45" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -25143,10 +25205,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="C46" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -25161,7 +25223,7 @@
         <v>179</v>
       </c>
       <c r="C47" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -25173,10 +25235,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="C48" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -25188,10 +25250,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="C49" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -25203,10 +25265,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="C50" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -25234,13 +25296,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="B53" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="C53" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -25252,10 +25314,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="C54" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -25267,10 +25329,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="C55" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
@@ -25298,13 +25360,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="B58" t="s">
         <v>837</v>
       </c>
       <c r="C58" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -25319,7 +25381,7 @@
         <v>840</v>
       </c>
       <c r="C59" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -25331,10 +25393,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="C60" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -25346,10 +25408,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="C61" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
@@ -25372,7 +25434,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25428,21 +25490,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>2307</v>
+        <v>2211</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2308</v>
+        <v>22</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>2309</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F2"/>
       <c r="H2" s="18" t="s">
         <v>16</v>
       </c>
@@ -25452,19 +25512,21 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>2310</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>2311</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
+        <v>2311</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>2312</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3"/>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
       <c r="H3" s="18" t="s">
         <v>16</v>
       </c>
@@ -25481,7 +25543,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>611</v>
+        <v>2315</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>22</v>
@@ -25496,14 +25558,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>55</v>
+        <v>2317</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2316</v>
+        <v>611</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>22</v>
@@ -25518,14 +25580,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>22</v>
@@ -25540,14 +25602,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>2320</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>2321</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>22</v>
@@ -25562,14 +25624,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>22</v>
@@ -25584,14 +25646,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2319</v>
+        <v>151</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>2320</v>
+        <v>152</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>22</v>
@@ -25606,21 +25668,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>2323</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>2322</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F10"/>
       <c r="H10" s="18" t="s">
         <v>16</v>
       </c>
@@ -25630,19 +25690,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>603</v>
+        <v>12</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>2324</v>
+        <v>4</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11"/>
+        <v>2325</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
       <c r="H11" s="18" t="s">
         <v>16</v>
       </c>
@@ -25652,17 +25714,17 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1483</v>
+        <v>2326</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>55</v>
+        <v>603</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>2326</v>
+        <v>22</v>
       </c>
       <c r="F12"/>
       <c r="H12" s="18" t="s">
@@ -25674,17 +25736,17 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="F13"/>
       <c r="H13" s="18" t="s">
@@ -25696,21 +25758,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1809</v>
+        <v>1485</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>582</v>
+        <v>2330</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
+        <v>2331</v>
+      </c>
+      <c r="F14"/>
       <c r="H14" s="18" t="s">
         <v>16</v>
       </c>
@@ -25720,14 +25780,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>583</v>
+        <v>1811</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>584</v>
+        <v>55</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>22</v>
@@ -25744,19 +25804,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2329</v>
+        <v>583</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>115</v>
+        <v>584</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F16"/>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
       <c r="H16" s="18" t="s">
         <v>16</v>
       </c>
@@ -25766,17 +25828,17 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1497</v>
+        <v>2332</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1498</v>
+        <v>115</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>1499</v>
+        <v>559</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>2330</v>
+        <v>22</v>
       </c>
       <c r="F17"/>
       <c r="H17" s="18" t="s">
@@ -25788,17 +25850,17 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>22</v>
+        <v>2333</v>
       </c>
       <c r="F18"/>
       <c r="H18" s="18" t="s">
@@ -25810,14 +25872,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>12</v>
+        <v>1503</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>22</v>
@@ -25832,16 +25894,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
+      <c r="C20"/>
       <c r="D20" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>22</v>
@@ -25856,7 +25916,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>12</v>
@@ -25865,7 +25925,7 @@
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>22</v>
@@ -25880,14 +25940,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>22</v>
@@ -25902,14 +25962,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>22</v>
@@ -25924,14 +25984,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>22</v>
@@ -25946,14 +26006,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>22</v>
@@ -25968,17 +26028,17 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="F26"/>
       <c r="H26" s="18" t="s">
@@ -25990,17 +26050,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="F27"/>
       <c r="H27" s="18" t="s">
@@ -26012,17 +26072,17 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="F28"/>
       <c r="H28" s="18" t="s">
@@ -26034,17 +26094,17 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="F29"/>
       <c r="H29" s="18" t="s">
@@ -26056,17 +26116,17 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="F30"/>
       <c r="H30" s="18" t="s">
@@ -26078,17 +26138,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>2358</v>
+        <v>2361</v>
       </c>
       <c r="F31"/>
       <c r="H31" s="18" t="s">
@@ -26100,17 +26160,17 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="F32"/>
       <c r="H32" s="18" t="s">
@@ -26190,14 +26250,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>22</v>
@@ -26276,62 +26336,76 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>2368</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40"/>
+      <c r="H40" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+    </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41"/>
+      <c r="H41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
         <v>1</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>158</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>3</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>4</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E43" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>2307</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2364</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2365</v>
-      </c>
-      <c r="D42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43"/>
-      <c r="B43" t="s">
-        <v>2245</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2246</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="44">
-      <c r="A44"/>
+      <c r="A44" t="s">
+        <v>2310</v>
+      </c>
       <c r="B44" t="s">
-        <v>2366</v>
+        <v>2372</v>
       </c>
       <c r="C44" t="s">
-        <v>2367</v>
+        <v>2373</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -26343,10 +26417,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>2368</v>
+        <v>2247</v>
       </c>
       <c r="C45" t="s">
-        <v>2369</v>
+        <v>2248</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -26358,10 +26432,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>1929</v>
+        <v>2374</v>
       </c>
       <c r="C46" t="s">
-        <v>1930</v>
+        <v>2375</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -26370,62 +26444,62 @@
         <v>22</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="48">
-      <c r="A48" t="s">
+      <c r="A48"/>
+      <c r="B48" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
         <v>1</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>158</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>3</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D50" t="s">
         <v>4</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E50" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>2311</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2370</v>
-      </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50"/>
-      <c r="B50" t="s">
-        <v>2371</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2372</v>
-      </c>
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="51">
-      <c r="A51"/>
+      <c r="A51" t="s">
+        <v>2314</v>
+      </c>
       <c r="B51" t="s">
-        <v>2294</v>
+        <v>2300</v>
       </c>
       <c r="C51" t="s">
-        <v>2373</v>
+        <v>2378</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -26437,217 +26511,217 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53"/>
+      <c r="B53" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54"/>
+      <c r="B54" t="s">
         <v>185</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>186</v>
       </c>
-      <c r="D52" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
         <v>1</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>158</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C56" t="s">
         <v>3</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
         <v>4</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E56" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>2314</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="57">
+      <c r="A57" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B57" t="s">
         <v>837</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" t="s">
         <v>838</v>
       </c>
-      <c r="D55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s">
         <v>839</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56"/>
-      <c r="B56" t="s">
-        <v>2374</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2375</v>
-      </c>
-      <c r="D56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57"/>
-      <c r="B57" t="s">
-        <v>840</v>
-      </c>
-      <c r="C57" t="s">
-        <v>841</v>
-      </c>
-      <c r="D57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59" t="s">
+        <v>840</v>
+      </c>
+      <c r="C59" t="s">
+        <v>841</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60" t="s">
         <v>843</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" t="s">
         <v>844</v>
       </c>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s">
+    <row r="62">
+      <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>158</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C62" t="s">
         <v>3</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E62" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s">
+    <row r="63">
+      <c r="A63" t="s">
         <v>603</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>833</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
         <v>834</v>
       </c>
-      <c r="D61" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62"/>
-      <c r="B62" t="s">
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64"/>
+      <c r="B64" t="s">
         <v>835</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>836</v>
       </c>
-      <c r="D62" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63"/>
-      <c r="B63" t="s">
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65" t="s">
         <v>185</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" t="s">
         <v>186</v>
       </c>
-      <c r="D63" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
         <v>1</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>158</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C67" t="s">
         <v>3</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D67" t="s">
         <v>4</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E67" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s">
+    <row r="68">
+      <c r="A68" t="s">
         <v>1498</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>1620</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C68" t="s">
         <v>542</v>
-      </c>
-      <c r="D66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67"/>
-      <c r="B67" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D67" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68"/>
-      <c r="B68" t="s">
-        <v>548</v>
-      </c>
-      <c r="C68" t="s">
-        <v>549</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
@@ -26659,10 +26733,10 @@
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C69" t="s">
-        <v>1504</v>
+        <v>1622</v>
       </c>
       <c r="D69" t="s">
         <v>22</v>
@@ -26674,10 +26748,10 @@
     <row r="70">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>548</v>
       </c>
       <c r="C70" t="s">
-        <v>1624</v>
+        <v>549</v>
       </c>
       <c r="D70" t="s">
         <v>22</v>
@@ -26689,10 +26763,10 @@
     <row r="71">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>1623</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>1504</v>
       </c>
       <c r="D71" t="s">
         <v>22</v>
@@ -26704,89 +26778,89 @@
     <row r="72">
       <c r="A72"/>
       <c r="B72" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73"/>
+      <c r="B73" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74"/>
+      <c r="B74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75"/>
+      <c r="B75" t="s">
         <v>179</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C75" t="s">
         <v>180</v>
       </c>
-      <c r="D72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
         <v>1</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" t="s">
         <v>158</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C77" t="s">
         <v>3</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D77" t="s">
         <v>4</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E77" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s">
+    <row r="78">
+      <c r="A78" t="s">
         <v>1503</v>
       </c>
-      <c r="B75" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76"/>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>1627</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C78" t="s">
         <v>1628</v>
-      </c>
-      <c r="D76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77"/>
-      <c r="B77" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78"/>
-      <c r="B78" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1632</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
@@ -26798,89 +26872,89 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80"/>
+      <c r="B80" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81"/>
+      <c r="B81" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82"/>
+      <c r="B82" t="s">
         <v>179</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C82" t="s">
         <v>180</v>
       </c>
-      <c r="D79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
+      <c r="D82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
         <v>1</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>158</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C84" t="s">
         <v>3</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D84" t="s">
         <v>4</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E84" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>2334</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2376</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2377</v>
-      </c>
-      <c r="D82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83"/>
-      <c r="B83" t="s">
-        <v>2378</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2379</v>
-      </c>
-      <c r="D83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84"/>
-      <c r="B84" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2381</v>
-      </c>
-      <c r="D84" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="85">
-      <c r="A85"/>
+      <c r="A85" t="s">
+        <v>2337</v>
+      </c>
       <c r="B85" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="C85" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="D85" t="s">
         <v>22</v>
@@ -26892,10 +26966,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="C86" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="D86" t="s">
         <v>22</v>
@@ -26904,77 +26978,77 @@
         <v>22</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87"/>
+      <c r="B87" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="88">
-      <c r="A88" t="s">
+      <c r="A88"/>
+      <c r="B88" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89"/>
+      <c r="B89" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D89" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
         <v>1</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>158</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C91" t="s">
         <v>3</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D91" t="s">
         <v>4</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E91" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2387</v>
-      </c>
-      <c r="D89" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90"/>
-      <c r="B90" t="s">
-        <v>2388</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2389</v>
-      </c>
-      <c r="D90" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91"/>
-      <c r="B91" t="s">
-        <v>2390</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2391</v>
-      </c>
-      <c r="D91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="92">
-      <c r="A92"/>
+      <c r="A92" t="s">
+        <v>2340</v>
+      </c>
       <c r="B92" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C92" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="D92" t="s">
         <v>22</v>
@@ -26986,10 +27060,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="C93" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="D93" t="s">
         <v>22</v>
@@ -27001,179 +27075,179 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95"/>
+      <c r="B95" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96"/>
+      <c r="B96" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97"/>
+      <c r="B97" t="s">
         <v>179</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C97" t="s">
         <v>180</v>
       </c>
-      <c r="D94" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
+      <c r="D97" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
         <v>1</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B99" t="s">
         <v>158</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C99" t="s">
         <v>3</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D99" t="s">
         <v>4</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E99" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="s">
+    <row r="100">
+      <c r="A100" t="s">
         <v>91</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B100" t="s">
         <v>285</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C100" t="s">
         <v>286</v>
       </c>
-      <c r="D97" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98"/>
-      <c r="B98" t="s">
-        <v>287</v>
-      </c>
-      <c r="C98" t="s">
-        <v>288</v>
-      </c>
-      <c r="D98" t="s">
-        <v>22</v>
-      </c>
-      <c r="E98" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99"/>
-      <c r="B99" t="s">
-        <v>289</v>
-      </c>
-      <c r="C99" t="s">
-        <v>290</v>
-      </c>
-      <c r="D99" t="s">
-        <v>22</v>
-      </c>
-      <c r="E99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100"/>
-      <c r="B100" t="s">
-        <v>291</v>
-      </c>
-      <c r="C100" t="s">
-        <v>292</v>
-      </c>
-      <c r="D100" t="s">
-        <v>22</v>
-      </c>
-      <c r="E100" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C101" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D101" t="s">
         <v>22</v>
       </c>
       <c r="E101" t="s">
-        <v>296</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C102" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D102" t="s">
         <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>297</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C103" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D103" t="s">
         <v>22</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104">
       <c r="A104"/>
       <c r="B104" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C104" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D104" t="s">
         <v>22</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105">
       <c r="A105"/>
       <c r="B105" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C105" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D105" t="s">
         <v>22</v>
       </c>
       <c r="E105" t="s">
-        <v>22</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106">
       <c r="A106"/>
       <c r="B106" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C106" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D106" t="s">
         <v>22</v>
@@ -27185,25 +27259,25 @@
     <row r="107">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C107" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D107" t="s">
         <v>22</v>
       </c>
       <c r="E107" t="s">
-        <v>309</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108"/>
       <c r="B108" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C108" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D108" t="s">
         <v>22</v>
@@ -27215,40 +27289,40 @@
     <row r="109">
       <c r="A109"/>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D109" t="s">
         <v>22</v>
       </c>
       <c r="E109" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
       <c r="A110"/>
       <c r="B110" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D110" t="s">
         <v>22</v>
       </c>
       <c r="E110" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111">
       <c r="A111"/>
       <c r="B111" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C111" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D111" t="s">
         <v>22</v>
@@ -27260,40 +27334,40 @@
     <row r="112">
       <c r="A112"/>
       <c r="B112" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C112" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D112" t="s">
         <v>22</v>
       </c>
       <c r="E112" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113">
       <c r="A113"/>
       <c r="B113" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C113" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D113" t="s">
         <v>22</v>
       </c>
       <c r="E113" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114">
       <c r="A114"/>
       <c r="B114" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C114" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D114" t="s">
         <v>22</v>
@@ -27305,10 +27379,10 @@
     <row r="115">
       <c r="A115"/>
       <c r="B115" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C115" t="s">
-        <v>142</v>
+        <v>321</v>
       </c>
       <c r="D115" t="s">
         <v>22</v>
@@ -27320,25 +27394,25 @@
     <row r="116">
       <c r="A116"/>
       <c r="B116" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C116" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D116" t="s">
         <v>22</v>
       </c>
       <c r="E116" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117">
       <c r="A117"/>
       <c r="B117" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C117" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D117" t="s">
         <v>22</v>
@@ -27350,10 +27424,10 @@
     <row r="118">
       <c r="A118"/>
       <c r="B118" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C118" t="s">
-        <v>333</v>
+        <v>142</v>
       </c>
       <c r="D118" t="s">
         <v>22</v>
@@ -27365,10 +27439,10 @@
     <row r="119">
       <c r="A119"/>
       <c r="B119" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C119" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D119" t="s">
         <v>22</v>
@@ -27380,10 +27454,10 @@
     <row r="120">
       <c r="A120"/>
       <c r="B120" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C120" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D120" t="s">
         <v>22</v>
@@ -27395,10 +27469,10 @@
     <row r="121">
       <c r="A121"/>
       <c r="B121" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C121" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D121" t="s">
         <v>22</v>
@@ -27410,10 +27484,10 @@
     <row r="122">
       <c r="A122"/>
       <c r="B122" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C122" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -27425,10 +27499,10 @@
     <row r="123">
       <c r="A123"/>
       <c r="B123" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C123" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D123" t="s">
         <v>22</v>
@@ -27440,10 +27514,10 @@
     <row r="124">
       <c r="A124"/>
       <c r="B124" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C124" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D124" t="s">
         <v>22</v>
@@ -27455,10 +27529,10 @@
     <row r="125">
       <c r="A125"/>
       <c r="B125" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C125" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D125" t="s">
         <v>22</v>
@@ -27470,10 +27544,10 @@
     <row r="126">
       <c r="A126"/>
       <c r="B126" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C126" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D126" t="s">
         <v>22</v>
@@ -27485,10 +27559,10 @@
     <row r="127">
       <c r="A127"/>
       <c r="B127" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C127" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D127" t="s">
         <v>22</v>
@@ -27500,10 +27574,10 @@
     <row r="128">
       <c r="A128"/>
       <c r="B128" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C128" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D128" t="s">
         <v>22</v>
@@ -27515,10 +27589,10 @@
     <row r="129">
       <c r="A129"/>
       <c r="B129" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C129" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D129" t="s">
         <v>22</v>
@@ -27530,10 +27604,10 @@
     <row r="130">
       <c r="A130"/>
       <c r="B130" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C130" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D130" t="s">
         <v>22</v>
@@ -27545,10 +27619,10 @@
     <row r="131">
       <c r="A131"/>
       <c r="B131" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C131" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D131" t="s">
         <v>22</v>
@@ -27560,10 +27634,10 @@
     <row r="132">
       <c r="A132"/>
       <c r="B132" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C132" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D132" t="s">
         <v>22</v>
@@ -27575,10 +27649,10 @@
     <row r="133">
       <c r="A133"/>
       <c r="B133" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C133" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D133" t="s">
         <v>22</v>
@@ -27590,10 +27664,10 @@
     <row r="134">
       <c r="A134"/>
       <c r="B134" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C134" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D134" t="s">
         <v>22</v>
@@ -27605,10 +27679,10 @@
     <row r="135">
       <c r="A135"/>
       <c r="B135" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C135" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D135" t="s">
         <v>22</v>
@@ -27620,10 +27694,10 @@
     <row r="136">
       <c r="A136"/>
       <c r="B136" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C136" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D136" t="s">
         <v>22</v>
@@ -27635,10 +27709,10 @@
     <row r="137">
       <c r="A137"/>
       <c r="B137" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C137" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D137" t="s">
         <v>22</v>
@@ -27650,10 +27724,10 @@
     <row r="138">
       <c r="A138"/>
       <c r="B138" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C138" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D138" t="s">
         <v>22</v>
@@ -27665,10 +27739,10 @@
     <row r="139">
       <c r="A139"/>
       <c r="B139" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C139" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D139" t="s">
         <v>22</v>
@@ -27680,10 +27754,10 @@
     <row r="140">
       <c r="A140"/>
       <c r="B140" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C140" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D140" t="s">
         <v>22</v>
@@ -27695,10 +27769,10 @@
     <row r="141">
       <c r="A141"/>
       <c r="B141" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C141" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D141" t="s">
         <v>22</v>
@@ -27710,10 +27784,10 @@
     <row r="142">
       <c r="A142"/>
       <c r="B142" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C142" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D142" t="s">
         <v>22</v>
@@ -27725,10 +27799,10 @@
     <row r="143">
       <c r="A143"/>
       <c r="B143" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C143" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D143" t="s">
         <v>22</v>
@@ -27740,40 +27814,40 @@
     <row r="144">
       <c r="A144"/>
       <c r="B144" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C144" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D144" t="s">
         <v>22</v>
       </c>
       <c r="E144" t="s">
-        <v>385</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145">
       <c r="A145"/>
       <c r="B145" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C145" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D145" t="s">
         <v>22</v>
       </c>
       <c r="E145" t="s">
-        <v>388</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146">
       <c r="A146"/>
       <c r="B146" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C146" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D146" t="s">
         <v>22</v>
@@ -27785,40 +27859,40 @@
     <row r="147">
       <c r="A147"/>
       <c r="B147" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C147" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D147" t="s">
         <v>22</v>
       </c>
       <c r="E147" t="s">
-        <v>22</v>
+        <v>385</v>
       </c>
     </row>
     <row r="148">
       <c r="A148"/>
       <c r="B148" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C148" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D148" t="s">
         <v>22</v>
       </c>
       <c r="E148" t="s">
-        <v>22</v>
+        <v>388</v>
       </c>
     </row>
     <row r="149">
       <c r="A149"/>
       <c r="B149" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C149" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D149" t="s">
         <v>22</v>
@@ -27830,10 +27904,10 @@
     <row r="150">
       <c r="A150"/>
       <c r="B150" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C150" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D150" t="s">
         <v>22</v>
@@ -27845,31 +27919,185 @@
     <row r="151">
       <c r="A151"/>
       <c r="B151" t="s">
-        <v>179</v>
+        <v>393</v>
       </c>
       <c r="C151" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D151" t="s">
         <v>22</v>
       </c>
       <c r="E151" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152">
       <c r="A152"/>
       <c r="B152" t="s">
+        <v>395</v>
+      </c>
+      <c r="C152" t="s">
+        <v>396</v>
+      </c>
+      <c r="D152" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153"/>
+      <c r="B153" t="s">
+        <v>397</v>
+      </c>
+      <c r="C153" t="s">
+        <v>398</v>
+      </c>
+      <c r="D153" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154"/>
+      <c r="B154" t="s">
+        <v>179</v>
+      </c>
+      <c r="C154" t="s">
+        <v>399</v>
+      </c>
+      <c r="D154" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155"/>
+      <c r="B155" t="s">
         <v>400</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C155" t="s">
         <v>401</v>
       </c>
-      <c r="D152" t="s">
-        <v>22</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="D155" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" t="s">
         <v>402</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D158" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159"/>
+      <c r="B159" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D159" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160"/>
+      <c r="B160" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D160" t="s">
+        <v>22</v>
+      </c>
+      <c r="E160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161"/>
+      <c r="B161" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D161" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162"/>
+      <c r="B162" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163"/>
+      <c r="B163" t="s">
+        <v>185</v>
+      </c>
+      <c r="C163" t="s">
+        <v>186</v>
+      </c>
+      <c r="D163" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -27885,6 +28113,7 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -27969,14 +28198,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>22</v>
@@ -27996,11 +28225,11 @@
         <v>575</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>2396</v>
+        <v>2412</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2396</v>
+        <v>2412</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>22</v>
@@ -28017,7 +28246,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2397</v>
+        <v>2413</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>12</v>
@@ -28026,7 +28255,7 @@
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>2398</v>
+        <v>2414</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>22</v>
@@ -28041,10 +28270,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
@@ -29535,14 +29764,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2399</v>
+        <v>2415</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2400</v>
+        <v>2416</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>22</v>
@@ -29652,7 +29881,7 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>2401</v>
+        <v>2417</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>22</v>
@@ -29674,7 +29903,7 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>2402</v>
+        <v>2418</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>22</v>
@@ -29689,7 +29918,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2403</v>
+        <v>2419</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>69</v>
@@ -29711,14 +29940,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2404</v>
+        <v>2420</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>2405</v>
+        <v>2421</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>22</v>
@@ -29733,14 +29962,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2406</v>
+        <v>2422</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>2407</v>
+        <v>2423</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>22</v>
@@ -30476,14 +30705,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2408</v>
+        <v>2424</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2409</v>
+        <v>2425</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>22</v>
@@ -30520,14 +30749,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2410</v>
+        <v>2426</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2411</v>
+        <v>2427</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>22</v>
@@ -30542,14 +30771,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2412</v>
+        <v>2428</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2413</v>
+        <v>2429</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>22</v>
@@ -30564,14 +30793,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2406</v>
+        <v>2422</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>140</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2407</v>
+        <v>2423</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>22</v>
@@ -30650,14 +30879,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2399</v>
+        <v>2415</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2400</v>
+        <v>2416</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>22</v>
@@ -30672,14 +30901,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2414</v>
+        <v>2430</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2415</v>
+        <v>2431</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>22</v>
@@ -30694,14 +30923,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2416</v>
+        <v>2432</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2417</v>
+        <v>2433</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>22</v>
@@ -30716,14 +30945,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2406</v>
+        <v>2422</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>140</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2407</v>
+        <v>2423</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>22</v>
@@ -30760,10 +30989,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2418</v>
+        <v>2434</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>2419</v>
+        <v>2435</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
@@ -30846,14 +31075,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2399</v>
+        <v>2415</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2400</v>
+        <v>2416</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>22</v>
@@ -30868,14 +31097,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2414</v>
+        <v>2430</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2415</v>
+        <v>2431</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>22</v>
@@ -30890,14 +31119,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2416</v>
+        <v>2432</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2417</v>
+        <v>2433</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>22</v>
@@ -30934,14 +31163,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2406</v>
+        <v>2422</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>140</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2407</v>
+        <v>2423</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>22</v>
@@ -31042,14 +31271,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2399</v>
+        <v>2415</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2400</v>
+        <v>2416</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>22</v>
@@ -31108,14 +31337,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2406</v>
+        <v>2422</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>140</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2407</v>
+        <v>2423</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>22</v>
@@ -31216,14 +31445,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2420</v>
+        <v>2436</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>140</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2421</v>
+        <v>2437</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>22</v>
@@ -31238,14 +31467,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2422</v>
+        <v>2438</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2423</v>
+        <v>2439</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>22</v>
@@ -31304,14 +31533,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2424</v>
+        <v>2440</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>22</v>
@@ -31355,7 +31584,7 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>2425</v>
+        <v>2441</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>22</v>
@@ -31370,12 +31599,12 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2426</v>
+        <v>2442</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>2427</v>
+        <v>2443</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>22</v>
@@ -31478,7 +31707,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2428</v>
+        <v>2444</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>72</v>
@@ -31507,7 +31736,7 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>2429</v>
+        <v>2445</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>22</v>
@@ -31522,14 +31751,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2430</v>
+        <v>2446</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>584</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>2431</v>
+        <v>2447</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>22</v>
@@ -31544,17 +31773,17 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2432</v>
+        <v>2448</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>2433</v>
+        <v>2449</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>2434</v>
+        <v>2450</v>
       </c>
       <c r="F17"/>
       <c r="H17" s="25" t="s">
@@ -31566,10 +31795,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2435</v>
+        <v>2451</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>2436</v>
+        <v>2452</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
@@ -31588,14 +31817,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2437</v>
+        <v>2453</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>140</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>2438</v>
+        <v>2454</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>22</v>
@@ -32538,13 +32767,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2436</v>
+        <v>2452</v>
       </c>
       <c r="B85" t="s">
-        <v>2439</v>
+        <v>2455</v>
       </c>
       <c r="C85" t="s">
-        <v>2440</v>
+        <v>2456</v>
       </c>
       <c r="D85" t="s">
         <v>22</v>
@@ -32556,10 +32785,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>2441</v>
+        <v>2457</v>
       </c>
       <c r="C86" t="s">
-        <v>2442</v>
+        <v>2458</v>
       </c>
       <c r="D86" t="s">
         <v>22</v>
@@ -32571,10 +32800,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>2443</v>
+        <v>2459</v>
       </c>
       <c r="C87" t="s">
-        <v>2444</v>
+        <v>2460</v>
       </c>
       <c r="D87" t="s">
         <v>22</v>
@@ -32586,10 +32815,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>2445</v>
+        <v>2461</v>
       </c>
       <c r="C88" t="s">
-        <v>2446</v>
+        <v>2462</v>
       </c>
       <c r="D88" t="s">
         <v>22</v>
@@ -32601,10 +32830,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>2447</v>
+        <v>2463</v>
       </c>
       <c r="C89" t="s">
-        <v>2448</v>
+        <v>2464</v>
       </c>
       <c r="D89" t="s">
         <v>22</v>
@@ -32616,10 +32845,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>2449</v>
+        <v>2465</v>
       </c>
       <c r="C90" t="s">
-        <v>2450</v>
+        <v>2466</v>
       </c>
       <c r="D90" t="s">
         <v>22</v>
@@ -32631,10 +32860,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>2451</v>
+        <v>2467</v>
       </c>
       <c r="C91" t="s">
-        <v>2452</v>
+        <v>2468</v>
       </c>
       <c r="D91" t="s">
         <v>22</v>
@@ -32646,10 +32875,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>2453</v>
+        <v>2469</v>
       </c>
       <c r="C92" t="s">
-        <v>2454</v>
+        <v>2470</v>
       </c>
       <c r="D92" t="s">
         <v>22</v>
@@ -32661,10 +32890,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>2455</v>
+        <v>2471</v>
       </c>
       <c r="C93" t="s">
-        <v>2456</v>
+        <v>2472</v>
       </c>
       <c r="D93" t="s">
         <v>22</v>
@@ -32676,10 +32905,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>2457</v>
+        <v>2473</v>
       </c>
       <c r="C94" t="s">
-        <v>2458</v>
+        <v>2474</v>
       </c>
       <c r="D94" t="s">
         <v>22</v>
@@ -32691,10 +32920,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>2459</v>
+        <v>2475</v>
       </c>
       <c r="C95" t="s">
-        <v>2460</v>
+        <v>2476</v>
       </c>
       <c r="D95" t="s">
         <v>22</v>
@@ -32706,10 +32935,10 @@
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>2461</v>
+        <v>2477</v>
       </c>
       <c r="C96" t="s">
-        <v>2462</v>
+        <v>2478</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -32721,10 +32950,10 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>2463</v>
+        <v>2479</v>
       </c>
       <c r="C97" t="s">
-        <v>2464</v>
+        <v>2480</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -32754,12 +32983,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2465</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2466</v>
+        <v>2482</v>
       </c>
     </row>
   </sheetData>
@@ -44192,7 +44421,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -45757,10 +45986,10 @@
     <row r="79">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>1625</v>
       </c>
       <c r="C79" t="s">
-        <v>186</v>
+        <v>1626</v>
       </c>
       <c r="D79" t="s">
         <v>22</v>
@@ -45772,54 +46001,54 @@
     <row r="80">
       <c r="A80"/>
       <c r="B80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81"/>
+      <c r="B81" t="s">
         <v>179</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>180</v>
       </c>
-      <c r="D80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>168</v>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
         <v>1503</v>
       </c>
-      <c r="B83" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84"/>
       <c r="B84" t="s">
         <v>1627</v>
       </c>
@@ -45866,59 +46095,59 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88"/>
+      <c r="B88" t="s">
         <v>179</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>180</v>
       </c>
-      <c r="D87" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
-        <v>158</v>
-      </c>
-      <c r="C89" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" t="s">
-        <v>168</v>
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
         <v>603</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>833</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>834</v>
-      </c>
-      <c r="D90" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91"/>
-      <c r="B91" t="s">
-        <v>835</v>
-      </c>
-      <c r="C91" t="s">
-        <v>836</v>
       </c>
       <c r="D91" t="s">
         <v>22</v>
@@ -45930,59 +46159,59 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
+        <v>835</v>
+      </c>
+      <c r="C92" t="s">
+        <v>836</v>
+      </c>
+      <c r="D92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93"/>
+      <c r="B93" t="s">
         <v>185</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>186</v>
       </c>
-      <c r="D92" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" t="s">
-        <v>158</v>
-      </c>
-      <c r="C94" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" t="s">
-        <v>168</v>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
         <v>1543</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>275</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>276</v>
-      </c>
-      <c r="D95" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96"/>
-      <c r="B96" t="s">
-        <v>277</v>
-      </c>
-      <c r="C96" t="s">
-        <v>278</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -45994,10 +46223,10 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>1633</v>
+        <v>277</v>
       </c>
       <c r="C97" t="s">
-        <v>1634</v>
+        <v>278</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -46009,54 +46238,54 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D98" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99"/>
+      <c r="B99" t="s">
         <v>185</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>186</v>
       </c>
-      <c r="D98" t="s">
-        <v>22</v>
-      </c>
-      <c r="E98" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" t="s">
-        <v>158</v>
-      </c>
-      <c r="C100" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" t="s">
-        <v>168</v>
+      <c r="D99" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
         <v>1548</v>
       </c>
-      <c r="B101" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D101" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102"/>
       <c r="B102" t="s">
         <v>1637</v>
       </c>
@@ -46103,54 +46332,54 @@
     <row r="105">
       <c r="A105"/>
       <c r="B105" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D105" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106"/>
+      <c r="B106" t="s">
         <v>179</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>180</v>
       </c>
-      <c r="D105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E105" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" t="s">
-        <v>158</v>
-      </c>
-      <c r="C107" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" t="s">
-        <v>168</v>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
         <v>1556</v>
       </c>
-      <c r="B108" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D108" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109"/>
       <c r="B109" t="s">
         <v>1645</v>
       </c>
@@ -46197,54 +46426,54 @@
     <row r="112">
       <c r="A112"/>
       <c r="B112" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113"/>
+      <c r="B113" t="s">
         <v>179</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>180</v>
       </c>
-      <c r="D112" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>1</v>
-      </c>
-      <c r="B114" t="s">
-        <v>158</v>
-      </c>
-      <c r="C114" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114" t="s">
-        <v>168</v>
+      <c r="D113" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
         <v>1570</v>
       </c>
-      <c r="B115" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D115" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116"/>
       <c r="B116" t="s">
         <v>1653</v>
       </c>
@@ -46276,103 +46505,103 @@
     <row r="118">
       <c r="A118"/>
       <c r="B118" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D118" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119"/>
+      <c r="B119" t="s">
         <v>179</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>180</v>
       </c>
-      <c r="D118" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120" t="s">
-        <v>158</v>
-      </c>
-      <c r="C120" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" t="s">
-        <v>4</v>
-      </c>
-      <c r="E120" t="s">
-        <v>168</v>
+      <c r="D119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
         <v>1575</v>
       </c>
-      <c r="B121" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D121" t="s">
-        <v>22</v>
-      </c>
-      <c r="E121" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122"/>
       <c r="B122" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D122" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123"/>
+      <c r="B123" t="s">
         <v>179</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>180</v>
       </c>
-      <c r="D122" t="s">
-        <v>22</v>
-      </c>
-      <c r="E122" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>1</v>
-      </c>
-      <c r="B124" t="s">
-        <v>158</v>
-      </c>
-      <c r="C124" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" t="s">
-        <v>4</v>
-      </c>
-      <c r="E124" t="s">
-        <v>168</v>
+      <c r="D123" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>158</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
         <v>1580</v>
       </c>
-      <c r="B125" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D125" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126"/>
       <c r="B126" t="s">
         <v>1661</v>
       </c>
@@ -46569,15 +46798,30 @@
     <row r="139">
       <c r="A139"/>
       <c r="B139" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D139" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140"/>
+      <c r="B140" t="s">
         <v>179</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>180</v>
       </c>
-      <c r="D139" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="D140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" t="s">
         <v>22</v>
       </c>
     </row>
@@ -46658,7 +46902,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>603</v>
@@ -46682,14 +46926,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>22</v>
@@ -46706,14 +46950,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>22</v>
@@ -46730,14 +46974,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>22</v>
@@ -46752,7 +46996,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>603</v>
@@ -46776,14 +47020,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>22</v>
@@ -46800,14 +47044,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>22</v>
@@ -46822,14 +47066,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>22</v>
@@ -46844,14 +47088,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>22</v>
@@ -46868,14 +47112,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>22</v>
@@ -46890,14 +47134,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>22</v>
@@ -46912,14 +47156,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>22</v>
@@ -46934,14 +47178,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>22</v>
@@ -46958,14 +47202,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>22</v>
@@ -46982,14 +47226,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>22</v>
@@ -47006,14 +47250,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>22</v>
@@ -47028,14 +47272,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>22</v>
@@ -47052,14 +47296,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>22</v>
@@ -47076,14 +47320,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>22</v>
@@ -47100,14 +47344,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>22</v>
@@ -47124,14 +47368,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>22</v>
@@ -47148,14 +47392,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>22</v>
@@ -47172,7 +47416,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>12</v>
@@ -47181,7 +47425,7 @@
         <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>22</v>
@@ -47328,7 +47572,7 @@
         <v>683</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
@@ -47347,14 +47591,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>22</v>
@@ -47369,14 +47613,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>22</v>
@@ -47391,14 +47635,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>22</v>
@@ -47413,7 +47657,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>12</v>
@@ -47422,7 +47666,7 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>22</v>
@@ -47437,14 +47681,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>22</v>
@@ -47459,7 +47703,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -47468,7 +47712,7 @@
         <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>22</v>
@@ -47483,14 +47727,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>22</v>
@@ -47505,14 +47749,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>22</v>
@@ -47527,14 +47771,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>22</v>
@@ -47549,14 +47793,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>22</v>
@@ -47571,7 +47815,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>12</v>
@@ -47580,7 +47824,7 @@
         <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>22</v>
@@ -47595,7 +47839,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>12</v>
@@ -47604,7 +47848,7 @@
         <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>22</v>
@@ -47636,13 +47880,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="B17" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="C17" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -47654,10 +47898,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="C18" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -47669,10 +47913,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="C19" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -47684,10 +47928,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="C20" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -47699,10 +47943,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="C21" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -47714,10 +47958,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="C22" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -47729,10 +47973,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="C23" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -47744,10 +47988,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="C24" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -47790,13 +48034,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="B28" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="C28" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -47808,10 +48052,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="C29" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -47854,13 +48098,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="B33" t="s">
         <v>1457</v>
       </c>
       <c r="C33" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -47872,10 +48116,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="C34" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -47890,7 +48134,7 @@
         <v>1459</v>
       </c>
       <c r="C35" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -47902,10 +48146,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="C36" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -7827,7 +7827,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.56.0-SNAPSHOT</t>
+    <t>1.57.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -7899,7 +7899,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.57.0-SNAPSHOT</t>
+    <t>1.58.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11215" uniqueCount="2782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11235" uniqueCount="2792">
   <si>
     <t>Field</t>
   </si>
@@ -6789,6 +6789,36 @@
   </si>
   <si>
     <t>Brain tissue</t>
+  </si>
+  <si>
+    <t>ANTERIOR_NARES_SWAB</t>
+  </si>
+  <si>
+    <t>Anterior nares swab</t>
+  </si>
+  <si>
+    <t>OROPHARYNGEAL_ASPIRATE</t>
+  </si>
+  <si>
+    <t>Oropharyngeal aspirate</t>
+  </si>
+  <si>
+    <t>NASOPHARYNGEAL_ASPIRATE</t>
+  </si>
+  <si>
+    <t>Nasopharyngeal aspirate</t>
+  </si>
+  <si>
+    <t>LOWER_RESPIRATORY_SAMPLE</t>
+  </si>
+  <si>
+    <t>Lower respiratory sample</t>
+  </si>
+  <si>
+    <t>PLEURAL_FLUID_SPECIMEN</t>
+  </si>
+  <si>
+    <t>Pleural fluid specimen</t>
   </si>
   <si>
     <t>EXTERNAL</t>
@@ -8618,7 +8648,7 @@
 </file>
 
 <file path=xl/tables/table105.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="105" name="SampleSampleMaterial" displayName="SampleSampleMaterial" ref="A45:E65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="105" name="SampleSampleMaterial" displayName="SampleSampleMaterial" ref="A45:E70">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8632,7 +8662,7 @@
 </file>
 
 <file path=xl/tables/table106.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="106" name="SampleSamplePurpose" displayName="SampleSamplePurpose" ref="A67:E69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="106" name="SampleSamplePurpose" displayName="SampleSamplePurpose" ref="A72:E74">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8646,7 +8676,7 @@
 </file>
 
 <file path=xl/tables/table107.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="107" name="SampleSpecimenCondition" displayName="SampleSpecimenCondition" ref="A71:E73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="107" name="SampleSpecimenCondition" displayName="SampleSpecimenCondition" ref="A76:E78">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8660,7 +8690,7 @@
 </file>
 
 <file path=xl/tables/table108.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="108" name="SampleSampleSource" displayName="SampleSampleSource" ref="A75:E78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="108" name="SampleSampleSource" displayName="SampleSampleSource" ref="A80:E83">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8674,7 +8704,7 @@
 </file>
 
 <file path=xl/tables/table109.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="109" name="SamplePathogenTestResultType" displayName="SamplePathogenTestResultType" ref="A80:E85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="109" name="SamplePathogenTestResultType" displayName="SamplePathogenTestResultType" ref="A85:E90">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -8702,7 +8732,7 @@
 </file>
 
 <file path=xl/tables/table110.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="110" name="SampleSamplingReason" displayName="SampleSamplingReason" ref="A87:E101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="110" name="SampleSamplingReason" displayName="SampleSamplingReason" ref="A92:E106">
   <autoFilter/>
   <tableColumns count="5">
     <tableColumn id="1" name="Type"/>
@@ -22762,7 +22792,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24011,10 +24041,10 @@
     <row r="65">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>2250</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>2251</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
@@ -24023,32 +24053,43 @@
         <v>22</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="67">
-      <c r="A67" t="s">
-        <v>1</v>
-      </c>
+      <c r="A67"/>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>2254</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>2255</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s">
-        <v>2166</v>
-      </c>
+      <c r="A68"/>
       <c r="B68" t="s">
-        <v>2250</v>
+        <v>2256</v>
       </c>
       <c r="C68" t="s">
-        <v>2251</v>
+        <v>2257</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
@@ -24060,10 +24101,10 @@
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>2252</v>
+        <v>2258</v>
       </c>
       <c r="C69" t="s">
-        <v>2253</v>
+        <v>2259</v>
       </c>
       <c r="D69" t="s">
         <v>22</v>
@@ -24072,47 +24113,47 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" t="s">
-        <v>168</v>
+    <row r="70">
+      <c r="A70"/>
+      <c r="B70" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>2178</v>
+        <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>2254</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>2255</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73"/>
+      <c r="A73" t="s">
+        <v>2166</v>
+      </c>
       <c r="B73" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
       <c r="C73" t="s">
-        <v>2257</v>
+        <v>2261</v>
       </c>
       <c r="D73" t="s">
         <v>22</v>
@@ -24121,47 +24162,47 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" t="s">
-        <v>168</v>
+    <row r="74">
+      <c r="A74"/>
+      <c r="B74" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>2184</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>2258</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>2259</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77"/>
+      <c r="A77" t="s">
+        <v>2178</v>
+      </c>
       <c r="B77" t="s">
-        <v>2260</v>
+        <v>2264</v>
       </c>
       <c r="C77" t="s">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="D77" t="s">
         <v>22</v>
@@ -24173,10 +24214,10 @@
     <row r="78">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="C78" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
@@ -24204,13 +24245,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>2193</v>
+        <v>2184</v>
       </c>
       <c r="B81" t="s">
-        <v>2264</v>
+        <v>2268</v>
       </c>
       <c r="C81" t="s">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="D81" t="s">
         <v>22</v>
@@ -24222,10 +24263,10 @@
     <row r="82">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>936</v>
+        <v>2270</v>
       </c>
       <c r="C82" t="s">
-        <v>938</v>
+        <v>2271</v>
       </c>
       <c r="D82" t="s">
         <v>22</v>
@@ -24237,10 +24278,10 @@
     <row r="83">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>2266</v>
+        <v>2272</v>
       </c>
       <c r="C83" t="s">
-        <v>2267</v>
+        <v>2273</v>
       </c>
       <c r="D83" t="s">
         <v>22</v>
@@ -24249,62 +24290,62 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84"/>
-      <c r="B84" t="s">
-        <v>2268</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2269</v>
-      </c>
-      <c r="D84" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="85">
-      <c r="A85"/>
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
       <c r="B85" t="s">
-        <v>2270</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>2271</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s">
-        <v>1</v>
-      </c>
+      <c r="A87"/>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>936</v>
       </c>
       <c r="C87" t="s">
-        <v>3</v>
+        <v>938</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s">
-        <v>2208</v>
-      </c>
+      <c r="A88"/>
       <c r="B88" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="C88" t="s">
-        <v>2273</v>
+        <v>2277</v>
       </c>
       <c r="D88" t="s">
         <v>22</v>
@@ -24316,10 +24357,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="C89" t="s">
-        <v>2275</v>
+        <v>2279</v>
       </c>
       <c r="D89" t="s">
         <v>22</v>
@@ -24331,10 +24372,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>919</v>
+        <v>2280</v>
       </c>
       <c r="C90" t="s">
-        <v>643</v>
+        <v>2281</v>
       </c>
       <c r="D90" t="s">
         <v>22</v>
@@ -24343,43 +24384,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91"/>
-      <c r="B91" t="s">
-        <v>2276</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2277</v>
-      </c>
-      <c r="D91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="92">
-      <c r="A92"/>
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
       <c r="B92" t="s">
-        <v>2278</v>
+        <v>158</v>
       </c>
       <c r="C92" t="s">
-        <v>2279</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93"/>
+      <c r="A93" t="s">
+        <v>2208</v>
+      </c>
       <c r="B93" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="C93" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="D93" t="s">
         <v>22</v>
@@ -24391,10 +24421,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="C94" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="D94" t="s">
         <v>22</v>
@@ -24406,10 +24436,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>2284</v>
+        <v>919</v>
       </c>
       <c r="C95" t="s">
-        <v>2285</v>
+        <v>643</v>
       </c>
       <c r="D95" t="s">
         <v>22</v>
@@ -24451,10 +24481,10 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>1071</v>
+        <v>2290</v>
       </c>
       <c r="C98" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="D98" t="s">
         <v>22</v>
@@ -24466,10 +24496,10 @@
     <row r="99">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="C99" t="s">
-        <v>791</v>
+        <v>2293</v>
       </c>
       <c r="D99" t="s">
         <v>22</v>
@@ -24481,10 +24511,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>185</v>
+        <v>2294</v>
       </c>
       <c r="C100" t="s">
-        <v>186</v>
+        <v>2295</v>
       </c>
       <c r="D100" t="s">
         <v>22</v>
@@ -24496,15 +24526,90 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102"/>
+      <c r="B102" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103"/>
+      <c r="B103" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104"/>
+      <c r="B104" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C104" t="s">
+        <v>791</v>
+      </c>
+      <c r="D104" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105"/>
+      <c r="B105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" t="s">
+        <v>186</v>
+      </c>
+      <c r="D105" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106"/>
+      <c r="B106" t="s">
         <v>1074</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C106" t="s">
         <v>847</v>
       </c>
-      <c r="D101" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -24581,7 +24686,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2292</v>
+        <v>2302</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>2187</v>
@@ -24605,17 +24710,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2293</v>
+        <v>2303</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2294</v>
+        <v>2304</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>2295</v>
+        <v>2305</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -24629,17 +24734,17 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2296</v>
+        <v>2306</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2297</v>
+        <v>2307</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>2298</v>
+        <v>2308</v>
       </c>
       <c r="F4"/>
       <c r="H4" s="16" t="s">
@@ -24651,14 +24756,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2299</v>
+        <v>2309</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
@@ -24673,17 +24778,17 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2301</v>
+        <v>2311</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>2302</v>
+        <v>2312</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2303</v>
+        <v>2313</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>2304</v>
+        <v>2314</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -24697,7 +24802,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2305</v>
+        <v>2315</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>12</v>
@@ -24706,10 +24811,10 @@
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>2306</v>
+        <v>2316</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>2307</v>
+        <v>2317</v>
       </c>
       <c r="F7"/>
       <c r="H7" s="16" t="s">
@@ -24721,17 +24826,17 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2308</v>
+        <v>2318</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>2309</v>
+        <v>2319</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>2310</v>
+        <v>2320</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -24755,7 +24860,7 @@
         <v>230</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>2311</v>
+        <v>2321</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -24781,7 +24886,7 @@
         <v>2170</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>2312</v>
+        <v>2322</v>
       </c>
       <c r="F10"/>
       <c r="H10" s="16" t="s">
@@ -24793,7 +24898,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2313</v>
+        <v>2323</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>626</v>
@@ -24819,17 +24924,17 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2314</v>
+        <v>2324</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>2193</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>2315</v>
+        <v>2325</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>2316</v>
+        <v>2326</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -24843,7 +24948,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2317</v>
+        <v>2327</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>12</v>
@@ -24852,10 +24957,10 @@
         <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>2318</v>
+        <v>2328</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>2319</v>
+        <v>2329</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -24869,17 +24974,17 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2320</v>
+        <v>2330</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>140</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>2321</v>
+        <v>2331</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>2322</v>
+        <v>2332</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -24893,17 +24998,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2323</v>
+        <v>2333</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>140</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>2324</v>
+        <v>2334</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>2325</v>
+        <v>2335</v>
       </c>
       <c r="F15"/>
       <c r="H15" s="16" t="s">
@@ -24915,7 +25020,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2326</v>
+        <v>2336</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>12</v>
@@ -24924,10 +25029,10 @@
         <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>2327</v>
+        <v>2337</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>2328</v>
+        <v>2338</v>
       </c>
       <c r="F16"/>
       <c r="H16" s="16" t="s">
@@ -24939,14 +25044,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2329</v>
+        <v>2339</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>2330</v>
+        <v>2340</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>22</v>
@@ -24985,14 +25090,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2331</v>
+        <v>2341</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>140</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>2332</v>
+        <v>2342</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>22</v>
@@ -25937,13 +26042,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2302</v>
+        <v>2312</v>
       </c>
       <c r="B85" t="s">
-        <v>2333</v>
+        <v>2343</v>
       </c>
       <c r="C85" t="s">
-        <v>2334</v>
+        <v>2344</v>
       </c>
       <c r="D85" t="s">
         <v>22</v>
@@ -25955,10 +26060,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>2335</v>
+        <v>2345</v>
       </c>
       <c r="C86" t="s">
-        <v>2336</v>
+        <v>2346</v>
       </c>
       <c r="D86" t="s">
         <v>22</v>
@@ -25970,10 +26075,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="C87" t="s">
-        <v>2338</v>
+        <v>2348</v>
       </c>
       <c r="D87" t="s">
         <v>22</v>
@@ -25985,10 +26090,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>2339</v>
+        <v>2349</v>
       </c>
       <c r="C88" t="s">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="D88" t="s">
         <v>22</v>
@@ -26000,10 +26105,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>2341</v>
+        <v>2351</v>
       </c>
       <c r="C89" t="s">
-        <v>2342</v>
+        <v>2352</v>
       </c>
       <c r="D89" t="s">
         <v>22</v>
@@ -26015,7 +26120,7 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>2343</v>
+        <v>2353</v>
       </c>
       <c r="C90" t="s">
         <v>1087</v>
@@ -26030,10 +26135,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>2344</v>
+        <v>2354</v>
       </c>
       <c r="C91" t="s">
-        <v>2345</v>
+        <v>2355</v>
       </c>
       <c r="D91" t="s">
         <v>22</v>
@@ -26045,10 +26150,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>2346</v>
+        <v>2356</v>
       </c>
       <c r="C92" t="s">
-        <v>2347</v>
+        <v>2357</v>
       </c>
       <c r="D92" t="s">
         <v>22</v>
@@ -26060,10 +26165,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>2348</v>
+        <v>2358</v>
       </c>
       <c r="C93" t="s">
-        <v>2349</v>
+        <v>2359</v>
       </c>
       <c r="D93" t="s">
         <v>22</v>
@@ -26075,10 +26180,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>2350</v>
+        <v>2360</v>
       </c>
       <c r="C94" t="s">
-        <v>2351</v>
+        <v>2361</v>
       </c>
       <c r="D94" t="s">
         <v>22</v>
@@ -26090,10 +26195,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>2352</v>
+        <v>2362</v>
       </c>
       <c r="C95" t="s">
-        <v>2353</v>
+        <v>2363</v>
       </c>
       <c r="D95" t="s">
         <v>22</v>
@@ -26105,10 +26210,10 @@
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>2354</v>
+        <v>2364</v>
       </c>
       <c r="C96" t="s">
-        <v>2355</v>
+        <v>2365</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -26120,10 +26225,10 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>2356</v>
+        <v>2366</v>
       </c>
       <c r="C97" t="s">
-        <v>2357</v>
+        <v>2367</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -26135,10 +26240,10 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>2358</v>
+        <v>2368</v>
       </c>
       <c r="C98" t="s">
-        <v>2359</v>
+        <v>2369</v>
       </c>
       <c r="D98" t="s">
         <v>22</v>
@@ -26150,10 +26255,10 @@
     <row r="99">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>2360</v>
+        <v>2370</v>
       </c>
       <c r="C99" t="s">
-        <v>2361</v>
+        <v>2371</v>
       </c>
       <c r="D99" t="s">
         <v>22</v>
@@ -26165,10 +26270,10 @@
     <row r="100">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>2362</v>
+        <v>2372</v>
       </c>
       <c r="C100" t="s">
-        <v>2363</v>
+        <v>2373</v>
       </c>
       <c r="D100" t="s">
         <v>22</v>
@@ -26180,10 +26285,10 @@
     <row r="101">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>2364</v>
+        <v>2374</v>
       </c>
       <c r="C101" t="s">
-        <v>2365</v>
+        <v>2375</v>
       </c>
       <c r="D101" t="s">
         <v>22</v>
@@ -26195,10 +26300,10 @@
     <row r="102">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>2366</v>
+        <v>2376</v>
       </c>
       <c r="C102" t="s">
-        <v>2367</v>
+        <v>2377</v>
       </c>
       <c r="D102" t="s">
         <v>22</v>
@@ -26210,10 +26315,10 @@
     <row r="103">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>2368</v>
+        <v>2378</v>
       </c>
       <c r="C103" t="s">
-        <v>2369</v>
+        <v>2379</v>
       </c>
       <c r="D103" t="s">
         <v>22</v>
@@ -26225,10 +26330,10 @@
     <row r="104">
       <c r="A104"/>
       <c r="B104" t="s">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="C104" t="s">
-        <v>2371</v>
+        <v>2381</v>
       </c>
       <c r="D104" t="s">
         <v>22</v>
@@ -26274,10 +26379,10 @@
         <v>2193</v>
       </c>
       <c r="B108" t="s">
-        <v>2264</v>
+        <v>2274</v>
       </c>
       <c r="C108" t="s">
-        <v>2265</v>
+        <v>2275</v>
       </c>
       <c r="D108" t="s">
         <v>22</v>
@@ -26304,10 +26409,10 @@
     <row r="110">
       <c r="A110"/>
       <c r="B110" t="s">
-        <v>2266</v>
+        <v>2276</v>
       </c>
       <c r="C110" t="s">
-        <v>2267</v>
+        <v>2277</v>
       </c>
       <c r="D110" t="s">
         <v>22</v>
@@ -26319,10 +26424,10 @@
     <row r="111">
       <c r="A111"/>
       <c r="B111" t="s">
-        <v>2268</v>
+        <v>2278</v>
       </c>
       <c r="C111" t="s">
-        <v>2269</v>
+        <v>2279</v>
       </c>
       <c r="D111" t="s">
         <v>22</v>
@@ -26334,10 +26439,10 @@
     <row r="112">
       <c r="A112"/>
       <c r="B112" t="s">
-        <v>2270</v>
+        <v>2280</v>
       </c>
       <c r="C112" t="s">
-        <v>2271</v>
+        <v>2281</v>
       </c>
       <c r="D112" t="s">
         <v>22</v>
@@ -26416,7 +26521,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2292</v>
+        <v>2302</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>2187</v>
@@ -26438,14 +26543,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2308</v>
+        <v>2318</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2309</v>
+        <v>2319</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>22</v>
@@ -26460,14 +26565,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2372</v>
+        <v>2382</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>2373</v>
+        <v>2383</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2374</v>
+        <v>2384</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>22</v>
@@ -26482,14 +26587,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2375</v>
+        <v>2385</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2373</v>
+        <v>2383</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2376</v>
+        <v>2386</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>22</v>
@@ -26504,14 +26609,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2377</v>
+        <v>2387</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>2373</v>
+        <v>2383</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2378</v>
+        <v>2388</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>22</v>
@@ -26526,14 +26631,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2379</v>
+        <v>2389</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>2380</v>
+        <v>2390</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>22</v>
@@ -26548,14 +26653,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2381</v>
+        <v>2391</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>2382</v>
+        <v>2392</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>22</v>
@@ -26570,14 +26675,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2383</v>
+        <v>2393</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>2384</v>
+        <v>2394</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>22</v>
@@ -26592,14 +26697,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2385</v>
+        <v>2395</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>2386</v>
+        <v>2396</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>22</v>
@@ -26614,14 +26719,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2387</v>
+        <v>2397</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>2388</v>
+        <v>2398</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>22</v>
@@ -26636,14 +26741,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2389</v>
+        <v>2399</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>2390</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>22</v>
@@ -26658,14 +26763,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2391</v>
+        <v>2401</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>2392</v>
+        <v>2402</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>22</v>
@@ -26680,14 +26785,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2393</v>
+        <v>2403</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>2394</v>
+        <v>2404</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>22</v>
@@ -26702,14 +26807,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2395</v>
+        <v>2405</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>2396</v>
+        <v>2406</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>22</v>
@@ -26724,14 +26829,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2397</v>
+        <v>2407</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>2398</v>
+        <v>2408</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>22</v>
@@ -26746,14 +26851,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2399</v>
+        <v>2409</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>2400</v>
+        <v>2410</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>22</v>
@@ -26768,14 +26873,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2401</v>
+        <v>2411</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>2402</v>
+        <v>2412</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>22</v>
@@ -26790,14 +26895,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2403</v>
+        <v>2413</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>2404</v>
+        <v>2414</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>22</v>
@@ -26812,14 +26917,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2405</v>
+        <v>2415</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>2406</v>
+        <v>2416</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>22</v>
@@ -26834,14 +26939,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2407</v>
+        <v>2417</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>2408</v>
+        <v>2418</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>22</v>
@@ -26856,14 +26961,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2409</v>
+        <v>2419</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>2410</v>
+        <v>2420</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>22</v>
@@ -26878,14 +26983,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2411</v>
+        <v>2421</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>2412</v>
+        <v>2422</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>22</v>
@@ -26917,13 +27022,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2373</v>
+        <v>2383</v>
       </c>
       <c r="B26" t="s">
-        <v>2268</v>
+        <v>2278</v>
       </c>
       <c r="C26" t="s">
-        <v>2269</v>
+        <v>2279</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -26935,10 +27040,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>2266</v>
+        <v>2276</v>
       </c>
       <c r="C27" t="s">
-        <v>2267</v>
+        <v>2277</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -26950,10 +27055,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>2264</v>
+        <v>2274</v>
       </c>
       <c r="C28" t="s">
-        <v>2265</v>
+        <v>2275</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -27029,14 +27134,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2413</v>
+        <v>2423</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>2414</v>
+        <v>2424</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2415</v>
+        <v>2425</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>22</v>
@@ -27075,14 +27180,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2416</v>
+        <v>2426</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>2417</v>
+        <v>2427</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2418</v>
+        <v>2428</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>22</v>
@@ -27097,7 +27202,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2419</v>
+        <v>2429</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>1690</v>
@@ -27119,17 +27224,17 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2420</v>
+        <v>2430</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>2421</v>
+        <v>2431</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2422</v>
+        <v>2432</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>2423</v>
+        <v>2433</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -27143,14 +27248,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2424</v>
+        <v>2434</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>2425</v>
+        <v>2435</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>2426</v>
+        <v>2436</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>22</v>
@@ -27165,14 +27270,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2427</v>
+        <v>2437</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>2428</v>
+        <v>2438</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>22</v>
@@ -27189,14 +27294,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2429</v>
+        <v>2439</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>2430</v>
+        <v>2440</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>22</v>
@@ -27211,14 +27316,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2431</v>
+        <v>2441</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>2432</v>
+        <v>2442</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>2433</v>
+        <v>2443</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>22</v>
@@ -27233,14 +27338,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2434</v>
+        <v>2444</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>2435</v>
+        <v>2445</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>22</v>
@@ -27255,14 +27360,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2436</v>
+        <v>2446</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>2437</v>
+        <v>2447</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>22</v>
@@ -27277,14 +27382,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2438</v>
+        <v>2448</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>626</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>2439</v>
+        <v>2449</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>22</v>
@@ -27299,14 +27404,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2440</v>
+        <v>2450</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>2441</v>
+        <v>2451</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>22</v>
@@ -27321,14 +27426,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2442</v>
+        <v>2452</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>626</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>2443</v>
+        <v>2453</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>22</v>
@@ -27345,14 +27450,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2444</v>
+        <v>2454</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>2445</v>
+        <v>2455</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>22</v>
@@ -27367,7 +27472,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2446</v>
+        <v>2456</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -27389,7 +27494,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2447</v>
+        <v>2457</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -27411,7 +27516,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2448</v>
+        <v>2458</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -27450,13 +27555,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2414</v>
+        <v>2424</v>
       </c>
       <c r="B22" t="s">
-        <v>2449</v>
+        <v>2459</v>
       </c>
       <c r="C22" t="s">
-        <v>2450</v>
+        <v>2460</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -27468,10 +27573,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>2451</v>
+        <v>2461</v>
       </c>
       <c r="C23" t="s">
-        <v>2452</v>
+        <v>2462</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -27483,10 +27588,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>2453</v>
+        <v>2463</v>
       </c>
       <c r="C24" t="s">
-        <v>2454</v>
+        <v>2464</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -27498,10 +27603,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>2455</v>
+        <v>2465</v>
       </c>
       <c r="C25" t="s">
-        <v>2456</v>
+        <v>2466</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -27529,13 +27634,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2421</v>
+        <v>2431</v>
       </c>
       <c r="B28" t="s">
-        <v>2457</v>
+        <v>2467</v>
       </c>
       <c r="C28" t="s">
-        <v>2458</v>
+        <v>2468</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -27547,10 +27652,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>2459</v>
+        <v>2469</v>
       </c>
       <c r="C29" t="s">
-        <v>2460</v>
+        <v>2470</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -27562,10 +27667,10 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>2461</v>
+        <v>2471</v>
       </c>
       <c r="C30" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -27577,10 +27682,10 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="C31" t="s">
-        <v>2464</v>
+        <v>2474</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -27592,10 +27697,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>2465</v>
+        <v>2475</v>
       </c>
       <c r="C32" t="s">
-        <v>2466</v>
+        <v>2476</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -27610,7 +27715,7 @@
         <v>917</v>
       </c>
       <c r="C33" t="s">
-        <v>2467</v>
+        <v>2477</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -27622,10 +27727,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="C34" t="s">
-        <v>2469</v>
+        <v>2479</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -27637,10 +27742,10 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>2470</v>
+        <v>2480</v>
       </c>
       <c r="C35" t="s">
-        <v>2471</v>
+        <v>2481</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -27652,10 +27757,10 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>2472</v>
+        <v>2482</v>
       </c>
       <c r="C36" t="s">
-        <v>2473</v>
+        <v>2483</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -27667,10 +27772,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>2474</v>
+        <v>2484</v>
       </c>
       <c r="C37" t="s">
-        <v>2475</v>
+        <v>2485</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -27682,10 +27787,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>2476</v>
+        <v>2486</v>
       </c>
       <c r="C38" t="s">
-        <v>2477</v>
+        <v>2487</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -27697,10 +27802,10 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>2478</v>
+        <v>2488</v>
       </c>
       <c r="C39" t="s">
-        <v>2479</v>
+        <v>2489</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -27712,10 +27817,10 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>2480</v>
+        <v>2490</v>
       </c>
       <c r="C40" t="s">
-        <v>2481</v>
+        <v>2491</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -27727,10 +27832,10 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>2482</v>
+        <v>2492</v>
       </c>
       <c r="C41" t="s">
-        <v>2483</v>
+        <v>2493</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -27742,10 +27847,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>2484</v>
+        <v>2494</v>
       </c>
       <c r="C42" t="s">
-        <v>2485</v>
+        <v>2495</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
@@ -27757,10 +27862,10 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>2486</v>
+        <v>2496</v>
       </c>
       <c r="C43" t="s">
-        <v>2487</v>
+        <v>2497</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
@@ -27772,10 +27877,10 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>2488</v>
+        <v>2498</v>
       </c>
       <c r="C44" t="s">
-        <v>2489</v>
+        <v>2499</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -27787,10 +27892,10 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>2490</v>
+        <v>2500</v>
       </c>
       <c r="C45" t="s">
-        <v>2491</v>
+        <v>2501</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -27802,10 +27907,10 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>2492</v>
+        <v>2502</v>
       </c>
       <c r="C46" t="s">
-        <v>2493</v>
+        <v>2503</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -27820,7 +27925,7 @@
         <v>179</v>
       </c>
       <c r="C47" t="s">
-        <v>2494</v>
+        <v>2504</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -27832,10 +27937,10 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>2495</v>
+        <v>2505</v>
       </c>
       <c r="C48" t="s">
-        <v>2496</v>
+        <v>2506</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -27847,10 +27952,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>2497</v>
+        <v>2507</v>
       </c>
       <c r="C49" t="s">
-        <v>2498</v>
+        <v>2508</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -27862,10 +27967,10 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>2499</v>
+        <v>2509</v>
       </c>
       <c r="C50" t="s">
-        <v>2500</v>
+        <v>2510</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -27893,13 +27998,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2425</v>
+        <v>2435</v>
       </c>
       <c r="B53" t="s">
-        <v>2501</v>
+        <v>2511</v>
       </c>
       <c r="C53" t="s">
-        <v>2502</v>
+        <v>2512</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -27911,10 +28016,10 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>2503</v>
+        <v>2513</v>
       </c>
       <c r="C54" t="s">
-        <v>2504</v>
+        <v>2514</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -27926,10 +28031,10 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>2505</v>
+        <v>2515</v>
       </c>
       <c r="C55" t="s">
-        <v>2506</v>
+        <v>2516</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
@@ -27957,13 +28062,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2432</v>
+        <v>2442</v>
       </c>
       <c r="B58" t="s">
         <v>936</v>
       </c>
       <c r="C58" t="s">
-        <v>2507</v>
+        <v>2517</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -27978,7 +28083,7 @@
         <v>939</v>
       </c>
       <c r="C59" t="s">
-        <v>2508</v>
+        <v>2518</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -27990,10 +28095,10 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>2509</v>
+        <v>2519</v>
       </c>
       <c r="C60" t="s">
-        <v>2510</v>
+        <v>2520</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -28005,10 +28110,10 @@
     <row r="61">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>2511</v>
+        <v>2521</v>
       </c>
       <c r="C61" t="s">
-        <v>2512</v>
+        <v>2522</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
@@ -28087,10 +28192,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2513</v>
+        <v>2523</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>2417</v>
+        <v>2427</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
@@ -28109,17 +28214,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2514</v>
+        <v>2524</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>2515</v>
+        <v>2525</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2516</v>
+        <v>2526</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>2517</v>
+        <v>2527</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -28133,14 +28238,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2518</v>
+        <v>2528</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>2519</v>
+        <v>2529</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2520</v>
+        <v>2530</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>22</v>
@@ -28155,10 +28260,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2521</v>
+        <v>2531</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>2522</v>
+        <v>2532</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
@@ -28177,14 +28282,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2523</v>
+        <v>2533</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2524</v>
+        <v>2534</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>22</v>
@@ -28199,14 +28304,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2525</v>
+        <v>2535</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>2526</v>
+        <v>2536</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>22</v>
@@ -28221,14 +28326,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2527</v>
+        <v>2537</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>2528</v>
+        <v>2538</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>2529</v>
+        <v>2539</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>22</v>
@@ -28287,14 +28392,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2530</v>
+        <v>2540</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>2531</v>
+        <v>2541</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>22</v>
@@ -28309,7 +28414,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2532</v>
+        <v>2542</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>12</v>
@@ -28319,7 +28424,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>2533</v>
+        <v>2543</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -28333,14 +28438,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2534</v>
+        <v>2544</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>651</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>2535</v>
+        <v>2545</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>22</v>
@@ -28362,10 +28467,10 @@
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>2536</v>
+        <v>2546</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>2537</v>
+        <v>2547</v>
       </c>
       <c r="F14"/>
       <c r="H14" s="19" t="s">
@@ -28384,10 +28489,10 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>2538</v>
+        <v>2548</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>2539</v>
+        <v>2549</v>
       </c>
       <c r="F15"/>
       <c r="H15" s="19" t="s">
@@ -28447,14 +28552,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>2541</v>
+        <v>2551</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>22</v>
@@ -28469,14 +28574,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2542</v>
+        <v>2552</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>2543</v>
+        <v>2553</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>22</v>
@@ -28491,7 +28596,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2544</v>
+        <v>2554</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>115</v>
@@ -28523,7 +28628,7 @@
         <v>1625</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>2545</v>
+        <v>2555</v>
       </c>
       <c r="F21"/>
       <c r="H21" s="19" t="s">
@@ -28603,14 +28708,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2546</v>
+        <v>2556</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>2547</v>
+        <v>2557</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>22</v>
@@ -28647,14 +28752,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2548</v>
+        <v>2558</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>2550</v>
+        <v>2560</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>22</v>
@@ -28669,14 +28774,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2551</v>
+        <v>2561</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>2552</v>
+        <v>2562</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>2553</v>
+        <v>2563</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>22</v>
@@ -28691,14 +28796,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2554</v>
+        <v>2564</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>2555</v>
+        <v>2565</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>22</v>
@@ -28713,17 +28818,17 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2556</v>
+        <v>2566</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>2557</v>
+        <v>2567</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>2558</v>
+        <v>2568</v>
       </c>
       <c r="F30"/>
       <c r="H30" s="19" t="s">
@@ -28735,17 +28840,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2559</v>
+        <v>2569</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>2560</v>
+        <v>2570</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>2561</v>
+        <v>2571</v>
       </c>
       <c r="F31"/>
       <c r="H31" s="19" t="s">
@@ -28757,17 +28862,17 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2562</v>
+        <v>2572</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>2563</v>
+        <v>2573</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>2564</v>
+        <v>2574</v>
       </c>
       <c r="F32"/>
       <c r="H32" s="19" t="s">
@@ -28779,17 +28884,17 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2565</v>
+        <v>2575</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>2566</v>
+        <v>2576</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>2567</v>
+        <v>2577</v>
       </c>
       <c r="F33"/>
       <c r="H33" s="19" t="s">
@@ -28801,17 +28906,17 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2568</v>
+        <v>2578</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>2569</v>
+        <v>2579</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>2570</v>
+        <v>2580</v>
       </c>
       <c r="F34"/>
       <c r="H34" s="19" t="s">
@@ -28823,17 +28928,17 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2571</v>
+        <v>2581</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>2572</v>
+        <v>2582</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>2573</v>
+        <v>2583</v>
       </c>
       <c r="F35"/>
       <c r="H35" s="19" t="s">
@@ -28845,17 +28950,17 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2574</v>
+        <v>2584</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>2576</v>
+        <v>2586</v>
       </c>
       <c r="F36"/>
       <c r="H36" s="19" t="s">
@@ -28911,7 +29016,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2577</v>
+        <v>2587</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>626</v>
@@ -28920,7 +29025,7 @@
         <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>2578</v>
+        <v>2588</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>22</v>
@@ -28935,14 +29040,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>22</v>
@@ -29023,14 +29128,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>651</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>22</v>
@@ -29045,14 +29150,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>2583</v>
+        <v>2593</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>2585</v>
+        <v>2595</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>22</v>
@@ -29067,17 +29172,17 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="F46"/>
       <c r="H46" s="19" t="s">
@@ -29091,14 +29196,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>2592</v>
+        <v>2602</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>22</v>
@@ -29115,14 +29220,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2593</v>
+        <v>2603</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>22</v>
@@ -29139,14 +29244,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>22</v>
@@ -29207,14 +29312,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>22</v>
@@ -29248,13 +29353,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>2515</v>
+        <v>2525</v>
       </c>
       <c r="B55" t="s">
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="C55" t="s">
-        <v>2602</v>
+        <v>2612</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
@@ -29266,10 +29371,10 @@
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>2453</v>
+        <v>2463</v>
       </c>
       <c r="C56" t="s">
-        <v>2454</v>
+        <v>2464</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
@@ -29296,10 +29401,10 @@
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>2603</v>
+        <v>2613</v>
       </c>
       <c r="C58" t="s">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -29342,13 +29447,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2519</v>
+        <v>2529</v>
       </c>
       <c r="B62" t="s">
-        <v>2505</v>
+        <v>2515</v>
       </c>
       <c r="C62" t="s">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -29360,10 +29465,10 @@
     <row r="63">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>2606</v>
+        <v>2616</v>
       </c>
       <c r="C63" t="s">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
@@ -29375,10 +29480,10 @@
     <row r="64">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>2501</v>
+        <v>2511</v>
       </c>
       <c r="C64" t="s">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -29421,7 +29526,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>2522</v>
+        <v>2532</v>
       </c>
       <c r="B68" t="s">
         <v>936</v>
@@ -29439,10 +29544,10 @@
     <row r="69">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="C69" t="s">
-        <v>2610</v>
+        <v>2620</v>
       </c>
       <c r="D69" t="s">
         <v>22</v>
@@ -29500,7 +29605,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2528</v>
+        <v>2538</v>
       </c>
       <c r="B74" t="s">
         <v>936</v>
@@ -29518,7 +29623,7 @@
     <row r="75">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="C75" t="s">
         <v>1046</v>
@@ -29548,10 +29653,10 @@
     <row r="77">
       <c r="A77"/>
       <c r="B77" t="s">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="C77" t="s">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="D77" t="s">
         <v>22</v>
@@ -30000,13 +30105,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="B111" t="s">
-        <v>2613</v>
+        <v>2623</v>
       </c>
       <c r="C111" t="s">
-        <v>2614</v>
+        <v>2624</v>
       </c>
       <c r="D111" t="s">
         <v>22</v>
@@ -30018,10 +30123,10 @@
     <row r="112">
       <c r="A112"/>
       <c r="B112" t="s">
-        <v>2615</v>
+        <v>2625</v>
       </c>
       <c r="C112" t="s">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="D112" t="s">
         <v>22</v>
@@ -30033,10 +30138,10 @@
     <row r="113">
       <c r="A113"/>
       <c r="B113" t="s">
-        <v>2617</v>
+        <v>2627</v>
       </c>
       <c r="C113" t="s">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="D113" t="s">
         <v>22</v>
@@ -30048,10 +30153,10 @@
     <row r="114">
       <c r="A114"/>
       <c r="B114" t="s">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="C114" t="s">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="D114" t="s">
         <v>22</v>
@@ -30063,10 +30168,10 @@
     <row r="115">
       <c r="A115"/>
       <c r="B115" t="s">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="C115" t="s">
-        <v>2622</v>
+        <v>2632</v>
       </c>
       <c r="D115" t="s">
         <v>22</v>
@@ -30094,13 +30199,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>2552</v>
+        <v>2562</v>
       </c>
       <c r="B118" t="s">
-        <v>2623</v>
+        <v>2633</v>
       </c>
       <c r="C118" t="s">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="D118" t="s">
         <v>22</v>
@@ -30112,10 +30217,10 @@
     <row r="119">
       <c r="A119"/>
       <c r="B119" t="s">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="C119" t="s">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="D119" t="s">
         <v>22</v>
@@ -30127,10 +30232,10 @@
     <row r="120">
       <c r="A120"/>
       <c r="B120" t="s">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="C120" t="s">
-        <v>2628</v>
+        <v>2638</v>
       </c>
       <c r="D120" t="s">
         <v>22</v>
@@ -30142,10 +30247,10 @@
     <row r="121">
       <c r="A121"/>
       <c r="B121" t="s">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="C121" t="s">
-        <v>2630</v>
+        <v>2640</v>
       </c>
       <c r="D121" t="s">
         <v>22</v>
@@ -30157,10 +30262,10 @@
     <row r="122">
       <c r="A122"/>
       <c r="B122" t="s">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="C122" t="s">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -31062,13 +31167,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="B184" t="s">
-        <v>2633</v>
+        <v>2643</v>
       </c>
       <c r="C184" t="s">
-        <v>2634</v>
+        <v>2644</v>
       </c>
       <c r="D184" t="s">
         <v>22</v>
@@ -31080,10 +31185,10 @@
     <row r="185">
       <c r="A185"/>
       <c r="B185" t="s">
-        <v>2260</v>
+        <v>2270</v>
       </c>
       <c r="C185" t="s">
-        <v>2635</v>
+        <v>2645</v>
       </c>
       <c r="D185" t="s">
         <v>22</v>
@@ -31095,10 +31200,10 @@
     <row r="186">
       <c r="A186"/>
       <c r="B186" t="s">
-        <v>2262</v>
+        <v>2272</v>
       </c>
       <c r="C186" t="s">
-        <v>2636</v>
+        <v>2646</v>
       </c>
       <c r="D186" t="s">
         <v>22</v>
@@ -31110,10 +31215,10 @@
     <row r="187">
       <c r="A187"/>
       <c r="B187" t="s">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="C187" t="s">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="D187" t="s">
         <v>22</v>
@@ -31125,10 +31230,10 @@
     <row r="188">
       <c r="A188"/>
       <c r="B188" t="s">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="C188" t="s">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="D188" t="s">
         <v>22</v>
@@ -31171,7 +31276,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="B192" t="s">
         <v>893</v>
@@ -31250,13 +31355,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="B198" t="s">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="C198" t="s">
-        <v>2642</v>
+        <v>2652</v>
       </c>
       <c r="D198" t="s">
         <v>22</v>
@@ -31268,10 +31373,10 @@
     <row r="199">
       <c r="A199"/>
       <c r="B199" t="s">
-        <v>2643</v>
+        <v>2653</v>
       </c>
       <c r="C199" t="s">
-        <v>2644</v>
+        <v>2654</v>
       </c>
       <c r="D199" t="s">
         <v>22</v>
@@ -31283,10 +31388,10 @@
     <row r="200">
       <c r="A200"/>
       <c r="B200" t="s">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="C200" t="s">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="D200" t="s">
         <v>22</v>
@@ -31298,10 +31403,10 @@
     <row r="201">
       <c r="A201"/>
       <c r="B201" t="s">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="C201" t="s">
-        <v>2648</v>
+        <v>2658</v>
       </c>
       <c r="D201" t="s">
         <v>22</v>
@@ -31313,10 +31418,10 @@
     <row r="202">
       <c r="A202"/>
       <c r="B202" t="s">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="C202" t="s">
-        <v>2650</v>
+        <v>2660</v>
       </c>
       <c r="D202" t="s">
         <v>22</v>
@@ -31328,10 +31433,10 @@
     <row r="203">
       <c r="A203"/>
       <c r="B203" t="s">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="C203" t="s">
-        <v>2652</v>
+        <v>2662</v>
       </c>
       <c r="D203" t="s">
         <v>22</v>
@@ -31374,13 +31479,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="B207" t="s">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="C207" t="s">
-        <v>2654</v>
+        <v>2664</v>
       </c>
       <c r="D207" t="s">
         <v>22</v>
@@ -31392,10 +31497,10 @@
     <row r="208">
       <c r="A208"/>
       <c r="B208" t="s">
-        <v>2655</v>
+        <v>2665</v>
       </c>
       <c r="C208" t="s">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="D208" t="s">
         <v>22</v>
@@ -31407,10 +31512,10 @@
     <row r="209">
       <c r="A209"/>
       <c r="B209" t="s">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="C209" t="s">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="D209" t="s">
         <v>22</v>
@@ -31422,10 +31527,10 @@
     <row r="210">
       <c r="A210"/>
       <c r="B210" t="s">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="C210" t="s">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="D210" t="s">
         <v>22</v>
@@ -31437,10 +31542,10 @@
     <row r="211">
       <c r="A211"/>
       <c r="B211" t="s">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="C211" t="s">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="D211" t="s">
         <v>22</v>
@@ -31483,13 +31588,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="B215" t="s">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="C215" t="s">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="D215" t="s">
         <v>22</v>
@@ -31501,10 +31606,10 @@
     <row r="216">
       <c r="A216"/>
       <c r="B216" t="s">
-        <v>2665</v>
+        <v>2675</v>
       </c>
       <c r="C216" t="s">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="D216" t="s">
         <v>22</v>
@@ -31516,10 +31621,10 @@
     <row r="217">
       <c r="A217"/>
       <c r="B217" t="s">
-        <v>2667</v>
+        <v>2677</v>
       </c>
       <c r="C217" t="s">
-        <v>2668</v>
+        <v>2678</v>
       </c>
       <c r="D217" t="s">
         <v>22</v>
@@ -31531,10 +31636,10 @@
     <row r="218">
       <c r="A218"/>
       <c r="B218" t="s">
-        <v>2669</v>
+        <v>2679</v>
       </c>
       <c r="C218" t="s">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="D218" t="s">
         <v>22</v>
@@ -31546,10 +31651,10 @@
     <row r="219">
       <c r="A219"/>
       <c r="B219" t="s">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="C219" t="s">
-        <v>2672</v>
+        <v>2682</v>
       </c>
       <c r="D219" t="s">
         <v>22</v>
@@ -33333,14 +33438,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2416</v>
+        <v>2426</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>2417</v>
+        <v>2427</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2454</v>
+        <v>2464</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>22</v>
@@ -33360,11 +33465,11 @@
         <v>617</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>22</v>
@@ -33381,7 +33486,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2674</v>
+        <v>2684</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>12</v>
@@ -33390,7 +33495,7 @@
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>2675</v>
+        <v>2685</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>22</v>
@@ -33515,7 +33620,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>140</v>
@@ -33601,14 +33706,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2677</v>
+        <v>2687</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2679</v>
+        <v>2689</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>22</v>
@@ -33625,14 +33730,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2416</v>
+        <v>2426</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2417</v>
+        <v>2427</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2418</v>
+        <v>2428</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>22</v>
@@ -33647,14 +33752,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2682</v>
+        <v>2692</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>22</v>
@@ -33669,14 +33774,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2424</v>
+        <v>2434</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2426</v>
+        <v>2436</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>22</v>
@@ -33691,7 +33796,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>55</v>
@@ -33715,14 +33820,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>22</v>
@@ -33737,7 +33842,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2434</v>
+        <v>2444</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>55</v>
@@ -33759,14 +33864,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2438</v>
+        <v>2448</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>626</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>2439</v>
+        <v>2449</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>22</v>
@@ -33781,14 +33886,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>2531</v>
+        <v>2541</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>22</v>
@@ -33825,14 +33930,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2689</v>
+        <v>2699</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>2445</v>
+        <v>2455</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>22</v>
@@ -33847,14 +33952,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>626</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>2691</v>
+        <v>2701</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>22</v>
@@ -33886,13 +33991,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="B16" t="s">
-        <v>2453</v>
+        <v>2463</v>
       </c>
       <c r="C16" t="s">
-        <v>2454</v>
+        <v>2464</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -33920,13 +34025,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="B19" t="s">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="C19" t="s">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -33938,10 +34043,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="C20" t="s">
-        <v>2694</v>
+        <v>2704</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -33953,10 +34058,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>2695</v>
+        <v>2705</v>
       </c>
       <c r="C21" t="s">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -33968,10 +34073,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>2472</v>
+        <v>2482</v>
       </c>
       <c r="C22" t="s">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -33983,10 +34088,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>2698</v>
+        <v>2708</v>
       </c>
       <c r="C23" t="s">
-        <v>2699</v>
+        <v>2709</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -33998,10 +34103,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>2700</v>
+        <v>2710</v>
       </c>
       <c r="C24" t="s">
-        <v>2701</v>
+        <v>2711</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -34013,10 +34118,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>2702</v>
+        <v>2712</v>
       </c>
       <c r="C25" t="s">
-        <v>2703</v>
+        <v>2713</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -34028,10 +34133,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>2704</v>
+        <v>2714</v>
       </c>
       <c r="C26" t="s">
-        <v>2705</v>
+        <v>2715</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -34043,10 +34148,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>2706</v>
+        <v>2716</v>
       </c>
       <c r="C27" t="s">
-        <v>2707</v>
+        <v>2717</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -34089,13 +34194,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="B31" t="s">
-        <v>2501</v>
+        <v>2511</v>
       </c>
       <c r="C31" t="s">
-        <v>2502</v>
+        <v>2512</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -34107,10 +34212,10 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>2503</v>
+        <v>2513</v>
       </c>
       <c r="C32" t="s">
-        <v>2504</v>
+        <v>2514</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -34122,10 +34227,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>2505</v>
+        <v>2515</v>
       </c>
       <c r="C33" t="s">
-        <v>2506</v>
+        <v>2516</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -34153,7 +34258,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="B36" t="s">
         <v>936</v>
@@ -34171,10 +34276,10 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>2708</v>
+        <v>2718</v>
       </c>
       <c r="C37" t="s">
-        <v>2709</v>
+        <v>2719</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -34268,14 +34373,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2710</v>
+        <v>2720</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2711</v>
+        <v>2721</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>22</v>
@@ -34495,7 +34600,7 @@
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>2712</v>
+        <v>2722</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>22</v>
@@ -34517,7 +34622,7 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>2713</v>
+        <v>2723</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>22</v>
@@ -34532,7 +34637,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2714</v>
+        <v>2724</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>69</v>
@@ -34554,14 +34659,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2715</v>
+        <v>2725</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>140</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>2716</v>
+        <v>2726</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>22</v>
@@ -34576,14 +34681,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2717</v>
+        <v>2727</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>140</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>22</v>
@@ -35669,14 +35774,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2720</v>
+        <v>2730</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>22</v>
@@ -35713,14 +35818,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2721</v>
+        <v>2731</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2722</v>
+        <v>2732</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>22</v>
@@ -35735,14 +35840,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2723</v>
+        <v>2733</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2724</v>
+        <v>2734</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>22</v>
@@ -35757,14 +35862,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2717</v>
+        <v>2727</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>140</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>22</v>
@@ -35843,14 +35948,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2710</v>
+        <v>2720</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2711</v>
+        <v>2721</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>22</v>
@@ -35865,14 +35970,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2725</v>
+        <v>2735</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2726</v>
+        <v>2736</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>22</v>
@@ -35887,14 +35992,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2727</v>
+        <v>2737</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2728</v>
+        <v>2738</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>22</v>
@@ -35909,14 +36014,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2717</v>
+        <v>2727</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>140</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>22</v>
@@ -35953,10 +36058,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2729</v>
+        <v>2739</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>2730</v>
+        <v>2740</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
@@ -36039,14 +36144,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2710</v>
+        <v>2720</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2711</v>
+        <v>2721</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>22</v>
@@ -36061,14 +36166,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2725</v>
+        <v>2735</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2726</v>
+        <v>2736</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>22</v>
@@ -36083,14 +36188,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2727</v>
+        <v>2737</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>42</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>2728</v>
+        <v>2738</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>22</v>
@@ -36127,14 +36232,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2717</v>
+        <v>2727</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>140</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>22</v>
@@ -36235,14 +36340,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2710</v>
+        <v>2720</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2711</v>
+        <v>2721</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>22</v>
@@ -36301,14 +36406,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2717</v>
+        <v>2727</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>140</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>22</v>
@@ -36409,14 +36514,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2731</v>
+        <v>2741</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>140</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>2732</v>
+        <v>2742</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>22</v>
@@ -36431,14 +36536,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2733</v>
+        <v>2743</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>2734</v>
+        <v>2744</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>22</v>
@@ -36497,14 +36602,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2735</v>
+        <v>2745</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>2566</v>
+        <v>2576</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>22</v>
@@ -36548,7 +36653,7 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>2736</v>
+        <v>2746</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>22</v>
@@ -36563,12 +36668,12 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2737</v>
+        <v>2747</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>2738</v>
+        <v>2748</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>22</v>
@@ -36671,7 +36776,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2739</v>
+        <v>2749</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>72</v>
@@ -36700,7 +36805,7 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>2740</v>
+        <v>2750</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>22</v>
@@ -36715,14 +36820,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2741</v>
+        <v>2751</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>626</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>2742</v>
+        <v>2752</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>22</v>
@@ -36737,17 +36842,17 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2743</v>
+        <v>2753</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>91</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>2744</v>
+        <v>2754</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>2745</v>
+        <v>2755</v>
       </c>
       <c r="F17"/>
       <c r="H17" s="27" t="s">
@@ -36759,10 +36864,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2746</v>
+        <v>2756</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>2747</v>
+        <v>2757</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
@@ -36781,14 +36886,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2748</v>
+        <v>2758</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>140</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>2749</v>
+        <v>2759</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>22</v>
@@ -37731,13 +37836,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2747</v>
+        <v>2757</v>
       </c>
       <c r="B85" t="s">
-        <v>2750</v>
+        <v>2760</v>
       </c>
       <c r="C85" t="s">
-        <v>2751</v>
+        <v>2761</v>
       </c>
       <c r="D85" t="s">
         <v>22</v>
@@ -37749,10 +37854,10 @@
     <row r="86">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>2752</v>
+        <v>2762</v>
       </c>
       <c r="C86" t="s">
-        <v>2753</v>
+        <v>2763</v>
       </c>
       <c r="D86" t="s">
         <v>22</v>
@@ -37764,10 +37869,10 @@
     <row r="87">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>2754</v>
+        <v>2764</v>
       </c>
       <c r="C87" t="s">
-        <v>2755</v>
+        <v>2765</v>
       </c>
       <c r="D87" t="s">
         <v>22</v>
@@ -37779,10 +37884,10 @@
     <row r="88">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>2756</v>
+        <v>2766</v>
       </c>
       <c r="C88" t="s">
-        <v>2757</v>
+        <v>2767</v>
       </c>
       <c r="D88" t="s">
         <v>22</v>
@@ -37794,10 +37899,10 @@
     <row r="89">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>2758</v>
+        <v>2768</v>
       </c>
       <c r="C89" t="s">
-        <v>2759</v>
+        <v>2769</v>
       </c>
       <c r="D89" t="s">
         <v>22</v>
@@ -37809,10 +37914,10 @@
     <row r="90">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>2760</v>
+        <v>2770</v>
       </c>
       <c r="C90" t="s">
-        <v>2761</v>
+        <v>2771</v>
       </c>
       <c r="D90" t="s">
         <v>22</v>
@@ -37824,10 +37929,10 @@
     <row r="91">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>2762</v>
+        <v>2772</v>
       </c>
       <c r="C91" t="s">
-        <v>2763</v>
+        <v>2773</v>
       </c>
       <c r="D91" t="s">
         <v>22</v>
@@ -37839,10 +37944,10 @@
     <row r="92">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>2764</v>
+        <v>2774</v>
       </c>
       <c r="C92" t="s">
-        <v>2765</v>
+        <v>2775</v>
       </c>
       <c r="D92" t="s">
         <v>22</v>
@@ -37854,10 +37959,10 @@
     <row r="93">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>2766</v>
+        <v>2776</v>
       </c>
       <c r="C93" t="s">
-        <v>2767</v>
+        <v>2777</v>
       </c>
       <c r="D93" t="s">
         <v>22</v>
@@ -37869,10 +37974,10 @@
     <row r="94">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>2768</v>
+        <v>2778</v>
       </c>
       <c r="C94" t="s">
-        <v>2769</v>
+        <v>2779</v>
       </c>
       <c r="D94" t="s">
         <v>22</v>
@@ -37884,10 +37989,10 @@
     <row r="95">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>2770</v>
+        <v>2780</v>
       </c>
       <c r="C95" t="s">
-        <v>2771</v>
+        <v>2781</v>
       </c>
       <c r="D95" t="s">
         <v>22</v>
@@ -37899,10 +38004,10 @@
     <row r="96">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>2772</v>
+        <v>2782</v>
       </c>
       <c r="C96" t="s">
-        <v>2773</v>
+        <v>2783</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -37914,10 +38019,10 @@
     <row r="97">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>2774</v>
+        <v>2784</v>
       </c>
       <c r="C97" t="s">
-        <v>2775</v>
+        <v>2785</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -37929,10 +38034,10 @@
     <row r="98">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>2776</v>
+        <v>2786</v>
       </c>
       <c r="C98" t="s">
-        <v>2777</v>
+        <v>2787</v>
       </c>
       <c r="D98" t="s">
         <v>22</v>
@@ -37944,10 +38049,10 @@
     <row r="99">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>2778</v>
+        <v>2788</v>
       </c>
       <c r="C99" t="s">
-        <v>2779</v>
+        <v>2789</v>
       </c>
       <c r="D99" t="s">
         <v>22</v>
@@ -37977,12 +38082,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2780</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2781</v>
+        <v>2791</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12411" uniqueCount="2878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12501" uniqueCount="2878">
   <si>
     <t>Field</t>
   </si>
@@ -89,6 +89,9 @@
     <t/>
   </si>
   <si>
+    <t>All</t>
+  </si>
+  <si>
     <t>changeDate</t>
   </si>
   <si>
@@ -111,9 +114,6 @@
   </si>
   <si>
     <t>Enter the first name of the person</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
   <si>
     <t>lastName</t>
@@ -11459,10 +11459,16 @@
         <v>14</v>
       </c>
       <c r="F2"/>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -11475,44 +11481,58 @@
         <v>14</v>
       </c>
       <c r="F3"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4"/>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -11525,10 +11545,10 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -11540,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -11556,7 +11576,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -11566,7 +11586,7 @@
       </c>
       <c r="F7"/>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -11579,10 +11599,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -11592,7 +11612,7 @@
       </c>
       <c r="F8"/>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -11603,10 +11623,10 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -11616,7 +11636,7 @@
       </c>
       <c r="F9"/>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -11629,10 +11649,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -11642,7 +11662,7 @@
       </c>
       <c r="F10"/>
       <c r="H10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -11653,10 +11673,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -11666,7 +11686,7 @@
       </c>
       <c r="F11"/>
       <c r="H11" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -11677,10 +11697,10 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -11690,7 +11710,7 @@
       </c>
       <c r="F12"/>
       <c r="H12" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -11701,10 +11721,10 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -11714,7 +11734,7 @@
       </c>
       <c r="F13"/>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -11725,10 +11745,10 @@
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
@@ -11738,7 +11758,7 @@
       </c>
       <c r="F14"/>
       <c r="H14" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -11762,7 +11782,7 @@
       </c>
       <c r="F15"/>
       <c r="H15" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -11778,7 +11798,7 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -11788,7 +11808,7 @@
       </c>
       <c r="F16"/>
       <c r="H16" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -11812,7 +11832,7 @@
       </c>
       <c r="F17"/>
       <c r="H17" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -11836,7 +11856,7 @@
       </c>
       <c r="F18"/>
       <c r="H18" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -11860,7 +11880,7 @@
       </c>
       <c r="F19"/>
       <c r="H19" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -11884,7 +11904,7 @@
       </c>
       <c r="F20"/>
       <c r="H20" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -11908,7 +11928,7 @@
       </c>
       <c r="F21"/>
       <c r="H21" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -12045,7 +12065,7 @@
         <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -12130,7 +12150,7 @@
       </c>
       <c r="F30"/>
       <c r="H30" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -12154,7 +12174,7 @@
       </c>
       <c r="F31"/>
       <c r="H31" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -12176,7 +12196,7 @@
       </c>
       <c r="F32"/>
       <c r="H32" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -12198,7 +12218,7 @@
       </c>
       <c r="F33"/>
       <c r="H33" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -12209,7 +12229,7 @@
         <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
@@ -12222,7 +12242,7 @@
       </c>
       <c r="F34"/>
       <c r="H34" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -12255,7 +12275,7 @@
         <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>71</v>
@@ -12301,7 +12321,7 @@
         <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>71</v>
@@ -12358,7 +12378,7 @@
       </c>
       <c r="F40"/>
       <c r="H40" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -12380,7 +12400,7 @@
       </c>
       <c r="F41"/>
       <c r="H41" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
@@ -12391,7 +12411,7 @@
         <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>71</v>
@@ -12404,7 +12424,7 @@
       </c>
       <c r="F42"/>
       <c r="H42" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I42"/>
       <c r="J42"/>
@@ -12426,7 +12446,7 @@
       </c>
       <c r="F43"/>
       <c r="H43" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
@@ -12437,7 +12457,7 @@
         <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
         <v>71</v>
@@ -12450,7 +12470,7 @@
       </c>
       <c r="F44"/>
       <c r="H44" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -12474,7 +12494,7 @@
       </c>
       <c r="F45"/>
       <c r="H45" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -12487,7 +12507,7 @@
         <v>129</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>71</v>
@@ -12500,7 +12520,7 @@
       </c>
       <c r="F46"/>
       <c r="H46" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -12511,7 +12531,7 @@
         <v>131</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
         <v>71</v>
@@ -12524,7 +12544,7 @@
       </c>
       <c r="F47"/>
       <c r="H47" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -12544,7 +12564,7 @@
       </c>
       <c r="F48"/>
       <c r="H48" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -12564,7 +12584,7 @@
       </c>
       <c r="F49"/>
       <c r="H49" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I49"/>
       <c r="J49"/>
@@ -12634,7 +12654,7 @@
       </c>
       <c r="F52"/>
       <c r="H52" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -12645,7 +12665,7 @@
         <v>146</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>71</v>
@@ -12658,7 +12678,7 @@
       </c>
       <c r="F53"/>
       <c r="H53" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
@@ -12671,7 +12691,7 @@
         <v>148</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="s">
@@ -12682,7 +12702,7 @@
       </c>
       <c r="F54"/>
       <c r="H54" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -12708,7 +12728,7 @@
       </c>
       <c r="F55"/>
       <c r="H55" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -12734,7 +12754,7 @@
       </c>
       <c r="F56"/>
       <c r="H56" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
@@ -12747,7 +12767,7 @@
         <v>155</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
@@ -12760,7 +12780,7 @@
       </c>
       <c r="F57"/>
       <c r="H57" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
@@ -16023,10 +16043,16 @@
         <v>14</v>
       </c>
       <c r="F2"/>
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>12</v>
@@ -16039,13 +16065,19 @@
         <v>14</v>
       </c>
       <c r="F3"/>
+      <c r="H3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
@@ -16055,6 +16087,14 @@
         <v>14</v>
       </c>
       <c r="F4"/>
+      <c r="H4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -16072,7 +16112,7 @@
       </c>
       <c r="F5"/>
       <c r="H5" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -16094,7 +16134,7 @@
       </c>
       <c r="F6"/>
       <c r="H6" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -16116,7 +16156,7 @@
       </c>
       <c r="F7"/>
       <c r="H7" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -16138,7 +16178,7 @@
       </c>
       <c r="F8"/>
       <c r="H8" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -16160,7 +16200,7 @@
       </c>
       <c r="F9"/>
       <c r="H9" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -16202,7 +16242,7 @@
       </c>
       <c r="F11"/>
       <c r="H11" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -16222,7 +16262,7 @@
       </c>
       <c r="F12"/>
       <c r="H12" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -16372,10 +16412,16 @@
         <v>14</v>
       </c>
       <c r="F2"/>
+      <c r="H2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>12</v>
@@ -16388,13 +16434,19 @@
         <v>14</v>
       </c>
       <c r="F3"/>
+      <c r="H3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
@@ -16404,6 +16456,14 @@
         <v>14</v>
       </c>
       <c r="F4"/>
+      <c r="H4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -16423,7 +16483,7 @@
       </c>
       <c r="F5"/>
       <c r="H5" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -16445,7 +16505,7 @@
       </c>
       <c r="F6"/>
       <c r="H6" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -16469,7 +16529,7 @@
       </c>
       <c r="F7"/>
       <c r="H7" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -16491,7 +16551,7 @@
       </c>
       <c r="F8"/>
       <c r="H8" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -16502,7 +16562,7 @@
         <v>1133</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -16515,7 +16575,7 @@
       </c>
       <c r="F9"/>
       <c r="H9" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -16539,7 +16599,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -16550,7 +16610,7 @@
         <v>1801</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -16563,7 +16623,7 @@
       </c>
       <c r="F11"/>
       <c r="H11" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -16585,7 +16645,7 @@
       </c>
       <c r="F12"/>
       <c r="H12" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -16607,7 +16667,7 @@
       </c>
       <c r="F13"/>
       <c r="H13" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -16629,7 +16689,7 @@
       </c>
       <c r="F14"/>
       <c r="H14" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -16640,7 +16700,7 @@
         <v>1146</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>71</v>
@@ -16653,7 +16713,7 @@
       </c>
       <c r="F15"/>
       <c r="H15" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -16675,7 +16735,7 @@
       </c>
       <c r="F16"/>
       <c r="H16" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -16686,7 +16746,7 @@
         <v>1151</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>71</v>
@@ -16699,7 +16759,7 @@
       </c>
       <c r="F17"/>
       <c r="H17" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -16710,7 +16770,7 @@
         <v>1153</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
@@ -16723,7 +16783,7 @@
       </c>
       <c r="F18"/>
       <c r="H18" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -16734,7 +16794,7 @@
         <v>1155</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>71</v>
@@ -16747,7 +16807,7 @@
       </c>
       <c r="F19"/>
       <c r="H19" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -16769,7 +16829,7 @@
       </c>
       <c r="F20"/>
       <c r="H20" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -16791,7 +16851,7 @@
       </c>
       <c r="F21"/>
       <c r="H21" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -16813,7 +16873,7 @@
       </c>
       <c r="F22"/>
       <c r="H22" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -16835,7 +16895,7 @@
       </c>
       <c r="F23"/>
       <c r="H23" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -16857,7 +16917,7 @@
       </c>
       <c r="F24"/>
       <c r="H24" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -16879,7 +16939,7 @@
       </c>
       <c r="F25"/>
       <c r="H25" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -16890,7 +16950,7 @@
         <v>1814</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>71</v>
@@ -16903,7 +16963,7 @@
       </c>
       <c r="F26"/>
       <c r="H26" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -16925,7 +16985,7 @@
       </c>
       <c r="F27"/>
       <c r="H27" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -16947,7 +17007,7 @@
       </c>
       <c r="F28"/>
       <c r="H28" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -17101,7 +17161,7 @@
       </c>
       <c r="F35"/>
       <c r="H35" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -17123,7 +17183,7 @@
       </c>
       <c r="F36"/>
       <c r="H36" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -17145,7 +17205,7 @@
       </c>
       <c r="F37"/>
       <c r="H37" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -17156,7 +17216,7 @@
         <v>1843</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>71</v>
@@ -17169,7 +17229,7 @@
       </c>
       <c r="F38"/>
       <c r="H38" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I38"/>
       <c r="J38"/>
@@ -17224,7 +17284,7 @@
         <v>1851</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
         <v>71</v>
@@ -17251,7 +17311,7 @@
         <v>1854</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
         <v>1855</v>
@@ -17261,7 +17321,7 @@
       </c>
       <c r="F42"/>
       <c r="H42" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I42"/>
       <c r="J42"/>
@@ -17283,7 +17343,7 @@
       </c>
       <c r="F43"/>
       <c r="H43" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
@@ -17305,7 +17365,7 @@
       </c>
       <c r="F44"/>
       <c r="H44" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -17327,7 +17387,7 @@
       </c>
       <c r="F45"/>
       <c r="H45" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -17349,7 +17409,7 @@
       </c>
       <c r="F46"/>
       <c r="H46" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -17360,7 +17420,7 @@
         <v>1163</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
         <v>71</v>
@@ -17373,7 +17433,7 @@
       </c>
       <c r="F47"/>
       <c r="H47" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -17395,7 +17455,7 @@
       </c>
       <c r="F48"/>
       <c r="H48" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -17406,7 +17466,7 @@
         <v>1168</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>71</v>
@@ -17419,7 +17479,7 @@
       </c>
       <c r="F49"/>
       <c r="H49" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I49"/>
       <c r="J49"/>
@@ -17441,7 +17501,7 @@
       </c>
       <c r="F50"/>
       <c r="H50" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
@@ -17452,7 +17512,7 @@
         <v>1865</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>71</v>
@@ -17465,7 +17525,7 @@
       </c>
       <c r="F51"/>
       <c r="H51" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
@@ -17487,7 +17547,7 @@
       </c>
       <c r="F52"/>
       <c r="H52" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -17509,7 +17569,7 @@
       </c>
       <c r="F53"/>
       <c r="H53" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
@@ -17531,7 +17591,7 @@
       </c>
       <c r="F54"/>
       <c r="H54" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -17542,10 +17602,10 @@
         <v>1873</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
         <v>1874</v>
@@ -17555,7 +17615,7 @@
       </c>
       <c r="F55"/>
       <c r="H55" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -17566,7 +17626,7 @@
         <v>1875</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
@@ -17579,7 +17639,7 @@
       </c>
       <c r="F56"/>
       <c r="H56" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
@@ -17601,7 +17661,7 @@
       </c>
       <c r="F57"/>
       <c r="H57" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
@@ -19336,10 +19396,16 @@
         <v>14</v>
       </c>
       <c r="F2"/>
+      <c r="H2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>12</v>
@@ -19352,13 +19418,19 @@
         <v>14</v>
       </c>
       <c r="F3"/>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
@@ -19368,6 +19440,14 @@
         <v>14</v>
       </c>
       <c r="F4"/>
+      <c r="H4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -19385,7 +19465,7 @@
       </c>
       <c r="F5"/>
       <c r="H5" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5"/>
       <c r="J5" t="s">
@@ -19409,7 +19489,7 @@
       </c>
       <c r="F6"/>
       <c r="H6" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="s">
@@ -19433,7 +19513,7 @@
       </c>
       <c r="F7"/>
       <c r="H7" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
@@ -19457,7 +19537,7 @@
       </c>
       <c r="F8"/>
       <c r="H8" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -19479,7 +19559,7 @@
       </c>
       <c r="F9"/>
       <c r="H9" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="s">
@@ -19503,7 +19583,7 @@
       </c>
       <c r="F10"/>
       <c r="H10" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I10"/>
       <c r="J10" t="s">
@@ -19527,7 +19607,7 @@
       </c>
       <c r="F11"/>
       <c r="H11" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -19549,7 +19629,7 @@
       </c>
       <c r="F12"/>
       <c r="H12" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -19571,7 +19651,7 @@
       </c>
       <c r="F13"/>
       <c r="H13" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I13"/>
       <c r="J13" t="s">
@@ -19595,7 +19675,7 @@
       </c>
       <c r="F14"/>
       <c r="H14" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -19617,7 +19697,7 @@
       </c>
       <c r="F15"/>
       <c r="H15" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -19639,7 +19719,7 @@
       </c>
       <c r="F16"/>
       <c r="H16" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -19661,7 +19741,7 @@
       </c>
       <c r="F17"/>
       <c r="H17" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
@@ -19685,7 +19765,7 @@
       </c>
       <c r="F18"/>
       <c r="H18" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I18"/>
       <c r="J18" t="s">
@@ -19709,7 +19789,7 @@
       </c>
       <c r="F19"/>
       <c r="H19" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
@@ -19733,7 +19813,7 @@
       </c>
       <c r="F20"/>
       <c r="H20" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -19755,7 +19835,7 @@
       </c>
       <c r="F21"/>
       <c r="H21" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I21"/>
       <c r="J21" t="s">
@@ -19779,7 +19859,7 @@
       </c>
       <c r="F22"/>
       <c r="H22" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I22"/>
       <c r="J22" t="s">
@@ -19803,7 +19883,7 @@
       </c>
       <c r="F23"/>
       <c r="H23" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="s">
@@ -19827,7 +19907,7 @@
       </c>
       <c r="F24"/>
       <c r="H24" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I24"/>
       <c r="J24" t="s">
@@ -19851,7 +19931,7 @@
       </c>
       <c r="F25"/>
       <c r="H25" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="s">
@@ -19875,7 +19955,7 @@
       </c>
       <c r="F26"/>
       <c r="H26" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -19888,7 +19968,7 @@
         <v>1971</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -19901,7 +19981,7 @@
       </c>
       <c r="F27"/>
       <c r="H27" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -20051,10 +20131,16 @@
         <v>14</v>
       </c>
       <c r="F2"/>
+      <c r="H2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
@@ -20067,13 +20153,19 @@
         <v>14</v>
       </c>
       <c r="F3"/>
+      <c r="H3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
@@ -20083,6 +20175,14 @@
         <v>14</v>
       </c>
       <c r="F4"/>
+      <c r="H4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -20100,7 +20200,7 @@
       </c>
       <c r="F5"/>
       <c r="H5" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -20122,7 +20222,7 @@
       </c>
       <c r="F6"/>
       <c r="H6" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -20144,7 +20244,7 @@
       </c>
       <c r="F7"/>
       <c r="H7" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -20166,7 +20266,7 @@
       </c>
       <c r="F8"/>
       <c r="H8" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -20177,7 +20277,7 @@
         <v>1980</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -20190,7 +20290,7 @@
       </c>
       <c r="F9"/>
       <c r="H9" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -20212,7 +20312,7 @@
       </c>
       <c r="F10"/>
       <c r="H10" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -20223,7 +20323,7 @@
         <v>1985</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -20236,7 +20336,7 @@
       </c>
       <c r="F11"/>
       <c r="H11" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -20258,7 +20358,7 @@
       </c>
       <c r="F12"/>
       <c r="H12" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -20269,7 +20369,7 @@
         <v>1990</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
@@ -20280,7 +20380,7 @@
       </c>
       <c r="F13"/>
       <c r="H13" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -20291,7 +20391,7 @@
         <v>1992</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
@@ -20302,7 +20402,7 @@
       </c>
       <c r="F14"/>
       <c r="H14" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -20324,7 +20424,7 @@
       </c>
       <c r="F15"/>
       <c r="H15" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -20335,7 +20435,7 @@
         <v>1997</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
@@ -20348,7 +20448,7 @@
       </c>
       <c r="F16"/>
       <c r="H16" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -20359,7 +20459,7 @@
         <v>1999</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>71</v>
@@ -20372,7 +20472,7 @@
       </c>
       <c r="F17"/>
       <c r="H17" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -20772,10 +20872,16 @@
         <v>14</v>
       </c>
       <c r="F2"/>
+      <c r="H2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>12</v>
@@ -20788,13 +20894,19 @@
         <v>14</v>
       </c>
       <c r="F3"/>
+      <c r="H3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
@@ -20804,6 +20916,14 @@
         <v>14</v>
       </c>
       <c r="F4"/>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -20821,7 +20941,7 @@
       </c>
       <c r="F5"/>
       <c r="H5" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -20843,7 +20963,7 @@
       </c>
       <c r="F6"/>
       <c r="H6" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -20854,7 +20974,7 @@
         <v>2028</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -20867,7 +20987,7 @@
       </c>
       <c r="F7"/>
       <c r="H7" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -20889,7 +21009,7 @@
       </c>
       <c r="F8"/>
       <c r="H8" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -20900,7 +21020,7 @@
         <v>2032</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -20913,7 +21033,7 @@
       </c>
       <c r="F9"/>
       <c r="H9" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -20935,7 +21055,7 @@
       </c>
       <c r="F10"/>
       <c r="H10" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -20946,7 +21066,7 @@
         <v>1992</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
@@ -20957,7 +21077,7 @@
       </c>
       <c r="F11"/>
       <c r="H11" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -20979,7 +21099,7 @@
       </c>
       <c r="F12"/>
       <c r="H12" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -20990,7 +21110,7 @@
         <v>1997</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>71</v>
@@ -21003,7 +21123,7 @@
       </c>
       <c r="F13"/>
       <c r="H13" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -21014,7 +21134,7 @@
         <v>1999</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -21027,7 +21147,7 @@
       </c>
       <c r="F14"/>
       <c r="H14" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -21049,7 +21169,7 @@
       </c>
       <c r="F15"/>
       <c r="H15" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -21449,10 +21569,16 @@
         <v>14</v>
       </c>
       <c r="F2"/>
+      <c r="H2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>12</v>
@@ -21465,13 +21591,19 @@
         <v>14</v>
       </c>
       <c r="F3"/>
+      <c r="H3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
@@ -21481,6 +21613,14 @@
         <v>14</v>
       </c>
       <c r="F4"/>
+      <c r="H4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -21498,7 +21638,7 @@
       </c>
       <c r="F5"/>
       <c r="H5" s="15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -21520,7 +21660,7 @@
       </c>
       <c r="F6"/>
       <c r="H6" s="15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -21542,7 +21682,7 @@
       </c>
       <c r="F7"/>
       <c r="H7" s="15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -21564,7 +21704,7 @@
       </c>
       <c r="F8"/>
       <c r="H8" s="15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -21575,7 +21715,7 @@
         <v>2039</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -21588,7 +21728,7 @@
       </c>
       <c r="F9"/>
       <c r="H9" s="15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -21599,7 +21739,7 @@
         <v>2041</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
@@ -21612,7 +21752,7 @@
       </c>
       <c r="F10"/>
       <c r="H10" s="15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -22557,10 +22697,16 @@
         <v>14</v>
       </c>
       <c r="F2"/>
+      <c r="H2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>12</v>
@@ -22573,13 +22719,19 @@
         <v>14</v>
       </c>
       <c r="F3"/>
+      <c r="H3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
@@ -22589,6 +22741,14 @@
         <v>14</v>
       </c>
       <c r="F4"/>
+      <c r="H4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -22606,7 +22766,7 @@
       </c>
       <c r="F5"/>
       <c r="H5" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -22617,7 +22777,7 @@
         <v>2045</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
@@ -22628,7 +22788,7 @@
       </c>
       <c r="F6"/>
       <c r="H6" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -22639,7 +22799,7 @@
         <v>2047</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -22652,7 +22812,7 @@
       </c>
       <c r="F7"/>
       <c r="H7" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -22674,7 +22834,7 @@
       </c>
       <c r="F8"/>
       <c r="H8" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -22685,7 +22845,7 @@
         <v>650</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
@@ -22696,7 +22856,7 @@
       </c>
       <c r="F9"/>
       <c r="H9" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -22716,7 +22876,7 @@
       </c>
       <c r="F10"/>
       <c r="H10" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -22740,7 +22900,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -22764,7 +22924,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -22788,7 +22948,7 @@
       </c>
       <c r="F13"/>
       <c r="H13" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -22812,7 +22972,7 @@
       </c>
       <c r="F14"/>
       <c r="H14" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -22834,7 +22994,7 @@
       </c>
       <c r="F15"/>
       <c r="H15" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -22856,7 +23016,7 @@
       </c>
       <c r="F16"/>
       <c r="H16" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -22878,7 +23038,7 @@
       </c>
       <c r="F17"/>
       <c r="H17" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -22900,7 +23060,7 @@
       </c>
       <c r="F18"/>
       <c r="H18" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -22924,7 +23084,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -22946,7 +23106,7 @@
       </c>
       <c r="F20"/>
       <c r="H20" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -22970,7 +23130,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -22992,7 +23152,7 @@
       </c>
       <c r="F22"/>
       <c r="H22" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -23005,7 +23165,7 @@
         <v>2062</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>71</v>
@@ -23018,7 +23178,7 @@
       </c>
       <c r="F23"/>
       <c r="H23" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -23042,7 +23202,7 @@
       </c>
       <c r="F24"/>
       <c r="H24" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -23055,7 +23215,7 @@
         <v>2067</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -23068,7 +23228,7 @@
       </c>
       <c r="F25"/>
       <c r="H25" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -23092,7 +23252,7 @@
       </c>
       <c r="F26"/>
       <c r="H26" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -23103,7 +23263,7 @@
         <v>2073</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -23116,7 +23276,7 @@
       </c>
       <c r="F27"/>
       <c r="H27" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -23138,7 +23298,7 @@
       </c>
       <c r="F28"/>
       <c r="H28" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -23160,7 +23320,7 @@
       </c>
       <c r="F29"/>
       <c r="H29" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -23182,7 +23342,7 @@
       </c>
       <c r="F30"/>
       <c r="H30" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -23204,7 +23364,7 @@
       </c>
       <c r="F31"/>
       <c r="H31" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -23215,7 +23375,7 @@
         <v>867</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
         <v>71</v>
@@ -23228,7 +23388,7 @@
       </c>
       <c r="F32"/>
       <c r="H32" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -23250,7 +23410,7 @@
       </c>
       <c r="F33"/>
       <c r="H33" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -23272,7 +23432,7 @@
       </c>
       <c r="F34"/>
       <c r="H34" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -23283,7 +23443,7 @@
         <v>1133</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>71</v>
@@ -23296,7 +23456,7 @@
       </c>
       <c r="F35"/>
       <c r="H35" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -23318,7 +23478,7 @@
       </c>
       <c r="F36"/>
       <c r="H36" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -23329,7 +23489,7 @@
         <v>2090</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>71</v>
@@ -23342,7 +23502,7 @@
       </c>
       <c r="F37"/>
       <c r="H37" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -23353,7 +23513,7 @@
         <v>818</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
@@ -23364,7 +23524,7 @@
       </c>
       <c r="F38"/>
       <c r="H38" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I38"/>
       <c r="J38"/>
@@ -23377,7 +23537,7 @@
         <v>148</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
@@ -23388,7 +23548,7 @@
       </c>
       <c r="F39"/>
       <c r="H39" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
@@ -23410,7 +23570,7 @@
       </c>
       <c r="F40"/>
       <c r="H40" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -23432,7 +23592,7 @@
       </c>
       <c r="F41"/>
       <c r="H41" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
@@ -23443,7 +23603,7 @@
         <v>2096</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>71</v>
@@ -23456,7 +23616,7 @@
       </c>
       <c r="F42"/>
       <c r="H42" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I42"/>
       <c r="J42"/>
@@ -23478,7 +23638,7 @@
       </c>
       <c r="F43"/>
       <c r="H43" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
@@ -23500,7 +23660,7 @@
       </c>
       <c r="F44"/>
       <c r="H44" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -23511,7 +23671,7 @@
         <v>829</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>71</v>
@@ -23524,7 +23684,7 @@
       </c>
       <c r="F45"/>
       <c r="H45" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -23546,7 +23706,7 @@
       </c>
       <c r="F46"/>
       <c r="H46" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -23568,7 +23728,7 @@
       </c>
       <c r="F47"/>
       <c r="H47" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -23592,7 +23752,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -23616,7 +23776,7 @@
       </c>
       <c r="F49"/>
       <c r="H49" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I49"/>
       <c r="J49"/>
@@ -23638,7 +23798,7 @@
       </c>
       <c r="F50"/>
       <c r="H50" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
@@ -23662,7 +23822,7 @@
       </c>
       <c r="F51"/>
       <c r="H51" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
@@ -23673,7 +23833,7 @@
         <v>835</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
         <v>71</v>
@@ -23686,7 +23846,7 @@
       </c>
       <c r="F52"/>
       <c r="H52" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -23708,7 +23868,7 @@
       </c>
       <c r="F53"/>
       <c r="H53" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
@@ -23732,7 +23892,7 @@
       </c>
       <c r="F54"/>
       <c r="H54" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -23756,7 +23916,7 @@
       </c>
       <c r="F55"/>
       <c r="H55" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -23780,7 +23940,7 @@
       </c>
       <c r="F56"/>
       <c r="H56" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
@@ -23804,7 +23964,7 @@
       </c>
       <c r="F57"/>
       <c r="H57" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
@@ -23817,7 +23977,7 @@
         <v>847</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
@@ -23830,7 +23990,7 @@
       </c>
       <c r="F58"/>
       <c r="H58" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I58"/>
       <c r="J58"/>
@@ -23854,7 +24014,7 @@
       </c>
       <c r="F59"/>
       <c r="H59" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I59"/>
       <c r="J59"/>
@@ -23867,7 +24027,7 @@
         <v>851</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
         <v>71</v>
@@ -23880,7 +24040,7 @@
       </c>
       <c r="F60"/>
       <c r="H60" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
@@ -23904,7 +24064,7 @@
       </c>
       <c r="F61"/>
       <c r="H61" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I61"/>
       <c r="J61"/>
@@ -23926,7 +24086,7 @@
       </c>
       <c r="F62"/>
       <c r="H62" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
@@ -23948,7 +24108,7 @@
       </c>
       <c r="F63"/>
       <c r="H63" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
@@ -23972,7 +24132,7 @@
       </c>
       <c r="F64"/>
       <c r="H64" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
@@ -23985,7 +24145,7 @@
         <v>155</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
         <v>71</v>
@@ -23998,7 +24158,7 @@
       </c>
       <c r="F65"/>
       <c r="H65" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
@@ -24020,7 +24180,7 @@
       </c>
       <c r="F66"/>
       <c r="H66" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
@@ -24042,7 +24202,7 @@
       </c>
       <c r="F67"/>
       <c r="H67" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I67"/>
       <c r="J67"/>
@@ -24064,7 +24224,7 @@
       </c>
       <c r="F68"/>
       <c r="H68" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
@@ -24086,7 +24246,7 @@
       </c>
       <c r="F69"/>
       <c r="H69" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I69"/>
       <c r="J69"/>
@@ -24108,7 +24268,7 @@
       </c>
       <c r="F70"/>
       <c r="H70" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I70"/>
       <c r="J70"/>
@@ -24130,7 +24290,7 @@
       </c>
       <c r="F71"/>
       <c r="H71" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I71"/>
       <c r="J71"/>
@@ -24143,7 +24303,7 @@
         <v>2114</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
         <v>71</v>
@@ -24156,7 +24316,7 @@
       </c>
       <c r="F72"/>
       <c r="H72" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I72"/>
       <c r="J72"/>
@@ -24180,7 +24340,7 @@
       </c>
       <c r="F73"/>
       <c r="H73" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
@@ -24204,7 +24364,7 @@
       </c>
       <c r="F74"/>
       <c r="H74" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
@@ -24228,7 +24388,7 @@
       </c>
       <c r="F75"/>
       <c r="H75" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
@@ -24252,7 +24412,7 @@
       </c>
       <c r="F76"/>
       <c r="H76" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I76"/>
       <c r="J76"/>
@@ -24276,7 +24436,7 @@
       </c>
       <c r="F77"/>
       <c r="H77" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
@@ -24298,7 +24458,7 @@
       </c>
       <c r="F78"/>
       <c r="H78" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I78"/>
       <c r="J78"/>
@@ -24320,7 +24480,7 @@
       </c>
       <c r="F79"/>
       <c r="H79" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I79"/>
       <c r="J79"/>
@@ -26355,10 +26515,16 @@
         <v>14</v>
       </c>
       <c r="F2"/>
+      <c r="H2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>12</v>
@@ -26371,13 +26537,19 @@
         <v>14</v>
       </c>
       <c r="F3"/>
+      <c r="H3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
@@ -26387,6 +26559,14 @@
         <v>14</v>
       </c>
       <c r="F4"/>
+      <c r="H4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -26406,7 +26586,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -26428,7 +26608,7 @@
       </c>
       <c r="F6"/>
       <c r="H6" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -26452,7 +26632,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -26478,7 +26658,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -26502,7 +26682,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -26513,7 +26693,7 @@
         <v>2041</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
@@ -26526,7 +26706,7 @@
       </c>
       <c r="F10"/>
       <c r="H10" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -26548,7 +26728,7 @@
       </c>
       <c r="F11"/>
       <c r="H11" s="17" t="s">
-       